--- a/Reports/SKI_C_CVT.xlsx
+++ b/Reports/SKI_C_CVT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29022"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workProject\mpi_projects\MpiSki\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\library\git_hub\MpiSki\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99429CDE-D5D8-4FB4-ABB4-8BEAF84C73BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ABA135-100B-4F16-B164-D196C9DF67F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет ЦТ" sheetId="19" r:id="rId1"/>
@@ -26,12 +26,23 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">Отчет!$A$1:$P$153</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Отчет ЦТ'!$A$1:$R$61</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1" iterateDelta="252"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="156">
   <si>
     <t xml:space="preserve">Акт (расширенный отчет) о проведении диагностики клапана  </t>
   </si>
@@ -647,6 +658,12 @@
   </si>
   <si>
     <t>Данные по объекту:</t>
+  </si>
+  <si>
+    <t>Максимальное значение пямой ход</t>
+  </si>
+  <si>
+    <t>Максимальное значение обратный ход</t>
   </si>
 </sst>
 </file>
@@ -1581,6 +1598,141 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1599,138 +1751,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1740,6 +1760,327 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1785,334 +2126,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2422,8 +2439,8 @@
   </sheetPr>
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:Q18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2443,116 +2460,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87" t="str">
+      <c r="M1" s="46"/>
+      <c r="N1" s="46" t="str">
         <f>IF(D6="","",D6)</f>
         <v/>
       </c>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
     </row>
     <row r="2" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="93"/>
-      <c r="I3" s="88" t="s">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+      <c r="I3" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="90"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="58"/>
     </row>
     <row r="4" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="84"/>
-      <c r="I4" s="77" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="48"/>
+      <c r="I4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="80" t="str">
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53" t="str">
         <f>REPT($I$1,1)</f>
         <v/>
       </c>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="55"/>
     </row>
     <row r="5" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="84"/>
-      <c r="I5" s="77" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="48"/>
+      <c r="I5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="80" t="s">
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="82"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="55"/>
     </row>
     <row r="6" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="84"/>
-      <c r="I6" s="77" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="48"/>
+      <c r="I6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="80" t="s">
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="82"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="55"/>
     </row>
     <row r="7" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
@@ -2561,28 +2578,28 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="I7" s="77" t="s">
+      <c r="I7" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="82"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="55"/>
     </row>
     <row r="8" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I8" s="77" t="s">
+      <c r="I8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="82"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="55"/>
     </row>
     <row r="9" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="37"/>
@@ -2591,18 +2608,18 @@
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="80" t="s">
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="82"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="55"/>
     </row>
     <row r="10" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="37"/>
@@ -2611,18 +2628,18 @@
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
-      <c r="I10" s="77" t="s">
+      <c r="I10" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="80" t="s">
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="82"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="55"/>
     </row>
     <row r="11" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="37"/>
@@ -2631,16 +2648,16 @@
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="82"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="55"/>
     </row>
     <row r="12" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
@@ -2649,18 +2666,18 @@
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
-      <c r="I12" s="77" t="s">
+      <c r="I12" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80" t="s">
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="82"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="55"/>
     </row>
     <row r="13" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
@@ -2669,16 +2686,16 @@
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
-      <c r="I13" s="77" t="s">
+      <c r="I13" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="82"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="55"/>
     </row>
     <row r="14" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
@@ -2687,16 +2704,16 @@
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
-      <c r="I14" s="77" t="s">
+      <c r="I14" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="82"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="55"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
@@ -2707,281 +2724,281 @@
       <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
     </row>
     <row r="19" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="75" t="s">
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="76"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
     </row>
     <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
     </row>
     <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="75" t="s">
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
     </row>
     <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
     </row>
     <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
     </row>
     <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
     </row>
     <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="72" t="s">
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
     </row>
     <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="69"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
     </row>
     <row r="27" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
     </row>
     <row r="28" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="69"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
     </row>
     <row r="29" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
     </row>
     <row r="30" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="55"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
     </row>
     <row r="31" spans="1:17" ht="57.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="9"/>
@@ -2990,434 +3007,434 @@
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="61" t="s">
+      <c r="H31" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61" t="s">
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
     </row>
     <row r="32" spans="1:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29"/>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="K32" s="63"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="86" t="s">
+        <v>154</v>
+      </c>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86" t="s">
+        <v>155</v>
+      </c>
+      <c r="K32" s="86"/>
       <c r="L32" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="M32" s="63" t="s">
+      <c r="M32" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63" t="s">
+      <c r="N32" s="86"/>
+      <c r="O32" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="P32" s="63"/>
+      <c r="P32" s="86"/>
       <c r="Q32" s="30" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="87"/>
     </row>
     <row r="34" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
     </row>
     <row r="35" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="88" t="s">
         <v>131</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="87"/>
     </row>
     <row r="36" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
     </row>
     <row r="37" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="87"/>
+      <c r="N37" s="87"/>
+      <c r="O37" s="87"/>
+      <c r="P37" s="87"/>
+      <c r="Q37" s="87"/>
     </row>
     <row r="38" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="87"/>
+      <c r="N38" s="87"/>
+      <c r="O38" s="87"/>
+      <c r="P38" s="87"/>
+      <c r="Q38" s="87"/>
     </row>
     <row r="39" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="87"/>
+      <c r="N39" s="87"/>
+      <c r="O39" s="87"/>
+      <c r="P39" s="87"/>
+      <c r="Q39" s="87"/>
     </row>
     <row r="40" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
-      <c r="O40" s="50"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
     </row>
     <row r="41" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="50"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="87"/>
+      <c r="Q41" s="87"/>
     </row>
     <row r="42" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="87"/>
+      <c r="P42" s="87"/>
+      <c r="Q42" s="87"/>
     </row>
     <row r="43" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="50"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="50"/>
-      <c r="Q43" s="50"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="87"/>
+      <c r="L43" s="87"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="87"/>
+      <c r="P43" s="87"/>
+      <c r="Q43" s="87"/>
     </row>
     <row r="44" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="50"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="50"/>
-      <c r="Q44" s="50"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="87"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="87"/>
     </row>
     <row r="45" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="50"/>
-      <c r="P45" s="50"/>
-      <c r="Q45" s="50"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="87"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="87"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="87"/>
+      <c r="O45" s="87"/>
+      <c r="P45" s="87"/>
+      <c r="Q45" s="87"/>
     </row>
     <row r="46" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="50"/>
-      <c r="N46" s="50"/>
-      <c r="O46" s="50"/>
-      <c r="P46" s="50"/>
-      <c r="Q46" s="50"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="87"/>
+      <c r="P46" s="87"/>
+      <c r="Q46" s="87"/>
     </row>
     <row r="47" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="50"/>
-      <c r="N47" s="50"/>
-      <c r="O47" s="50"/>
-      <c r="P47" s="50"/>
-      <c r="Q47" s="50"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="87"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="87"/>
+      <c r="P47" s="87"/>
+      <c r="Q47" s="87"/>
     </row>
     <row r="48" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="50"/>
-      <c r="M48" s="50"/>
-      <c r="N48" s="50"/>
-      <c r="O48" s="50"/>
-      <c r="P48" s="50"/>
-      <c r="Q48" s="50"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="87"/>
+      <c r="O48" s="87"/>
+      <c r="P48" s="87"/>
+      <c r="Q48" s="87"/>
     </row>
     <row r="49" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="50"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="50"/>
-      <c r="Q49" s="50"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="87"/>
+      <c r="J49" s="87"/>
+      <c r="K49" s="87"/>
+      <c r="L49" s="87"/>
+      <c r="M49" s="87"/>
+      <c r="N49" s="87"/>
+      <c r="O49" s="87"/>
+      <c r="P49" s="87"/>
+      <c r="Q49" s="87"/>
     </row>
     <row r="50" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="50"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="50"/>
-      <c r="O50" s="50"/>
-      <c r="P50" s="50"/>
-      <c r="Q50" s="50"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="87"/>
+      <c r="O50" s="87"/>
+      <c r="P50" s="87"/>
+      <c r="Q50" s="87"/>
     </row>
     <row r="51" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="50"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="50"/>
-      <c r="O51" s="50"/>
-      <c r="P51" s="50"/>
-      <c r="Q51" s="50"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="87"/>
+      <c r="J51" s="87"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="87"/>
+      <c r="M51" s="87"/>
+      <c r="N51" s="87"/>
+      <c r="O51" s="87"/>
+      <c r="P51" s="87"/>
+      <c r="Q51" s="87"/>
     </row>
     <row r="52" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="50"/>
-      <c r="O52" s="50"/>
-      <c r="P52" s="50"/>
-      <c r="Q52" s="50"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="88"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="87"/>
+      <c r="J52" s="87"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="87"/>
+      <c r="M52" s="87"/>
+      <c r="N52" s="87"/>
+      <c r="O52" s="87"/>
+      <c r="P52" s="87"/>
+      <c r="Q52" s="87"/>
     </row>
     <row r="53" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="31"/>
@@ -3473,59 +3490,59 @@
     </row>
     <row r="56" spans="1:17" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
-      <c r="B56" s="48" t="s">
+      <c r="B56" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="48"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="45"/>
-      <c r="L56" s="45"/>
-      <c r="M56" s="45"/>
-      <c r="N56" s="45"/>
-      <c r="O56" s="45"/>
-      <c r="P56" s="45"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="94"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="94"/>
+      <c r="J56" s="94"/>
+      <c r="K56" s="90"/>
+      <c r="L56" s="90"/>
+      <c r="M56" s="90"/>
+      <c r="N56" s="90"/>
+      <c r="O56" s="90"/>
+      <c r="P56" s="90"/>
     </row>
     <row r="57" spans="1:17" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
-      <c r="K57" s="45"/>
-      <c r="L57" s="45"/>
-      <c r="M57" s="45"/>
-      <c r="N57" s="45"/>
-      <c r="O57" s="45"/>
-      <c r="P57" s="45"/>
+      <c r="B57" s="93"/>
+      <c r="C57" s="93"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="94"/>
+      <c r="F57" s="94"/>
+      <c r="G57" s="94"/>
+      <c r="H57" s="94"/>
+      <c r="I57" s="94"/>
+      <c r="J57" s="94"/>
+      <c r="K57" s="90"/>
+      <c r="L57" s="90"/>
+      <c r="M57" s="90"/>
+      <c r="N57" s="90"/>
+      <c r="O57" s="90"/>
+      <c r="P57" s="90"/>
     </row>
     <row r="58" spans="1:17" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="44"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="45"/>
-      <c r="P58" s="45"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89"/>
+      <c r="G58" s="89"/>
+      <c r="H58" s="89"/>
+      <c r="I58" s="89"/>
+      <c r="J58" s="89"/>
+      <c r="K58" s="90"/>
+      <c r="L58" s="90"/>
+      <c r="M58" s="90"/>
+      <c r="N58" s="90"/>
+      <c r="O58" s="90"/>
+      <c r="P58" s="90"/>
     </row>
     <row r="59" spans="1:17" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
@@ -3559,22 +3576,22 @@
       <c r="K60" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="L60" s="46"/>
-      <c r="M60" s="46"/>
-      <c r="N60" s="46"/>
+      <c r="L60" s="91"/>
+      <c r="M60" s="91"/>
+      <c r="N60" s="91"/>
       <c r="O60" s="34"/>
       <c r="P60" s="7"/>
     </row>
     <row r="61" spans="1:17" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
-      <c r="B61" s="47" t="s">
+      <c r="B61" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="92"/>
+      <c r="G61" s="92"/>
       <c r="H61" s="24"/>
       <c r="I61" s="24"/>
       <c r="J61" s="24"/>
@@ -3588,26 +3605,108 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="136">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:J58"/>
+    <mergeCell ref="K58:P58"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="K56:P56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="K57:P57"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="B51:G52"/>
+    <mergeCell ref="H51:I52"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:N52"/>
+    <mergeCell ref="O51:P52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="B49:G50"/>
+    <mergeCell ref="H49:I50"/>
+    <mergeCell ref="J49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="O49:P50"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="B47:G48"/>
+    <mergeCell ref="H47:I48"/>
+    <mergeCell ref="J47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:N48"/>
+    <mergeCell ref="O47:P48"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="B45:G46"/>
+    <mergeCell ref="H45:I46"/>
+    <mergeCell ref="J45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:N46"/>
+    <mergeCell ref="O45:P46"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="B43:G44"/>
+    <mergeCell ref="H43:I44"/>
+    <mergeCell ref="J43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:N44"/>
+    <mergeCell ref="O43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="B41:G42"/>
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="J41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="O41:P42"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="B39:G40"/>
+    <mergeCell ref="H39:I40"/>
+    <mergeCell ref="J39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:N40"/>
+    <mergeCell ref="O39:P40"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="B37:G38"/>
+    <mergeCell ref="H37:I38"/>
+    <mergeCell ref="J37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:N38"/>
+    <mergeCell ref="O37:P38"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="B35:G36"/>
+    <mergeCell ref="H35:I36"/>
+    <mergeCell ref="J35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="O35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="B33:G34"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="J33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="O33:P34"/>
+    <mergeCell ref="B29:D30"/>
+    <mergeCell ref="E29:J30"/>
+    <mergeCell ref="K29:O30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="B23:G24"/>
+    <mergeCell ref="H23:P24"/>
+    <mergeCell ref="B25:G26"/>
+    <mergeCell ref="H25:P26"/>
+    <mergeCell ref="B27:G28"/>
+    <mergeCell ref="H27:P28"/>
+    <mergeCell ref="A16:Q18"/>
+    <mergeCell ref="B19:G20"/>
+    <mergeCell ref="H19:P20"/>
+    <mergeCell ref="B21:G22"/>
+    <mergeCell ref="H21:P22"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="M8:P8"/>
     <mergeCell ref="I9:L9"/>
@@ -3622,111 +3721,29 @@
     <mergeCell ref="M11:P11"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="M12:P12"/>
-    <mergeCell ref="B23:G24"/>
-    <mergeCell ref="H23:P24"/>
-    <mergeCell ref="B25:G26"/>
-    <mergeCell ref="H25:P26"/>
-    <mergeCell ref="B27:G28"/>
-    <mergeCell ref="H27:P28"/>
-    <mergeCell ref="A16:Q18"/>
-    <mergeCell ref="B19:G20"/>
-    <mergeCell ref="H19:P20"/>
-    <mergeCell ref="B21:G22"/>
-    <mergeCell ref="H21:P22"/>
-    <mergeCell ref="B29:D30"/>
-    <mergeCell ref="E29:J30"/>
-    <mergeCell ref="K29:O30"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="B35:G36"/>
-    <mergeCell ref="H35:I36"/>
-    <mergeCell ref="J35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:N36"/>
-    <mergeCell ref="O35:P36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="B33:G34"/>
-    <mergeCell ref="H33:I34"/>
-    <mergeCell ref="J33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="O33:P34"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="B39:G40"/>
-    <mergeCell ref="H39:I40"/>
-    <mergeCell ref="J39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:N40"/>
-    <mergeCell ref="O39:P40"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="B37:G38"/>
-    <mergeCell ref="H37:I38"/>
-    <mergeCell ref="J37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="O37:P38"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="B43:G44"/>
-    <mergeCell ref="H43:I44"/>
-    <mergeCell ref="J43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:N44"/>
-    <mergeCell ref="O43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="B41:G42"/>
-    <mergeCell ref="H41:I42"/>
-    <mergeCell ref="J41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="O41:P42"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="B47:G48"/>
-    <mergeCell ref="H47:I48"/>
-    <mergeCell ref="J47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:N48"/>
-    <mergeCell ref="O47:P48"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="B45:G46"/>
-    <mergeCell ref="H45:I46"/>
-    <mergeCell ref="J45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="O45:P46"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="B51:G52"/>
-    <mergeCell ref="H51:I52"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:N52"/>
-    <mergeCell ref="O51:P52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="B49:G50"/>
-    <mergeCell ref="H49:I50"/>
-    <mergeCell ref="J49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:P50"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:J58"/>
-    <mergeCell ref="K58:P58"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="K56:P56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="K57:P57"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="B3:G3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="1.4960629921259843" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="17" max="60" man="1"/>
   </colBreaks>
@@ -3749,28 +3766,28 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87" t="str">
+      <c r="M1" s="46"/>
+      <c r="N1" s="46" t="str">
         <f>IF(D6="","",D6)</f>
         <v/>
       </c>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -3794,101 +3811,101 @@
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="97"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="88" t="s">
+      <c r="I3" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="90"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="58"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="77" t="s">
+      <c r="I4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="80" t="str">
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53" t="str">
         <f>REPT($I$1,1)</f>
         <v/>
       </c>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="55"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="77" t="s">
+      <c r="I5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="80" t="s">
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="82"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="55"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="77" t="s">
+      <c r="I6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="80" t="s">
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="82"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="55"/>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3900,16 +3917,16 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="77" t="s">
+      <c r="I7" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="82"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="55"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3921,16 +3938,16 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="77" t="s">
+      <c r="I8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="82"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="55"/>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3942,18 +3959,18 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="77" t="s">
+      <c r="I9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="80" t="s">
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="82"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="55"/>
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3965,18 +3982,18 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="77" t="s">
+      <c r="I10" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="80" t="s">
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="82"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="55"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3988,16 +4005,16 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="82"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="55"/>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4009,18 +4026,18 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="77" t="s">
+      <c r="I12" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80" t="s">
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="82"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="55"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4032,16 +4049,16 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="77" t="s">
+      <c r="I13" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="82"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="55"/>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4053,16 +4070,16 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="77" t="s">
+      <c r="I14" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="82"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="55"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4074,14 +4091,14 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="221"/>
-      <c r="J15" s="221"/>
-      <c r="K15" s="221"/>
-      <c r="L15" s="221"/>
-      <c r="M15" s="221"/>
-      <c r="N15" s="221"/>
-      <c r="O15" s="221"/>
-      <c r="P15" s="221"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4093,14 +4110,14 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="221"/>
-      <c r="J16" s="221"/>
-      <c r="K16" s="221"/>
-      <c r="L16" s="221"/>
-      <c r="M16" s="221"/>
-      <c r="N16" s="221"/>
-      <c r="O16" s="221"/>
-      <c r="P16" s="221"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
@@ -4123,63 +4140,63 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" s="41" t="s">
@@ -4369,20 +4386,36 @@
       <c r="K44" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
+      <c r="L44" s="91"/>
+      <c r="M44" s="91"/>
+      <c r="N44" s="91"/>
       <c r="O44" s="34"/>
       <c r="P44" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="A18:Q20"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:P7"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="I4:L4"/>
@@ -4391,28 +4424,12 @@
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="M5:P5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="A18:Q20"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4422,7 +4439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E25E100-D964-4A64-8DB0-50C9C3C3D66D}">
   <dimension ref="A1:U156"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -4441,28 +4458,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183" t="s">
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183" t="str">
+      <c r="M1" s="162"/>
+      <c r="N1" s="162" t="str">
         <f>IF(D6="","",D6)</f>
         <v/>
       </c>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="25"/>
@@ -4482,95 +4499,95 @@
       <c r="P2" s="25"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="163" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="185"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="164"/>
       <c r="H3" s="25"/>
-      <c r="I3" s="184" t="s">
+      <c r="I3" s="163" t="s">
         <v>141</v>
       </c>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="187"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="185"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="164"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="163" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="185"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="185"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="164"/>
       <c r="H4" s="25"/>
-      <c r="I4" s="137" t="s">
+      <c r="I4" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="138" t="str">
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="167" t="str">
         <f>REPT($I$1,1)</f>
         <v/>
       </c>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="140"/>
+      <c r="N4" s="168"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="169"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="184" t="s">
+      <c r="B5" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="185"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="164"/>
       <c r="H5" s="25"/>
-      <c r="I5" s="137" t="s">
+      <c r="I5" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="138" t="s">
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="139"/>
-      <c r="O5" s="139"/>
-      <c r="P5" s="140"/>
+      <c r="N5" s="168"/>
+      <c r="O5" s="168"/>
+      <c r="P5" s="169"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="184" t="s">
+      <c r="B6" s="163" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="185"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="185"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="164"/>
       <c r="H6" s="25"/>
-      <c r="I6" s="137" t="s">
+      <c r="I6" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="138" t="s">
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="140"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="169"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
@@ -4580,16 +4597,16 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="25"/>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="140"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="169"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="25"/>
@@ -4599,16 +4616,16 @@
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
-      <c r="I8" s="137" t="s">
+      <c r="I8" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="138"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="140"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="167"/>
+      <c r="N8" s="168"/>
+      <c r="O8" s="168"/>
+      <c r="P8" s="169"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
@@ -4618,18 +4635,18 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="137" t="s">
+      <c r="I9" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="137"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="137"/>
-      <c r="M9" s="138" t="s">
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="139"/>
-      <c r="O9" s="139"/>
-      <c r="P9" s="140"/>
+      <c r="N9" s="168"/>
+      <c r="O9" s="168"/>
+      <c r="P9" s="169"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
@@ -4639,18 +4656,18 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="122" t="s">
+      <c r="I10" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="122"/>
-      <c r="M10" s="138" t="s">
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="139"/>
-      <c r="O10" s="139"/>
-      <c r="P10" s="140"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="168"/>
+      <c r="P10" s="169"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
@@ -4660,16 +4677,16 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="122" t="s">
+      <c r="I11" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="142"/>
-      <c r="O11" s="142"/>
-      <c r="P11" s="143"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="201"/>
+      <c r="N11" s="202"/>
+      <c r="O11" s="202"/>
+      <c r="P11" s="203"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
@@ -4679,18 +4696,18 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="122" t="s">
+      <c r="I12" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="122"/>
-      <c r="M12" s="141" t="s">
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="201" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="142"/>
-      <c r="O12" s="142"/>
-      <c r="P12" s="143"/>
+      <c r="N12" s="202"/>
+      <c r="O12" s="202"/>
+      <c r="P12" s="203"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
@@ -4700,16 +4717,16 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="122" t="s">
+      <c r="I13" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="122"/>
-      <c r="M13" s="141"/>
-      <c r="N13" s="142"/>
-      <c r="O13" s="142"/>
-      <c r="P13" s="143"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="201"/>
+      <c r="N13" s="202"/>
+      <c r="O13" s="202"/>
+      <c r="P13" s="203"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
@@ -4719,16 +4736,16 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="136" t="s">
+      <c r="I14" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="120"/>
-      <c r="O14" s="120"/>
-      <c r="P14" s="121"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="200"/>
+      <c r="L14" s="200"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="108"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
@@ -4747,339 +4764,339 @@
       <c r="Q15" s="36"/>
     </row>
     <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A16" s="144" t="s">
+      <c r="A16" s="204" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="144"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="144"/>
+      <c r="B16" s="204"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="204"/>
+      <c r="K16" s="204"/>
+      <c r="L16" s="204"/>
+      <c r="M16" s="204"/>
+      <c r="N16" s="204"/>
+      <c r="O16" s="204"/>
+      <c r="P16" s="204"/>
     </row>
     <row r="17" spans="2:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="Q17" s="35"/>
     </row>
     <row r="18" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="137" t="s">
+      <c r="B18" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="122" t="s">
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122" t="s">
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="122"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="130" t="s">
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="131"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="132"/>
+      <c r="L18" s="195"/>
+      <c r="M18" s="195"/>
+      <c r="N18" s="195"/>
+      <c r="O18" s="195"/>
+      <c r="P18" s="196"/>
       <c r="Q18" s="35"/>
     </row>
     <row r="19" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="133"/>
-      <c r="L19" s="134"/>
-      <c r="M19" s="134"/>
-      <c r="N19" s="134"/>
-      <c r="O19" s="134"/>
-      <c r="P19" s="135"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="197"/>
+      <c r="L19" s="198"/>
+      <c r="M19" s="198"/>
+      <c r="N19" s="198"/>
+      <c r="O19" s="198"/>
+      <c r="P19" s="199"/>
       <c r="Q19" s="35"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="123" t="s">
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="220" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="119" t="s">
+      <c r="I20" s="220"/>
+      <c r="J20" s="220"/>
+      <c r="K20" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="120"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="120"/>
-      <c r="O20" s="120"/>
-      <c r="P20" s="121"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="108"/>
     </row>
     <row r="21" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="122"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="121"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="220"/>
+      <c r="I21" s="220"/>
+      <c r="J21" s="220"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="108"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="106" t="s">
+      <c r="B22" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="107"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="112" t="s">
+      <c r="C22" s="215"/>
+      <c r="D22" s="216"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="124" t="s">
+      <c r="I22" s="110"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="126"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="118"/>
     </row>
     <row r="23" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="109"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="127"/>
-      <c r="L23" s="128"/>
-      <c r="M23" s="128"/>
-      <c r="N23" s="128"/>
-      <c r="O23" s="128"/>
-      <c r="P23" s="129"/>
-      <c r="Q23" s="145"/>
-      <c r="R23" s="146"/>
-      <c r="S23" s="146"/>
-      <c r="T23" s="146"/>
-      <c r="U23" s="146"/>
+      <c r="B23" s="217"/>
+      <c r="C23" s="218"/>
+      <c r="D23" s="219"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="121"/>
+      <c r="Q23" s="170"/>
+      <c r="R23" s="171"/>
+      <c r="S23" s="171"/>
+      <c r="T23" s="171"/>
+      <c r="U23" s="171"/>
     </row>
     <row r="24" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="122" t="s">
+      <c r="B24" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118" t="s">
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="118"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="119" t="s">
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="120"/>
-      <c r="M24" s="120"/>
-      <c r="N24" s="120"/>
-      <c r="O24" s="120"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="145"/>
-      <c r="R24" s="146"/>
-      <c r="S24" s="146"/>
-      <c r="T24" s="146"/>
-      <c r="U24" s="146"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="107"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="170"/>
+      <c r="R24" s="171"/>
+      <c r="S24" s="171"/>
+      <c r="T24" s="171"/>
+      <c r="U24" s="171"/>
     </row>
     <row r="25" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="122"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="120"/>
-      <c r="M25" s="120"/>
-      <c r="N25" s="120"/>
-      <c r="O25" s="120"/>
-      <c r="P25" s="121"/>
-      <c r="R25" s="147"/>
-      <c r="S25" s="147"/>
-      <c r="T25" s="147"/>
-      <c r="U25" s="147"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="107"/>
+      <c r="P25" s="108"/>
+      <c r="R25" s="172"/>
+      <c r="S25" s="172"/>
+      <c r="T25" s="172"/>
+      <c r="U25" s="172"/>
     </row>
     <row r="26" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="122" t="s">
+      <c r="B26" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="118"/>
-      <c r="K26" s="119" t="s">
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="L26" s="120"/>
-      <c r="M26" s="120"/>
-      <c r="N26" s="120"/>
-      <c r="O26" s="120"/>
-      <c r="P26" s="121"/>
-      <c r="R26" s="147"/>
-      <c r="S26" s="147"/>
-      <c r="T26" s="147"/>
-      <c r="U26" s="147"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="107"/>
+      <c r="P26" s="108"/>
+      <c r="R26" s="172"/>
+      <c r="S26" s="172"/>
+      <c r="T26" s="172"/>
+      <c r="U26" s="172"/>
     </row>
     <row r="27" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="122"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="119"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="120"/>
-      <c r="N27" s="120"/>
-      <c r="O27" s="120"/>
-      <c r="P27" s="121"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="107"/>
+      <c r="O27" s="107"/>
+      <c r="P27" s="108"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
       <c r="T27" s="21"/>
       <c r="U27" s="21"/>
     </row>
     <row r="28" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="106" t="s">
+      <c r="B28" s="214" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="107"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="125"/>
-      <c r="N28" s="125"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="126"/>
+      <c r="C28" s="215"/>
+      <c r="D28" s="216"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="117"/>
+      <c r="O28" s="117"/>
+      <c r="P28" s="118"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
       <c r="U28" s="21"/>
     </row>
     <row r="29" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="109"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="127"/>
-      <c r="L29" s="128"/>
-      <c r="M29" s="128"/>
-      <c r="N29" s="128"/>
-      <c r="O29" s="128"/>
-      <c r="P29" s="129"/>
-      <c r="Q29" s="145"/>
-      <c r="R29" s="146"/>
-      <c r="S29" s="146"/>
-      <c r="T29" s="146"/>
-      <c r="U29" s="146"/>
+      <c r="B29" s="217"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="219"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="119"/>
+      <c r="L29" s="120"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="120"/>
+      <c r="O29" s="120"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="170"/>
+      <c r="R29" s="171"/>
+      <c r="S29" s="171"/>
+      <c r="T29" s="171"/>
+      <c r="U29" s="171"/>
     </row>
     <row r="30" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="137" t="s">
+      <c r="B30" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="137"/>
-      <c r="D30" s="137"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="119" t="s">
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="176"/>
+      <c r="K30" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="120"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="120"/>
-      <c r="O30" s="120"/>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="145"/>
-      <c r="R30" s="146"/>
-      <c r="S30" s="146"/>
-      <c r="T30" s="146"/>
-      <c r="U30" s="146"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="107"/>
+      <c r="P30" s="108"/>
+      <c r="Q30" s="170"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
     </row>
     <row r="31" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="137"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="119"/>
-      <c r="L31" s="120"/>
-      <c r="M31" s="120"/>
-      <c r="N31" s="120"/>
-      <c r="O31" s="120"/>
-      <c r="P31" s="121"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="175"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="176"/>
+      <c r="K31" s="106"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="107"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="108"/>
       <c r="Q31" s="23"/>
       <c r="R31" s="20"/>
       <c r="S31" s="20"/>
@@ -5087,17 +5104,17 @@
       <c r="U31" s="20"/>
     </row>
     <row r="32" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="137" t="s">
+      <c r="B32" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="137"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="118"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="124"/>
+      <c r="J32" s="124"/>
       <c r="K32" s="25"/>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
@@ -5111,61 +5128,61 @@
       <c r="U32" s="20"/>
     </row>
     <row r="33" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="137"/>
-      <c r="C33" s="137"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="118"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="124"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="124"/>
+      <c r="I33" s="124"/>
+      <c r="J33" s="124"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
       <c r="P33" s="25"/>
-      <c r="Q33" s="145"/>
-      <c r="R33" s="146"/>
-      <c r="S33" s="146"/>
-      <c r="T33" s="146"/>
-      <c r="U33" s="146"/>
+      <c r="Q33" s="170"/>
+      <c r="R33" s="171"/>
+      <c r="S33" s="171"/>
+      <c r="T33" s="171"/>
+      <c r="U33" s="171"/>
     </row>
     <row r="34" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="106" t="s">
+      <c r="B34" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="107"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="114"/>
+      <c r="C34" s="215"/>
+      <c r="D34" s="216"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="111"/>
       <c r="K34" s="25"/>
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
       <c r="P34" s="25"/>
-      <c r="Q34" s="145"/>
-      <c r="R34" s="146"/>
-      <c r="S34" s="146"/>
-      <c r="T34" s="146"/>
-      <c r="U34" s="146"/>
+      <c r="Q34" s="170"/>
+      <c r="R34" s="171"/>
+      <c r="S34" s="171"/>
+      <c r="T34" s="171"/>
+      <c r="U34" s="171"/>
     </row>
     <row r="35" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="109"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="117"/>
+      <c r="B35" s="217"/>
+      <c r="C35" s="218"/>
+      <c r="D35" s="219"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="114"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
@@ -5174,57 +5191,57 @@
       <c r="P35" s="25"/>
     </row>
     <row r="36" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="137" t="s">
+      <c r="B36" s="115" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="137"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="161" t="s">
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="162"/>
-      <c r="G36" s="162"/>
-      <c r="H36" s="162"/>
-      <c r="I36" s="162"/>
-      <c r="J36" s="163"/>
-      <c r="K36" s="181"/>
-      <c r="L36" s="182"/>
-      <c r="M36" s="182"/>
-      <c r="N36" s="182"/>
-      <c r="O36" s="182"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="141"/>
+      <c r="I36" s="141"/>
+      <c r="J36" s="142"/>
+      <c r="K36" s="192"/>
+      <c r="L36" s="193"/>
+      <c r="M36" s="193"/>
+      <c r="N36" s="193"/>
+      <c r="O36" s="193"/>
       <c r="P36" s="25"/>
     </row>
     <row r="37" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="137"/>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="161"/>
-      <c r="F37" s="162"/>
-      <c r="G37" s="162"/>
-      <c r="H37" s="162"/>
-      <c r="I37" s="162"/>
-      <c r="J37" s="163"/>
-      <c r="K37" s="181"/>
-      <c r="L37" s="182"/>
-      <c r="M37" s="182"/>
-      <c r="N37" s="182"/>
-      <c r="O37" s="182"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="140"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="141"/>
+      <c r="I37" s="141"/>
+      <c r="J37" s="142"/>
+      <c r="K37" s="192"/>
+      <c r="L37" s="193"/>
+      <c r="M37" s="193"/>
+      <c r="N37" s="193"/>
+      <c r="O37" s="193"/>
       <c r="P37" s="25"/>
     </row>
     <row r="38" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="122" t="s">
+      <c r="B38" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="122"/>
-      <c r="D38" s="122"/>
-      <c r="E38" s="161" t="s">
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="162"/>
-      <c r="G38" s="162"/>
-      <c r="H38" s="162"/>
-      <c r="I38" s="162"/>
-      <c r="J38" s="163"/>
+      <c r="F38" s="141"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="141"/>
+      <c r="I38" s="141"/>
+      <c r="J38" s="142"/>
       <c r="K38" s="26"/>
       <c r="L38" s="26"/>
       <c r="M38" s="26"/>
@@ -5233,15 +5250,15 @@
       <c r="P38" s="26"/>
     </row>
     <row r="39" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="122"/>
-      <c r="C39" s="122"/>
-      <c r="D39" s="122"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="162"/>
-      <c r="G39" s="162"/>
-      <c r="H39" s="162"/>
-      <c r="I39" s="162"/>
-      <c r="J39" s="163"/>
+      <c r="B39" s="123"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="140"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="141"/>
+      <c r="H39" s="141"/>
+      <c r="I39" s="141"/>
+      <c r="J39" s="142"/>
       <c r="K39" s="26"/>
       <c r="L39" s="26"/>
       <c r="M39" s="26"/>
@@ -5250,19 +5267,19 @@
       <c r="P39" s="26"/>
     </row>
     <row r="40" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="122" t="s">
+      <c r="B40" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="137"/>
-      <c r="D40" s="137"/>
-      <c r="E40" s="97" t="s">
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="98"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="99"/>
+      <c r="F40" s="206"/>
+      <c r="G40" s="206"/>
+      <c r="H40" s="206"/>
+      <c r="I40" s="206"/>
+      <c r="J40" s="207"/>
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
       <c r="M40" s="26"/>
@@ -5271,15 +5288,15 @@
       <c r="P40" s="27"/>
     </row>
     <row r="41" spans="2:21" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="137"/>
-      <c r="C41" s="137"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="102"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="208"/>
+      <c r="F41" s="209"/>
+      <c r="G41" s="209"/>
+      <c r="H41" s="209"/>
+      <c r="I41" s="209"/>
+      <c r="J41" s="210"/>
       <c r="K41" s="26"/>
       <c r="L41" s="26"/>
       <c r="M41" s="26"/>
@@ -5288,93 +5305,93 @@
       <c r="P41" s="27"/>
     </row>
     <row r="42" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="137" t="s">
+      <c r="B42" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="137"/>
-      <c r="D42" s="137"/>
-      <c r="E42" s="161" t="s">
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="162"/>
-      <c r="G42" s="162"/>
-      <c r="H42" s="162"/>
-      <c r="I42" s="162"/>
-      <c r="J42" s="163"/>
-      <c r="K42" s="216"/>
-      <c r="L42" s="217"/>
-      <c r="M42" s="217"/>
-      <c r="N42" s="217"/>
-      <c r="O42" s="217"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="141"/>
+      <c r="H42" s="141"/>
+      <c r="I42" s="141"/>
+      <c r="J42" s="142"/>
+      <c r="K42" s="128"/>
+      <c r="L42" s="129"/>
+      <c r="M42" s="129"/>
+      <c r="N42" s="129"/>
+      <c r="O42" s="129"/>
       <c r="P42" s="27"/>
     </row>
     <row r="43" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="137"/>
-      <c r="C43" s="137"/>
-      <c r="D43" s="137"/>
-      <c r="E43" s="161"/>
-      <c r="F43" s="162"/>
-      <c r="G43" s="162"/>
-      <c r="H43" s="162"/>
-      <c r="I43" s="162"/>
-      <c r="J43" s="163"/>
-      <c r="K43" s="216"/>
-      <c r="L43" s="217"/>
-      <c r="M43" s="217"/>
-      <c r="N43" s="217"/>
-      <c r="O43" s="217"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="140"/>
+      <c r="F43" s="141"/>
+      <c r="G43" s="141"/>
+      <c r="H43" s="141"/>
+      <c r="I43" s="141"/>
+      <c r="J43" s="142"/>
+      <c r="K43" s="128"/>
+      <c r="L43" s="129"/>
+      <c r="M43" s="129"/>
+      <c r="N43" s="129"/>
+      <c r="O43" s="129"/>
       <c r="P43" s="27"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="203" t="s">
+      <c r="B44" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="203"/>
-      <c r="D44" s="203"/>
-      <c r="E44" s="205" t="s">
+      <c r="C44" s="156"/>
+      <c r="D44" s="156"/>
+      <c r="E44" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="206"/>
-      <c r="G44" s="206"/>
-      <c r="H44" s="206"/>
-      <c r="I44" s="206"/>
-      <c r="J44" s="207"/>
-      <c r="K44" s="218"/>
-      <c r="L44" s="219"/>
-      <c r="M44" s="219"/>
-      <c r="N44" s="219"/>
-      <c r="O44" s="219"/>
+      <c r="F44" s="159"/>
+      <c r="G44" s="159"/>
+      <c r="H44" s="159"/>
+      <c r="I44" s="159"/>
+      <c r="J44" s="160"/>
+      <c r="K44" s="130"/>
+      <c r="L44" s="131"/>
+      <c r="M44" s="131"/>
+      <c r="N44" s="131"/>
+      <c r="O44" s="131"/>
       <c r="P44" s="27"/>
     </row>
     <row r="45" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="204"/>
-      <c r="C45" s="204"/>
-      <c r="D45" s="204"/>
-      <c r="E45" s="205"/>
-      <c r="F45" s="206"/>
-      <c r="G45" s="206"/>
-      <c r="H45" s="206"/>
-      <c r="I45" s="206"/>
-      <c r="J45" s="207"/>
-      <c r="K45" s="218"/>
-      <c r="L45" s="219"/>
-      <c r="M45" s="219"/>
-      <c r="N45" s="219"/>
-      <c r="O45" s="219"/>
+      <c r="B45" s="157"/>
+      <c r="C45" s="157"/>
+      <c r="D45" s="157"/>
+      <c r="E45" s="158"/>
+      <c r="F45" s="159"/>
+      <c r="G45" s="159"/>
+      <c r="H45" s="159"/>
+      <c r="I45" s="159"/>
+      <c r="J45" s="160"/>
+      <c r="K45" s="130"/>
+      <c r="L45" s="131"/>
+      <c r="M45" s="131"/>
+      <c r="N45" s="131"/>
+      <c r="O45" s="131"/>
       <c r="P45" s="27"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="159" t="s">
+      <c r="B46" s="178" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="159"/>
-      <c r="D46" s="159"/>
-      <c r="E46" s="192"/>
-      <c r="F46" s="193"/>
-      <c r="G46" s="194"/>
-      <c r="H46" s="192"/>
-      <c r="I46" s="193"/>
-      <c r="J46" s="194"/>
+      <c r="C46" s="178"/>
+      <c r="D46" s="178"/>
+      <c r="E46" s="132"/>
+      <c r="F46" s="133"/>
+      <c r="G46" s="134"/>
+      <c r="H46" s="132"/>
+      <c r="I46" s="133"/>
+      <c r="J46" s="134"/>
       <c r="K46" s="27"/>
       <c r="L46" s="27"/>
       <c r="M46" s="27"/>
@@ -5383,15 +5400,15 @@
       <c r="P46" s="27"/>
     </row>
     <row r="47" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="160"/>
-      <c r="C47" s="160"/>
-      <c r="D47" s="160"/>
-      <c r="E47" s="195"/>
-      <c r="F47" s="196"/>
-      <c r="G47" s="197"/>
-      <c r="H47" s="195"/>
-      <c r="I47" s="196"/>
-      <c r="J47" s="197"/>
+      <c r="B47" s="179"/>
+      <c r="C47" s="179"/>
+      <c r="D47" s="179"/>
+      <c r="E47" s="135"/>
+      <c r="F47" s="136"/>
+      <c r="G47" s="137"/>
+      <c r="H47" s="135"/>
+      <c r="I47" s="136"/>
+      <c r="J47" s="137"/>
       <c r="K47" s="27"/>
       <c r="L47" s="27"/>
       <c r="M47" s="27"/>
@@ -5401,217 +5418,217 @@
     </row>
     <row r="48" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:16" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="103" t="s">
+      <c r="B49" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="104"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="104"/>
-      <c r="I49" s="105"/>
-      <c r="J49" s="200" t="s">
+      <c r="C49" s="212"/>
+      <c r="D49" s="212"/>
+      <c r="E49" s="212"/>
+      <c r="F49" s="212"/>
+      <c r="G49" s="212"/>
+      <c r="H49" s="212"/>
+      <c r="I49" s="213"/>
+      <c r="J49" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="K49" s="201"/>
-      <c r="L49" s="201"/>
-      <c r="M49" s="201"/>
-      <c r="N49" s="201"/>
-      <c r="O49" s="201"/>
-      <c r="P49" s="202"/>
+      <c r="K49" s="151"/>
+      <c r="L49" s="151"/>
+      <c r="M49" s="151"/>
+      <c r="N49" s="151"/>
+      <c r="O49" s="151"/>
+      <c r="P49" s="152"/>
     </row>
     <row r="50" spans="1:16" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="172" t="s">
+      <c r="B50" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="173"/>
-      <c r="D50" s="173"/>
-      <c r="E50" s="173"/>
-      <c r="F50" s="173"/>
-      <c r="G50" s="173"/>
-      <c r="H50" s="173"/>
-      <c r="I50" s="174"/>
-      <c r="J50" s="166"/>
-      <c r="K50" s="167"/>
-      <c r="L50" s="167"/>
-      <c r="M50" s="167"/>
-      <c r="N50" s="167"/>
-      <c r="O50" s="167"/>
-      <c r="P50" s="168"/>
+      <c r="C50" s="184"/>
+      <c r="D50" s="184"/>
+      <c r="E50" s="184"/>
+      <c r="F50" s="184"/>
+      <c r="G50" s="184"/>
+      <c r="H50" s="184"/>
+      <c r="I50" s="185"/>
+      <c r="J50" s="153"/>
+      <c r="K50" s="154"/>
+      <c r="L50" s="154"/>
+      <c r="M50" s="154"/>
+      <c r="N50" s="154"/>
+      <c r="O50" s="154"/>
+      <c r="P50" s="155"/>
     </row>
     <row r="51" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="175"/>
-      <c r="C51" s="176"/>
-      <c r="D51" s="176"/>
-      <c r="E51" s="176"/>
-      <c r="F51" s="176"/>
-      <c r="G51" s="176"/>
-      <c r="H51" s="176"/>
-      <c r="I51" s="177"/>
-      <c r="J51" s="166"/>
-      <c r="K51" s="167"/>
-      <c r="L51" s="167"/>
-      <c r="M51" s="167"/>
-      <c r="N51" s="167"/>
-      <c r="O51" s="167"/>
-      <c r="P51" s="168"/>
+      <c r="B51" s="186"/>
+      <c r="C51" s="187"/>
+      <c r="D51" s="187"/>
+      <c r="E51" s="187"/>
+      <c r="F51" s="187"/>
+      <c r="G51" s="187"/>
+      <c r="H51" s="187"/>
+      <c r="I51" s="188"/>
+      <c r="J51" s="153"/>
+      <c r="K51" s="154"/>
+      <c r="L51" s="154"/>
+      <c r="M51" s="154"/>
+      <c r="N51" s="154"/>
+      <c r="O51" s="154"/>
+      <c r="P51" s="155"/>
     </row>
     <row r="52" spans="1:16" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="175"/>
-      <c r="C52" s="176"/>
-      <c r="D52" s="176"/>
-      <c r="E52" s="176"/>
-      <c r="F52" s="176"/>
-      <c r="G52" s="176"/>
-      <c r="H52" s="176"/>
-      <c r="I52" s="177"/>
-      <c r="J52" s="166"/>
-      <c r="K52" s="167"/>
-      <c r="L52" s="167"/>
-      <c r="M52" s="167"/>
-      <c r="N52" s="167"/>
-      <c r="O52" s="167"/>
-      <c r="P52" s="168"/>
+      <c r="B52" s="186"/>
+      <c r="C52" s="187"/>
+      <c r="D52" s="187"/>
+      <c r="E52" s="187"/>
+      <c r="F52" s="187"/>
+      <c r="G52" s="187"/>
+      <c r="H52" s="187"/>
+      <c r="I52" s="188"/>
+      <c r="J52" s="153"/>
+      <c r="K52" s="154"/>
+      <c r="L52" s="154"/>
+      <c r="M52" s="154"/>
+      <c r="N52" s="154"/>
+      <c r="O52" s="154"/>
+      <c r="P52" s="155"/>
     </row>
     <row r="53" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="175"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="176"/>
-      <c r="E53" s="176"/>
-      <c r="F53" s="176"/>
-      <c r="G53" s="176"/>
-      <c r="H53" s="176"/>
-      <c r="I53" s="177"/>
-      <c r="J53" s="166"/>
-      <c r="K53" s="167"/>
-      <c r="L53" s="167"/>
-      <c r="M53" s="167"/>
-      <c r="N53" s="167"/>
-      <c r="O53" s="167"/>
-      <c r="P53" s="168"/>
+      <c r="B53" s="186"/>
+      <c r="C53" s="187"/>
+      <c r="D53" s="187"/>
+      <c r="E53" s="187"/>
+      <c r="F53" s="187"/>
+      <c r="G53" s="187"/>
+      <c r="H53" s="187"/>
+      <c r="I53" s="188"/>
+      <c r="J53" s="153"/>
+      <c r="K53" s="154"/>
+      <c r="L53" s="154"/>
+      <c r="M53" s="154"/>
+      <c r="N53" s="154"/>
+      <c r="O53" s="154"/>
+      <c r="P53" s="155"/>
     </row>
     <row r="54" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="175"/>
-      <c r="C54" s="176"/>
-      <c r="D54" s="176"/>
-      <c r="E54" s="176"/>
-      <c r="F54" s="176"/>
-      <c r="G54" s="176"/>
-      <c r="H54" s="176"/>
-      <c r="I54" s="177"/>
-      <c r="J54" s="166"/>
-      <c r="K54" s="167"/>
-      <c r="L54" s="167"/>
-      <c r="M54" s="167"/>
-      <c r="N54" s="167"/>
-      <c r="O54" s="167"/>
-      <c r="P54" s="168"/>
+      <c r="B54" s="186"/>
+      <c r="C54" s="187"/>
+      <c r="D54" s="187"/>
+      <c r="E54" s="187"/>
+      <c r="F54" s="187"/>
+      <c r="G54" s="187"/>
+      <c r="H54" s="187"/>
+      <c r="I54" s="188"/>
+      <c r="J54" s="153"/>
+      <c r="K54" s="154"/>
+      <c r="L54" s="154"/>
+      <c r="M54" s="154"/>
+      <c r="N54" s="154"/>
+      <c r="O54" s="154"/>
+      <c r="P54" s="155"/>
     </row>
     <row r="55" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="175"/>
-      <c r="C55" s="176"/>
-      <c r="D55" s="176"/>
-      <c r="E55" s="176"/>
-      <c r="F55" s="176"/>
-      <c r="G55" s="176"/>
-      <c r="H55" s="176"/>
-      <c r="I55" s="177"/>
-      <c r="J55" s="166"/>
-      <c r="K55" s="167"/>
-      <c r="L55" s="167"/>
-      <c r="M55" s="167"/>
-      <c r="N55" s="167"/>
-      <c r="O55" s="167"/>
-      <c r="P55" s="168"/>
+      <c r="B55" s="186"/>
+      <c r="C55" s="187"/>
+      <c r="D55" s="187"/>
+      <c r="E55" s="187"/>
+      <c r="F55" s="187"/>
+      <c r="G55" s="187"/>
+      <c r="H55" s="187"/>
+      <c r="I55" s="188"/>
+      <c r="J55" s="153"/>
+      <c r="K55" s="154"/>
+      <c r="L55" s="154"/>
+      <c r="M55" s="154"/>
+      <c r="N55" s="154"/>
+      <c r="O55" s="154"/>
+      <c r="P55" s="155"/>
     </row>
     <row r="56" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="175"/>
-      <c r="C56" s="176"/>
-      <c r="D56" s="176"/>
-      <c r="E56" s="176"/>
-      <c r="F56" s="176"/>
-      <c r="G56" s="176"/>
-      <c r="H56" s="176"/>
-      <c r="I56" s="177"/>
-      <c r="J56" s="166"/>
-      <c r="K56" s="167"/>
-      <c r="L56" s="167"/>
-      <c r="M56" s="167"/>
-      <c r="N56" s="167"/>
-      <c r="O56" s="167"/>
-      <c r="P56" s="168"/>
+      <c r="B56" s="186"/>
+      <c r="C56" s="187"/>
+      <c r="D56" s="187"/>
+      <c r="E56" s="187"/>
+      <c r="F56" s="187"/>
+      <c r="G56" s="187"/>
+      <c r="H56" s="187"/>
+      <c r="I56" s="188"/>
+      <c r="J56" s="153"/>
+      <c r="K56" s="154"/>
+      <c r="L56" s="154"/>
+      <c r="M56" s="154"/>
+      <c r="N56" s="154"/>
+      <c r="O56" s="154"/>
+      <c r="P56" s="155"/>
     </row>
     <row r="57" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="175"/>
-      <c r="C57" s="176"/>
-      <c r="D57" s="176"/>
-      <c r="E57" s="176"/>
-      <c r="F57" s="176"/>
-      <c r="G57" s="176"/>
-      <c r="H57" s="176"/>
-      <c r="I57" s="177"/>
-      <c r="J57" s="166"/>
-      <c r="K57" s="167"/>
-      <c r="L57" s="167"/>
-      <c r="M57" s="167"/>
-      <c r="N57" s="167"/>
-      <c r="O57" s="167"/>
-      <c r="P57" s="168"/>
+      <c r="B57" s="186"/>
+      <c r="C57" s="187"/>
+      <c r="D57" s="187"/>
+      <c r="E57" s="187"/>
+      <c r="F57" s="187"/>
+      <c r="G57" s="187"/>
+      <c r="H57" s="187"/>
+      <c r="I57" s="188"/>
+      <c r="J57" s="153"/>
+      <c r="K57" s="154"/>
+      <c r="L57" s="154"/>
+      <c r="M57" s="154"/>
+      <c r="N57" s="154"/>
+      <c r="O57" s="154"/>
+      <c r="P57" s="155"/>
     </row>
     <row r="58" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="175"/>
-      <c r="C58" s="176"/>
-      <c r="D58" s="176"/>
-      <c r="E58" s="176"/>
-      <c r="F58" s="176"/>
-      <c r="G58" s="176"/>
-      <c r="H58" s="176"/>
-      <c r="I58" s="177"/>
-      <c r="J58" s="166"/>
-      <c r="K58" s="167"/>
-      <c r="L58" s="167"/>
-      <c r="M58" s="167"/>
-      <c r="N58" s="167"/>
-      <c r="O58" s="167"/>
-      <c r="P58" s="168"/>
+      <c r="B58" s="186"/>
+      <c r="C58" s="187"/>
+      <c r="D58" s="187"/>
+      <c r="E58" s="187"/>
+      <c r="F58" s="187"/>
+      <c r="G58" s="187"/>
+      <c r="H58" s="187"/>
+      <c r="I58" s="188"/>
+      <c r="J58" s="153"/>
+      <c r="K58" s="154"/>
+      <c r="L58" s="154"/>
+      <c r="M58" s="154"/>
+      <c r="N58" s="154"/>
+      <c r="O58" s="154"/>
+      <c r="P58" s="155"/>
     </row>
     <row r="59" spans="1:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="178"/>
-      <c r="C59" s="179"/>
-      <c r="D59" s="179"/>
-      <c r="E59" s="179"/>
-      <c r="F59" s="179"/>
-      <c r="G59" s="179"/>
-      <c r="H59" s="179"/>
-      <c r="I59" s="180"/>
-      <c r="J59" s="169"/>
-      <c r="K59" s="170"/>
-      <c r="L59" s="170"/>
-      <c r="M59" s="170"/>
-      <c r="N59" s="170"/>
-      <c r="O59" s="170"/>
-      <c r="P59" s="171"/>
+      <c r="B59" s="189"/>
+      <c r="C59" s="190"/>
+      <c r="D59" s="190"/>
+      <c r="E59" s="190"/>
+      <c r="F59" s="190"/>
+      <c r="G59" s="190"/>
+      <c r="H59" s="190"/>
+      <c r="I59" s="191"/>
+      <c r="J59" s="180"/>
+      <c r="K59" s="181"/>
+      <c r="L59" s="181"/>
+      <c r="M59" s="181"/>
+      <c r="N59" s="181"/>
+      <c r="O59" s="181"/>
+      <c r="P59" s="182"/>
     </row>
     <row r="60" spans="1:16" ht="14.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K60" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L60" s="198"/>
-      <c r="M60" s="198"/>
-      <c r="N60" s="198"/>
-      <c r="O60" s="198"/>
+      <c r="L60" s="143"/>
+      <c r="M60" s="143"/>
+      <c r="N60" s="143"/>
+      <c r="O60" s="143"/>
       <c r="P60" s="3"/>
     </row>
     <row r="61" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="213"/>
-      <c r="C61" s="213"/>
-      <c r="D61" s="213"/>
-      <c r="E61" s="165"/>
-      <c r="F61" s="165"/>
-      <c r="G61" s="165"/>
-      <c r="H61" s="165"/>
-      <c r="I61" s="165"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="122"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="105"/>
+      <c r="G61" s="105"/>
+      <c r="H61" s="105"/>
+      <c r="I61" s="105"/>
       <c r="K61" s="4"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
@@ -5620,14 +5637,14 @@
       <c r="P61" s="3"/>
     </row>
     <row r="62" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="213"/>
-      <c r="C62" s="213"/>
-      <c r="D62" s="213"/>
-      <c r="E62" s="165"/>
-      <c r="F62" s="165"/>
-      <c r="G62" s="165"/>
-      <c r="H62" s="165"/>
-      <c r="I62" s="165"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="122"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="105"/>
+      <c r="G62" s="105"/>
+      <c r="H62" s="105"/>
+      <c r="I62" s="105"/>
       <c r="K62" s="4"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
@@ -5636,14 +5653,14 @@
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="164"/>
-      <c r="C63" s="164"/>
-      <c r="D63" s="164"/>
-      <c r="E63" s="165"/>
-      <c r="F63" s="165"/>
-      <c r="G63" s="165"/>
-      <c r="H63" s="165"/>
-      <c r="I63" s="165"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="104"/>
+      <c r="E63" s="105"/>
+      <c r="F63" s="105"/>
+      <c r="G63" s="105"/>
+      <c r="H63" s="105"/>
+      <c r="I63" s="105"/>
       <c r="K63" s="4"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
@@ -5653,14 +5670,14 @@
     </row>
     <row r="64" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
-      <c r="B64" s="164"/>
-      <c r="C64" s="164"/>
-      <c r="D64" s="164"/>
-      <c r="E64" s="165"/>
-      <c r="F64" s="165"/>
-      <c r="G64" s="165"/>
-      <c r="H64" s="165"/>
-      <c r="I64" s="165"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="104"/>
+      <c r="E64" s="105"/>
+      <c r="F64" s="105"/>
+      <c r="G64" s="105"/>
+      <c r="H64" s="105"/>
+      <c r="I64" s="105"/>
       <c r="J64" s="24"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
@@ -5671,14 +5688,14 @@
     </row>
     <row r="65" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
-      <c r="B65" s="164"/>
-      <c r="C65" s="164"/>
-      <c r="D65" s="164"/>
-      <c r="E65" s="165"/>
-      <c r="F65" s="165"/>
-      <c r="G65" s="165"/>
-      <c r="H65" s="165"/>
-      <c r="I65" s="165"/>
+      <c r="B65" s="104"/>
+      <c r="C65" s="104"/>
+      <c r="D65" s="104"/>
+      <c r="E65" s="105"/>
+      <c r="F65" s="105"/>
+      <c r="G65" s="105"/>
+      <c r="H65" s="105"/>
+      <c r="I65" s="105"/>
       <c r="J65" s="24"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
@@ -5689,14 +5706,14 @@
     </row>
     <row r="66" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
-      <c r="B66" s="164"/>
-      <c r="C66" s="164"/>
-      <c r="D66" s="164"/>
-      <c r="E66" s="165"/>
-      <c r="F66" s="165"/>
-      <c r="G66" s="165"/>
-      <c r="H66" s="165"/>
-      <c r="I66" s="165"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="104"/>
+      <c r="D66" s="104"/>
+      <c r="E66" s="105"/>
+      <c r="F66" s="105"/>
+      <c r="G66" s="105"/>
+      <c r="H66" s="105"/>
+      <c r="I66" s="105"/>
       <c r="J66" s="24"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
@@ -5725,61 +5742,61 @@
     </row>
     <row r="68" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
-      <c r="B68" s="150" t="s">
+      <c r="B68" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="C68" s="151"/>
-      <c r="D68" s="152"/>
-      <c r="E68" s="153"/>
-      <c r="F68" s="153"/>
-      <c r="G68" s="153"/>
-      <c r="H68" s="153"/>
-      <c r="I68" s="153"/>
-      <c r="J68" s="154"/>
-      <c r="K68" s="148"/>
-      <c r="L68" s="149"/>
-      <c r="M68" s="149"/>
-      <c r="N68" s="149"/>
-      <c r="O68" s="149"/>
-      <c r="P68" s="149"/>
+      <c r="C68" s="145"/>
+      <c r="D68" s="146"/>
+      <c r="E68" s="147"/>
+      <c r="F68" s="147"/>
+      <c r="G68" s="147"/>
+      <c r="H68" s="147"/>
+      <c r="I68" s="147"/>
+      <c r="J68" s="148"/>
+      <c r="K68" s="127"/>
+      <c r="L68" s="173"/>
+      <c r="M68" s="173"/>
+      <c r="N68" s="173"/>
+      <c r="O68" s="173"/>
+      <c r="P68" s="173"/>
     </row>
     <row r="69" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
-      <c r="B69" s="150" t="s">
+      <c r="B69" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="C69" s="151"/>
-      <c r="D69" s="152"/>
-      <c r="E69" s="153"/>
-      <c r="F69" s="153"/>
-      <c r="G69" s="153"/>
-      <c r="H69" s="153"/>
-      <c r="I69" s="153"/>
-      <c r="J69" s="154"/>
-      <c r="K69" s="214"/>
-      <c r="L69" s="215"/>
-      <c r="M69" s="215"/>
-      <c r="N69" s="215"/>
-      <c r="O69" s="215"/>
-      <c r="P69" s="148"/>
+      <c r="C69" s="145"/>
+      <c r="D69" s="146"/>
+      <c r="E69" s="147"/>
+      <c r="F69" s="147"/>
+      <c r="G69" s="147"/>
+      <c r="H69" s="147"/>
+      <c r="I69" s="147"/>
+      <c r="J69" s="148"/>
+      <c r="K69" s="125"/>
+      <c r="L69" s="126"/>
+      <c r="M69" s="126"/>
+      <c r="N69" s="126"/>
+      <c r="O69" s="126"/>
+      <c r="P69" s="127"/>
     </row>
     <row r="70" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
-      <c r="B70" s="210"/>
-      <c r="C70" s="211"/>
-      <c r="D70" s="210"/>
-      <c r="E70" s="211"/>
-      <c r="F70" s="211"/>
-      <c r="G70" s="211"/>
-      <c r="H70" s="211"/>
-      <c r="I70" s="211"/>
-      <c r="J70" s="212"/>
-      <c r="K70" s="214"/>
-      <c r="L70" s="215"/>
-      <c r="M70" s="215"/>
-      <c r="N70" s="215"/>
-      <c r="O70" s="215"/>
-      <c r="P70" s="148"/>
+      <c r="B70" s="101"/>
+      <c r="C70" s="102"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="102"/>
+      <c r="F70" s="102"/>
+      <c r="G70" s="102"/>
+      <c r="H70" s="102"/>
+      <c r="I70" s="102"/>
+      <c r="J70" s="103"/>
+      <c r="K70" s="125"/>
+      <c r="L70" s="126"/>
+      <c r="M70" s="126"/>
+      <c r="N70" s="126"/>
+      <c r="O70" s="126"/>
+      <c r="P70" s="127"/>
     </row>
     <row r="71" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
@@ -5801,14 +5818,14 @@
     </row>
     <row r="72" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
-      <c r="B72" s="47" t="s">
+      <c r="B72" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="47"/>
-      <c r="D72" s="47"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="47"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="92"/>
+      <c r="G72" s="92"/>
       <c r="H72" s="24"/>
       <c r="I72" s="24"/>
       <c r="J72" s="24"/>
@@ -5839,493 +5856,493 @@
     </row>
     <row r="74" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="208" t="s">
+      <c r="B74" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="C74" s="208"/>
-      <c r="D74" s="208"/>
-      <c r="E74" s="208"/>
-      <c r="F74" s="208"/>
-      <c r="G74" s="208"/>
-      <c r="H74" s="208"/>
-      <c r="I74" s="208"/>
-      <c r="J74" s="208"/>
-      <c r="K74" s="208"/>
-      <c r="L74" s="208"/>
-      <c r="M74" s="209" t="str">
+      <c r="C74" s="161"/>
+      <c r="D74" s="161"/>
+      <c r="E74" s="161"/>
+      <c r="F74" s="161"/>
+      <c r="G74" s="161"/>
+      <c r="H74" s="161"/>
+      <c r="I74" s="161"/>
+      <c r="J74" s="161"/>
+      <c r="K74" s="161"/>
+      <c r="L74" s="161"/>
+      <c r="M74" s="100" t="str">
         <f>IF(L4="","",L4)</f>
         <v/>
       </c>
-      <c r="N74" s="209"/>
-      <c r="O74" s="209"/>
-      <c r="P74" s="209"/>
+      <c r="N74" s="100"/>
+      <c r="O74" s="100"/>
+      <c r="P74" s="100"/>
     </row>
     <row r="75" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="208"/>
-      <c r="C75" s="208"/>
-      <c r="D75" s="208"/>
-      <c r="E75" s="208"/>
-      <c r="F75" s="208"/>
-      <c r="G75" s="208"/>
-      <c r="H75" s="208"/>
-      <c r="I75" s="208"/>
-      <c r="J75" s="208"/>
-      <c r="K75" s="208"/>
-      <c r="L75" s="208"/>
-      <c r="M75" s="209"/>
-      <c r="N75" s="209"/>
-      <c r="O75" s="209"/>
-      <c r="P75" s="209"/>
+      <c r="B75" s="161"/>
+      <c r="C75" s="161"/>
+      <c r="D75" s="161"/>
+      <c r="E75" s="161"/>
+      <c r="F75" s="161"/>
+      <c r="G75" s="161"/>
+      <c r="H75" s="161"/>
+      <c r="I75" s="161"/>
+      <c r="J75" s="161"/>
+      <c r="K75" s="161"/>
+      <c r="L75" s="161"/>
+      <c r="M75" s="100"/>
+      <c r="N75" s="100"/>
+      <c r="O75" s="100"/>
+      <c r="P75" s="100"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B76" s="208"/>
-      <c r="C76" s="208"/>
-      <c r="D76" s="208"/>
-      <c r="E76" s="208"/>
-      <c r="F76" s="208"/>
-      <c r="G76" s="208"/>
-      <c r="H76" s="208"/>
-      <c r="I76" s="208"/>
-      <c r="J76" s="208"/>
-      <c r="K76" s="208"/>
-      <c r="L76" s="208"/>
-      <c r="M76" s="209"/>
-      <c r="N76" s="209"/>
-      <c r="O76" s="209"/>
-      <c r="P76" s="209"/>
+      <c r="B76" s="161"/>
+      <c r="C76" s="161"/>
+      <c r="D76" s="161"/>
+      <c r="E76" s="161"/>
+      <c r="F76" s="161"/>
+      <c r="G76" s="161"/>
+      <c r="H76" s="161"/>
+      <c r="I76" s="161"/>
+      <c r="J76" s="161"/>
+      <c r="K76" s="161"/>
+      <c r="L76" s="161"/>
+      <c r="M76" s="100"/>
+      <c r="N76" s="100"/>
+      <c r="O76" s="100"/>
+      <c r="P76" s="100"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B77" s="208"/>
-      <c r="C77" s="208"/>
-      <c r="D77" s="208"/>
-      <c r="E77" s="208"/>
-      <c r="F77" s="208"/>
-      <c r="G77" s="208"/>
-      <c r="H77" s="208"/>
-      <c r="I77" s="208"/>
-      <c r="J77" s="208"/>
-      <c r="K77" s="208"/>
-      <c r="L77" s="208"/>
-      <c r="M77" s="209"/>
-      <c r="N77" s="209"/>
-      <c r="O77" s="209"/>
-      <c r="P77" s="209"/>
+      <c r="B77" s="161"/>
+      <c r="C77" s="161"/>
+      <c r="D77" s="161"/>
+      <c r="E77" s="161"/>
+      <c r="F77" s="161"/>
+      <c r="G77" s="161"/>
+      <c r="H77" s="161"/>
+      <c r="I77" s="161"/>
+      <c r="J77" s="161"/>
+      <c r="K77" s="161"/>
+      <c r="L77" s="161"/>
+      <c r="M77" s="100"/>
+      <c r="N77" s="100"/>
+      <c r="O77" s="100"/>
+      <c r="P77" s="100"/>
     </row>
     <row r="78" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="86" t="s">
+      <c r="B78" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C78" s="86"/>
-      <c r="D78" s="86"/>
-      <c r="E78" s="86"/>
-      <c r="F78" s="86"/>
-      <c r="G78" s="86"/>
-      <c r="H78" s="86"/>
-      <c r="I78" s="86"/>
-      <c r="J78" s="86"/>
-      <c r="K78" s="86"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="45"/>
     </row>
     <row r="79" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="189"/>
-      <c r="C79" s="190"/>
-      <c r="D79" s="190"/>
-      <c r="E79" s="190"/>
-      <c r="F79" s="190"/>
-      <c r="G79" s="190"/>
-      <c r="H79" s="190"/>
-      <c r="I79" s="190"/>
-      <c r="J79" s="190"/>
-      <c r="K79" s="190"/>
-      <c r="L79" s="190"/>
-      <c r="M79" s="190"/>
-      <c r="N79" s="190"/>
-      <c r="O79" s="190"/>
+      <c r="B79" s="98"/>
+      <c r="C79" s="99"/>
+      <c r="D79" s="99"/>
+      <c r="E79" s="99"/>
+      <c r="F79" s="99"/>
+      <c r="G79" s="99"/>
+      <c r="H79" s="99"/>
+      <c r="I79" s="99"/>
+      <c r="J79" s="99"/>
+      <c r="K79" s="99"/>
+      <c r="L79" s="99"/>
+      <c r="M79" s="99"/>
+      <c r="N79" s="99"/>
+      <c r="O79" s="99"/>
     </row>
     <row r="80" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="189"/>
-      <c r="C80" s="190"/>
-      <c r="D80" s="190"/>
-      <c r="E80" s="190"/>
-      <c r="F80" s="190"/>
-      <c r="G80" s="190"/>
-      <c r="H80" s="190"/>
-      <c r="I80" s="190"/>
-      <c r="J80" s="190"/>
-      <c r="K80" s="190"/>
-      <c r="L80" s="190"/>
-      <c r="M80" s="190"/>
-      <c r="N80" s="190"/>
-      <c r="O80" s="190"/>
+      <c r="B80" s="98"/>
+      <c r="C80" s="99"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="99"/>
+      <c r="F80" s="99"/>
+      <c r="G80" s="99"/>
+      <c r="H80" s="99"/>
+      <c r="I80" s="99"/>
+      <c r="J80" s="99"/>
+      <c r="K80" s="99"/>
+      <c r="L80" s="99"/>
+      <c r="M80" s="99"/>
+      <c r="N80" s="99"/>
+      <c r="O80" s="99"/>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B81" s="189"/>
-      <c r="C81" s="190"/>
-      <c r="D81" s="190"/>
-      <c r="E81" s="190"/>
-      <c r="F81" s="190"/>
-      <c r="G81" s="190"/>
-      <c r="H81" s="190"/>
-      <c r="I81" s="190"/>
-      <c r="J81" s="190"/>
-      <c r="K81" s="190"/>
-      <c r="L81" s="190"/>
-      <c r="M81" s="190"/>
-      <c r="N81" s="190"/>
-      <c r="O81" s="190"/>
+      <c r="B81" s="98"/>
+      <c r="C81" s="99"/>
+      <c r="D81" s="99"/>
+      <c r="E81" s="99"/>
+      <c r="F81" s="99"/>
+      <c r="G81" s="99"/>
+      <c r="H81" s="99"/>
+      <c r="I81" s="99"/>
+      <c r="J81" s="99"/>
+      <c r="K81" s="99"/>
+      <c r="L81" s="99"/>
+      <c r="M81" s="99"/>
+      <c r="N81" s="99"/>
+      <c r="O81" s="99"/>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B82" s="189"/>
-      <c r="C82" s="190"/>
-      <c r="D82" s="190"/>
-      <c r="E82" s="190"/>
-      <c r="F82" s="190"/>
-      <c r="G82" s="190"/>
-      <c r="H82" s="190"/>
-      <c r="I82" s="190"/>
-      <c r="J82" s="190"/>
-      <c r="K82" s="190"/>
-      <c r="L82" s="190"/>
-      <c r="M82" s="190"/>
-      <c r="N82" s="190"/>
-      <c r="O82" s="190"/>
+      <c r="B82" s="98"/>
+      <c r="C82" s="99"/>
+      <c r="D82" s="99"/>
+      <c r="E82" s="99"/>
+      <c r="F82" s="99"/>
+      <c r="G82" s="99"/>
+      <c r="H82" s="99"/>
+      <c r="I82" s="99"/>
+      <c r="J82" s="99"/>
+      <c r="K82" s="99"/>
+      <c r="L82" s="99"/>
+      <c r="M82" s="99"/>
+      <c r="N82" s="99"/>
+      <c r="O82" s="99"/>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B83" s="189"/>
-      <c r="C83" s="190"/>
-      <c r="D83" s="190"/>
-      <c r="E83" s="190"/>
-      <c r="F83" s="190"/>
-      <c r="G83" s="190"/>
-      <c r="H83" s="190"/>
-      <c r="I83" s="190"/>
-      <c r="J83" s="190"/>
-      <c r="K83" s="190"/>
-      <c r="L83" s="190"/>
-      <c r="M83" s="190"/>
-      <c r="N83" s="190"/>
-      <c r="O83" s="190"/>
+      <c r="B83" s="98"/>
+      <c r="C83" s="99"/>
+      <c r="D83" s="99"/>
+      <c r="E83" s="99"/>
+      <c r="F83" s="99"/>
+      <c r="G83" s="99"/>
+      <c r="H83" s="99"/>
+      <c r="I83" s="99"/>
+      <c r="J83" s="99"/>
+      <c r="K83" s="99"/>
+      <c r="L83" s="99"/>
+      <c r="M83" s="99"/>
+      <c r="N83" s="99"/>
+      <c r="O83" s="99"/>
       <c r="P83"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B84" s="189"/>
-      <c r="C84" s="190"/>
-      <c r="D84" s="190"/>
-      <c r="E84" s="190"/>
-      <c r="F84" s="190"/>
-      <c r="G84" s="190"/>
-      <c r="H84" s="190"/>
-      <c r="I84" s="190"/>
-      <c r="J84" s="190"/>
-      <c r="K84" s="190"/>
-      <c r="L84" s="190"/>
-      <c r="M84" s="190"/>
-      <c r="N84" s="190"/>
-      <c r="O84" s="190"/>
+      <c r="B84" s="98"/>
+      <c r="C84" s="99"/>
+      <c r="D84" s="99"/>
+      <c r="E84" s="99"/>
+      <c r="F84" s="99"/>
+      <c r="G84" s="99"/>
+      <c r="H84" s="99"/>
+      <c r="I84" s="99"/>
+      <c r="J84" s="99"/>
+      <c r="K84" s="99"/>
+      <c r="L84" s="99"/>
+      <c r="M84" s="99"/>
+      <c r="N84" s="99"/>
+      <c r="O84" s="99"/>
       <c r="P84"/>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B85" s="189"/>
-      <c r="C85" s="190"/>
-      <c r="D85" s="190"/>
-      <c r="E85" s="190"/>
-      <c r="F85" s="190"/>
-      <c r="G85" s="190"/>
-      <c r="H85" s="190"/>
-      <c r="I85" s="190"/>
-      <c r="J85" s="190"/>
-      <c r="K85" s="190"/>
-      <c r="L85" s="190"/>
-      <c r="M85" s="190"/>
-      <c r="N85" s="190"/>
-      <c r="O85" s="190"/>
+      <c r="B85" s="98"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="99"/>
+      <c r="E85" s="99"/>
+      <c r="F85" s="99"/>
+      <c r="G85" s="99"/>
+      <c r="H85" s="99"/>
+      <c r="I85" s="99"/>
+      <c r="J85" s="99"/>
+      <c r="K85" s="99"/>
+      <c r="L85" s="99"/>
+      <c r="M85" s="99"/>
+      <c r="N85" s="99"/>
+      <c r="O85" s="99"/>
       <c r="P85"/>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B86" s="189"/>
-      <c r="C86" s="190"/>
-      <c r="D86" s="190"/>
-      <c r="E86" s="190"/>
-      <c r="F86" s="190"/>
-      <c r="G86" s="190"/>
-      <c r="H86" s="190"/>
-      <c r="I86" s="190"/>
-      <c r="J86" s="190"/>
-      <c r="K86" s="190"/>
-      <c r="L86" s="190"/>
-      <c r="M86" s="190"/>
-      <c r="N86" s="190"/>
-      <c r="O86" s="190"/>
+      <c r="B86" s="98"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="99"/>
+      <c r="E86" s="99"/>
+      <c r="F86" s="99"/>
+      <c r="G86" s="99"/>
+      <c r="H86" s="99"/>
+      <c r="I86" s="99"/>
+      <c r="J86" s="99"/>
+      <c r="K86" s="99"/>
+      <c r="L86" s="99"/>
+      <c r="M86" s="99"/>
+      <c r="N86" s="99"/>
+      <c r="O86" s="99"/>
       <c r="P86"/>
       <c r="Q86"/>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B87" s="189"/>
-      <c r="C87" s="190"/>
-      <c r="D87" s="190"/>
-      <c r="E87" s="190"/>
-      <c r="F87" s="190"/>
-      <c r="G87" s="190"/>
-      <c r="H87" s="190"/>
-      <c r="I87" s="190"/>
-      <c r="J87" s="190"/>
-      <c r="K87" s="190"/>
-      <c r="L87" s="190"/>
-      <c r="M87" s="190"/>
-      <c r="N87" s="190"/>
-      <c r="O87" s="190"/>
+      <c r="B87" s="98"/>
+      <c r="C87" s="99"/>
+      <c r="D87" s="99"/>
+      <c r="E87" s="99"/>
+      <c r="F87" s="99"/>
+      <c r="G87" s="99"/>
+      <c r="H87" s="99"/>
+      <c r="I87" s="99"/>
+      <c r="J87" s="99"/>
+      <c r="K87" s="99"/>
+      <c r="L87" s="99"/>
+      <c r="M87" s="99"/>
+      <c r="N87" s="99"/>
+      <c r="O87" s="99"/>
       <c r="P87"/>
       <c r="Q87"/>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B88" s="189"/>
-      <c r="C88" s="190"/>
-      <c r="D88" s="190"/>
-      <c r="E88" s="190"/>
-      <c r="F88" s="190"/>
-      <c r="G88" s="190"/>
-      <c r="H88" s="190"/>
-      <c r="I88" s="190"/>
-      <c r="J88" s="190"/>
-      <c r="K88" s="190"/>
-      <c r="L88" s="190"/>
-      <c r="M88" s="190"/>
-      <c r="N88" s="190"/>
-      <c r="O88" s="190"/>
+      <c r="B88" s="98"/>
+      <c r="C88" s="99"/>
+      <c r="D88" s="99"/>
+      <c r="E88" s="99"/>
+      <c r="F88" s="99"/>
+      <c r="G88" s="99"/>
+      <c r="H88" s="99"/>
+      <c r="I88" s="99"/>
+      <c r="J88" s="99"/>
+      <c r="K88" s="99"/>
+      <c r="L88" s="99"/>
+      <c r="M88" s="99"/>
+      <c r="N88" s="99"/>
+      <c r="O88" s="99"/>
       <c r="P88"/>
       <c r="Q88"/>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B89" s="189"/>
-      <c r="C89" s="190"/>
-      <c r="D89" s="190"/>
-      <c r="E89" s="190"/>
-      <c r="F89" s="190"/>
-      <c r="G89" s="190"/>
-      <c r="H89" s="190"/>
-      <c r="I89" s="190"/>
-      <c r="J89" s="190"/>
-      <c r="K89" s="190"/>
-      <c r="L89" s="190"/>
-      <c r="M89" s="190"/>
-      <c r="N89" s="190"/>
-      <c r="O89" s="190"/>
+      <c r="B89" s="98"/>
+      <c r="C89" s="99"/>
+      <c r="D89" s="99"/>
+      <c r="E89" s="99"/>
+      <c r="F89" s="99"/>
+      <c r="G89" s="99"/>
+      <c r="H89" s="99"/>
+      <c r="I89" s="99"/>
+      <c r="J89" s="99"/>
+      <c r="K89" s="99"/>
+      <c r="L89" s="99"/>
+      <c r="M89" s="99"/>
+      <c r="N89" s="99"/>
+      <c r="O89" s="99"/>
       <c r="P89"/>
       <c r="Q89"/>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B90" s="189"/>
-      <c r="C90" s="190"/>
-      <c r="D90" s="190"/>
-      <c r="E90" s="190"/>
-      <c r="F90" s="190"/>
-      <c r="G90" s="190"/>
-      <c r="H90" s="190"/>
-      <c r="I90" s="190"/>
-      <c r="J90" s="190"/>
-      <c r="K90" s="190"/>
-      <c r="L90" s="190"/>
-      <c r="M90" s="190"/>
-      <c r="N90" s="190"/>
-      <c r="O90" s="190"/>
+      <c r="B90" s="98"/>
+      <c r="C90" s="99"/>
+      <c r="D90" s="99"/>
+      <c r="E90" s="99"/>
+      <c r="F90" s="99"/>
+      <c r="G90" s="99"/>
+      <c r="H90" s="99"/>
+      <c r="I90" s="99"/>
+      <c r="J90" s="99"/>
+      <c r="K90" s="99"/>
+      <c r="L90" s="99"/>
+      <c r="M90" s="99"/>
+      <c r="N90" s="99"/>
+      <c r="O90" s="99"/>
       <c r="P90"/>
       <c r="Q90"/>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B91" s="189"/>
-      <c r="C91" s="190"/>
-      <c r="D91" s="190"/>
-      <c r="E91" s="190"/>
-      <c r="F91" s="190"/>
-      <c r="G91" s="190"/>
-      <c r="H91" s="190"/>
-      <c r="I91" s="190"/>
-      <c r="J91" s="190"/>
-      <c r="K91" s="190"/>
-      <c r="L91" s="190"/>
-      <c r="M91" s="190"/>
-      <c r="N91" s="190"/>
-      <c r="O91" s="190"/>
+      <c r="B91" s="98"/>
+      <c r="C91" s="99"/>
+      <c r="D91" s="99"/>
+      <c r="E91" s="99"/>
+      <c r="F91" s="99"/>
+      <c r="G91" s="99"/>
+      <c r="H91" s="99"/>
+      <c r="I91" s="99"/>
+      <c r="J91" s="99"/>
+      <c r="K91" s="99"/>
+      <c r="L91" s="99"/>
+      <c r="M91" s="99"/>
+      <c r="N91" s="99"/>
+      <c r="O91" s="99"/>
       <c r="P91"/>
       <c r="Q91"/>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B92" s="189"/>
-      <c r="C92" s="190"/>
-      <c r="D92" s="190"/>
-      <c r="E92" s="190"/>
-      <c r="F92" s="190"/>
-      <c r="G92" s="190"/>
-      <c r="H92" s="190"/>
-      <c r="I92" s="190"/>
-      <c r="J92" s="190"/>
-      <c r="K92" s="190"/>
-      <c r="L92" s="190"/>
-      <c r="M92" s="190"/>
-      <c r="N92" s="190"/>
-      <c r="O92" s="190"/>
+      <c r="B92" s="98"/>
+      <c r="C92" s="99"/>
+      <c r="D92" s="99"/>
+      <c r="E92" s="99"/>
+      <c r="F92" s="99"/>
+      <c r="G92" s="99"/>
+      <c r="H92" s="99"/>
+      <c r="I92" s="99"/>
+      <c r="J92" s="99"/>
+      <c r="K92" s="99"/>
+      <c r="L92" s="99"/>
+      <c r="M92" s="99"/>
+      <c r="N92" s="99"/>
+      <c r="O92" s="99"/>
       <c r="P92"/>
       <c r="Q92"/>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B93" s="189"/>
-      <c r="C93" s="190"/>
-      <c r="D93" s="190"/>
-      <c r="E93" s="190"/>
-      <c r="F93" s="190"/>
-      <c r="G93" s="190"/>
-      <c r="H93" s="190"/>
-      <c r="I93" s="190"/>
-      <c r="J93" s="190"/>
-      <c r="K93" s="190"/>
-      <c r="L93" s="190"/>
-      <c r="M93" s="190"/>
-      <c r="N93" s="190"/>
-      <c r="O93" s="190"/>
+      <c r="B93" s="98"/>
+      <c r="C93" s="99"/>
+      <c r="D93" s="99"/>
+      <c r="E93" s="99"/>
+      <c r="F93" s="99"/>
+      <c r="G93" s="99"/>
+      <c r="H93" s="99"/>
+      <c r="I93" s="99"/>
+      <c r="J93" s="99"/>
+      <c r="K93" s="99"/>
+      <c r="L93" s="99"/>
+      <c r="M93" s="99"/>
+      <c r="N93" s="99"/>
+      <c r="O93" s="99"/>
       <c r="P93"/>
       <c r="Q93"/>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B94" s="189"/>
-      <c r="C94" s="190"/>
-      <c r="D94" s="190"/>
-      <c r="E94" s="190"/>
-      <c r="F94" s="190"/>
-      <c r="G94" s="190"/>
-      <c r="H94" s="190"/>
-      <c r="I94" s="190"/>
-      <c r="J94" s="190"/>
-      <c r="K94" s="190"/>
-      <c r="L94" s="190"/>
-      <c r="M94" s="190"/>
-      <c r="N94" s="190"/>
-      <c r="O94" s="190"/>
+      <c r="B94" s="98"/>
+      <c r="C94" s="99"/>
+      <c r="D94" s="99"/>
+      <c r="E94" s="99"/>
+      <c r="F94" s="99"/>
+      <c r="G94" s="99"/>
+      <c r="H94" s="99"/>
+      <c r="I94" s="99"/>
+      <c r="J94" s="99"/>
+      <c r="K94" s="99"/>
+      <c r="L94" s="99"/>
+      <c r="M94" s="99"/>
+      <c r="N94" s="99"/>
+      <c r="O94" s="99"/>
       <c r="P94"/>
       <c r="Q94"/>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B95" s="189"/>
-      <c r="C95" s="190"/>
-      <c r="D95" s="190"/>
-      <c r="E95" s="190"/>
-      <c r="F95" s="190"/>
-      <c r="G95" s="190"/>
-      <c r="H95" s="190"/>
-      <c r="I95" s="190"/>
-      <c r="J95" s="190"/>
-      <c r="K95" s="190"/>
-      <c r="L95" s="190"/>
-      <c r="M95" s="190"/>
-      <c r="N95" s="190"/>
-      <c r="O95" s="190"/>
+      <c r="B95" s="98"/>
+      <c r="C95" s="99"/>
+      <c r="D95" s="99"/>
+      <c r="E95" s="99"/>
+      <c r="F95" s="99"/>
+      <c r="G95" s="99"/>
+      <c r="H95" s="99"/>
+      <c r="I95" s="99"/>
+      <c r="J95" s="99"/>
+      <c r="K95" s="99"/>
+      <c r="L95" s="99"/>
+      <c r="M95" s="99"/>
+      <c r="N95" s="99"/>
+      <c r="O95" s="99"/>
       <c r="P95"/>
       <c r="Q95"/>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B96" s="189"/>
-      <c r="C96" s="190"/>
-      <c r="D96" s="190"/>
-      <c r="E96" s="190"/>
-      <c r="F96" s="190"/>
-      <c r="G96" s="190"/>
-      <c r="H96" s="190"/>
-      <c r="I96" s="190"/>
-      <c r="J96" s="190"/>
-      <c r="K96" s="190"/>
-      <c r="L96" s="190"/>
-      <c r="M96" s="190"/>
-      <c r="N96" s="190"/>
-      <c r="O96" s="190"/>
+      <c r="B96" s="98"/>
+      <c r="C96" s="99"/>
+      <c r="D96" s="99"/>
+      <c r="E96" s="99"/>
+      <c r="F96" s="99"/>
+      <c r="G96" s="99"/>
+      <c r="H96" s="99"/>
+      <c r="I96" s="99"/>
+      <c r="J96" s="99"/>
+      <c r="K96" s="99"/>
+      <c r="L96" s="99"/>
+      <c r="M96" s="99"/>
+      <c r="N96" s="99"/>
+      <c r="O96" s="99"/>
       <c r="P96"/>
       <c r="Q96"/>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B97" s="189"/>
-      <c r="C97" s="190"/>
-      <c r="D97" s="190"/>
-      <c r="E97" s="190"/>
-      <c r="F97" s="190"/>
-      <c r="G97" s="190"/>
-      <c r="H97" s="190"/>
-      <c r="I97" s="190"/>
-      <c r="J97" s="190"/>
-      <c r="K97" s="190"/>
-      <c r="L97" s="190"/>
-      <c r="M97" s="190"/>
-      <c r="N97" s="190"/>
-      <c r="O97" s="190"/>
+      <c r="B97" s="98"/>
+      <c r="C97" s="99"/>
+      <c r="D97" s="99"/>
+      <c r="E97" s="99"/>
+      <c r="F97" s="99"/>
+      <c r="G97" s="99"/>
+      <c r="H97" s="99"/>
+      <c r="I97" s="99"/>
+      <c r="J97" s="99"/>
+      <c r="K97" s="99"/>
+      <c r="L97" s="99"/>
+      <c r="M97" s="99"/>
+      <c r="N97" s="99"/>
+      <c r="O97" s="99"/>
       <c r="P97"/>
       <c r="Q97"/>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B98" s="189"/>
-      <c r="C98" s="190"/>
-      <c r="D98" s="190"/>
-      <c r="E98" s="190"/>
-      <c r="F98" s="190"/>
-      <c r="G98" s="190"/>
-      <c r="H98" s="190"/>
-      <c r="I98" s="190"/>
-      <c r="J98" s="190"/>
-      <c r="K98" s="190"/>
-      <c r="L98" s="190"/>
-      <c r="M98" s="190"/>
-      <c r="N98" s="190"/>
-      <c r="O98" s="190"/>
+      <c r="B98" s="98"/>
+      <c r="C98" s="99"/>
+      <c r="D98" s="99"/>
+      <c r="E98" s="99"/>
+      <c r="F98" s="99"/>
+      <c r="G98" s="99"/>
+      <c r="H98" s="99"/>
+      <c r="I98" s="99"/>
+      <c r="J98" s="99"/>
+      <c r="K98" s="99"/>
+      <c r="L98" s="99"/>
+      <c r="M98" s="99"/>
+      <c r="N98" s="99"/>
+      <c r="O98" s="99"/>
       <c r="P98"/>
       <c r="Q98"/>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B99" s="189"/>
-      <c r="C99" s="190"/>
-      <c r="D99" s="190"/>
-      <c r="E99" s="190"/>
-      <c r="F99" s="190"/>
-      <c r="G99" s="190"/>
-      <c r="H99" s="190"/>
-      <c r="I99" s="190"/>
-      <c r="J99" s="190"/>
-      <c r="K99" s="190"/>
-      <c r="L99" s="190"/>
-      <c r="M99" s="190"/>
-      <c r="N99" s="190"/>
-      <c r="O99" s="190"/>
+      <c r="B99" s="98"/>
+      <c r="C99" s="99"/>
+      <c r="D99" s="99"/>
+      <c r="E99" s="99"/>
+      <c r="F99" s="99"/>
+      <c r="G99" s="99"/>
+      <c r="H99" s="99"/>
+      <c r="I99" s="99"/>
+      <c r="J99" s="99"/>
+      <c r="K99" s="99"/>
+      <c r="L99" s="99"/>
+      <c r="M99" s="99"/>
+      <c r="N99" s="99"/>
+      <c r="O99" s="99"/>
       <c r="P99"/>
       <c r="Q99"/>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B100" s="189"/>
-      <c r="C100" s="190"/>
-      <c r="D100" s="190"/>
-      <c r="E100" s="190"/>
-      <c r="F100" s="190"/>
-      <c r="G100" s="190"/>
-      <c r="H100" s="190"/>
-      <c r="I100" s="190"/>
-      <c r="J100" s="190"/>
-      <c r="K100" s="190"/>
-      <c r="L100" s="190"/>
-      <c r="M100" s="190"/>
-      <c r="N100" s="190"/>
-      <c r="O100" s="190"/>
+      <c r="B100" s="98"/>
+      <c r="C100" s="99"/>
+      <c r="D100" s="99"/>
+      <c r="E100" s="99"/>
+      <c r="F100" s="99"/>
+      <c r="G100" s="99"/>
+      <c r="H100" s="99"/>
+      <c r="I100" s="99"/>
+      <c r="J100" s="99"/>
+      <c r="K100" s="99"/>
+      <c r="L100" s="99"/>
+      <c r="M100" s="99"/>
+      <c r="N100" s="99"/>
+      <c r="O100" s="99"/>
       <c r="P100"/>
       <c r="Q100"/>
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B101" s="189"/>
-      <c r="C101" s="190"/>
-      <c r="D101" s="190"/>
-      <c r="E101" s="190"/>
-      <c r="F101" s="190"/>
-      <c r="G101" s="190"/>
-      <c r="H101" s="190"/>
-      <c r="I101" s="190"/>
-      <c r="J101" s="190"/>
-      <c r="K101" s="190"/>
-      <c r="L101" s="190"/>
-      <c r="M101" s="190"/>
-      <c r="N101" s="190"/>
-      <c r="O101" s="190"/>
+      <c r="B101" s="98"/>
+      <c r="C101" s="99"/>
+      <c r="D101" s="99"/>
+      <c r="E101" s="99"/>
+      <c r="F101" s="99"/>
+      <c r="G101" s="99"/>
+      <c r="H101" s="99"/>
+      <c r="I101" s="99"/>
+      <c r="J101" s="99"/>
+      <c r="K101" s="99"/>
+      <c r="L101" s="99"/>
+      <c r="M101" s="99"/>
+      <c r="N101" s="99"/>
+      <c r="O101" s="99"/>
       <c r="P101"/>
       <c r="Q101"/>
     </row>
@@ -6348,17 +6365,17 @@
       <c r="Q102"/>
     </row>
     <row r="103" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="191" t="s">
+      <c r="B103" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="191"/>
-      <c r="D103" s="191"/>
-      <c r="E103" s="191"/>
-      <c r="F103" s="191"/>
-      <c r="G103" s="191"/>
-      <c r="H103" s="191"/>
-      <c r="I103" s="191"/>
-      <c r="J103" s="191"/>
+      <c r="C103" s="139"/>
+      <c r="D103" s="139"/>
+      <c r="E103" s="139"/>
+      <c r="F103" s="139"/>
+      <c r="G103" s="139"/>
+      <c r="H103" s="139"/>
+      <c r="I103" s="139"/>
+      <c r="J103" s="139"/>
       <c r="K103"/>
       <c r="L103"/>
       <c r="M103"/>
@@ -6368,416 +6385,416 @@
       <c r="Q103"/>
     </row>
     <row r="104" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B104" s="189"/>
-      <c r="C104" s="190"/>
-      <c r="D104" s="190"/>
-      <c r="E104" s="190"/>
-      <c r="F104" s="190"/>
-      <c r="G104" s="190"/>
-      <c r="H104" s="190"/>
-      <c r="I104" s="190"/>
-      <c r="J104" s="190"/>
-      <c r="K104" s="190"/>
-      <c r="L104" s="190"/>
-      <c r="M104" s="190"/>
-      <c r="N104" s="190"/>
-      <c r="O104" s="190"/>
+      <c r="B104" s="98"/>
+      <c r="C104" s="99"/>
+      <c r="D104" s="99"/>
+      <c r="E104" s="99"/>
+      <c r="F104" s="99"/>
+      <c r="G104" s="99"/>
+      <c r="H104" s="99"/>
+      <c r="I104" s="99"/>
+      <c r="J104" s="99"/>
+      <c r="K104" s="99"/>
+      <c r="L104" s="99"/>
+      <c r="M104" s="99"/>
+      <c r="N104" s="99"/>
+      <c r="O104" s="99"/>
       <c r="P104"/>
       <c r="Q104"/>
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B105" s="189"/>
-      <c r="C105" s="190"/>
-      <c r="D105" s="190"/>
-      <c r="E105" s="190"/>
-      <c r="F105" s="190"/>
-      <c r="G105" s="190"/>
-      <c r="H105" s="190"/>
-      <c r="I105" s="190"/>
-      <c r="J105" s="190"/>
-      <c r="K105" s="190"/>
-      <c r="L105" s="190"/>
-      <c r="M105" s="190"/>
-      <c r="N105" s="190"/>
-      <c r="O105" s="190"/>
+      <c r="B105" s="98"/>
+      <c r="C105" s="99"/>
+      <c r="D105" s="99"/>
+      <c r="E105" s="99"/>
+      <c r="F105" s="99"/>
+      <c r="G105" s="99"/>
+      <c r="H105" s="99"/>
+      <c r="I105" s="99"/>
+      <c r="J105" s="99"/>
+      <c r="K105" s="99"/>
+      <c r="L105" s="99"/>
+      <c r="M105" s="99"/>
+      <c r="N105" s="99"/>
+      <c r="O105" s="99"/>
       <c r="P105"/>
       <c r="Q105"/>
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B106" s="189"/>
-      <c r="C106" s="190"/>
-      <c r="D106" s="190"/>
-      <c r="E106" s="190"/>
-      <c r="F106" s="190"/>
-      <c r="G106" s="190"/>
-      <c r="H106" s="190"/>
-      <c r="I106" s="190"/>
-      <c r="J106" s="190"/>
-      <c r="K106" s="190"/>
-      <c r="L106" s="190"/>
-      <c r="M106" s="190"/>
-      <c r="N106" s="190"/>
-      <c r="O106" s="190"/>
+      <c r="B106" s="98"/>
+      <c r="C106" s="99"/>
+      <c r="D106" s="99"/>
+      <c r="E106" s="99"/>
+      <c r="F106" s="99"/>
+      <c r="G106" s="99"/>
+      <c r="H106" s="99"/>
+      <c r="I106" s="99"/>
+      <c r="J106" s="99"/>
+      <c r="K106" s="99"/>
+      <c r="L106" s="99"/>
+      <c r="M106" s="99"/>
+      <c r="N106" s="99"/>
+      <c r="O106" s="99"/>
       <c r="P106"/>
       <c r="Q106"/>
     </row>
     <row r="107" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B107" s="189"/>
-      <c r="C107" s="190"/>
-      <c r="D107" s="190"/>
-      <c r="E107" s="190"/>
-      <c r="F107" s="190"/>
-      <c r="G107" s="190"/>
-      <c r="H107" s="190"/>
-      <c r="I107" s="190"/>
-      <c r="J107" s="190"/>
-      <c r="K107" s="190"/>
-      <c r="L107" s="190"/>
-      <c r="M107" s="190"/>
-      <c r="N107" s="190"/>
-      <c r="O107" s="190"/>
+      <c r="B107" s="98"/>
+      <c r="C107" s="99"/>
+      <c r="D107" s="99"/>
+      <c r="E107" s="99"/>
+      <c r="F107" s="99"/>
+      <c r="G107" s="99"/>
+      <c r="H107" s="99"/>
+      <c r="I107" s="99"/>
+      <c r="J107" s="99"/>
+      <c r="K107" s="99"/>
+      <c r="L107" s="99"/>
+      <c r="M107" s="99"/>
+      <c r="N107" s="99"/>
+      <c r="O107" s="99"/>
       <c r="P107"/>
       <c r="Q107"/>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B108" s="189"/>
-      <c r="C108" s="190"/>
-      <c r="D108" s="190"/>
-      <c r="E108" s="190"/>
-      <c r="F108" s="190"/>
-      <c r="G108" s="190"/>
-      <c r="H108" s="190"/>
-      <c r="I108" s="190"/>
-      <c r="J108" s="190"/>
-      <c r="K108" s="190"/>
-      <c r="L108" s="190"/>
-      <c r="M108" s="190"/>
-      <c r="N108" s="190"/>
-      <c r="O108" s="190"/>
+      <c r="B108" s="98"/>
+      <c r="C108" s="99"/>
+      <c r="D108" s="99"/>
+      <c r="E108" s="99"/>
+      <c r="F108" s="99"/>
+      <c r="G108" s="99"/>
+      <c r="H108" s="99"/>
+      <c r="I108" s="99"/>
+      <c r="J108" s="99"/>
+      <c r="K108" s="99"/>
+      <c r="L108" s="99"/>
+      <c r="M108" s="99"/>
+      <c r="N108" s="99"/>
+      <c r="O108" s="99"/>
       <c r="P108"/>
       <c r="Q108"/>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B109" s="189"/>
-      <c r="C109" s="190"/>
-      <c r="D109" s="190"/>
-      <c r="E109" s="190"/>
-      <c r="F109" s="190"/>
-      <c r="G109" s="190"/>
-      <c r="H109" s="190"/>
-      <c r="I109" s="190"/>
-      <c r="J109" s="190"/>
-      <c r="K109" s="190"/>
-      <c r="L109" s="190"/>
-      <c r="M109" s="190"/>
-      <c r="N109" s="190"/>
-      <c r="O109" s="190"/>
+      <c r="B109" s="98"/>
+      <c r="C109" s="99"/>
+      <c r="D109" s="99"/>
+      <c r="E109" s="99"/>
+      <c r="F109" s="99"/>
+      <c r="G109" s="99"/>
+      <c r="H109" s="99"/>
+      <c r="I109" s="99"/>
+      <c r="J109" s="99"/>
+      <c r="K109" s="99"/>
+      <c r="L109" s="99"/>
+      <c r="M109" s="99"/>
+      <c r="N109" s="99"/>
+      <c r="O109" s="99"/>
       <c r="P109"/>
       <c r="Q109"/>
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B110" s="189"/>
-      <c r="C110" s="190"/>
-      <c r="D110" s="190"/>
-      <c r="E110" s="190"/>
-      <c r="F110" s="190"/>
-      <c r="G110" s="190"/>
-      <c r="H110" s="190"/>
-      <c r="I110" s="190"/>
-      <c r="J110" s="190"/>
-      <c r="K110" s="190"/>
-      <c r="L110" s="190"/>
-      <c r="M110" s="190"/>
-      <c r="N110" s="190"/>
-      <c r="O110" s="190"/>
+      <c r="B110" s="98"/>
+      <c r="C110" s="99"/>
+      <c r="D110" s="99"/>
+      <c r="E110" s="99"/>
+      <c r="F110" s="99"/>
+      <c r="G110" s="99"/>
+      <c r="H110" s="99"/>
+      <c r="I110" s="99"/>
+      <c r="J110" s="99"/>
+      <c r="K110" s="99"/>
+      <c r="L110" s="99"/>
+      <c r="M110" s="99"/>
+      <c r="N110" s="99"/>
+      <c r="O110" s="99"/>
       <c r="P110"/>
       <c r="Q110"/>
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B111" s="189"/>
-      <c r="C111" s="190"/>
-      <c r="D111" s="190"/>
-      <c r="E111" s="190"/>
-      <c r="F111" s="190"/>
-      <c r="G111" s="190"/>
-      <c r="H111" s="190"/>
-      <c r="I111" s="190"/>
-      <c r="J111" s="190"/>
-      <c r="K111" s="190"/>
-      <c r="L111" s="190"/>
-      <c r="M111" s="190"/>
-      <c r="N111" s="190"/>
-      <c r="O111" s="190"/>
+      <c r="B111" s="98"/>
+      <c r="C111" s="99"/>
+      <c r="D111" s="99"/>
+      <c r="E111" s="99"/>
+      <c r="F111" s="99"/>
+      <c r="G111" s="99"/>
+      <c r="H111" s="99"/>
+      <c r="I111" s="99"/>
+      <c r="J111" s="99"/>
+      <c r="K111" s="99"/>
+      <c r="L111" s="99"/>
+      <c r="M111" s="99"/>
+      <c r="N111" s="99"/>
+      <c r="O111" s="99"/>
       <c r="P111"/>
       <c r="Q111"/>
     </row>
     <row r="112" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B112" s="189"/>
-      <c r="C112" s="190"/>
-      <c r="D112" s="190"/>
-      <c r="E112" s="190"/>
-      <c r="F112" s="190"/>
-      <c r="G112" s="190"/>
-      <c r="H112" s="190"/>
-      <c r="I112" s="190"/>
-      <c r="J112" s="190"/>
-      <c r="K112" s="190"/>
-      <c r="L112" s="190"/>
-      <c r="M112" s="190"/>
-      <c r="N112" s="190"/>
-      <c r="O112" s="190"/>
+      <c r="B112" s="98"/>
+      <c r="C112" s="99"/>
+      <c r="D112" s="99"/>
+      <c r="E112" s="99"/>
+      <c r="F112" s="99"/>
+      <c r="G112" s="99"/>
+      <c r="H112" s="99"/>
+      <c r="I112" s="99"/>
+      <c r="J112" s="99"/>
+      <c r="K112" s="99"/>
+      <c r="L112" s="99"/>
+      <c r="M112" s="99"/>
+      <c r="N112" s="99"/>
+      <c r="O112" s="99"/>
       <c r="P112"/>
       <c r="Q112"/>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B113" s="189"/>
-      <c r="C113" s="190"/>
-      <c r="D113" s="190"/>
-      <c r="E113" s="190"/>
-      <c r="F113" s="190"/>
-      <c r="G113" s="190"/>
-      <c r="H113" s="190"/>
-      <c r="I113" s="190"/>
-      <c r="J113" s="190"/>
-      <c r="K113" s="190"/>
-      <c r="L113" s="190"/>
-      <c r="M113" s="190"/>
-      <c r="N113" s="190"/>
-      <c r="O113" s="190"/>
+      <c r="B113" s="98"/>
+      <c r="C113" s="99"/>
+      <c r="D113" s="99"/>
+      <c r="E113" s="99"/>
+      <c r="F113" s="99"/>
+      <c r="G113" s="99"/>
+      <c r="H113" s="99"/>
+      <c r="I113" s="99"/>
+      <c r="J113" s="99"/>
+      <c r="K113" s="99"/>
+      <c r="L113" s="99"/>
+      <c r="M113" s="99"/>
+      <c r="N113" s="99"/>
+      <c r="O113" s="99"/>
       <c r="P113"/>
       <c r="Q113"/>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B114" s="189"/>
-      <c r="C114" s="190"/>
-      <c r="D114" s="190"/>
-      <c r="E114" s="190"/>
-      <c r="F114" s="190"/>
-      <c r="G114" s="190"/>
-      <c r="H114" s="190"/>
-      <c r="I114" s="190"/>
-      <c r="J114" s="190"/>
-      <c r="K114" s="190"/>
-      <c r="L114" s="190"/>
-      <c r="M114" s="190"/>
-      <c r="N114" s="190"/>
-      <c r="O114" s="190"/>
+      <c r="B114" s="98"/>
+      <c r="C114" s="99"/>
+      <c r="D114" s="99"/>
+      <c r="E114" s="99"/>
+      <c r="F114" s="99"/>
+      <c r="G114" s="99"/>
+      <c r="H114" s="99"/>
+      <c r="I114" s="99"/>
+      <c r="J114" s="99"/>
+      <c r="K114" s="99"/>
+      <c r="L114" s="99"/>
+      <c r="M114" s="99"/>
+      <c r="N114" s="99"/>
+      <c r="O114" s="99"/>
       <c r="P114"/>
       <c r="Q114"/>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B115" s="189"/>
-      <c r="C115" s="190"/>
-      <c r="D115" s="190"/>
-      <c r="E115" s="190"/>
-      <c r="F115" s="190"/>
-      <c r="G115" s="190"/>
-      <c r="H115" s="190"/>
-      <c r="I115" s="190"/>
-      <c r="J115" s="190"/>
-      <c r="K115" s="190"/>
-      <c r="L115" s="190"/>
-      <c r="M115" s="190"/>
-      <c r="N115" s="190"/>
-      <c r="O115" s="190"/>
+      <c r="B115" s="98"/>
+      <c r="C115" s="99"/>
+      <c r="D115" s="99"/>
+      <c r="E115" s="99"/>
+      <c r="F115" s="99"/>
+      <c r="G115" s="99"/>
+      <c r="H115" s="99"/>
+      <c r="I115" s="99"/>
+      <c r="J115" s="99"/>
+      <c r="K115" s="99"/>
+      <c r="L115" s="99"/>
+      <c r="M115" s="99"/>
+      <c r="N115" s="99"/>
+      <c r="O115" s="99"/>
       <c r="P115"/>
       <c r="Q115"/>
     </row>
     <row r="116" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B116" s="189"/>
-      <c r="C116" s="190"/>
-      <c r="D116" s="190"/>
-      <c r="E116" s="190"/>
-      <c r="F116" s="190"/>
-      <c r="G116" s="190"/>
-      <c r="H116" s="190"/>
-      <c r="I116" s="190"/>
-      <c r="J116" s="190"/>
-      <c r="K116" s="190"/>
-      <c r="L116" s="190"/>
-      <c r="M116" s="190"/>
-      <c r="N116" s="190"/>
-      <c r="O116" s="190"/>
+      <c r="B116" s="98"/>
+      <c r="C116" s="99"/>
+      <c r="D116" s="99"/>
+      <c r="E116" s="99"/>
+      <c r="F116" s="99"/>
+      <c r="G116" s="99"/>
+      <c r="H116" s="99"/>
+      <c r="I116" s="99"/>
+      <c r="J116" s="99"/>
+      <c r="K116" s="99"/>
+      <c r="L116" s="99"/>
+      <c r="M116" s="99"/>
+      <c r="N116" s="99"/>
+      <c r="O116" s="99"/>
       <c r="P116"/>
       <c r="Q116"/>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B117" s="189"/>
-      <c r="C117" s="190"/>
-      <c r="D117" s="190"/>
-      <c r="E117" s="190"/>
-      <c r="F117" s="190"/>
-      <c r="G117" s="190"/>
-      <c r="H117" s="190"/>
-      <c r="I117" s="190"/>
-      <c r="J117" s="190"/>
-      <c r="K117" s="190"/>
-      <c r="L117" s="190"/>
-      <c r="M117" s="190"/>
-      <c r="N117" s="190"/>
-      <c r="O117" s="190"/>
+      <c r="B117" s="98"/>
+      <c r="C117" s="99"/>
+      <c r="D117" s="99"/>
+      <c r="E117" s="99"/>
+      <c r="F117" s="99"/>
+      <c r="G117" s="99"/>
+      <c r="H117" s="99"/>
+      <c r="I117" s="99"/>
+      <c r="J117" s="99"/>
+      <c r="K117" s="99"/>
+      <c r="L117" s="99"/>
+      <c r="M117" s="99"/>
+      <c r="N117" s="99"/>
+      <c r="O117" s="99"/>
       <c r="P117"/>
       <c r="Q117"/>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B118" s="189"/>
-      <c r="C118" s="190"/>
-      <c r="D118" s="190"/>
-      <c r="E118" s="190"/>
-      <c r="F118" s="190"/>
-      <c r="G118" s="190"/>
-      <c r="H118" s="190"/>
-      <c r="I118" s="190"/>
-      <c r="J118" s="190"/>
-      <c r="K118" s="190"/>
-      <c r="L118" s="190"/>
-      <c r="M118" s="190"/>
-      <c r="N118" s="190"/>
-      <c r="O118" s="190"/>
+      <c r="B118" s="98"/>
+      <c r="C118" s="99"/>
+      <c r="D118" s="99"/>
+      <c r="E118" s="99"/>
+      <c r="F118" s="99"/>
+      <c r="G118" s="99"/>
+      <c r="H118" s="99"/>
+      <c r="I118" s="99"/>
+      <c r="J118" s="99"/>
+      <c r="K118" s="99"/>
+      <c r="L118" s="99"/>
+      <c r="M118" s="99"/>
+      <c r="N118" s="99"/>
+      <c r="O118" s="99"/>
       <c r="P118"/>
       <c r="Q118"/>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B119" s="189"/>
-      <c r="C119" s="190"/>
-      <c r="D119" s="190"/>
-      <c r="E119" s="190"/>
-      <c r="F119" s="190"/>
-      <c r="G119" s="190"/>
-      <c r="H119" s="190"/>
-      <c r="I119" s="190"/>
-      <c r="J119" s="190"/>
-      <c r="K119" s="190"/>
-      <c r="L119" s="190"/>
-      <c r="M119" s="190"/>
-      <c r="N119" s="190"/>
-      <c r="O119" s="190"/>
+      <c r="B119" s="98"/>
+      <c r="C119" s="99"/>
+      <c r="D119" s="99"/>
+      <c r="E119" s="99"/>
+      <c r="F119" s="99"/>
+      <c r="G119" s="99"/>
+      <c r="H119" s="99"/>
+      <c r="I119" s="99"/>
+      <c r="J119" s="99"/>
+      <c r="K119" s="99"/>
+      <c r="L119" s="99"/>
+      <c r="M119" s="99"/>
+      <c r="N119" s="99"/>
+      <c r="O119" s="99"/>
       <c r="P119"/>
       <c r="Q119"/>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B120" s="189"/>
-      <c r="C120" s="190"/>
-      <c r="D120" s="190"/>
-      <c r="E120" s="190"/>
-      <c r="F120" s="190"/>
-      <c r="G120" s="190"/>
-      <c r="H120" s="190"/>
-      <c r="I120" s="190"/>
-      <c r="J120" s="190"/>
-      <c r="K120" s="190"/>
-      <c r="L120" s="190"/>
-      <c r="M120" s="190"/>
-      <c r="N120" s="190"/>
-      <c r="O120" s="190"/>
+      <c r="B120" s="98"/>
+      <c r="C120" s="99"/>
+      <c r="D120" s="99"/>
+      <c r="E120" s="99"/>
+      <c r="F120" s="99"/>
+      <c r="G120" s="99"/>
+      <c r="H120" s="99"/>
+      <c r="I120" s="99"/>
+      <c r="J120" s="99"/>
+      <c r="K120" s="99"/>
+      <c r="L120" s="99"/>
+      <c r="M120" s="99"/>
+      <c r="N120" s="99"/>
+      <c r="O120" s="99"/>
       <c r="P120"/>
       <c r="Q120"/>
     </row>
     <row r="121" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B121" s="189"/>
-      <c r="C121" s="190"/>
-      <c r="D121" s="190"/>
-      <c r="E121" s="190"/>
-      <c r="F121" s="190"/>
-      <c r="G121" s="190"/>
-      <c r="H121" s="190"/>
-      <c r="I121" s="190"/>
-      <c r="J121" s="190"/>
-      <c r="K121" s="190"/>
-      <c r="L121" s="190"/>
-      <c r="M121" s="190"/>
-      <c r="N121" s="190"/>
-      <c r="O121" s="190"/>
+      <c r="B121" s="98"/>
+      <c r="C121" s="99"/>
+      <c r="D121" s="99"/>
+      <c r="E121" s="99"/>
+      <c r="F121" s="99"/>
+      <c r="G121" s="99"/>
+      <c r="H121" s="99"/>
+      <c r="I121" s="99"/>
+      <c r="J121" s="99"/>
+      <c r="K121" s="99"/>
+      <c r="L121" s="99"/>
+      <c r="M121" s="99"/>
+      <c r="N121" s="99"/>
+      <c r="O121" s="99"/>
       <c r="P121"/>
       <c r="Q121"/>
     </row>
     <row r="122" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B122" s="189"/>
-      <c r="C122" s="190"/>
-      <c r="D122" s="190"/>
-      <c r="E122" s="190"/>
-      <c r="F122" s="190"/>
-      <c r="G122" s="190"/>
-      <c r="H122" s="190"/>
-      <c r="I122" s="190"/>
-      <c r="J122" s="190"/>
-      <c r="K122" s="190"/>
-      <c r="L122" s="190"/>
-      <c r="M122" s="190"/>
-      <c r="N122" s="190"/>
-      <c r="O122" s="190"/>
+      <c r="B122" s="98"/>
+      <c r="C122" s="99"/>
+      <c r="D122" s="99"/>
+      <c r="E122" s="99"/>
+      <c r="F122" s="99"/>
+      <c r="G122" s="99"/>
+      <c r="H122" s="99"/>
+      <c r="I122" s="99"/>
+      <c r="J122" s="99"/>
+      <c r="K122" s="99"/>
+      <c r="L122" s="99"/>
+      <c r="M122" s="99"/>
+      <c r="N122" s="99"/>
+      <c r="O122" s="99"/>
       <c r="P122"/>
       <c r="Q122"/>
     </row>
     <row r="123" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B123" s="189"/>
-      <c r="C123" s="190"/>
-      <c r="D123" s="190"/>
-      <c r="E123" s="190"/>
-      <c r="F123" s="190"/>
-      <c r="G123" s="190"/>
-      <c r="H123" s="190"/>
-      <c r="I123" s="190"/>
-      <c r="J123" s="190"/>
-      <c r="K123" s="190"/>
-      <c r="L123" s="190"/>
-      <c r="M123" s="190"/>
-      <c r="N123" s="190"/>
-      <c r="O123" s="190"/>
+      <c r="B123" s="98"/>
+      <c r="C123" s="99"/>
+      <c r="D123" s="99"/>
+      <c r="E123" s="99"/>
+      <c r="F123" s="99"/>
+      <c r="G123" s="99"/>
+      <c r="H123" s="99"/>
+      <c r="I123" s="99"/>
+      <c r="J123" s="99"/>
+      <c r="K123" s="99"/>
+      <c r="L123" s="99"/>
+      <c r="M123" s="99"/>
+      <c r="N123" s="99"/>
+      <c r="O123" s="99"/>
       <c r="P123"/>
       <c r="Q123"/>
     </row>
     <row r="124" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B124" s="189"/>
-      <c r="C124" s="190"/>
-      <c r="D124" s="190"/>
-      <c r="E124" s="190"/>
-      <c r="F124" s="190"/>
-      <c r="G124" s="190"/>
-      <c r="H124" s="190"/>
-      <c r="I124" s="190"/>
-      <c r="J124" s="190"/>
-      <c r="K124" s="190"/>
-      <c r="L124" s="190"/>
-      <c r="M124" s="190"/>
-      <c r="N124" s="190"/>
-      <c r="O124" s="190"/>
+      <c r="B124" s="98"/>
+      <c r="C124" s="99"/>
+      <c r="D124" s="99"/>
+      <c r="E124" s="99"/>
+      <c r="F124" s="99"/>
+      <c r="G124" s="99"/>
+      <c r="H124" s="99"/>
+      <c r="I124" s="99"/>
+      <c r="J124" s="99"/>
+      <c r="K124" s="99"/>
+      <c r="L124" s="99"/>
+      <c r="M124" s="99"/>
+      <c r="N124" s="99"/>
+      <c r="O124" s="99"/>
       <c r="P124"/>
       <c r="Q124"/>
     </row>
     <row r="125" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B125" s="189"/>
-      <c r="C125" s="190"/>
-      <c r="D125" s="190"/>
-      <c r="E125" s="190"/>
-      <c r="F125" s="190"/>
-      <c r="G125" s="190"/>
-      <c r="H125" s="190"/>
-      <c r="I125" s="190"/>
-      <c r="J125" s="190"/>
-      <c r="K125" s="190"/>
-      <c r="L125" s="190"/>
-      <c r="M125" s="190"/>
-      <c r="N125" s="190"/>
-      <c r="O125" s="190"/>
+      <c r="B125" s="98"/>
+      <c r="C125" s="99"/>
+      <c r="D125" s="99"/>
+      <c r="E125" s="99"/>
+      <c r="F125" s="99"/>
+      <c r="G125" s="99"/>
+      <c r="H125" s="99"/>
+      <c r="I125" s="99"/>
+      <c r="J125" s="99"/>
+      <c r="K125" s="99"/>
+      <c r="L125" s="99"/>
+      <c r="M125" s="99"/>
+      <c r="N125" s="99"/>
+      <c r="O125" s="99"/>
       <c r="P125"/>
       <c r="Q125"/>
     </row>
     <row r="126" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B126" s="189"/>
-      <c r="C126" s="190"/>
-      <c r="D126" s="190"/>
-      <c r="E126" s="190"/>
-      <c r="F126" s="190"/>
-      <c r="G126" s="190"/>
-      <c r="H126" s="190"/>
-      <c r="I126" s="190"/>
-      <c r="J126" s="190"/>
-      <c r="K126" s="190"/>
-      <c r="L126" s="190"/>
-      <c r="M126" s="190"/>
-      <c r="N126" s="190"/>
-      <c r="O126" s="190"/>
+      <c r="B126" s="98"/>
+      <c r="C126" s="99"/>
+      <c r="D126" s="99"/>
+      <c r="E126" s="99"/>
+      <c r="F126" s="99"/>
+      <c r="G126" s="99"/>
+      <c r="H126" s="99"/>
+      <c r="I126" s="99"/>
+      <c r="J126" s="99"/>
+      <c r="K126" s="99"/>
+      <c r="L126" s="99"/>
+      <c r="M126" s="99"/>
+      <c r="N126" s="99"/>
+      <c r="O126" s="99"/>
       <c r="P126"/>
       <c r="Q126"/>
     </row>
@@ -6800,17 +6817,17 @@
       <c r="Q127"/>
     </row>
     <row r="128" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B128" s="191" t="s">
+      <c r="B128" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="C128" s="191"/>
-      <c r="D128" s="191"/>
-      <c r="E128" s="191"/>
-      <c r="F128" s="191"/>
-      <c r="G128" s="191"/>
-      <c r="H128" s="191"/>
-      <c r="I128" s="191"/>
-      <c r="J128" s="191"/>
+      <c r="C128" s="139"/>
+      <c r="D128" s="139"/>
+      <c r="E128" s="139"/>
+      <c r="F128" s="139"/>
+      <c r="G128" s="139"/>
+      <c r="H128" s="139"/>
+      <c r="I128" s="139"/>
+      <c r="J128" s="139"/>
       <c r="K128"/>
       <c r="L128"/>
       <c r="M128"/>
@@ -6820,428 +6837,428 @@
       <c r="Q128"/>
     </row>
     <row r="129" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B129" s="189"/>
-      <c r="C129" s="190"/>
-      <c r="D129" s="190"/>
-      <c r="E129" s="190"/>
-      <c r="F129" s="190"/>
-      <c r="G129" s="190"/>
-      <c r="H129" s="190"/>
-      <c r="I129" s="190"/>
-      <c r="J129" s="190"/>
-      <c r="K129" s="190"/>
-      <c r="L129" s="190"/>
-      <c r="M129" s="190"/>
-      <c r="N129" s="190"/>
-      <c r="O129" s="190"/>
+      <c r="B129" s="98"/>
+      <c r="C129" s="99"/>
+      <c r="D129" s="99"/>
+      <c r="E129" s="99"/>
+      <c r="F129" s="99"/>
+      <c r="G129" s="99"/>
+      <c r="H129" s="99"/>
+      <c r="I129" s="99"/>
+      <c r="J129" s="99"/>
+      <c r="K129" s="99"/>
+      <c r="L129" s="99"/>
+      <c r="M129" s="99"/>
+      <c r="N129" s="99"/>
+      <c r="O129" s="99"/>
       <c r="P129"/>
       <c r="Q129"/>
     </row>
     <row r="130" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B130" s="189"/>
-      <c r="C130" s="190"/>
-      <c r="D130" s="190"/>
-      <c r="E130" s="190"/>
-      <c r="F130" s="190"/>
-      <c r="G130" s="190"/>
-      <c r="H130" s="190"/>
-      <c r="I130" s="190"/>
-      <c r="J130" s="190"/>
-      <c r="K130" s="190"/>
-      <c r="L130" s="190"/>
-      <c r="M130" s="190"/>
-      <c r="N130" s="190"/>
-      <c r="O130" s="190"/>
+      <c r="B130" s="98"/>
+      <c r="C130" s="99"/>
+      <c r="D130" s="99"/>
+      <c r="E130" s="99"/>
+      <c r="F130" s="99"/>
+      <c r="G130" s="99"/>
+      <c r="H130" s="99"/>
+      <c r="I130" s="99"/>
+      <c r="J130" s="99"/>
+      <c r="K130" s="99"/>
+      <c r="L130" s="99"/>
+      <c r="M130" s="99"/>
+      <c r="N130" s="99"/>
+      <c r="O130" s="99"/>
       <c r="P130"/>
       <c r="Q130"/>
     </row>
     <row r="131" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B131" s="189"/>
-      <c r="C131" s="190"/>
-      <c r="D131" s="190"/>
-      <c r="E131" s="190"/>
-      <c r="F131" s="190"/>
-      <c r="G131" s="190"/>
-      <c r="H131" s="190"/>
-      <c r="I131" s="190"/>
-      <c r="J131" s="190"/>
-      <c r="K131" s="190"/>
-      <c r="L131" s="190"/>
-      <c r="M131" s="190"/>
-      <c r="N131" s="190"/>
-      <c r="O131" s="190"/>
+      <c r="B131" s="98"/>
+      <c r="C131" s="99"/>
+      <c r="D131" s="99"/>
+      <c r="E131" s="99"/>
+      <c r="F131" s="99"/>
+      <c r="G131" s="99"/>
+      <c r="H131" s="99"/>
+      <c r="I131" s="99"/>
+      <c r="J131" s="99"/>
+      <c r="K131" s="99"/>
+      <c r="L131" s="99"/>
+      <c r="M131" s="99"/>
+      <c r="N131" s="99"/>
+      <c r="O131" s="99"/>
       <c r="P131"/>
       <c r="Q131"/>
     </row>
     <row r="132" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B132" s="189"/>
-      <c r="C132" s="190"/>
-      <c r="D132" s="190"/>
-      <c r="E132" s="190"/>
-      <c r="F132" s="190"/>
-      <c r="G132" s="190"/>
-      <c r="H132" s="190"/>
-      <c r="I132" s="190"/>
-      <c r="J132" s="190"/>
-      <c r="K132" s="190"/>
-      <c r="L132" s="190"/>
-      <c r="M132" s="190"/>
-      <c r="N132" s="190"/>
-      <c r="O132" s="190"/>
+      <c r="B132" s="98"/>
+      <c r="C132" s="99"/>
+      <c r="D132" s="99"/>
+      <c r="E132" s="99"/>
+      <c r="F132" s="99"/>
+      <c r="G132" s="99"/>
+      <c r="H132" s="99"/>
+      <c r="I132" s="99"/>
+      <c r="J132" s="99"/>
+      <c r="K132" s="99"/>
+      <c r="L132" s="99"/>
+      <c r="M132" s="99"/>
+      <c r="N132" s="99"/>
+      <c r="O132" s="99"/>
       <c r="P132"/>
       <c r="Q132"/>
     </row>
     <row r="133" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B133" s="189"/>
-      <c r="C133" s="190"/>
-      <c r="D133" s="190"/>
-      <c r="E133" s="190"/>
-      <c r="F133" s="190"/>
-      <c r="G133" s="190"/>
-      <c r="H133" s="190"/>
-      <c r="I133" s="190"/>
-      <c r="J133" s="190"/>
-      <c r="K133" s="190"/>
-      <c r="L133" s="190"/>
-      <c r="M133" s="190"/>
-      <c r="N133" s="190"/>
-      <c r="O133" s="190"/>
+      <c r="B133" s="98"/>
+      <c r="C133" s="99"/>
+      <c r="D133" s="99"/>
+      <c r="E133" s="99"/>
+      <c r="F133" s="99"/>
+      <c r="G133" s="99"/>
+      <c r="H133" s="99"/>
+      <c r="I133" s="99"/>
+      <c r="J133" s="99"/>
+      <c r="K133" s="99"/>
+      <c r="L133" s="99"/>
+      <c r="M133" s="99"/>
+      <c r="N133" s="99"/>
+      <c r="O133" s="99"/>
       <c r="P133"/>
       <c r="Q133"/>
     </row>
     <row r="134" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B134" s="189"/>
-      <c r="C134" s="190"/>
-      <c r="D134" s="190"/>
-      <c r="E134" s="190"/>
-      <c r="F134" s="190"/>
-      <c r="G134" s="190"/>
-      <c r="H134" s="190"/>
-      <c r="I134" s="190"/>
-      <c r="J134" s="190"/>
-      <c r="K134" s="190"/>
-      <c r="L134" s="190"/>
-      <c r="M134" s="190"/>
-      <c r="N134" s="190"/>
-      <c r="O134" s="190"/>
+      <c r="B134" s="98"/>
+      <c r="C134" s="99"/>
+      <c r="D134" s="99"/>
+      <c r="E134" s="99"/>
+      <c r="F134" s="99"/>
+      <c r="G134" s="99"/>
+      <c r="H134" s="99"/>
+      <c r="I134" s="99"/>
+      <c r="J134" s="99"/>
+      <c r="K134" s="99"/>
+      <c r="L134" s="99"/>
+      <c r="M134" s="99"/>
+      <c r="N134" s="99"/>
+      <c r="O134" s="99"/>
       <c r="P134"/>
       <c r="Q134"/>
     </row>
     <row r="135" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B135" s="189"/>
-      <c r="C135" s="190"/>
-      <c r="D135" s="190"/>
-      <c r="E135" s="190"/>
-      <c r="F135" s="190"/>
-      <c r="G135" s="190"/>
-      <c r="H135" s="190"/>
-      <c r="I135" s="190"/>
-      <c r="J135" s="190"/>
-      <c r="K135" s="190"/>
-      <c r="L135" s="190"/>
-      <c r="M135" s="190"/>
-      <c r="N135" s="190"/>
-      <c r="O135" s="190"/>
+      <c r="B135" s="98"/>
+      <c r="C135" s="99"/>
+      <c r="D135" s="99"/>
+      <c r="E135" s="99"/>
+      <c r="F135" s="99"/>
+      <c r="G135" s="99"/>
+      <c r="H135" s="99"/>
+      <c r="I135" s="99"/>
+      <c r="J135" s="99"/>
+      <c r="K135" s="99"/>
+      <c r="L135" s="99"/>
+      <c r="M135" s="99"/>
+      <c r="N135" s="99"/>
+      <c r="O135" s="99"/>
       <c r="P135"/>
       <c r="Q135"/>
     </row>
     <row r="136" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B136" s="189"/>
-      <c r="C136" s="190"/>
-      <c r="D136" s="190"/>
-      <c r="E136" s="190"/>
-      <c r="F136" s="190"/>
-      <c r="G136" s="190"/>
-      <c r="H136" s="190"/>
-      <c r="I136" s="190"/>
-      <c r="J136" s="190"/>
-      <c r="K136" s="190"/>
-      <c r="L136" s="190"/>
-      <c r="M136" s="190"/>
-      <c r="N136" s="190"/>
-      <c r="O136" s="190"/>
+      <c r="B136" s="98"/>
+      <c r="C136" s="99"/>
+      <c r="D136" s="99"/>
+      <c r="E136" s="99"/>
+      <c r="F136" s="99"/>
+      <c r="G136" s="99"/>
+      <c r="H136" s="99"/>
+      <c r="I136" s="99"/>
+      <c r="J136" s="99"/>
+      <c r="K136" s="99"/>
+      <c r="L136" s="99"/>
+      <c r="M136" s="99"/>
+      <c r="N136" s="99"/>
+      <c r="O136" s="99"/>
       <c r="P136"/>
       <c r="Q136"/>
     </row>
     <row r="137" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B137" s="189"/>
-      <c r="C137" s="190"/>
-      <c r="D137" s="190"/>
-      <c r="E137" s="190"/>
-      <c r="F137" s="190"/>
-      <c r="G137" s="190"/>
-      <c r="H137" s="190"/>
-      <c r="I137" s="190"/>
-      <c r="J137" s="190"/>
-      <c r="K137" s="190"/>
-      <c r="L137" s="190"/>
-      <c r="M137" s="190"/>
-      <c r="N137" s="190"/>
-      <c r="O137" s="190"/>
+      <c r="B137" s="98"/>
+      <c r="C137" s="99"/>
+      <c r="D137" s="99"/>
+      <c r="E137" s="99"/>
+      <c r="F137" s="99"/>
+      <c r="G137" s="99"/>
+      <c r="H137" s="99"/>
+      <c r="I137" s="99"/>
+      <c r="J137" s="99"/>
+      <c r="K137" s="99"/>
+      <c r="L137" s="99"/>
+      <c r="M137" s="99"/>
+      <c r="N137" s="99"/>
+      <c r="O137" s="99"/>
       <c r="P137"/>
       <c r="Q137"/>
     </row>
     <row r="138" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B138" s="189"/>
-      <c r="C138" s="190"/>
-      <c r="D138" s="190"/>
-      <c r="E138" s="190"/>
-      <c r="F138" s="190"/>
-      <c r="G138" s="190"/>
-      <c r="H138" s="190"/>
-      <c r="I138" s="190"/>
-      <c r="J138" s="190"/>
-      <c r="K138" s="190"/>
-      <c r="L138" s="190"/>
-      <c r="M138" s="190"/>
-      <c r="N138" s="190"/>
-      <c r="O138" s="190"/>
+      <c r="B138" s="98"/>
+      <c r="C138" s="99"/>
+      <c r="D138" s="99"/>
+      <c r="E138" s="99"/>
+      <c r="F138" s="99"/>
+      <c r="G138" s="99"/>
+      <c r="H138" s="99"/>
+      <c r="I138" s="99"/>
+      <c r="J138" s="99"/>
+      <c r="K138" s="99"/>
+      <c r="L138" s="99"/>
+      <c r="M138" s="99"/>
+      <c r="N138" s="99"/>
+      <c r="O138" s="99"/>
       <c r="P138"/>
       <c r="Q138"/>
     </row>
     <row r="139" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B139" s="189"/>
-      <c r="C139" s="190"/>
-      <c r="D139" s="190"/>
-      <c r="E139" s="190"/>
-      <c r="F139" s="190"/>
-      <c r="G139" s="190"/>
-      <c r="H139" s="190"/>
-      <c r="I139" s="190"/>
-      <c r="J139" s="190"/>
-      <c r="K139" s="190"/>
-      <c r="L139" s="190"/>
-      <c r="M139" s="190"/>
-      <c r="N139" s="190"/>
-      <c r="O139" s="190"/>
+      <c r="B139" s="98"/>
+      <c r="C139" s="99"/>
+      <c r="D139" s="99"/>
+      <c r="E139" s="99"/>
+      <c r="F139" s="99"/>
+      <c r="G139" s="99"/>
+      <c r="H139" s="99"/>
+      <c r="I139" s="99"/>
+      <c r="J139" s="99"/>
+      <c r="K139" s="99"/>
+      <c r="L139" s="99"/>
+      <c r="M139" s="99"/>
+      <c r="N139" s="99"/>
+      <c r="O139" s="99"/>
       <c r="P139"/>
       <c r="Q139"/>
     </row>
     <row r="140" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B140" s="189"/>
-      <c r="C140" s="190"/>
-      <c r="D140" s="190"/>
-      <c r="E140" s="190"/>
-      <c r="F140" s="190"/>
-      <c r="G140" s="190"/>
-      <c r="H140" s="190"/>
-      <c r="I140" s="190"/>
-      <c r="J140" s="190"/>
-      <c r="K140" s="190"/>
-      <c r="L140" s="190"/>
-      <c r="M140" s="190"/>
-      <c r="N140" s="190"/>
-      <c r="O140" s="190"/>
+      <c r="B140" s="98"/>
+      <c r="C140" s="99"/>
+      <c r="D140" s="99"/>
+      <c r="E140" s="99"/>
+      <c r="F140" s="99"/>
+      <c r="G140" s="99"/>
+      <c r="H140" s="99"/>
+      <c r="I140" s="99"/>
+      <c r="J140" s="99"/>
+      <c r="K140" s="99"/>
+      <c r="L140" s="99"/>
+      <c r="M140" s="99"/>
+      <c r="N140" s="99"/>
+      <c r="O140" s="99"/>
       <c r="P140"/>
       <c r="Q140"/>
     </row>
     <row r="141" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B141" s="189"/>
-      <c r="C141" s="190"/>
-      <c r="D141" s="190"/>
-      <c r="E141" s="190"/>
-      <c r="F141" s="190"/>
-      <c r="G141" s="190"/>
-      <c r="H141" s="190"/>
-      <c r="I141" s="190"/>
-      <c r="J141" s="190"/>
-      <c r="K141" s="190"/>
-      <c r="L141" s="190"/>
-      <c r="M141" s="190"/>
-      <c r="N141" s="190"/>
-      <c r="O141" s="190"/>
+      <c r="B141" s="98"/>
+      <c r="C141" s="99"/>
+      <c r="D141" s="99"/>
+      <c r="E141" s="99"/>
+      <c r="F141" s="99"/>
+      <c r="G141" s="99"/>
+      <c r="H141" s="99"/>
+      <c r="I141" s="99"/>
+      <c r="J141" s="99"/>
+      <c r="K141" s="99"/>
+      <c r="L141" s="99"/>
+      <c r="M141" s="99"/>
+      <c r="N141" s="99"/>
+      <c r="O141" s="99"/>
       <c r="P141"/>
       <c r="Q141"/>
     </row>
     <row r="142" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B142" s="189"/>
-      <c r="C142" s="190"/>
-      <c r="D142" s="190"/>
-      <c r="E142" s="190"/>
-      <c r="F142" s="190"/>
-      <c r="G142" s="190"/>
-      <c r="H142" s="190"/>
-      <c r="I142" s="190"/>
-      <c r="J142" s="190"/>
-      <c r="K142" s="190"/>
-      <c r="L142" s="190"/>
-      <c r="M142" s="190"/>
-      <c r="N142" s="190"/>
-      <c r="O142" s="190"/>
+      <c r="B142" s="98"/>
+      <c r="C142" s="99"/>
+      <c r="D142" s="99"/>
+      <c r="E142" s="99"/>
+      <c r="F142" s="99"/>
+      <c r="G142" s="99"/>
+      <c r="H142" s="99"/>
+      <c r="I142" s="99"/>
+      <c r="J142" s="99"/>
+      <c r="K142" s="99"/>
+      <c r="L142" s="99"/>
+      <c r="M142" s="99"/>
+      <c r="N142" s="99"/>
+      <c r="O142" s="99"/>
       <c r="P142"/>
       <c r="Q142"/>
     </row>
     <row r="143" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B143" s="189"/>
-      <c r="C143" s="190"/>
-      <c r="D143" s="190"/>
-      <c r="E143" s="190"/>
-      <c r="F143" s="190"/>
-      <c r="G143" s="190"/>
-      <c r="H143" s="190"/>
-      <c r="I143" s="190"/>
-      <c r="J143" s="190"/>
-      <c r="K143" s="190"/>
-      <c r="L143" s="190"/>
-      <c r="M143" s="190"/>
-      <c r="N143" s="190"/>
-      <c r="O143" s="190"/>
+      <c r="B143" s="98"/>
+      <c r="C143" s="99"/>
+      <c r="D143" s="99"/>
+      <c r="E143" s="99"/>
+      <c r="F143" s="99"/>
+      <c r="G143" s="99"/>
+      <c r="H143" s="99"/>
+      <c r="I143" s="99"/>
+      <c r="J143" s="99"/>
+      <c r="K143" s="99"/>
+      <c r="L143" s="99"/>
+      <c r="M143" s="99"/>
+      <c r="N143" s="99"/>
+      <c r="O143" s="99"/>
       <c r="P143"/>
       <c r="Q143"/>
     </row>
     <row r="144" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B144" s="189"/>
-      <c r="C144" s="190"/>
-      <c r="D144" s="190"/>
-      <c r="E144" s="190"/>
-      <c r="F144" s="190"/>
-      <c r="G144" s="190"/>
-      <c r="H144" s="190"/>
-      <c r="I144" s="190"/>
-      <c r="J144" s="190"/>
-      <c r="K144" s="190"/>
-      <c r="L144" s="190"/>
-      <c r="M144" s="190"/>
-      <c r="N144" s="190"/>
-      <c r="O144" s="190"/>
+      <c r="B144" s="98"/>
+      <c r="C144" s="99"/>
+      <c r="D144" s="99"/>
+      <c r="E144" s="99"/>
+      <c r="F144" s="99"/>
+      <c r="G144" s="99"/>
+      <c r="H144" s="99"/>
+      <c r="I144" s="99"/>
+      <c r="J144" s="99"/>
+      <c r="K144" s="99"/>
+      <c r="L144" s="99"/>
+      <c r="M144" s="99"/>
+      <c r="N144" s="99"/>
+      <c r="O144" s="99"/>
       <c r="P144"/>
       <c r="Q144"/>
     </row>
     <row r="145" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B145" s="189"/>
-      <c r="C145" s="190"/>
-      <c r="D145" s="190"/>
-      <c r="E145" s="190"/>
-      <c r="F145" s="190"/>
-      <c r="G145" s="190"/>
-      <c r="H145" s="190"/>
-      <c r="I145" s="190"/>
-      <c r="J145" s="190"/>
-      <c r="K145" s="190"/>
-      <c r="L145" s="190"/>
-      <c r="M145" s="190"/>
-      <c r="N145" s="190"/>
-      <c r="O145" s="190"/>
+      <c r="B145" s="98"/>
+      <c r="C145" s="99"/>
+      <c r="D145" s="99"/>
+      <c r="E145" s="99"/>
+      <c r="F145" s="99"/>
+      <c r="G145" s="99"/>
+      <c r="H145" s="99"/>
+      <c r="I145" s="99"/>
+      <c r="J145" s="99"/>
+      <c r="K145" s="99"/>
+      <c r="L145" s="99"/>
+      <c r="M145" s="99"/>
+      <c r="N145" s="99"/>
+      <c r="O145" s="99"/>
       <c r="P145"/>
       <c r="Q145"/>
     </row>
     <row r="146" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B146" s="189"/>
-      <c r="C146" s="190"/>
-      <c r="D146" s="190"/>
-      <c r="E146" s="190"/>
-      <c r="F146" s="190"/>
-      <c r="G146" s="190"/>
-      <c r="H146" s="190"/>
-      <c r="I146" s="190"/>
-      <c r="J146" s="190"/>
-      <c r="K146" s="190"/>
-      <c r="L146" s="190"/>
-      <c r="M146" s="190"/>
-      <c r="N146" s="190"/>
-      <c r="O146" s="190"/>
+      <c r="B146" s="98"/>
+      <c r="C146" s="99"/>
+      <c r="D146" s="99"/>
+      <c r="E146" s="99"/>
+      <c r="F146" s="99"/>
+      <c r="G146" s="99"/>
+      <c r="H146" s="99"/>
+      <c r="I146" s="99"/>
+      <c r="J146" s="99"/>
+      <c r="K146" s="99"/>
+      <c r="L146" s="99"/>
+      <c r="M146" s="99"/>
+      <c r="N146" s="99"/>
+      <c r="O146" s="99"/>
       <c r="P146"/>
       <c r="Q146"/>
     </row>
     <row r="147" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B147" s="189"/>
-      <c r="C147" s="190"/>
-      <c r="D147" s="190"/>
-      <c r="E147" s="190"/>
-      <c r="F147" s="190"/>
-      <c r="G147" s="190"/>
-      <c r="H147" s="190"/>
-      <c r="I147" s="190"/>
-      <c r="J147" s="190"/>
-      <c r="K147" s="190"/>
-      <c r="L147" s="190"/>
-      <c r="M147" s="190"/>
-      <c r="N147" s="190"/>
-      <c r="O147" s="190"/>
+      <c r="B147" s="98"/>
+      <c r="C147" s="99"/>
+      <c r="D147" s="99"/>
+      <c r="E147" s="99"/>
+      <c r="F147" s="99"/>
+      <c r="G147" s="99"/>
+      <c r="H147" s="99"/>
+      <c r="I147" s="99"/>
+      <c r="J147" s="99"/>
+      <c r="K147" s="99"/>
+      <c r="L147" s="99"/>
+      <c r="M147" s="99"/>
+      <c r="N147" s="99"/>
+      <c r="O147" s="99"/>
       <c r="P147"/>
       <c r="Q147"/>
     </row>
     <row r="148" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B148" s="189"/>
-      <c r="C148" s="190"/>
-      <c r="D148" s="190"/>
-      <c r="E148" s="190"/>
-      <c r="F148" s="190"/>
-      <c r="G148" s="190"/>
-      <c r="H148" s="190"/>
-      <c r="I148" s="190"/>
-      <c r="J148" s="190"/>
-      <c r="K148" s="190"/>
-      <c r="L148" s="190"/>
-      <c r="M148" s="190"/>
-      <c r="N148" s="190"/>
-      <c r="O148" s="190"/>
+      <c r="B148" s="98"/>
+      <c r="C148" s="99"/>
+      <c r="D148" s="99"/>
+      <c r="E148" s="99"/>
+      <c r="F148" s="99"/>
+      <c r="G148" s="99"/>
+      <c r="H148" s="99"/>
+      <c r="I148" s="99"/>
+      <c r="J148" s="99"/>
+      <c r="K148" s="99"/>
+      <c r="L148" s="99"/>
+      <c r="M148" s="99"/>
+      <c r="N148" s="99"/>
+      <c r="O148" s="99"/>
       <c r="P148"/>
       <c r="Q148"/>
     </row>
     <row r="149" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B149" s="189"/>
-      <c r="C149" s="190"/>
-      <c r="D149" s="190"/>
-      <c r="E149" s="190"/>
-      <c r="F149" s="190"/>
-      <c r="G149" s="190"/>
-      <c r="H149" s="190"/>
-      <c r="I149" s="190"/>
-      <c r="J149" s="190"/>
-      <c r="K149" s="190"/>
-      <c r="L149" s="190"/>
-      <c r="M149" s="190"/>
-      <c r="N149" s="190"/>
-      <c r="O149" s="190"/>
+      <c r="B149" s="98"/>
+      <c r="C149" s="99"/>
+      <c r="D149" s="99"/>
+      <c r="E149" s="99"/>
+      <c r="F149" s="99"/>
+      <c r="G149" s="99"/>
+      <c r="H149" s="99"/>
+      <c r="I149" s="99"/>
+      <c r="J149" s="99"/>
+      <c r="K149" s="99"/>
+      <c r="L149" s="99"/>
+      <c r="M149" s="99"/>
+      <c r="N149" s="99"/>
+      <c r="O149" s="99"/>
       <c r="P149"/>
       <c r="Q149"/>
     </row>
     <row r="150" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B150" s="189"/>
-      <c r="C150" s="190"/>
-      <c r="D150" s="190"/>
-      <c r="E150" s="190"/>
-      <c r="F150" s="190"/>
-      <c r="G150" s="190"/>
-      <c r="H150" s="190"/>
-      <c r="I150" s="190"/>
-      <c r="J150" s="190"/>
-      <c r="K150" s="190"/>
-      <c r="L150" s="190"/>
-      <c r="M150" s="190"/>
-      <c r="N150" s="190"/>
-      <c r="O150" s="190"/>
+      <c r="B150" s="98"/>
+      <c r="C150" s="99"/>
+      <c r="D150" s="99"/>
+      <c r="E150" s="99"/>
+      <c r="F150" s="99"/>
+      <c r="G150" s="99"/>
+      <c r="H150" s="99"/>
+      <c r="I150" s="99"/>
+      <c r="J150" s="99"/>
+      <c r="K150" s="99"/>
+      <c r="L150" s="99"/>
+      <c r="M150" s="99"/>
+      <c r="N150" s="99"/>
+      <c r="O150" s="99"/>
       <c r="P150"/>
       <c r="Q150"/>
     </row>
     <row r="151" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B151" s="189"/>
-      <c r="C151" s="190"/>
-      <c r="D151" s="190"/>
-      <c r="E151" s="190"/>
-      <c r="F151" s="190"/>
-      <c r="G151" s="190"/>
-      <c r="H151" s="190"/>
-      <c r="I151" s="190"/>
-      <c r="J151" s="190"/>
-      <c r="K151" s="190"/>
-      <c r="L151" s="190"/>
-      <c r="M151" s="190"/>
-      <c r="N151" s="190"/>
-      <c r="O151" s="190"/>
+      <c r="B151" s="98"/>
+      <c r="C151" s="99"/>
+      <c r="D151" s="99"/>
+      <c r="E151" s="99"/>
+      <c r="F151" s="99"/>
+      <c r="G151" s="99"/>
+      <c r="H151" s="99"/>
+      <c r="I151" s="99"/>
+      <c r="J151" s="99"/>
+      <c r="K151" s="99"/>
+      <c r="L151" s="99"/>
+      <c r="M151" s="99"/>
+      <c r="N151" s="99"/>
+      <c r="O151" s="99"/>
       <c r="P151"/>
       <c r="Q151"/>
     </row>
     <row r="152" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B152" s="188" t="s">
+      <c r="B152" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="C152" s="188"/>
-      <c r="D152" s="188"/>
-      <c r="E152" s="188"/>
-      <c r="F152" s="188"/>
-      <c r="G152" s="188"/>
+      <c r="C152" s="138"/>
+      <c r="D152" s="138"/>
+      <c r="E152" s="138"/>
+      <c r="F152" s="138"/>
+      <c r="G152" s="138"/>
       <c r="H152"/>
       <c r="I152"/>
       <c r="J152"/>
@@ -7254,22 +7271,22 @@
       <c r="Q152"/>
     </row>
     <row r="153" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B153" s="188"/>
-      <c r="C153" s="188"/>
-      <c r="D153" s="188"/>
-      <c r="E153" s="188"/>
-      <c r="F153" s="188"/>
-      <c r="G153" s="188"/>
+      <c r="B153" s="138"/>
+      <c r="C153" s="138"/>
+      <c r="D153" s="138"/>
+      <c r="E153" s="138"/>
+      <c r="F153" s="138"/>
+      <c r="G153" s="138"/>
       <c r="H153"/>
       <c r="I153"/>
       <c r="J153"/>
       <c r="K153" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L153" s="199"/>
-      <c r="M153" s="199"/>
-      <c r="N153" s="199"/>
-      <c r="O153" s="199"/>
+      <c r="L153" s="149"/>
+      <c r="M153" s="149"/>
+      <c r="N153" s="149"/>
+      <c r="O153" s="149"/>
       <c r="P153"/>
       <c r="Q153"/>
     </row>
@@ -7285,6 +7302,113 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="131">
+    <mergeCell ref="E40:J41"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:G23"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="K24:P25"/>
+    <mergeCell ref="E20:G21"/>
+    <mergeCell ref="B20:D21"/>
+    <mergeCell ref="H20:J21"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:J29"/>
+    <mergeCell ref="K28:P29"/>
+    <mergeCell ref="B34:D35"/>
+    <mergeCell ref="K26:P27"/>
+    <mergeCell ref="K18:P19"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="B18:D19"/>
+    <mergeCell ref="E18:G19"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="Q33:U34"/>
+    <mergeCell ref="Q23:U24"/>
+    <mergeCell ref="E34:J35"/>
+    <mergeCell ref="R25:U26"/>
+    <mergeCell ref="Q29:U30"/>
+    <mergeCell ref="K68:P68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:J69"/>
+    <mergeCell ref="E30:J31"/>
+    <mergeCell ref="B46:D47"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="E36:J37"/>
+    <mergeCell ref="E32:J33"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="J56:P56"/>
+    <mergeCell ref="J59:P59"/>
+    <mergeCell ref="J57:P57"/>
+    <mergeCell ref="B50:I59"/>
+    <mergeCell ref="J58:P58"/>
+    <mergeCell ref="K36:O37"/>
+    <mergeCell ref="J51:P51"/>
+    <mergeCell ref="J52:P52"/>
+    <mergeCell ref="J54:P54"/>
+    <mergeCell ref="J53:P53"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="H18:J19"/>
+    <mergeCell ref="K20:P21"/>
+    <mergeCell ref="B152:G153"/>
+    <mergeCell ref="B79:O101"/>
+    <mergeCell ref="B103:J103"/>
+    <mergeCell ref="E38:J39"/>
+    <mergeCell ref="B40:D41"/>
+    <mergeCell ref="E46:G47"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:J68"/>
+    <mergeCell ref="B104:O126"/>
+    <mergeCell ref="L153:O153"/>
+    <mergeCell ref="J49:P49"/>
+    <mergeCell ref="J50:P50"/>
+    <mergeCell ref="B44:D45"/>
+    <mergeCell ref="E44:J45"/>
+    <mergeCell ref="B78:K78"/>
+    <mergeCell ref="J55:P55"/>
+    <mergeCell ref="B128:J128"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="B74:L77"/>
+    <mergeCell ref="B38:D39"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B42:D43"/>
+    <mergeCell ref="E42:J43"/>
     <mergeCell ref="B129:O151"/>
     <mergeCell ref="M74:P77"/>
     <mergeCell ref="B70:C70"/>
@@ -7309,113 +7433,6 @@
     <mergeCell ref="K42:O43"/>
     <mergeCell ref="K44:O45"/>
     <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B152:G153"/>
-    <mergeCell ref="B79:O101"/>
-    <mergeCell ref="B103:J103"/>
-    <mergeCell ref="E38:J39"/>
-    <mergeCell ref="B40:D41"/>
-    <mergeCell ref="E46:G47"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:J68"/>
-    <mergeCell ref="B104:O126"/>
-    <mergeCell ref="L153:O153"/>
-    <mergeCell ref="J49:P49"/>
-    <mergeCell ref="J50:P50"/>
-    <mergeCell ref="B44:D45"/>
-    <mergeCell ref="E44:J45"/>
-    <mergeCell ref="B78:K78"/>
-    <mergeCell ref="J55:P55"/>
-    <mergeCell ref="B128:J128"/>
-    <mergeCell ref="E64:I64"/>
-    <mergeCell ref="B74:L77"/>
-    <mergeCell ref="B38:D39"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B42:D43"/>
-    <mergeCell ref="E42:J43"/>
-    <mergeCell ref="J51:P51"/>
-    <mergeCell ref="J52:P52"/>
-    <mergeCell ref="J54:P54"/>
-    <mergeCell ref="J53:P53"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="H18:J19"/>
-    <mergeCell ref="K20:P21"/>
-    <mergeCell ref="Q33:U34"/>
-    <mergeCell ref="Q23:U24"/>
-    <mergeCell ref="E34:J35"/>
-    <mergeCell ref="R25:U26"/>
-    <mergeCell ref="Q29:U30"/>
-    <mergeCell ref="K68:P68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:J69"/>
-    <mergeCell ref="E30:J31"/>
-    <mergeCell ref="B46:D47"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="E36:J37"/>
-    <mergeCell ref="E32:J33"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="E66:I66"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="J56:P56"/>
-    <mergeCell ref="J59:P59"/>
-    <mergeCell ref="J57:P57"/>
-    <mergeCell ref="B50:I59"/>
-    <mergeCell ref="J58:P58"/>
-    <mergeCell ref="K36:O37"/>
-    <mergeCell ref="K18:P19"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="B18:D19"/>
-    <mergeCell ref="E18:G19"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="A16:P16"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="E40:J41"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:G23"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="K24:P25"/>
-    <mergeCell ref="E20:G21"/>
-    <mergeCell ref="B20:D21"/>
-    <mergeCell ref="H20:J21"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:J29"/>
-    <mergeCell ref="K28:P29"/>
-    <mergeCell ref="B34:D35"/>
-    <mergeCell ref="K26:P27"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K30:P31" xr:uid="{99C4485F-6818-4D5E-BAE9-AF169F6FC5D2}">
@@ -7780,11 +7797,11 @@
       <c r="A7" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="190"/>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="220"/>
-      <c r="F7" s="220"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/Reports/SKI_C_CVT.xlsx
+++ b/Reports/SKI_C_CVT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workProject\mpi_projects\MpiSki\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBC25A4-92C6-4C6F-8ACE-82EC56EE6666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD26005A-3059-4016-88E6-C90E212F3CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="1575" windowWidth="13320" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет ЦТ" sheetId="19" r:id="rId1"/>
@@ -1612,6 +1612,138 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1630,136 +1762,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1768,14 +1777,323 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1822,325 +2140,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2474,116 +2474,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88" t="str">
+      <c r="M1" s="46"/>
+      <c r="N1" s="46" t="str">
         <f>IF(D6="","",D6)</f>
         <v/>
       </c>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
     </row>
     <row r="2" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="I3" s="89" t="s">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+      <c r="I3" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="91"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="58"/>
     </row>
     <row r="4" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="85"/>
-      <c r="I4" s="78" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="48"/>
+      <c r="I4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="81" t="str">
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53" t="str">
         <f>REPT($I$1,1)</f>
         <v/>
       </c>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="83"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="55"/>
     </row>
     <row r="5" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="85"/>
-      <c r="I5" s="78" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="48"/>
+      <c r="I5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81" t="s">
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="83"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="55"/>
     </row>
     <row r="6" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="85"/>
-      <c r="I6" s="78" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="48"/>
+      <c r="I6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="81" t="s">
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="83"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="55"/>
     </row>
     <row r="7" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
@@ -2592,28 +2592,28 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="I7" s="78" t="s">
+      <c r="I7" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="83"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="55"/>
     </row>
     <row r="8" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="83"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="55"/>
     </row>
     <row r="9" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="37"/>
@@ -2622,18 +2622,18 @@
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
-      <c r="I9" s="78" t="s">
+      <c r="I9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="81" t="s">
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="83"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="55"/>
     </row>
     <row r="10" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="37"/>
@@ -2642,18 +2642,18 @@
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
-      <c r="I10" s="78" t="s">
+      <c r="I10" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="81" t="s">
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="83"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="55"/>
     </row>
     <row r="11" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="37"/>
@@ -2662,16 +2662,16 @@
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
-      <c r="I11" s="78" t="s">
+      <c r="I11" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="83"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="55"/>
     </row>
     <row r="12" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
@@ -2680,18 +2680,18 @@
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
-      <c r="I12" s="78" t="s">
+      <c r="I12" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81" t="s">
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="83"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="55"/>
     </row>
     <row r="13" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
@@ -2700,16 +2700,16 @@
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
-      <c r="I13" s="78" t="s">
+      <c r="I13" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="83"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="55"/>
     </row>
     <row r="14" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
@@ -2718,16 +2718,16 @@
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
-      <c r="I14" s="78" t="s">
+      <c r="I14" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="83"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="55"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
@@ -2738,281 +2738,281 @@
       <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="75"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
     </row>
     <row r="19" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="76" t="s">
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
     </row>
     <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
     </row>
     <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="76" t="s">
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
     </row>
     <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
     </row>
     <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
     </row>
     <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="65"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
     </row>
     <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="73" t="s">
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="74"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
     </row>
     <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="70"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="74"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
     </row>
     <row r="27" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
     </row>
     <row r="28" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="70"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
     </row>
     <row r="29" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="53"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
     </row>
     <row r="30" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="56"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
     </row>
     <row r="31" spans="1:17" ht="57.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="9"/>
@@ -3021,434 +3021,434 @@
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="62" t="s">
+      <c r="H31" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62" t="s">
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
     </row>
     <row r="32" spans="1:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29"/>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="64" t="s">
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64" t="s">
+      <c r="I32" s="86"/>
+      <c r="J32" s="86" t="s">
         <v>155</v>
       </c>
-      <c r="K32" s="64"/>
+      <c r="K32" s="86"/>
       <c r="L32" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="M32" s="64" t="s">
+      <c r="M32" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64" t="s">
+      <c r="N32" s="86"/>
+      <c r="O32" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="P32" s="64"/>
+      <c r="P32" s="86"/>
       <c r="Q32" s="30" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="51"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="87"/>
     </row>
     <row r="34" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
     </row>
     <row r="35" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="88" t="s">
         <v>131</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="87"/>
     </row>
     <row r="36" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
     </row>
     <row r="37" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="51"/>
-      <c r="Q37" s="51"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="87"/>
+      <c r="N37" s="87"/>
+      <c r="O37" s="87"/>
+      <c r="P37" s="87"/>
+      <c r="Q37" s="87"/>
     </row>
     <row r="38" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="51"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="87"/>
+      <c r="N38" s="87"/>
+      <c r="O38" s="87"/>
+      <c r="P38" s="87"/>
+      <c r="Q38" s="87"/>
     </row>
     <row r="39" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="87"/>
+      <c r="N39" s="87"/>
+      <c r="O39" s="87"/>
+      <c r="P39" s="87"/>
+      <c r="Q39" s="87"/>
     </row>
     <row r="40" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
     </row>
     <row r="41" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="51"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="87"/>
+      <c r="Q41" s="87"/>
     </row>
     <row r="42" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="51"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="87"/>
+      <c r="P42" s="87"/>
+      <c r="Q42" s="87"/>
     </row>
     <row r="43" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="51"/>
-      <c r="Q43" s="51"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="87"/>
+      <c r="L43" s="87"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="87"/>
+      <c r="P43" s="87"/>
+      <c r="Q43" s="87"/>
     </row>
     <row r="44" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="51"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="87"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="87"/>
     </row>
     <row r="45" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
-      <c r="P45" s="51"/>
-      <c r="Q45" s="51"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="87"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="87"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="87"/>
+      <c r="O45" s="87"/>
+      <c r="P45" s="87"/>
+      <c r="Q45" s="87"/>
     </row>
     <row r="46" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="51"/>
-      <c r="O46" s="51"/>
-      <c r="P46" s="51"/>
-      <c r="Q46" s="51"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="87"/>
+      <c r="P46" s="87"/>
+      <c r="Q46" s="87"/>
     </row>
     <row r="47" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
-      <c r="N47" s="51"/>
-      <c r="O47" s="51"/>
-      <c r="P47" s="51"/>
-      <c r="Q47" s="51"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="87"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="87"/>
+      <c r="P47" s="87"/>
+      <c r="Q47" s="87"/>
     </row>
     <row r="48" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="51"/>
-      <c r="P48" s="51"/>
-      <c r="Q48" s="51"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="87"/>
+      <c r="O48" s="87"/>
+      <c r="P48" s="87"/>
+      <c r="Q48" s="87"/>
     </row>
     <row r="49" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="51"/>
-      <c r="N49" s="51"/>
-      <c r="O49" s="51"/>
-      <c r="P49" s="51"/>
-      <c r="Q49" s="51"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="87"/>
+      <c r="J49" s="87"/>
+      <c r="K49" s="87"/>
+      <c r="L49" s="87"/>
+      <c r="M49" s="87"/>
+      <c r="N49" s="87"/>
+      <c r="O49" s="87"/>
+      <c r="P49" s="87"/>
+      <c r="Q49" s="87"/>
     </row>
     <row r="50" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="52"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="51"/>
-      <c r="N50" s="51"/>
-      <c r="O50" s="51"/>
-      <c r="P50" s="51"/>
-      <c r="Q50" s="51"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="87"/>
+      <c r="O50" s="87"/>
+      <c r="P50" s="87"/>
+      <c r="Q50" s="87"/>
     </row>
     <row r="51" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="51"/>
-      <c r="M51" s="51"/>
-      <c r="N51" s="51"/>
-      <c r="O51" s="51"/>
-      <c r="P51" s="51"/>
-      <c r="Q51" s="51"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="87"/>
+      <c r="J51" s="87"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="87"/>
+      <c r="M51" s="87"/>
+      <c r="N51" s="87"/>
+      <c r="O51" s="87"/>
+      <c r="P51" s="87"/>
+      <c r="Q51" s="87"/>
     </row>
     <row r="52" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="51"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="51"/>
-      <c r="Q52" s="51"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="88"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="87"/>
+      <c r="J52" s="87"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="87"/>
+      <c r="M52" s="87"/>
+      <c r="N52" s="87"/>
+      <c r="O52" s="87"/>
+      <c r="P52" s="87"/>
+      <c r="Q52" s="87"/>
     </row>
     <row r="53" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="31"/>
@@ -3504,59 +3504,59 @@
     </row>
     <row r="56" spans="1:17" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="49"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="46"/>
-      <c r="O56" s="46"/>
-      <c r="P56" s="46"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="94"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="94"/>
+      <c r="J56" s="94"/>
+      <c r="K56" s="90"/>
+      <c r="L56" s="90"/>
+      <c r="M56" s="90"/>
+      <c r="N56" s="90"/>
+      <c r="O56" s="90"/>
+      <c r="P56" s="90"/>
     </row>
     <row r="57" spans="1:17" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="46"/>
-      <c r="N57" s="46"/>
-      <c r="O57" s="46"/>
-      <c r="P57" s="46"/>
+      <c r="B57" s="93"/>
+      <c r="C57" s="93"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="94"/>
+      <c r="F57" s="94"/>
+      <c r="G57" s="94"/>
+      <c r="H57" s="94"/>
+      <c r="I57" s="94"/>
+      <c r="J57" s="94"/>
+      <c r="K57" s="90"/>
+      <c r="L57" s="90"/>
+      <c r="M57" s="90"/>
+      <c r="N57" s="90"/>
+      <c r="O57" s="90"/>
+      <c r="P57" s="90"/>
     </row>
     <row r="58" spans="1:17" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="46"/>
-      <c r="O58" s="46"/>
-      <c r="P58" s="46"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89"/>
+      <c r="G58" s="89"/>
+      <c r="H58" s="89"/>
+      <c r="I58" s="89"/>
+      <c r="J58" s="89"/>
+      <c r="K58" s="90"/>
+      <c r="L58" s="90"/>
+      <c r="M58" s="90"/>
+      <c r="N58" s="90"/>
+      <c r="O58" s="90"/>
+      <c r="P58" s="90"/>
     </row>
     <row r="59" spans="1:17" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
@@ -3590,22 +3590,22 @@
       <c r="K60" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="47"/>
+      <c r="L60" s="91"/>
+      <c r="M60" s="91"/>
+      <c r="N60" s="91"/>
       <c r="O60" s="34"/>
       <c r="P60" s="7"/>
     </row>
     <row r="61" spans="1:17" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="92"/>
+      <c r="G61" s="92"/>
       <c r="H61" s="24"/>
       <c r="I61" s="24"/>
       <c r="J61" s="24"/>
@@ -3619,26 +3619,108 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="136">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:J58"/>
+    <mergeCell ref="K58:P58"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="K56:P56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="K57:P57"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="B51:G52"/>
+    <mergeCell ref="H51:I52"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:N52"/>
+    <mergeCell ref="O51:P52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="B49:G50"/>
+    <mergeCell ref="H49:I50"/>
+    <mergeCell ref="J49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:N50"/>
+    <mergeCell ref="O49:P50"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="B47:G48"/>
+    <mergeCell ref="H47:I48"/>
+    <mergeCell ref="J47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:N48"/>
+    <mergeCell ref="O47:P48"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="B45:G46"/>
+    <mergeCell ref="H45:I46"/>
+    <mergeCell ref="J45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:N46"/>
+    <mergeCell ref="O45:P46"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="B43:G44"/>
+    <mergeCell ref="H43:I44"/>
+    <mergeCell ref="J43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:N44"/>
+    <mergeCell ref="O43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="B41:G42"/>
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="J41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="O41:P42"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="B39:G40"/>
+    <mergeCell ref="H39:I40"/>
+    <mergeCell ref="J39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:N40"/>
+    <mergeCell ref="O39:P40"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="B37:G38"/>
+    <mergeCell ref="H37:I38"/>
+    <mergeCell ref="J37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:N38"/>
+    <mergeCell ref="O37:P38"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="B35:G36"/>
+    <mergeCell ref="H35:I36"/>
+    <mergeCell ref="J35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="O35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="B33:G34"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="J33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="O33:P34"/>
+    <mergeCell ref="B29:D30"/>
+    <mergeCell ref="E29:J30"/>
+    <mergeCell ref="K29:O30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="B23:G24"/>
+    <mergeCell ref="H23:P24"/>
+    <mergeCell ref="B25:G26"/>
+    <mergeCell ref="H25:P26"/>
+    <mergeCell ref="B27:G28"/>
+    <mergeCell ref="H27:P28"/>
+    <mergeCell ref="A16:Q18"/>
+    <mergeCell ref="B19:G20"/>
+    <mergeCell ref="H19:P20"/>
+    <mergeCell ref="B21:G22"/>
+    <mergeCell ref="H21:P22"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="M8:P8"/>
     <mergeCell ref="I9:L9"/>
@@ -3653,108 +3735,26 @@
     <mergeCell ref="M11:P11"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="M12:P12"/>
-    <mergeCell ref="B23:G24"/>
-    <mergeCell ref="H23:P24"/>
-    <mergeCell ref="B25:G26"/>
-    <mergeCell ref="H25:P26"/>
-    <mergeCell ref="B27:G28"/>
-    <mergeCell ref="H27:P28"/>
-    <mergeCell ref="A16:Q18"/>
-    <mergeCell ref="B19:G20"/>
-    <mergeCell ref="H19:P20"/>
-    <mergeCell ref="B21:G22"/>
-    <mergeCell ref="H21:P22"/>
-    <mergeCell ref="B29:D30"/>
-    <mergeCell ref="E29:J30"/>
-    <mergeCell ref="K29:O30"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="B35:G36"/>
-    <mergeCell ref="H35:I36"/>
-    <mergeCell ref="J35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:N36"/>
-    <mergeCell ref="O35:P36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="B33:G34"/>
-    <mergeCell ref="H33:I34"/>
-    <mergeCell ref="J33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="O33:P34"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="B39:G40"/>
-    <mergeCell ref="H39:I40"/>
-    <mergeCell ref="J39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:N40"/>
-    <mergeCell ref="O39:P40"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="B37:G38"/>
-    <mergeCell ref="H37:I38"/>
-    <mergeCell ref="J37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="O37:P38"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="B43:G44"/>
-    <mergeCell ref="H43:I44"/>
-    <mergeCell ref="J43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:N44"/>
-    <mergeCell ref="O43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="B41:G42"/>
-    <mergeCell ref="H41:I42"/>
-    <mergeCell ref="J41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="O41:P42"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="B47:G48"/>
-    <mergeCell ref="H47:I48"/>
-    <mergeCell ref="J47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:N48"/>
-    <mergeCell ref="O47:P48"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="B45:G46"/>
-    <mergeCell ref="H45:I46"/>
-    <mergeCell ref="J45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="O45:P46"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="B51:G52"/>
-    <mergeCell ref="H51:I52"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:N52"/>
-    <mergeCell ref="O51:P52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="B49:G50"/>
-    <mergeCell ref="H49:I50"/>
-    <mergeCell ref="J49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:P50"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:J58"/>
-    <mergeCell ref="K58:P58"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="K56:P56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="K57:P57"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="B3:G3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="1.4960629921259843" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
@@ -3768,8 +3768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42638512-D67E-4633-B448-355699D335A1}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3780,28 +3780,28 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88" t="str">
+      <c r="M1" s="46"/>
+      <c r="N1" s="46" t="str">
         <f>IF(D6="","",D6)</f>
         <v/>
       </c>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -3825,101 +3825,101 @@
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="99"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="97"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="89" t="s">
+      <c r="I3" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="91"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="58"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="78" t="s">
+      <c r="I4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="81" t="str">
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53" t="str">
         <f>REPT($I$1,1)</f>
         <v/>
       </c>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="83"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="55"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="80"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="78" t="s">
+      <c r="I5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81" t="s">
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="83"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="55"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="80"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="81" t="s">
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="83"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="55"/>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3931,16 +3931,16 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="78" t="s">
+      <c r="I7" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="83"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="55"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3952,16 +3952,16 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="83"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="55"/>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3973,18 +3973,18 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="78" t="s">
+      <c r="I9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="81" t="s">
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="83"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="55"/>
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3996,18 +3996,18 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="78" t="s">
+      <c r="I10" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="81" t="s">
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="83"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="55"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4019,16 +4019,16 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="78" t="s">
+      <c r="I11" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="83"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="55"/>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4040,18 +4040,18 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="78" t="s">
+      <c r="I12" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81" t="s">
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="83"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="55"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4063,16 +4063,16 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="78" t="s">
+      <c r="I13" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="83"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="55"/>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4084,16 +4084,16 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="78" t="s">
+      <c r="I14" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="83"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="55"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4117,593 +4117,593 @@
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="95"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="98"/>
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="95"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="98"/>
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="98"/>
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="95"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="98"/>
+      <c r="M31" s="98"/>
+      <c r="N31" s="98"/>
+      <c r="O31" s="98"/>
+      <c r="P31" s="98"/>
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="98"/>
+      <c r="M32" s="98"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="98"/>
+      <c r="P32" s="98"/>
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="98"/>
+      <c r="P33" s="98"/>
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="98"/>
+      <c r="M34" s="98"/>
+      <c r="N34" s="98"/>
+      <c r="O34" s="98"/>
+      <c r="P34" s="98"/>
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="95"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="98"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="98"/>
+      <c r="P35" s="98"/>
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="95"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="95"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="98"/>
+      <c r="M36" s="98"/>
+      <c r="N36" s="98"/>
+      <c r="O36" s="98"/>
+      <c r="P36" s="98"/>
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="95"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="95"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="98"/>
+      <c r="M37" s="98"/>
+      <c r="N37" s="98"/>
+      <c r="O37" s="98"/>
+      <c r="P37" s="98"/>
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="95"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="95"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="95"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="98"/>
+      <c r="N38" s="98"/>
+      <c r="O38" s="98"/>
+      <c r="P38" s="98"/>
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="95"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="95"/>
-      <c r="O39" s="95"/>
-      <c r="P39" s="95"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="98"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
+      <c r="L39" s="98"/>
+      <c r="M39" s="98"/>
+      <c r="N39" s="98"/>
+      <c r="O39" s="98"/>
+      <c r="P39" s="98"/>
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="95"/>
-      <c r="H40" s="95"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="95"/>
-      <c r="N40" s="95"/>
-      <c r="O40" s="95"/>
-      <c r="P40" s="95"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="98"/>
+      <c r="J40" s="98"/>
+      <c r="K40" s="98"/>
+      <c r="L40" s="98"/>
+      <c r="M40" s="98"/>
+      <c r="N40" s="98"/>
+      <c r="O40" s="98"/>
+      <c r="P40" s="98"/>
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="95"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="95"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="95"/>
-      <c r="L41" s="95"/>
-      <c r="M41" s="95"/>
-      <c r="N41" s="95"/>
-      <c r="O41" s="95"/>
-      <c r="P41" s="95"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="98"/>
+      <c r="I41" s="98"/>
+      <c r="J41" s="98"/>
+      <c r="K41" s="98"/>
+      <c r="L41" s="98"/>
+      <c r="M41" s="98"/>
+      <c r="N41" s="98"/>
+      <c r="O41" s="98"/>
+      <c r="P41" s="98"/>
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="95"/>
-      <c r="O42" s="95"/>
-      <c r="P42" s="95"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="98"/>
+      <c r="K42" s="98"/>
+      <c r="L42" s="98"/>
+      <c r="M42" s="98"/>
+      <c r="N42" s="98"/>
+      <c r="O42" s="98"/>
+      <c r="P42" s="98"/>
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="95"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="95"/>
-      <c r="N43" s="95"/>
-      <c r="O43" s="95"/>
-      <c r="P43" s="95"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="98"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="98"/>
+      <c r="K43" s="98"/>
+      <c r="L43" s="98"/>
+      <c r="M43" s="98"/>
+      <c r="N43" s="98"/>
+      <c r="O43" s="98"/>
+      <c r="P43" s="98"/>
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="95"/>
-      <c r="N44" s="95"/>
-      <c r="O44" s="95"/>
-      <c r="P44" s="95"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="98"/>
+      <c r="N44" s="98"/>
+      <c r="O44" s="98"/>
+      <c r="P44" s="98"/>
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="95"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="95"/>
-      <c r="K45" s="95"/>
-      <c r="L45" s="95"/>
-      <c r="M45" s="95"/>
-      <c r="N45" s="95"/>
-      <c r="O45" s="95"/>
-      <c r="P45" s="95"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="98"/>
+      <c r="I45" s="98"/>
+      <c r="J45" s="98"/>
+      <c r="K45" s="98"/>
+      <c r="L45" s="98"/>
+      <c r="M45" s="98"/>
+      <c r="N45" s="98"/>
+      <c r="O45" s="98"/>
+      <c r="P45" s="98"/>
       <c r="Q45" s="1"/>
     </row>
     <row r="46" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="95"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="95"/>
-      <c r="K46" s="95"/>
-      <c r="L46" s="95"/>
-      <c r="M46" s="95"/>
-      <c r="N46" s="95"/>
-      <c r="O46" s="95"/>
-      <c r="P46" s="95"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="98"/>
+      <c r="I46" s="98"/>
+      <c r="J46" s="98"/>
+      <c r="K46" s="98"/>
+      <c r="L46" s="98"/>
+      <c r="M46" s="98"/>
+      <c r="N46" s="98"/>
+      <c r="O46" s="98"/>
+      <c r="P46" s="98"/>
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4764,63 +4764,63 @@
       <c r="Q49" s="1"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="75" t="s">
+      <c r="A50" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="75"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="75"/>
-      <c r="K50" s="75"/>
-      <c r="L50" s="75"/>
-      <c r="M50" s="75"/>
-      <c r="N50" s="75"/>
-      <c r="O50" s="75"/>
-      <c r="P50" s="75"/>
-      <c r="Q50" s="75"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="72"/>
+      <c r="N50" s="72"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="72"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="75"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="75"/>
-      <c r="N51" s="75"/>
-      <c r="O51" s="75"/>
-      <c r="P51" s="75"/>
-      <c r="Q51" s="75"/>
+      <c r="A51" s="72"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="72"/>
+      <c r="O51" s="72"/>
+      <c r="P51" s="72"/>
+      <c r="Q51" s="72"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="75"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="75"/>
-      <c r="L52" s="75"/>
-      <c r="M52" s="75"/>
-      <c r="N52" s="75"/>
-      <c r="O52" s="75"/>
-      <c r="P52" s="75"/>
-      <c r="Q52" s="75"/>
+      <c r="A52" s="72"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="72"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5011,40 +5011,14 @@
       <c r="K76" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="L76" s="47"/>
-      <c r="M76" s="47"/>
-      <c r="N76" s="47"/>
+      <c r="L76" s="91"/>
+      <c r="M76" s="91"/>
+      <c r="N76" s="91"/>
       <c r="O76" s="34"/>
       <c r="P76" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="M10:P10"/>
     <mergeCell ref="L76:N76"/>
     <mergeCell ref="A50:Q52"/>
     <mergeCell ref="I14:L14"/>
@@ -5057,6 +5031,32 @@
     <mergeCell ref="M13:P13"/>
     <mergeCell ref="B18:P46"/>
     <mergeCell ref="B16:P17"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
@@ -5086,28 +5086,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="188" t="s">
+      <c r="B1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185" t="s">
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185" t="str">
+      <c r="M1" s="164"/>
+      <c r="N1" s="164" t="str">
         <f>IF(D6="","",D6)</f>
         <v/>
       </c>
-      <c r="O1" s="185"/>
-      <c r="P1" s="185"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="25"/>
@@ -5127,95 +5127,95 @@
       <c r="P2" s="25"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="186" t="s">
+      <c r="B3" s="165" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="187"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="166"/>
       <c r="H3" s="25"/>
-      <c r="I3" s="186" t="s">
+      <c r="I3" s="165" t="s">
         <v>141</v>
       </c>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="187"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="166"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="186" t="s">
+      <c r="B4" s="165" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="187"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="187"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="166"/>
       <c r="H4" s="25"/>
-      <c r="I4" s="140" t="s">
+      <c r="I4" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="141" t="str">
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="169" t="str">
         <f>REPT($I$1,1)</f>
         <v/>
       </c>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
-      <c r="P4" s="143"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
+      <c r="P4" s="171"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="186" t="s">
+      <c r="B5" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="187"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189"/>
-      <c r="G5" s="187"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="166"/>
       <c r="H5" s="25"/>
-      <c r="I5" s="140" t="s">
+      <c r="I5" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="141" t="s">
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="142"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="143"/>
+      <c r="N5" s="170"/>
+      <c r="O5" s="170"/>
+      <c r="P5" s="171"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="165" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="187"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="187"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="166"/>
       <c r="H6" s="25"/>
-      <c r="I6" s="140" t="s">
+      <c r="I6" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="141" t="s">
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="142"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="143"/>
+      <c r="N6" s="170"/>
+      <c r="O6" s="170"/>
+      <c r="P6" s="171"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
@@ -5225,16 +5225,16 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="25"/>
-      <c r="I7" s="140" t="s">
+      <c r="I7" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="142"/>
-      <c r="P7" s="143"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="170"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="171"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="25"/>
@@ -5244,16 +5244,16 @@
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
-      <c r="I8" s="140" t="s">
+      <c r="I8" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="140"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="142"/>
-      <c r="O8" s="142"/>
-      <c r="P8" s="143"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="169"/>
+      <c r="N8" s="170"/>
+      <c r="O8" s="170"/>
+      <c r="P8" s="171"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
@@ -5263,18 +5263,18 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="140" t="s">
+      <c r="I9" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="140"/>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="141" t="s">
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="142"/>
-      <c r="O9" s="142"/>
-      <c r="P9" s="143"/>
+      <c r="N9" s="170"/>
+      <c r="O9" s="170"/>
+      <c r="P9" s="171"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
@@ -5290,12 +5290,12 @@
       <c r="J10" s="125"/>
       <c r="K10" s="125"/>
       <c r="L10" s="125"/>
-      <c r="M10" s="141" t="s">
+      <c r="M10" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="142"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="143"/>
+      <c r="N10" s="170"/>
+      <c r="O10" s="170"/>
+      <c r="P10" s="171"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
@@ -5311,10 +5311,10 @@
       <c r="J11" s="125"/>
       <c r="K11" s="125"/>
       <c r="L11" s="125"/>
-      <c r="M11" s="144"/>
-      <c r="N11" s="145"/>
-      <c r="O11" s="145"/>
-      <c r="P11" s="146"/>
+      <c r="M11" s="202"/>
+      <c r="N11" s="203"/>
+      <c r="O11" s="203"/>
+      <c r="P11" s="204"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
@@ -5330,12 +5330,12 @@
       <c r="J12" s="125"/>
       <c r="K12" s="125"/>
       <c r="L12" s="125"/>
-      <c r="M12" s="144" t="s">
+      <c r="M12" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="145"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="146"/>
+      <c r="N12" s="203"/>
+      <c r="O12" s="203"/>
+      <c r="P12" s="204"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
@@ -5351,10 +5351,10 @@
       <c r="J13" s="125"/>
       <c r="K13" s="125"/>
       <c r="L13" s="125"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="145"/>
-      <c r="O13" s="145"/>
-      <c r="P13" s="146"/>
+      <c r="M13" s="202"/>
+      <c r="N13" s="203"/>
+      <c r="O13" s="203"/>
+      <c r="P13" s="204"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
@@ -5364,16 +5364,16 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="139" t="s">
+      <c r="I14" s="201" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="139"/>
-      <c r="K14" s="139"/>
-      <c r="L14" s="139"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
-      <c r="P14" s="124"/>
+      <c r="J14" s="201"/>
+      <c r="K14" s="201"/>
+      <c r="L14" s="201"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="110"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
@@ -5392,34 +5392,34 @@
       <c r="Q15" s="36"/>
     </row>
     <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A16" s="147" t="s">
+      <c r="A16" s="205" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="147"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="147"/>
-      <c r="M16" s="147"/>
-      <c r="N16" s="147"/>
-      <c r="O16" s="147"/>
-      <c r="P16" s="147"/>
+      <c r="B16" s="205"/>
+      <c r="C16" s="205"/>
+      <c r="D16" s="205"/>
+      <c r="E16" s="205"/>
+      <c r="F16" s="205"/>
+      <c r="G16" s="205"/>
+      <c r="H16" s="205"/>
+      <c r="I16" s="205"/>
+      <c r="J16" s="205"/>
+      <c r="K16" s="205"/>
+      <c r="L16" s="205"/>
+      <c r="M16" s="205"/>
+      <c r="N16" s="205"/>
+      <c r="O16" s="205"/>
+      <c r="P16" s="205"/>
     </row>
     <row r="17" spans="2:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="Q17" s="35"/>
     </row>
     <row r="18" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
       <c r="E18" s="125" t="s">
         <v>118</v>
       </c>
@@ -5430,32 +5430,32 @@
       </c>
       <c r="I18" s="125"/>
       <c r="J18" s="125"/>
-      <c r="K18" s="133" t="s">
+      <c r="K18" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="135"/>
+      <c r="L18" s="196"/>
+      <c r="M18" s="196"/>
+      <c r="N18" s="196"/>
+      <c r="O18" s="196"/>
+      <c r="P18" s="197"/>
       <c r="Q18" s="35"/>
     </row>
     <row r="19" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="140"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
       <c r="E19" s="125"/>
       <c r="F19" s="125"/>
       <c r="G19" s="125"/>
       <c r="H19" s="125"/>
       <c r="I19" s="125"/>
       <c r="J19" s="125"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="137"/>
-      <c r="M19" s="137"/>
-      <c r="N19" s="137"/>
-      <c r="O19" s="137"/>
-      <c r="P19" s="138"/>
+      <c r="K19" s="198"/>
+      <c r="L19" s="199"/>
+      <c r="M19" s="199"/>
+      <c r="N19" s="199"/>
+      <c r="O19" s="199"/>
+      <c r="P19" s="200"/>
       <c r="Q19" s="35"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
@@ -5464,84 +5464,84 @@
       </c>
       <c r="C20" s="125"/>
       <c r="D20" s="125"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="126" t="s">
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="221" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="126"/>
-      <c r="J20" s="126"/>
-      <c r="K20" s="122" t="s">
+      <c r="I20" s="221"/>
+      <c r="J20" s="221"/>
+      <c r="K20" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="124"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="109"/>
+      <c r="O20" s="109"/>
+      <c r="P20" s="110"/>
     </row>
     <row r="21" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="125"/>
       <c r="C21" s="125"/>
       <c r="D21" s="125"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="124"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="221"/>
+      <c r="I21" s="221"/>
+      <c r="J21" s="221"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="109"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="109"/>
+      <c r="P21" s="110"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="109" t="s">
+      <c r="B22" s="215" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="115" t="s">
+      <c r="C22" s="216"/>
+      <c r="D22" s="217"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="116"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="127" t="s">
+      <c r="I22" s="112"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="L22" s="128"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="128"/>
-      <c r="O22" s="128"/>
-      <c r="P22" s="129"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="120"/>
     </row>
     <row r="23" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="112"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="131"/>
-      <c r="P23" s="132"/>
-      <c r="Q23" s="148"/>
-      <c r="R23" s="149"/>
-      <c r="S23" s="149"/>
-      <c r="T23" s="149"/>
-      <c r="U23" s="149"/>
+      <c r="B23" s="218"/>
+      <c r="C23" s="219"/>
+      <c r="D23" s="220"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="122"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="172"/>
+      <c r="R23" s="173"/>
+      <c r="S23" s="173"/>
+      <c r="T23" s="173"/>
+      <c r="U23" s="173"/>
     </row>
     <row r="24" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="125" t="s">
@@ -5549,48 +5549,48 @@
       </c>
       <c r="C24" s="125"/>
       <c r="D24" s="125"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121" t="s">
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="121"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="122" t="s">
+      <c r="I24" s="126"/>
+      <c r="J24" s="126"/>
+      <c r="K24" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="123"/>
-      <c r="M24" s="123"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="124"/>
-      <c r="Q24" s="148"/>
-      <c r="R24" s="149"/>
-      <c r="S24" s="149"/>
-      <c r="T24" s="149"/>
-      <c r="U24" s="149"/>
+      <c r="L24" s="109"/>
+      <c r="M24" s="109"/>
+      <c r="N24" s="109"/>
+      <c r="O24" s="109"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="172"/>
+      <c r="R24" s="173"/>
+      <c r="S24" s="173"/>
+      <c r="T24" s="173"/>
+      <c r="U24" s="173"/>
     </row>
     <row r="25" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="125"/>
       <c r="C25" s="125"/>
       <c r="D25" s="125"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="121"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="123"/>
-      <c r="M25" s="123"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="124"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="109"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="109"/>
+      <c r="P25" s="110"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
     </row>
     <row r="26" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="125" t="s">
@@ -5598,133 +5598,133 @@
       </c>
       <c r="C26" s="125"/>
       <c r="D26" s="125"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="122" t="s">
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="L26" s="123"/>
-      <c r="M26" s="123"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="123"/>
-      <c r="P26" s="124"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="95"/>
-      <c r="U26" s="95"/>
+      <c r="L26" s="109"/>
+      <c r="M26" s="109"/>
+      <c r="N26" s="109"/>
+      <c r="O26" s="109"/>
+      <c r="P26" s="110"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
     </row>
     <row r="27" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="125"/>
       <c r="C27" s="125"/>
       <c r="D27" s="125"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="122"/>
-      <c r="L27" s="123"/>
-      <c r="M27" s="123"/>
-      <c r="N27" s="123"/>
-      <c r="O27" s="123"/>
-      <c r="P27" s="124"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="126"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="109"/>
+      <c r="O27" s="109"/>
+      <c r="P27" s="110"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
       <c r="T27" s="21"/>
       <c r="U27" s="21"/>
     </row>
     <row r="28" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="109" t="s">
+      <c r="B28" s="215" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="110"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="129"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="217"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="119"/>
+      <c r="O28" s="119"/>
+      <c r="P28" s="120"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
       <c r="U28" s="21"/>
     </row>
     <row r="29" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="112"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="120"/>
-      <c r="K29" s="130"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="131"/>
-      <c r="N29" s="131"/>
-      <c r="O29" s="131"/>
-      <c r="P29" s="132"/>
-      <c r="Q29" s="148"/>
-      <c r="R29" s="149"/>
-      <c r="S29" s="149"/>
-      <c r="T29" s="149"/>
-      <c r="U29" s="149"/>
+      <c r="B29" s="218"/>
+      <c r="C29" s="219"/>
+      <c r="D29" s="220"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="122"/>
+      <c r="M29" s="122"/>
+      <c r="N29" s="122"/>
+      <c r="O29" s="122"/>
+      <c r="P29" s="123"/>
+      <c r="Q29" s="172"/>
+      <c r="R29" s="173"/>
+      <c r="S29" s="173"/>
+      <c r="T29" s="173"/>
+      <c r="U29" s="173"/>
     </row>
     <row r="30" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="140" t="s">
+      <c r="B30" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="140"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="159"/>
-      <c r="K30" s="122" t="s">
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="176"/>
+      <c r="G30" s="176"/>
+      <c r="H30" s="176"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="123"/>
-      <c r="M30" s="123"/>
-      <c r="N30" s="123"/>
-      <c r="O30" s="123"/>
-      <c r="P30" s="124"/>
-      <c r="Q30" s="148"/>
-      <c r="R30" s="149"/>
-      <c r="S30" s="149"/>
-      <c r="T30" s="149"/>
-      <c r="U30" s="149"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="109"/>
+      <c r="P30" s="110"/>
+      <c r="Q30" s="172"/>
+      <c r="R30" s="173"/>
+      <c r="S30" s="173"/>
+      <c r="T30" s="173"/>
+      <c r="U30" s="173"/>
     </row>
     <row r="31" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="140"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="159"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="123"/>
-      <c r="M31" s="123"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="124"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="176"/>
+      <c r="H31" s="176"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="177"/>
+      <c r="K31" s="108"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="109"/>
+      <c r="P31" s="110"/>
       <c r="Q31" s="23"/>
       <c r="R31" s="20"/>
       <c r="S31" s="20"/>
@@ -5732,17 +5732,17 @@
       <c r="U31" s="20"/>
     </row>
     <row r="32" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="140" t="s">
+      <c r="B32" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="140"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="121"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
       <c r="K32" s="25"/>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
@@ -5756,61 +5756,61 @@
       <c r="U32" s="20"/>
     </row>
     <row r="33" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="140"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="121"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
       <c r="P33" s="25"/>
-      <c r="Q33" s="148"/>
-      <c r="R33" s="149"/>
-      <c r="S33" s="149"/>
-      <c r="T33" s="149"/>
-      <c r="U33" s="149"/>
+      <c r="Q33" s="172"/>
+      <c r="R33" s="173"/>
+      <c r="S33" s="173"/>
+      <c r="T33" s="173"/>
+      <c r="U33" s="173"/>
     </row>
     <row r="34" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="109" t="s">
+      <c r="B34" s="215" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="110"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="117"/>
+      <c r="C34" s="216"/>
+      <c r="D34" s="217"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="113"/>
       <c r="K34" s="25"/>
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
       <c r="P34" s="25"/>
-      <c r="Q34" s="148"/>
-      <c r="R34" s="149"/>
-      <c r="S34" s="149"/>
-      <c r="T34" s="149"/>
-      <c r="U34" s="149"/>
+      <c r="Q34" s="172"/>
+      <c r="R34" s="173"/>
+      <c r="S34" s="173"/>
+      <c r="T34" s="173"/>
+      <c r="U34" s="173"/>
     </row>
     <row r="35" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="112"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="120"/>
+      <c r="B35" s="218"/>
+      <c r="C35" s="219"/>
+      <c r="D35" s="220"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="116"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
@@ -5819,41 +5819,41 @@
       <c r="P35" s="25"/>
     </row>
     <row r="36" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="140" t="s">
+      <c r="B36" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="140"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="163" t="s">
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="164"/>
-      <c r="G36" s="164"/>
-      <c r="H36" s="164"/>
-      <c r="I36" s="164"/>
-      <c r="J36" s="165"/>
-      <c r="K36" s="183"/>
-      <c r="L36" s="184"/>
-      <c r="M36" s="184"/>
-      <c r="N36" s="184"/>
-      <c r="O36" s="184"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="144"/>
+      <c r="K36" s="193"/>
+      <c r="L36" s="194"/>
+      <c r="M36" s="194"/>
+      <c r="N36" s="194"/>
+      <c r="O36" s="194"/>
       <c r="P36" s="25"/>
     </row>
     <row r="37" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="140"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="163"/>
-      <c r="F37" s="164"/>
-      <c r="G37" s="164"/>
-      <c r="H37" s="164"/>
-      <c r="I37" s="164"/>
-      <c r="J37" s="165"/>
-      <c r="K37" s="183"/>
-      <c r="L37" s="184"/>
-      <c r="M37" s="184"/>
-      <c r="N37" s="184"/>
-      <c r="O37" s="184"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="142"/>
+      <c r="F37" s="143"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="143"/>
+      <c r="J37" s="144"/>
+      <c r="K37" s="193"/>
+      <c r="L37" s="194"/>
+      <c r="M37" s="194"/>
+      <c r="N37" s="194"/>
+      <c r="O37" s="194"/>
       <c r="P37" s="25"/>
     </row>
     <row r="38" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5862,14 +5862,14 @@
       </c>
       <c r="C38" s="125"/>
       <c r="D38" s="125"/>
-      <c r="E38" s="163" t="s">
+      <c r="E38" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="164"/>
-      <c r="G38" s="164"/>
-      <c r="H38" s="164"/>
-      <c r="I38" s="164"/>
-      <c r="J38" s="165"/>
+      <c r="F38" s="143"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="143"/>
+      <c r="I38" s="143"/>
+      <c r="J38" s="144"/>
       <c r="K38" s="26"/>
       <c r="L38" s="26"/>
       <c r="M38" s="26"/>
@@ -5881,12 +5881,12 @@
       <c r="B39" s="125"/>
       <c r="C39" s="125"/>
       <c r="D39" s="125"/>
-      <c r="E39" s="163"/>
-      <c r="F39" s="164"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="164"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="165"/>
+      <c r="E39" s="142"/>
+      <c r="F39" s="143"/>
+      <c r="G39" s="143"/>
+      <c r="H39" s="143"/>
+      <c r="I39" s="143"/>
+      <c r="J39" s="144"/>
       <c r="K39" s="26"/>
       <c r="L39" s="26"/>
       <c r="M39" s="26"/>
@@ -5898,16 +5898,16 @@
       <c r="B40" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="100" t="s">
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="206" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="102"/>
+      <c r="F40" s="207"/>
+      <c r="G40" s="207"/>
+      <c r="H40" s="207"/>
+      <c r="I40" s="207"/>
+      <c r="J40" s="208"/>
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
       <c r="M40" s="26"/>
@@ -5916,15 +5916,15 @@
       <c r="P40" s="27"/>
     </row>
     <row r="41" spans="2:21" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="140"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="105"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="209"/>
+      <c r="F41" s="210"/>
+      <c r="G41" s="210"/>
+      <c r="H41" s="210"/>
+      <c r="I41" s="210"/>
+      <c r="J41" s="211"/>
       <c r="K41" s="26"/>
       <c r="L41" s="26"/>
       <c r="M41" s="26"/>
@@ -5933,93 +5933,93 @@
       <c r="P41" s="27"/>
     </row>
     <row r="42" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="140" t="s">
+      <c r="B42" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="140"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="163" t="s">
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="164"/>
-      <c r="G42" s="164"/>
-      <c r="H42" s="164"/>
-      <c r="I42" s="164"/>
-      <c r="J42" s="165"/>
-      <c r="K42" s="218"/>
-      <c r="L42" s="219"/>
-      <c r="M42" s="219"/>
-      <c r="N42" s="219"/>
-      <c r="O42" s="219"/>
+      <c r="F42" s="143"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="143"/>
+      <c r="J42" s="144"/>
+      <c r="K42" s="130"/>
+      <c r="L42" s="131"/>
+      <c r="M42" s="131"/>
+      <c r="N42" s="131"/>
+      <c r="O42" s="131"/>
       <c r="P42" s="27"/>
     </row>
     <row r="43" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="140"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="140"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="164"/>
-      <c r="G43" s="164"/>
-      <c r="H43" s="164"/>
-      <c r="I43" s="164"/>
-      <c r="J43" s="165"/>
-      <c r="K43" s="218"/>
-      <c r="L43" s="219"/>
-      <c r="M43" s="219"/>
-      <c r="N43" s="219"/>
-      <c r="O43" s="219"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="142"/>
+      <c r="F43" s="143"/>
+      <c r="G43" s="143"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="143"/>
+      <c r="J43" s="144"/>
+      <c r="K43" s="130"/>
+      <c r="L43" s="131"/>
+      <c r="M43" s="131"/>
+      <c r="N43" s="131"/>
+      <c r="O43" s="131"/>
       <c r="P43" s="27"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="205" t="s">
+      <c r="B44" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="205"/>
-      <c r="D44" s="205"/>
-      <c r="E44" s="207" t="s">
+      <c r="C44" s="158"/>
+      <c r="D44" s="158"/>
+      <c r="E44" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="208"/>
-      <c r="G44" s="208"/>
-      <c r="H44" s="208"/>
-      <c r="I44" s="208"/>
-      <c r="J44" s="209"/>
-      <c r="K44" s="220"/>
-      <c r="L44" s="221"/>
-      <c r="M44" s="221"/>
-      <c r="N44" s="221"/>
-      <c r="O44" s="221"/>
+      <c r="F44" s="161"/>
+      <c r="G44" s="161"/>
+      <c r="H44" s="161"/>
+      <c r="I44" s="161"/>
+      <c r="J44" s="162"/>
+      <c r="K44" s="132"/>
+      <c r="L44" s="133"/>
+      <c r="M44" s="133"/>
+      <c r="N44" s="133"/>
+      <c r="O44" s="133"/>
       <c r="P44" s="27"/>
     </row>
     <row r="45" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="206"/>
-      <c r="C45" s="206"/>
-      <c r="D45" s="206"/>
-      <c r="E45" s="207"/>
-      <c r="F45" s="208"/>
-      <c r="G45" s="208"/>
-      <c r="H45" s="208"/>
-      <c r="I45" s="208"/>
-      <c r="J45" s="209"/>
-      <c r="K45" s="220"/>
-      <c r="L45" s="221"/>
-      <c r="M45" s="221"/>
-      <c r="N45" s="221"/>
-      <c r="O45" s="221"/>
+      <c r="B45" s="159"/>
+      <c r="C45" s="159"/>
+      <c r="D45" s="159"/>
+      <c r="E45" s="160"/>
+      <c r="F45" s="161"/>
+      <c r="G45" s="161"/>
+      <c r="H45" s="161"/>
+      <c r="I45" s="161"/>
+      <c r="J45" s="162"/>
+      <c r="K45" s="132"/>
+      <c r="L45" s="133"/>
+      <c r="M45" s="133"/>
+      <c r="N45" s="133"/>
+      <c r="O45" s="133"/>
       <c r="P45" s="27"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="161" t="s">
+      <c r="B46" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="161"/>
-      <c r="D46" s="161"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="195"/>
-      <c r="G46" s="196"/>
-      <c r="H46" s="194"/>
-      <c r="I46" s="195"/>
-      <c r="J46" s="196"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="179"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="135"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="134"/>
+      <c r="I46" s="135"/>
+      <c r="J46" s="136"/>
       <c r="K46" s="27"/>
       <c r="L46" s="27"/>
       <c r="M46" s="27"/>
@@ -6028,15 +6028,15 @@
       <c r="P46" s="27"/>
     </row>
     <row r="47" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="162"/>
-      <c r="C47" s="162"/>
-      <c r="D47" s="162"/>
-      <c r="E47" s="197"/>
-      <c r="F47" s="198"/>
-      <c r="G47" s="199"/>
-      <c r="H47" s="197"/>
-      <c r="I47" s="198"/>
-      <c r="J47" s="199"/>
+      <c r="B47" s="180"/>
+      <c r="C47" s="180"/>
+      <c r="D47" s="180"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="138"/>
+      <c r="G47" s="139"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="138"/>
+      <c r="J47" s="139"/>
       <c r="K47" s="27"/>
       <c r="L47" s="27"/>
       <c r="M47" s="27"/>
@@ -6046,217 +6046,217 @@
     </row>
     <row r="48" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:16" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="106" t="s">
+      <c r="B49" s="212" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="107"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="108"/>
-      <c r="J49" s="202" t="s">
+      <c r="C49" s="213"/>
+      <c r="D49" s="213"/>
+      <c r="E49" s="213"/>
+      <c r="F49" s="213"/>
+      <c r="G49" s="213"/>
+      <c r="H49" s="213"/>
+      <c r="I49" s="214"/>
+      <c r="J49" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="K49" s="203"/>
-      <c r="L49" s="203"/>
-      <c r="M49" s="203"/>
-      <c r="N49" s="203"/>
-      <c r="O49" s="203"/>
-      <c r="P49" s="204"/>
+      <c r="K49" s="153"/>
+      <c r="L49" s="153"/>
+      <c r="M49" s="153"/>
+      <c r="N49" s="153"/>
+      <c r="O49" s="153"/>
+      <c r="P49" s="154"/>
     </row>
     <row r="50" spans="1:16" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="174" t="s">
+      <c r="B50" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="175"/>
-      <c r="D50" s="175"/>
-      <c r="E50" s="175"/>
-      <c r="F50" s="175"/>
-      <c r="G50" s="175"/>
-      <c r="H50" s="175"/>
-      <c r="I50" s="176"/>
-      <c r="J50" s="168"/>
-      <c r="K50" s="169"/>
-      <c r="L50" s="169"/>
-      <c r="M50" s="169"/>
-      <c r="N50" s="169"/>
-      <c r="O50" s="169"/>
-      <c r="P50" s="170"/>
+      <c r="C50" s="185"/>
+      <c r="D50" s="185"/>
+      <c r="E50" s="185"/>
+      <c r="F50" s="185"/>
+      <c r="G50" s="185"/>
+      <c r="H50" s="185"/>
+      <c r="I50" s="186"/>
+      <c r="J50" s="155"/>
+      <c r="K50" s="156"/>
+      <c r="L50" s="156"/>
+      <c r="M50" s="156"/>
+      <c r="N50" s="156"/>
+      <c r="O50" s="156"/>
+      <c r="P50" s="157"/>
     </row>
     <row r="51" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="177"/>
-      <c r="C51" s="178"/>
-      <c r="D51" s="178"/>
-      <c r="E51" s="178"/>
-      <c r="F51" s="178"/>
-      <c r="G51" s="178"/>
-      <c r="H51" s="178"/>
-      <c r="I51" s="179"/>
-      <c r="J51" s="168"/>
-      <c r="K51" s="169"/>
-      <c r="L51" s="169"/>
-      <c r="M51" s="169"/>
-      <c r="N51" s="169"/>
-      <c r="O51" s="169"/>
-      <c r="P51" s="170"/>
+      <c r="B51" s="187"/>
+      <c r="C51" s="188"/>
+      <c r="D51" s="188"/>
+      <c r="E51" s="188"/>
+      <c r="F51" s="188"/>
+      <c r="G51" s="188"/>
+      <c r="H51" s="188"/>
+      <c r="I51" s="189"/>
+      <c r="J51" s="155"/>
+      <c r="K51" s="156"/>
+      <c r="L51" s="156"/>
+      <c r="M51" s="156"/>
+      <c r="N51" s="156"/>
+      <c r="O51" s="156"/>
+      <c r="P51" s="157"/>
     </row>
     <row r="52" spans="1:16" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="177"/>
-      <c r="C52" s="178"/>
-      <c r="D52" s="178"/>
-      <c r="E52" s="178"/>
-      <c r="F52" s="178"/>
-      <c r="G52" s="178"/>
-      <c r="H52" s="178"/>
-      <c r="I52" s="179"/>
-      <c r="J52" s="168"/>
-      <c r="K52" s="169"/>
-      <c r="L52" s="169"/>
-      <c r="M52" s="169"/>
-      <c r="N52" s="169"/>
-      <c r="O52" s="169"/>
-      <c r="P52" s="170"/>
+      <c r="B52" s="187"/>
+      <c r="C52" s="188"/>
+      <c r="D52" s="188"/>
+      <c r="E52" s="188"/>
+      <c r="F52" s="188"/>
+      <c r="G52" s="188"/>
+      <c r="H52" s="188"/>
+      <c r="I52" s="189"/>
+      <c r="J52" s="155"/>
+      <c r="K52" s="156"/>
+      <c r="L52" s="156"/>
+      <c r="M52" s="156"/>
+      <c r="N52" s="156"/>
+      <c r="O52" s="156"/>
+      <c r="P52" s="157"/>
     </row>
     <row r="53" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="177"/>
-      <c r="C53" s="178"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="178"/>
-      <c r="F53" s="178"/>
-      <c r="G53" s="178"/>
-      <c r="H53" s="178"/>
-      <c r="I53" s="179"/>
-      <c r="J53" s="168"/>
-      <c r="K53" s="169"/>
-      <c r="L53" s="169"/>
-      <c r="M53" s="169"/>
-      <c r="N53" s="169"/>
-      <c r="O53" s="169"/>
-      <c r="P53" s="170"/>
+      <c r="B53" s="187"/>
+      <c r="C53" s="188"/>
+      <c r="D53" s="188"/>
+      <c r="E53" s="188"/>
+      <c r="F53" s="188"/>
+      <c r="G53" s="188"/>
+      <c r="H53" s="188"/>
+      <c r="I53" s="189"/>
+      <c r="J53" s="155"/>
+      <c r="K53" s="156"/>
+      <c r="L53" s="156"/>
+      <c r="M53" s="156"/>
+      <c r="N53" s="156"/>
+      <c r="O53" s="156"/>
+      <c r="P53" s="157"/>
     </row>
     <row r="54" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="177"/>
-      <c r="C54" s="178"/>
-      <c r="D54" s="178"/>
-      <c r="E54" s="178"/>
-      <c r="F54" s="178"/>
-      <c r="G54" s="178"/>
-      <c r="H54" s="178"/>
-      <c r="I54" s="179"/>
-      <c r="J54" s="168"/>
-      <c r="K54" s="169"/>
-      <c r="L54" s="169"/>
-      <c r="M54" s="169"/>
-      <c r="N54" s="169"/>
-      <c r="O54" s="169"/>
-      <c r="P54" s="170"/>
+      <c r="B54" s="187"/>
+      <c r="C54" s="188"/>
+      <c r="D54" s="188"/>
+      <c r="E54" s="188"/>
+      <c r="F54" s="188"/>
+      <c r="G54" s="188"/>
+      <c r="H54" s="188"/>
+      <c r="I54" s="189"/>
+      <c r="J54" s="155"/>
+      <c r="K54" s="156"/>
+      <c r="L54" s="156"/>
+      <c r="M54" s="156"/>
+      <c r="N54" s="156"/>
+      <c r="O54" s="156"/>
+      <c r="P54" s="157"/>
     </row>
     <row r="55" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="177"/>
-      <c r="C55" s="178"/>
-      <c r="D55" s="178"/>
-      <c r="E55" s="178"/>
-      <c r="F55" s="178"/>
-      <c r="G55" s="178"/>
-      <c r="H55" s="178"/>
-      <c r="I55" s="179"/>
-      <c r="J55" s="168"/>
-      <c r="K55" s="169"/>
-      <c r="L55" s="169"/>
-      <c r="M55" s="169"/>
-      <c r="N55" s="169"/>
-      <c r="O55" s="169"/>
-      <c r="P55" s="170"/>
+      <c r="B55" s="187"/>
+      <c r="C55" s="188"/>
+      <c r="D55" s="188"/>
+      <c r="E55" s="188"/>
+      <c r="F55" s="188"/>
+      <c r="G55" s="188"/>
+      <c r="H55" s="188"/>
+      <c r="I55" s="189"/>
+      <c r="J55" s="155"/>
+      <c r="K55" s="156"/>
+      <c r="L55" s="156"/>
+      <c r="M55" s="156"/>
+      <c r="N55" s="156"/>
+      <c r="O55" s="156"/>
+      <c r="P55" s="157"/>
     </row>
     <row r="56" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="177"/>
-      <c r="C56" s="178"/>
-      <c r="D56" s="178"/>
-      <c r="E56" s="178"/>
-      <c r="F56" s="178"/>
-      <c r="G56" s="178"/>
-      <c r="H56" s="178"/>
-      <c r="I56" s="179"/>
-      <c r="J56" s="168"/>
-      <c r="K56" s="169"/>
-      <c r="L56" s="169"/>
-      <c r="M56" s="169"/>
-      <c r="N56" s="169"/>
-      <c r="O56" s="169"/>
-      <c r="P56" s="170"/>
+      <c r="B56" s="187"/>
+      <c r="C56" s="188"/>
+      <c r="D56" s="188"/>
+      <c r="E56" s="188"/>
+      <c r="F56" s="188"/>
+      <c r="G56" s="188"/>
+      <c r="H56" s="188"/>
+      <c r="I56" s="189"/>
+      <c r="J56" s="155"/>
+      <c r="K56" s="156"/>
+      <c r="L56" s="156"/>
+      <c r="M56" s="156"/>
+      <c r="N56" s="156"/>
+      <c r="O56" s="156"/>
+      <c r="P56" s="157"/>
     </row>
     <row r="57" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="177"/>
-      <c r="C57" s="178"/>
-      <c r="D57" s="178"/>
-      <c r="E57" s="178"/>
-      <c r="F57" s="178"/>
-      <c r="G57" s="178"/>
-      <c r="H57" s="178"/>
-      <c r="I57" s="179"/>
-      <c r="J57" s="168"/>
-      <c r="K57" s="169"/>
-      <c r="L57" s="169"/>
-      <c r="M57" s="169"/>
-      <c r="N57" s="169"/>
-      <c r="O57" s="169"/>
-      <c r="P57" s="170"/>
+      <c r="B57" s="187"/>
+      <c r="C57" s="188"/>
+      <c r="D57" s="188"/>
+      <c r="E57" s="188"/>
+      <c r="F57" s="188"/>
+      <c r="G57" s="188"/>
+      <c r="H57" s="188"/>
+      <c r="I57" s="189"/>
+      <c r="J57" s="155"/>
+      <c r="K57" s="156"/>
+      <c r="L57" s="156"/>
+      <c r="M57" s="156"/>
+      <c r="N57" s="156"/>
+      <c r="O57" s="156"/>
+      <c r="P57" s="157"/>
     </row>
     <row r="58" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="177"/>
-      <c r="C58" s="178"/>
-      <c r="D58" s="178"/>
-      <c r="E58" s="178"/>
-      <c r="F58" s="178"/>
-      <c r="G58" s="178"/>
-      <c r="H58" s="178"/>
-      <c r="I58" s="179"/>
-      <c r="J58" s="168"/>
-      <c r="K58" s="169"/>
-      <c r="L58" s="169"/>
-      <c r="M58" s="169"/>
-      <c r="N58" s="169"/>
-      <c r="O58" s="169"/>
-      <c r="P58" s="170"/>
+      <c r="B58" s="187"/>
+      <c r="C58" s="188"/>
+      <c r="D58" s="188"/>
+      <c r="E58" s="188"/>
+      <c r="F58" s="188"/>
+      <c r="G58" s="188"/>
+      <c r="H58" s="188"/>
+      <c r="I58" s="189"/>
+      <c r="J58" s="155"/>
+      <c r="K58" s="156"/>
+      <c r="L58" s="156"/>
+      <c r="M58" s="156"/>
+      <c r="N58" s="156"/>
+      <c r="O58" s="156"/>
+      <c r="P58" s="157"/>
     </row>
     <row r="59" spans="1:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="180"/>
-      <c r="C59" s="181"/>
-      <c r="D59" s="181"/>
-      <c r="E59" s="181"/>
-      <c r="F59" s="181"/>
-      <c r="G59" s="181"/>
-      <c r="H59" s="181"/>
-      <c r="I59" s="182"/>
-      <c r="J59" s="171"/>
-      <c r="K59" s="172"/>
-      <c r="L59" s="172"/>
-      <c r="M59" s="172"/>
-      <c r="N59" s="172"/>
-      <c r="O59" s="172"/>
-      <c r="P59" s="173"/>
+      <c r="B59" s="190"/>
+      <c r="C59" s="191"/>
+      <c r="D59" s="191"/>
+      <c r="E59" s="191"/>
+      <c r="F59" s="191"/>
+      <c r="G59" s="191"/>
+      <c r="H59" s="191"/>
+      <c r="I59" s="192"/>
+      <c r="J59" s="181"/>
+      <c r="K59" s="182"/>
+      <c r="L59" s="182"/>
+      <c r="M59" s="182"/>
+      <c r="N59" s="182"/>
+      <c r="O59" s="182"/>
+      <c r="P59" s="183"/>
     </row>
     <row r="60" spans="1:16" ht="14.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K60" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L60" s="200"/>
-      <c r="M60" s="200"/>
-      <c r="N60" s="200"/>
-      <c r="O60" s="200"/>
+      <c r="L60" s="145"/>
+      <c r="M60" s="145"/>
+      <c r="N60" s="145"/>
+      <c r="O60" s="145"/>
       <c r="P60" s="3"/>
     </row>
     <row r="61" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="215"/>
-      <c r="C61" s="215"/>
-      <c r="D61" s="215"/>
-      <c r="E61" s="167"/>
-      <c r="F61" s="167"/>
-      <c r="G61" s="167"/>
-      <c r="H61" s="167"/>
-      <c r="I61" s="167"/>
+      <c r="B61" s="124"/>
+      <c r="C61" s="124"/>
+      <c r="D61" s="124"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="107"/>
       <c r="K61" s="4"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
@@ -6265,14 +6265,14 @@
       <c r="P61" s="3"/>
     </row>
     <row r="62" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="215"/>
-      <c r="C62" s="215"/>
-      <c r="D62" s="215"/>
-      <c r="E62" s="167"/>
-      <c r="F62" s="167"/>
-      <c r="G62" s="167"/>
-      <c r="H62" s="167"/>
-      <c r="I62" s="167"/>
+      <c r="B62" s="124"/>
+      <c r="C62" s="124"/>
+      <c r="D62" s="124"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="107"/>
+      <c r="G62" s="107"/>
+      <c r="H62" s="107"/>
+      <c r="I62" s="107"/>
       <c r="K62" s="4"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
@@ -6281,14 +6281,14 @@
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="166"/>
-      <c r="C63" s="166"/>
-      <c r="D63" s="166"/>
-      <c r="E63" s="167"/>
-      <c r="F63" s="167"/>
-      <c r="G63" s="167"/>
-      <c r="H63" s="167"/>
-      <c r="I63" s="167"/>
+      <c r="B63" s="106"/>
+      <c r="C63" s="106"/>
+      <c r="D63" s="106"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="107"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="107"/>
       <c r="K63" s="4"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
@@ -6298,14 +6298,14 @@
     </row>
     <row r="64" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
-      <c r="B64" s="166"/>
-      <c r="C64" s="166"/>
-      <c r="D64" s="166"/>
-      <c r="E64" s="167"/>
-      <c r="F64" s="167"/>
-      <c r="G64" s="167"/>
-      <c r="H64" s="167"/>
-      <c r="I64" s="167"/>
+      <c r="B64" s="106"/>
+      <c r="C64" s="106"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="107"/>
+      <c r="F64" s="107"/>
+      <c r="G64" s="107"/>
+      <c r="H64" s="107"/>
+      <c r="I64" s="107"/>
       <c r="J64" s="24"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
@@ -6316,14 +6316,14 @@
     </row>
     <row r="65" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
-      <c r="B65" s="166"/>
-      <c r="C65" s="166"/>
-      <c r="D65" s="166"/>
-      <c r="E65" s="167"/>
-      <c r="F65" s="167"/>
-      <c r="G65" s="167"/>
-      <c r="H65" s="167"/>
-      <c r="I65" s="167"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="106"/>
+      <c r="D65" s="106"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="107"/>
+      <c r="G65" s="107"/>
+      <c r="H65" s="107"/>
+      <c r="I65" s="107"/>
       <c r="J65" s="24"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
@@ -6334,14 +6334,14 @@
     </row>
     <row r="66" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
-      <c r="B66" s="166"/>
-      <c r="C66" s="166"/>
-      <c r="D66" s="166"/>
-      <c r="E66" s="167"/>
-      <c r="F66" s="167"/>
-      <c r="G66" s="167"/>
-      <c r="H66" s="167"/>
-      <c r="I66" s="167"/>
+      <c r="B66" s="106"/>
+      <c r="C66" s="106"/>
+      <c r="D66" s="106"/>
+      <c r="E66" s="107"/>
+      <c r="F66" s="107"/>
+      <c r="G66" s="107"/>
+      <c r="H66" s="107"/>
+      <c r="I66" s="107"/>
       <c r="J66" s="24"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
@@ -6370,61 +6370,61 @@
     </row>
     <row r="68" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
-      <c r="B68" s="152" t="s">
+      <c r="B68" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="C68" s="153"/>
-      <c r="D68" s="154"/>
-      <c r="E68" s="155"/>
-      <c r="F68" s="155"/>
-      <c r="G68" s="155"/>
-      <c r="H68" s="155"/>
-      <c r="I68" s="155"/>
-      <c r="J68" s="156"/>
-      <c r="K68" s="150"/>
-      <c r="L68" s="151"/>
-      <c r="M68" s="151"/>
-      <c r="N68" s="151"/>
-      <c r="O68" s="151"/>
-      <c r="P68" s="151"/>
+      <c r="C68" s="147"/>
+      <c r="D68" s="148"/>
+      <c r="E68" s="149"/>
+      <c r="F68" s="149"/>
+      <c r="G68" s="149"/>
+      <c r="H68" s="149"/>
+      <c r="I68" s="149"/>
+      <c r="J68" s="150"/>
+      <c r="K68" s="129"/>
+      <c r="L68" s="174"/>
+      <c r="M68" s="174"/>
+      <c r="N68" s="174"/>
+      <c r="O68" s="174"/>
+      <c r="P68" s="174"/>
     </row>
     <row r="69" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
-      <c r="B69" s="152" t="s">
+      <c r="B69" s="146" t="s">
         <v>42</v>
       </c>
-      <c r="C69" s="153"/>
-      <c r="D69" s="154"/>
-      <c r="E69" s="155"/>
-      <c r="F69" s="155"/>
-      <c r="G69" s="155"/>
-      <c r="H69" s="155"/>
-      <c r="I69" s="155"/>
-      <c r="J69" s="156"/>
-      <c r="K69" s="216"/>
-      <c r="L69" s="217"/>
-      <c r="M69" s="217"/>
-      <c r="N69" s="217"/>
-      <c r="O69" s="217"/>
-      <c r="P69" s="150"/>
+      <c r="C69" s="147"/>
+      <c r="D69" s="148"/>
+      <c r="E69" s="149"/>
+      <c r="F69" s="149"/>
+      <c r="G69" s="149"/>
+      <c r="H69" s="149"/>
+      <c r="I69" s="149"/>
+      <c r="J69" s="150"/>
+      <c r="K69" s="127"/>
+      <c r="L69" s="128"/>
+      <c r="M69" s="128"/>
+      <c r="N69" s="128"/>
+      <c r="O69" s="128"/>
+      <c r="P69" s="129"/>
     </row>
     <row r="70" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
-      <c r="B70" s="212"/>
-      <c r="C70" s="213"/>
-      <c r="D70" s="212"/>
-      <c r="E70" s="213"/>
-      <c r="F70" s="213"/>
-      <c r="G70" s="213"/>
-      <c r="H70" s="213"/>
-      <c r="I70" s="213"/>
-      <c r="J70" s="214"/>
-      <c r="K70" s="216"/>
-      <c r="L70" s="217"/>
-      <c r="M70" s="217"/>
-      <c r="N70" s="217"/>
-      <c r="O70" s="217"/>
-      <c r="P70" s="150"/>
+      <c r="B70" s="103"/>
+      <c r="C70" s="104"/>
+      <c r="D70" s="103"/>
+      <c r="E70" s="104"/>
+      <c r="F70" s="104"/>
+      <c r="G70" s="104"/>
+      <c r="H70" s="104"/>
+      <c r="I70" s="104"/>
+      <c r="J70" s="105"/>
+      <c r="K70" s="127"/>
+      <c r="L70" s="128"/>
+      <c r="M70" s="128"/>
+      <c r="N70" s="128"/>
+      <c r="O70" s="128"/>
+      <c r="P70" s="129"/>
     </row>
     <row r="71" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
@@ -6446,14 +6446,14 @@
     </row>
     <row r="72" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
-      <c r="B72" s="48" t="s">
+      <c r="B72" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="48"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="92"/>
+      <c r="G72" s="92"/>
       <c r="H72" s="24"/>
       <c r="I72" s="24"/>
       <c r="J72" s="24"/>
@@ -6484,493 +6484,493 @@
     </row>
     <row r="74" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="210" t="s">
+      <c r="B74" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="C74" s="210"/>
-      <c r="D74" s="210"/>
-      <c r="E74" s="210"/>
-      <c r="F74" s="210"/>
-      <c r="G74" s="210"/>
-      <c r="H74" s="210"/>
-      <c r="I74" s="210"/>
-      <c r="J74" s="210"/>
-      <c r="K74" s="210"/>
-      <c r="L74" s="210"/>
-      <c r="M74" s="211" t="str">
+      <c r="C74" s="163"/>
+      <c r="D74" s="163"/>
+      <c r="E74" s="163"/>
+      <c r="F74" s="163"/>
+      <c r="G74" s="163"/>
+      <c r="H74" s="163"/>
+      <c r="I74" s="163"/>
+      <c r="J74" s="163"/>
+      <c r="K74" s="163"/>
+      <c r="L74" s="163"/>
+      <c r="M74" s="102" t="str">
         <f>IF(L4="","",L4)</f>
         <v/>
       </c>
-      <c r="N74" s="211"/>
-      <c r="O74" s="211"/>
-      <c r="P74" s="211"/>
+      <c r="N74" s="102"/>
+      <c r="O74" s="102"/>
+      <c r="P74" s="102"/>
     </row>
     <row r="75" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="210"/>
-      <c r="C75" s="210"/>
-      <c r="D75" s="210"/>
-      <c r="E75" s="210"/>
-      <c r="F75" s="210"/>
-      <c r="G75" s="210"/>
-      <c r="H75" s="210"/>
-      <c r="I75" s="210"/>
-      <c r="J75" s="210"/>
-      <c r="K75" s="210"/>
-      <c r="L75" s="210"/>
-      <c r="M75" s="211"/>
-      <c r="N75" s="211"/>
-      <c r="O75" s="211"/>
-      <c r="P75" s="211"/>
+      <c r="B75" s="163"/>
+      <c r="C75" s="163"/>
+      <c r="D75" s="163"/>
+      <c r="E75" s="163"/>
+      <c r="F75" s="163"/>
+      <c r="G75" s="163"/>
+      <c r="H75" s="163"/>
+      <c r="I75" s="163"/>
+      <c r="J75" s="163"/>
+      <c r="K75" s="163"/>
+      <c r="L75" s="163"/>
+      <c r="M75" s="102"/>
+      <c r="N75" s="102"/>
+      <c r="O75" s="102"/>
+      <c r="P75" s="102"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B76" s="210"/>
-      <c r="C76" s="210"/>
-      <c r="D76" s="210"/>
-      <c r="E76" s="210"/>
-      <c r="F76" s="210"/>
-      <c r="G76" s="210"/>
-      <c r="H76" s="210"/>
-      <c r="I76" s="210"/>
-      <c r="J76" s="210"/>
-      <c r="K76" s="210"/>
-      <c r="L76" s="210"/>
-      <c r="M76" s="211"/>
-      <c r="N76" s="211"/>
-      <c r="O76" s="211"/>
-      <c r="P76" s="211"/>
+      <c r="B76" s="163"/>
+      <c r="C76" s="163"/>
+      <c r="D76" s="163"/>
+      <c r="E76" s="163"/>
+      <c r="F76" s="163"/>
+      <c r="G76" s="163"/>
+      <c r="H76" s="163"/>
+      <c r="I76" s="163"/>
+      <c r="J76" s="163"/>
+      <c r="K76" s="163"/>
+      <c r="L76" s="163"/>
+      <c r="M76" s="102"/>
+      <c r="N76" s="102"/>
+      <c r="O76" s="102"/>
+      <c r="P76" s="102"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B77" s="210"/>
-      <c r="C77" s="210"/>
-      <c r="D77" s="210"/>
-      <c r="E77" s="210"/>
-      <c r="F77" s="210"/>
-      <c r="G77" s="210"/>
-      <c r="H77" s="210"/>
-      <c r="I77" s="210"/>
-      <c r="J77" s="210"/>
-      <c r="K77" s="210"/>
-      <c r="L77" s="210"/>
-      <c r="M77" s="211"/>
-      <c r="N77" s="211"/>
-      <c r="O77" s="211"/>
-      <c r="P77" s="211"/>
+      <c r="B77" s="163"/>
+      <c r="C77" s="163"/>
+      <c r="D77" s="163"/>
+      <c r="E77" s="163"/>
+      <c r="F77" s="163"/>
+      <c r="G77" s="163"/>
+      <c r="H77" s="163"/>
+      <c r="I77" s="163"/>
+      <c r="J77" s="163"/>
+      <c r="K77" s="163"/>
+      <c r="L77" s="163"/>
+      <c r="M77" s="102"/>
+      <c r="N77" s="102"/>
+      <c r="O77" s="102"/>
+      <c r="P77" s="102"/>
     </row>
     <row r="78" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="87" t="s">
+      <c r="B78" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C78" s="87"/>
-      <c r="D78" s="87"/>
-      <c r="E78" s="87"/>
-      <c r="F78" s="87"/>
-      <c r="G78" s="87"/>
-      <c r="H78" s="87"/>
-      <c r="I78" s="87"/>
-      <c r="J78" s="87"/>
-      <c r="K78" s="87"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="45"/>
     </row>
     <row r="79" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="191"/>
-      <c r="C79" s="192"/>
-      <c r="D79" s="192"/>
-      <c r="E79" s="192"/>
-      <c r="F79" s="192"/>
-      <c r="G79" s="192"/>
-      <c r="H79" s="192"/>
-      <c r="I79" s="192"/>
-      <c r="J79" s="192"/>
-      <c r="K79" s="192"/>
-      <c r="L79" s="192"/>
-      <c r="M79" s="192"/>
-      <c r="N79" s="192"/>
-      <c r="O79" s="192"/>
+      <c r="B79" s="100"/>
+      <c r="C79" s="101"/>
+      <c r="D79" s="101"/>
+      <c r="E79" s="101"/>
+      <c r="F79" s="101"/>
+      <c r="G79" s="101"/>
+      <c r="H79" s="101"/>
+      <c r="I79" s="101"/>
+      <c r="J79" s="101"/>
+      <c r="K79" s="101"/>
+      <c r="L79" s="101"/>
+      <c r="M79" s="101"/>
+      <c r="N79" s="101"/>
+      <c r="O79" s="101"/>
     </row>
     <row r="80" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="191"/>
-      <c r="C80" s="192"/>
-      <c r="D80" s="192"/>
-      <c r="E80" s="192"/>
-      <c r="F80" s="192"/>
-      <c r="G80" s="192"/>
-      <c r="H80" s="192"/>
-      <c r="I80" s="192"/>
-      <c r="J80" s="192"/>
-      <c r="K80" s="192"/>
-      <c r="L80" s="192"/>
-      <c r="M80" s="192"/>
-      <c r="N80" s="192"/>
-      <c r="O80" s="192"/>
+      <c r="B80" s="100"/>
+      <c r="C80" s="101"/>
+      <c r="D80" s="101"/>
+      <c r="E80" s="101"/>
+      <c r="F80" s="101"/>
+      <c r="G80" s="101"/>
+      <c r="H80" s="101"/>
+      <c r="I80" s="101"/>
+      <c r="J80" s="101"/>
+      <c r="K80" s="101"/>
+      <c r="L80" s="101"/>
+      <c r="M80" s="101"/>
+      <c r="N80" s="101"/>
+      <c r="O80" s="101"/>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B81" s="191"/>
-      <c r="C81" s="192"/>
-      <c r="D81" s="192"/>
-      <c r="E81" s="192"/>
-      <c r="F81" s="192"/>
-      <c r="G81" s="192"/>
-      <c r="H81" s="192"/>
-      <c r="I81" s="192"/>
-      <c r="J81" s="192"/>
-      <c r="K81" s="192"/>
-      <c r="L81" s="192"/>
-      <c r="M81" s="192"/>
-      <c r="N81" s="192"/>
-      <c r="O81" s="192"/>
+      <c r="B81" s="100"/>
+      <c r="C81" s="101"/>
+      <c r="D81" s="101"/>
+      <c r="E81" s="101"/>
+      <c r="F81" s="101"/>
+      <c r="G81" s="101"/>
+      <c r="H81" s="101"/>
+      <c r="I81" s="101"/>
+      <c r="J81" s="101"/>
+      <c r="K81" s="101"/>
+      <c r="L81" s="101"/>
+      <c r="M81" s="101"/>
+      <c r="N81" s="101"/>
+      <c r="O81" s="101"/>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B82" s="191"/>
-      <c r="C82" s="192"/>
-      <c r="D82" s="192"/>
-      <c r="E82" s="192"/>
-      <c r="F82" s="192"/>
-      <c r="G82" s="192"/>
-      <c r="H82" s="192"/>
-      <c r="I82" s="192"/>
-      <c r="J82" s="192"/>
-      <c r="K82" s="192"/>
-      <c r="L82" s="192"/>
-      <c r="M82" s="192"/>
-      <c r="N82" s="192"/>
-      <c r="O82" s="192"/>
+      <c r="B82" s="100"/>
+      <c r="C82" s="101"/>
+      <c r="D82" s="101"/>
+      <c r="E82" s="101"/>
+      <c r="F82" s="101"/>
+      <c r="G82" s="101"/>
+      <c r="H82" s="101"/>
+      <c r="I82" s="101"/>
+      <c r="J82" s="101"/>
+      <c r="K82" s="101"/>
+      <c r="L82" s="101"/>
+      <c r="M82" s="101"/>
+      <c r="N82" s="101"/>
+      <c r="O82" s="101"/>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B83" s="191"/>
-      <c r="C83" s="192"/>
-      <c r="D83" s="192"/>
-      <c r="E83" s="192"/>
-      <c r="F83" s="192"/>
-      <c r="G83" s="192"/>
-      <c r="H83" s="192"/>
-      <c r="I83" s="192"/>
-      <c r="J83" s="192"/>
-      <c r="K83" s="192"/>
-      <c r="L83" s="192"/>
-      <c r="M83" s="192"/>
-      <c r="N83" s="192"/>
-      <c r="O83" s="192"/>
+      <c r="B83" s="100"/>
+      <c r="C83" s="101"/>
+      <c r="D83" s="101"/>
+      <c r="E83" s="101"/>
+      <c r="F83" s="101"/>
+      <c r="G83" s="101"/>
+      <c r="H83" s="101"/>
+      <c r="I83" s="101"/>
+      <c r="J83" s="101"/>
+      <c r="K83" s="101"/>
+      <c r="L83" s="101"/>
+      <c r="M83" s="101"/>
+      <c r="N83" s="101"/>
+      <c r="O83" s="101"/>
       <c r="P83"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B84" s="191"/>
-      <c r="C84" s="192"/>
-      <c r="D84" s="192"/>
-      <c r="E84" s="192"/>
-      <c r="F84" s="192"/>
-      <c r="G84" s="192"/>
-      <c r="H84" s="192"/>
-      <c r="I84" s="192"/>
-      <c r="J84" s="192"/>
-      <c r="K84" s="192"/>
-      <c r="L84" s="192"/>
-      <c r="M84" s="192"/>
-      <c r="N84" s="192"/>
-      <c r="O84" s="192"/>
+      <c r="B84" s="100"/>
+      <c r="C84" s="101"/>
+      <c r="D84" s="101"/>
+      <c r="E84" s="101"/>
+      <c r="F84" s="101"/>
+      <c r="G84" s="101"/>
+      <c r="H84" s="101"/>
+      <c r="I84" s="101"/>
+      <c r="J84" s="101"/>
+      <c r="K84" s="101"/>
+      <c r="L84" s="101"/>
+      <c r="M84" s="101"/>
+      <c r="N84" s="101"/>
+      <c r="O84" s="101"/>
       <c r="P84"/>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B85" s="191"/>
-      <c r="C85" s="192"/>
-      <c r="D85" s="192"/>
-      <c r="E85" s="192"/>
-      <c r="F85" s="192"/>
-      <c r="G85" s="192"/>
-      <c r="H85" s="192"/>
-      <c r="I85" s="192"/>
-      <c r="J85" s="192"/>
-      <c r="K85" s="192"/>
-      <c r="L85" s="192"/>
-      <c r="M85" s="192"/>
-      <c r="N85" s="192"/>
-      <c r="O85" s="192"/>
+      <c r="B85" s="100"/>
+      <c r="C85" s="101"/>
+      <c r="D85" s="101"/>
+      <c r="E85" s="101"/>
+      <c r="F85" s="101"/>
+      <c r="G85" s="101"/>
+      <c r="H85" s="101"/>
+      <c r="I85" s="101"/>
+      <c r="J85" s="101"/>
+      <c r="K85" s="101"/>
+      <c r="L85" s="101"/>
+      <c r="M85" s="101"/>
+      <c r="N85" s="101"/>
+      <c r="O85" s="101"/>
       <c r="P85"/>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B86" s="191"/>
-      <c r="C86" s="192"/>
-      <c r="D86" s="192"/>
-      <c r="E86" s="192"/>
-      <c r="F86" s="192"/>
-      <c r="G86" s="192"/>
-      <c r="H86" s="192"/>
-      <c r="I86" s="192"/>
-      <c r="J86" s="192"/>
-      <c r="K86" s="192"/>
-      <c r="L86" s="192"/>
-      <c r="M86" s="192"/>
-      <c r="N86" s="192"/>
-      <c r="O86" s="192"/>
+      <c r="B86" s="100"/>
+      <c r="C86" s="101"/>
+      <c r="D86" s="101"/>
+      <c r="E86" s="101"/>
+      <c r="F86" s="101"/>
+      <c r="G86" s="101"/>
+      <c r="H86" s="101"/>
+      <c r="I86" s="101"/>
+      <c r="J86" s="101"/>
+      <c r="K86" s="101"/>
+      <c r="L86" s="101"/>
+      <c r="M86" s="101"/>
+      <c r="N86" s="101"/>
+      <c r="O86" s="101"/>
       <c r="P86"/>
       <c r="Q86"/>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B87" s="191"/>
-      <c r="C87" s="192"/>
-      <c r="D87" s="192"/>
-      <c r="E87" s="192"/>
-      <c r="F87" s="192"/>
-      <c r="G87" s="192"/>
-      <c r="H87" s="192"/>
-      <c r="I87" s="192"/>
-      <c r="J87" s="192"/>
-      <c r="K87" s="192"/>
-      <c r="L87" s="192"/>
-      <c r="M87" s="192"/>
-      <c r="N87" s="192"/>
-      <c r="O87" s="192"/>
+      <c r="B87" s="100"/>
+      <c r="C87" s="101"/>
+      <c r="D87" s="101"/>
+      <c r="E87" s="101"/>
+      <c r="F87" s="101"/>
+      <c r="G87" s="101"/>
+      <c r="H87" s="101"/>
+      <c r="I87" s="101"/>
+      <c r="J87" s="101"/>
+      <c r="K87" s="101"/>
+      <c r="L87" s="101"/>
+      <c r="M87" s="101"/>
+      <c r="N87" s="101"/>
+      <c r="O87" s="101"/>
       <c r="P87"/>
       <c r="Q87"/>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B88" s="191"/>
-      <c r="C88" s="192"/>
-      <c r="D88" s="192"/>
-      <c r="E88" s="192"/>
-      <c r="F88" s="192"/>
-      <c r="G88" s="192"/>
-      <c r="H88" s="192"/>
-      <c r="I88" s="192"/>
-      <c r="J88" s="192"/>
-      <c r="K88" s="192"/>
-      <c r="L88" s="192"/>
-      <c r="M88" s="192"/>
-      <c r="N88" s="192"/>
-      <c r="O88" s="192"/>
+      <c r="B88" s="100"/>
+      <c r="C88" s="101"/>
+      <c r="D88" s="101"/>
+      <c r="E88" s="101"/>
+      <c r="F88" s="101"/>
+      <c r="G88" s="101"/>
+      <c r="H88" s="101"/>
+      <c r="I88" s="101"/>
+      <c r="J88" s="101"/>
+      <c r="K88" s="101"/>
+      <c r="L88" s="101"/>
+      <c r="M88" s="101"/>
+      <c r="N88" s="101"/>
+      <c r="O88" s="101"/>
       <c r="P88"/>
       <c r="Q88"/>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B89" s="191"/>
-      <c r="C89" s="192"/>
-      <c r="D89" s="192"/>
-      <c r="E89" s="192"/>
-      <c r="F89" s="192"/>
-      <c r="G89" s="192"/>
-      <c r="H89" s="192"/>
-      <c r="I89" s="192"/>
-      <c r="J89" s="192"/>
-      <c r="K89" s="192"/>
-      <c r="L89" s="192"/>
-      <c r="M89" s="192"/>
-      <c r="N89" s="192"/>
-      <c r="O89" s="192"/>
+      <c r="B89" s="100"/>
+      <c r="C89" s="101"/>
+      <c r="D89" s="101"/>
+      <c r="E89" s="101"/>
+      <c r="F89" s="101"/>
+      <c r="G89" s="101"/>
+      <c r="H89" s="101"/>
+      <c r="I89" s="101"/>
+      <c r="J89" s="101"/>
+      <c r="K89" s="101"/>
+      <c r="L89" s="101"/>
+      <c r="M89" s="101"/>
+      <c r="N89" s="101"/>
+      <c r="O89" s="101"/>
       <c r="P89"/>
       <c r="Q89"/>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B90" s="191"/>
-      <c r="C90" s="192"/>
-      <c r="D90" s="192"/>
-      <c r="E90" s="192"/>
-      <c r="F90" s="192"/>
-      <c r="G90" s="192"/>
-      <c r="H90" s="192"/>
-      <c r="I90" s="192"/>
-      <c r="J90" s="192"/>
-      <c r="K90" s="192"/>
-      <c r="L90" s="192"/>
-      <c r="M90" s="192"/>
-      <c r="N90" s="192"/>
-      <c r="O90" s="192"/>
+      <c r="B90" s="100"/>
+      <c r="C90" s="101"/>
+      <c r="D90" s="101"/>
+      <c r="E90" s="101"/>
+      <c r="F90" s="101"/>
+      <c r="G90" s="101"/>
+      <c r="H90" s="101"/>
+      <c r="I90" s="101"/>
+      <c r="J90" s="101"/>
+      <c r="K90" s="101"/>
+      <c r="L90" s="101"/>
+      <c r="M90" s="101"/>
+      <c r="N90" s="101"/>
+      <c r="O90" s="101"/>
       <c r="P90"/>
       <c r="Q90"/>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B91" s="191"/>
-      <c r="C91" s="192"/>
-      <c r="D91" s="192"/>
-      <c r="E91" s="192"/>
-      <c r="F91" s="192"/>
-      <c r="G91" s="192"/>
-      <c r="H91" s="192"/>
-      <c r="I91" s="192"/>
-      <c r="J91" s="192"/>
-      <c r="K91" s="192"/>
-      <c r="L91" s="192"/>
-      <c r="M91" s="192"/>
-      <c r="N91" s="192"/>
-      <c r="O91" s="192"/>
+      <c r="B91" s="100"/>
+      <c r="C91" s="101"/>
+      <c r="D91" s="101"/>
+      <c r="E91" s="101"/>
+      <c r="F91" s="101"/>
+      <c r="G91" s="101"/>
+      <c r="H91" s="101"/>
+      <c r="I91" s="101"/>
+      <c r="J91" s="101"/>
+      <c r="K91" s="101"/>
+      <c r="L91" s="101"/>
+      <c r="M91" s="101"/>
+      <c r="N91" s="101"/>
+      <c r="O91" s="101"/>
       <c r="P91"/>
       <c r="Q91"/>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B92" s="191"/>
-      <c r="C92" s="192"/>
-      <c r="D92" s="192"/>
-      <c r="E92" s="192"/>
-      <c r="F92" s="192"/>
-      <c r="G92" s="192"/>
-      <c r="H92" s="192"/>
-      <c r="I92" s="192"/>
-      <c r="J92" s="192"/>
-      <c r="K92" s="192"/>
-      <c r="L92" s="192"/>
-      <c r="M92" s="192"/>
-      <c r="N92" s="192"/>
-      <c r="O92" s="192"/>
+      <c r="B92" s="100"/>
+      <c r="C92" s="101"/>
+      <c r="D92" s="101"/>
+      <c r="E92" s="101"/>
+      <c r="F92" s="101"/>
+      <c r="G92" s="101"/>
+      <c r="H92" s="101"/>
+      <c r="I92" s="101"/>
+      <c r="J92" s="101"/>
+      <c r="K92" s="101"/>
+      <c r="L92" s="101"/>
+      <c r="M92" s="101"/>
+      <c r="N92" s="101"/>
+      <c r="O92" s="101"/>
       <c r="P92"/>
       <c r="Q92"/>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B93" s="191"/>
-      <c r="C93" s="192"/>
-      <c r="D93" s="192"/>
-      <c r="E93" s="192"/>
-      <c r="F93" s="192"/>
-      <c r="G93" s="192"/>
-      <c r="H93" s="192"/>
-      <c r="I93" s="192"/>
-      <c r="J93" s="192"/>
-      <c r="K93" s="192"/>
-      <c r="L93" s="192"/>
-      <c r="M93" s="192"/>
-      <c r="N93" s="192"/>
-      <c r="O93" s="192"/>
+      <c r="B93" s="100"/>
+      <c r="C93" s="101"/>
+      <c r="D93" s="101"/>
+      <c r="E93" s="101"/>
+      <c r="F93" s="101"/>
+      <c r="G93" s="101"/>
+      <c r="H93" s="101"/>
+      <c r="I93" s="101"/>
+      <c r="J93" s="101"/>
+      <c r="K93" s="101"/>
+      <c r="L93" s="101"/>
+      <c r="M93" s="101"/>
+      <c r="N93" s="101"/>
+      <c r="O93" s="101"/>
       <c r="P93"/>
       <c r="Q93"/>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B94" s="191"/>
-      <c r="C94" s="192"/>
-      <c r="D94" s="192"/>
-      <c r="E94" s="192"/>
-      <c r="F94" s="192"/>
-      <c r="G94" s="192"/>
-      <c r="H94" s="192"/>
-      <c r="I94" s="192"/>
-      <c r="J94" s="192"/>
-      <c r="K94" s="192"/>
-      <c r="L94" s="192"/>
-      <c r="M94" s="192"/>
-      <c r="N94" s="192"/>
-      <c r="O94" s="192"/>
+      <c r="B94" s="100"/>
+      <c r="C94" s="101"/>
+      <c r="D94" s="101"/>
+      <c r="E94" s="101"/>
+      <c r="F94" s="101"/>
+      <c r="G94" s="101"/>
+      <c r="H94" s="101"/>
+      <c r="I94" s="101"/>
+      <c r="J94" s="101"/>
+      <c r="K94" s="101"/>
+      <c r="L94" s="101"/>
+      <c r="M94" s="101"/>
+      <c r="N94" s="101"/>
+      <c r="O94" s="101"/>
       <c r="P94"/>
       <c r="Q94"/>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B95" s="191"/>
-      <c r="C95" s="192"/>
-      <c r="D95" s="192"/>
-      <c r="E95" s="192"/>
-      <c r="F95" s="192"/>
-      <c r="G95" s="192"/>
-      <c r="H95" s="192"/>
-      <c r="I95" s="192"/>
-      <c r="J95" s="192"/>
-      <c r="K95" s="192"/>
-      <c r="L95" s="192"/>
-      <c r="M95" s="192"/>
-      <c r="N95" s="192"/>
-      <c r="O95" s="192"/>
+      <c r="B95" s="100"/>
+      <c r="C95" s="101"/>
+      <c r="D95" s="101"/>
+      <c r="E95" s="101"/>
+      <c r="F95" s="101"/>
+      <c r="G95" s="101"/>
+      <c r="H95" s="101"/>
+      <c r="I95" s="101"/>
+      <c r="J95" s="101"/>
+      <c r="K95" s="101"/>
+      <c r="L95" s="101"/>
+      <c r="M95" s="101"/>
+      <c r="N95" s="101"/>
+      <c r="O95" s="101"/>
       <c r="P95"/>
       <c r="Q95"/>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B96" s="191"/>
-      <c r="C96" s="192"/>
-      <c r="D96" s="192"/>
-      <c r="E96" s="192"/>
-      <c r="F96" s="192"/>
-      <c r="G96" s="192"/>
-      <c r="H96" s="192"/>
-      <c r="I96" s="192"/>
-      <c r="J96" s="192"/>
-      <c r="K96" s="192"/>
-      <c r="L96" s="192"/>
-      <c r="M96" s="192"/>
-      <c r="N96" s="192"/>
-      <c r="O96" s="192"/>
+      <c r="B96" s="100"/>
+      <c r="C96" s="101"/>
+      <c r="D96" s="101"/>
+      <c r="E96" s="101"/>
+      <c r="F96" s="101"/>
+      <c r="G96" s="101"/>
+      <c r="H96" s="101"/>
+      <c r="I96" s="101"/>
+      <c r="J96" s="101"/>
+      <c r="K96" s="101"/>
+      <c r="L96" s="101"/>
+      <c r="M96" s="101"/>
+      <c r="N96" s="101"/>
+      <c r="O96" s="101"/>
       <c r="P96"/>
       <c r="Q96"/>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B97" s="191"/>
-      <c r="C97" s="192"/>
-      <c r="D97" s="192"/>
-      <c r="E97" s="192"/>
-      <c r="F97" s="192"/>
-      <c r="G97" s="192"/>
-      <c r="H97" s="192"/>
-      <c r="I97" s="192"/>
-      <c r="J97" s="192"/>
-      <c r="K97" s="192"/>
-      <c r="L97" s="192"/>
-      <c r="M97" s="192"/>
-      <c r="N97" s="192"/>
-      <c r="O97" s="192"/>
+      <c r="B97" s="100"/>
+      <c r="C97" s="101"/>
+      <c r="D97" s="101"/>
+      <c r="E97" s="101"/>
+      <c r="F97" s="101"/>
+      <c r="G97" s="101"/>
+      <c r="H97" s="101"/>
+      <c r="I97" s="101"/>
+      <c r="J97" s="101"/>
+      <c r="K97" s="101"/>
+      <c r="L97" s="101"/>
+      <c r="M97" s="101"/>
+      <c r="N97" s="101"/>
+      <c r="O97" s="101"/>
       <c r="P97"/>
       <c r="Q97"/>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B98" s="191"/>
-      <c r="C98" s="192"/>
-      <c r="D98" s="192"/>
-      <c r="E98" s="192"/>
-      <c r="F98" s="192"/>
-      <c r="G98" s="192"/>
-      <c r="H98" s="192"/>
-      <c r="I98" s="192"/>
-      <c r="J98" s="192"/>
-      <c r="K98" s="192"/>
-      <c r="L98" s="192"/>
-      <c r="M98" s="192"/>
-      <c r="N98" s="192"/>
-      <c r="O98" s="192"/>
+      <c r="B98" s="100"/>
+      <c r="C98" s="101"/>
+      <c r="D98" s="101"/>
+      <c r="E98" s="101"/>
+      <c r="F98" s="101"/>
+      <c r="G98" s="101"/>
+      <c r="H98" s="101"/>
+      <c r="I98" s="101"/>
+      <c r="J98" s="101"/>
+      <c r="K98" s="101"/>
+      <c r="L98" s="101"/>
+      <c r="M98" s="101"/>
+      <c r="N98" s="101"/>
+      <c r="O98" s="101"/>
       <c r="P98"/>
       <c r="Q98"/>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B99" s="191"/>
-      <c r="C99" s="192"/>
-      <c r="D99" s="192"/>
-      <c r="E99" s="192"/>
-      <c r="F99" s="192"/>
-      <c r="G99" s="192"/>
-      <c r="H99" s="192"/>
-      <c r="I99" s="192"/>
-      <c r="J99" s="192"/>
-      <c r="K99" s="192"/>
-      <c r="L99" s="192"/>
-      <c r="M99" s="192"/>
-      <c r="N99" s="192"/>
-      <c r="O99" s="192"/>
+      <c r="B99" s="100"/>
+      <c r="C99" s="101"/>
+      <c r="D99" s="101"/>
+      <c r="E99" s="101"/>
+      <c r="F99" s="101"/>
+      <c r="G99" s="101"/>
+      <c r="H99" s="101"/>
+      <c r="I99" s="101"/>
+      <c r="J99" s="101"/>
+      <c r="K99" s="101"/>
+      <c r="L99" s="101"/>
+      <c r="M99" s="101"/>
+      <c r="N99" s="101"/>
+      <c r="O99" s="101"/>
       <c r="P99"/>
       <c r="Q99"/>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B100" s="191"/>
-      <c r="C100" s="192"/>
-      <c r="D100" s="192"/>
-      <c r="E100" s="192"/>
-      <c r="F100" s="192"/>
-      <c r="G100" s="192"/>
-      <c r="H100" s="192"/>
-      <c r="I100" s="192"/>
-      <c r="J100" s="192"/>
-      <c r="K100" s="192"/>
-      <c r="L100" s="192"/>
-      <c r="M100" s="192"/>
-      <c r="N100" s="192"/>
-      <c r="O100" s="192"/>
+      <c r="B100" s="100"/>
+      <c r="C100" s="101"/>
+      <c r="D100" s="101"/>
+      <c r="E100" s="101"/>
+      <c r="F100" s="101"/>
+      <c r="G100" s="101"/>
+      <c r="H100" s="101"/>
+      <c r="I100" s="101"/>
+      <c r="J100" s="101"/>
+      <c r="K100" s="101"/>
+      <c r="L100" s="101"/>
+      <c r="M100" s="101"/>
+      <c r="N100" s="101"/>
+      <c r="O100" s="101"/>
       <c r="P100"/>
       <c r="Q100"/>
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B101" s="191"/>
-      <c r="C101" s="192"/>
-      <c r="D101" s="192"/>
-      <c r="E101" s="192"/>
-      <c r="F101" s="192"/>
-      <c r="G101" s="192"/>
-      <c r="H101" s="192"/>
-      <c r="I101" s="192"/>
-      <c r="J101" s="192"/>
-      <c r="K101" s="192"/>
-      <c r="L101" s="192"/>
-      <c r="M101" s="192"/>
-      <c r="N101" s="192"/>
-      <c r="O101" s="192"/>
+      <c r="B101" s="100"/>
+      <c r="C101" s="101"/>
+      <c r="D101" s="101"/>
+      <c r="E101" s="101"/>
+      <c r="F101" s="101"/>
+      <c r="G101" s="101"/>
+      <c r="H101" s="101"/>
+      <c r="I101" s="101"/>
+      <c r="J101" s="101"/>
+      <c r="K101" s="101"/>
+      <c r="L101" s="101"/>
+      <c r="M101" s="101"/>
+      <c r="N101" s="101"/>
+      <c r="O101" s="101"/>
       <c r="P101"/>
       <c r="Q101"/>
     </row>
@@ -6993,17 +6993,17 @@
       <c r="Q102"/>
     </row>
     <row r="103" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="193" t="s">
+      <c r="B103" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="193"/>
-      <c r="D103" s="193"/>
-      <c r="E103" s="193"/>
-      <c r="F103" s="193"/>
-      <c r="G103" s="193"/>
-      <c r="H103" s="193"/>
-      <c r="I103" s="193"/>
-      <c r="J103" s="193"/>
+      <c r="C103" s="141"/>
+      <c r="D103" s="141"/>
+      <c r="E103" s="141"/>
+      <c r="F103" s="141"/>
+      <c r="G103" s="141"/>
+      <c r="H103" s="141"/>
+      <c r="I103" s="141"/>
+      <c r="J103" s="141"/>
       <c r="K103"/>
       <c r="L103"/>
       <c r="M103"/>
@@ -7013,416 +7013,416 @@
       <c r="Q103"/>
     </row>
     <row r="104" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B104" s="191"/>
-      <c r="C104" s="192"/>
-      <c r="D104" s="192"/>
-      <c r="E104" s="192"/>
-      <c r="F104" s="192"/>
-      <c r="G104" s="192"/>
-      <c r="H104" s="192"/>
-      <c r="I104" s="192"/>
-      <c r="J104" s="192"/>
-      <c r="K104" s="192"/>
-      <c r="L104" s="192"/>
-      <c r="M104" s="192"/>
-      <c r="N104" s="192"/>
-      <c r="O104" s="192"/>
+      <c r="B104" s="100"/>
+      <c r="C104" s="101"/>
+      <c r="D104" s="101"/>
+      <c r="E104" s="101"/>
+      <c r="F104" s="101"/>
+      <c r="G104" s="101"/>
+      <c r="H104" s="101"/>
+      <c r="I104" s="101"/>
+      <c r="J104" s="101"/>
+      <c r="K104" s="101"/>
+      <c r="L104" s="101"/>
+      <c r="M104" s="101"/>
+      <c r="N104" s="101"/>
+      <c r="O104" s="101"/>
       <c r="P104"/>
       <c r="Q104"/>
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B105" s="191"/>
-      <c r="C105" s="192"/>
-      <c r="D105" s="192"/>
-      <c r="E105" s="192"/>
-      <c r="F105" s="192"/>
-      <c r="G105" s="192"/>
-      <c r="H105" s="192"/>
-      <c r="I105" s="192"/>
-      <c r="J105" s="192"/>
-      <c r="K105" s="192"/>
-      <c r="L105" s="192"/>
-      <c r="M105" s="192"/>
-      <c r="N105" s="192"/>
-      <c r="O105" s="192"/>
+      <c r="B105" s="100"/>
+      <c r="C105" s="101"/>
+      <c r="D105" s="101"/>
+      <c r="E105" s="101"/>
+      <c r="F105" s="101"/>
+      <c r="G105" s="101"/>
+      <c r="H105" s="101"/>
+      <c r="I105" s="101"/>
+      <c r="J105" s="101"/>
+      <c r="K105" s="101"/>
+      <c r="L105" s="101"/>
+      <c r="M105" s="101"/>
+      <c r="N105" s="101"/>
+      <c r="O105" s="101"/>
       <c r="P105"/>
       <c r="Q105"/>
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B106" s="191"/>
-      <c r="C106" s="192"/>
-      <c r="D106" s="192"/>
-      <c r="E106" s="192"/>
-      <c r="F106" s="192"/>
-      <c r="G106" s="192"/>
-      <c r="H106" s="192"/>
-      <c r="I106" s="192"/>
-      <c r="J106" s="192"/>
-      <c r="K106" s="192"/>
-      <c r="L106" s="192"/>
-      <c r="M106" s="192"/>
-      <c r="N106" s="192"/>
-      <c r="O106" s="192"/>
+      <c r="B106" s="100"/>
+      <c r="C106" s="101"/>
+      <c r="D106" s="101"/>
+      <c r="E106" s="101"/>
+      <c r="F106" s="101"/>
+      <c r="G106" s="101"/>
+      <c r="H106" s="101"/>
+      <c r="I106" s="101"/>
+      <c r="J106" s="101"/>
+      <c r="K106" s="101"/>
+      <c r="L106" s="101"/>
+      <c r="M106" s="101"/>
+      <c r="N106" s="101"/>
+      <c r="O106" s="101"/>
       <c r="P106"/>
       <c r="Q106"/>
     </row>
     <row r="107" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B107" s="191"/>
-      <c r="C107" s="192"/>
-      <c r="D107" s="192"/>
-      <c r="E107" s="192"/>
-      <c r="F107" s="192"/>
-      <c r="G107" s="192"/>
-      <c r="H107" s="192"/>
-      <c r="I107" s="192"/>
-      <c r="J107" s="192"/>
-      <c r="K107" s="192"/>
-      <c r="L107" s="192"/>
-      <c r="M107" s="192"/>
-      <c r="N107" s="192"/>
-      <c r="O107" s="192"/>
+      <c r="B107" s="100"/>
+      <c r="C107" s="101"/>
+      <c r="D107" s="101"/>
+      <c r="E107" s="101"/>
+      <c r="F107" s="101"/>
+      <c r="G107" s="101"/>
+      <c r="H107" s="101"/>
+      <c r="I107" s="101"/>
+      <c r="J107" s="101"/>
+      <c r="K107" s="101"/>
+      <c r="L107" s="101"/>
+      <c r="M107" s="101"/>
+      <c r="N107" s="101"/>
+      <c r="O107" s="101"/>
       <c r="P107"/>
       <c r="Q107"/>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B108" s="191"/>
-      <c r="C108" s="192"/>
-      <c r="D108" s="192"/>
-      <c r="E108" s="192"/>
-      <c r="F108" s="192"/>
-      <c r="G108" s="192"/>
-      <c r="H108" s="192"/>
-      <c r="I108" s="192"/>
-      <c r="J108" s="192"/>
-      <c r="K108" s="192"/>
-      <c r="L108" s="192"/>
-      <c r="M108" s="192"/>
-      <c r="N108" s="192"/>
-      <c r="O108" s="192"/>
+      <c r="B108" s="100"/>
+      <c r="C108" s="101"/>
+      <c r="D108" s="101"/>
+      <c r="E108" s="101"/>
+      <c r="F108" s="101"/>
+      <c r="G108" s="101"/>
+      <c r="H108" s="101"/>
+      <c r="I108" s="101"/>
+      <c r="J108" s="101"/>
+      <c r="K108" s="101"/>
+      <c r="L108" s="101"/>
+      <c r="M108" s="101"/>
+      <c r="N108" s="101"/>
+      <c r="O108" s="101"/>
       <c r="P108"/>
       <c r="Q108"/>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B109" s="191"/>
-      <c r="C109" s="192"/>
-      <c r="D109" s="192"/>
-      <c r="E109" s="192"/>
-      <c r="F109" s="192"/>
-      <c r="G109" s="192"/>
-      <c r="H109" s="192"/>
-      <c r="I109" s="192"/>
-      <c r="J109" s="192"/>
-      <c r="K109" s="192"/>
-      <c r="L109" s="192"/>
-      <c r="M109" s="192"/>
-      <c r="N109" s="192"/>
-      <c r="O109" s="192"/>
+      <c r="B109" s="100"/>
+      <c r="C109" s="101"/>
+      <c r="D109" s="101"/>
+      <c r="E109" s="101"/>
+      <c r="F109" s="101"/>
+      <c r="G109" s="101"/>
+      <c r="H109" s="101"/>
+      <c r="I109" s="101"/>
+      <c r="J109" s="101"/>
+      <c r="K109" s="101"/>
+      <c r="L109" s="101"/>
+      <c r="M109" s="101"/>
+      <c r="N109" s="101"/>
+      <c r="O109" s="101"/>
       <c r="P109"/>
       <c r="Q109"/>
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B110" s="191"/>
-      <c r="C110" s="192"/>
-      <c r="D110" s="192"/>
-      <c r="E110" s="192"/>
-      <c r="F110" s="192"/>
-      <c r="G110" s="192"/>
-      <c r="H110" s="192"/>
-      <c r="I110" s="192"/>
-      <c r="J110" s="192"/>
-      <c r="K110" s="192"/>
-      <c r="L110" s="192"/>
-      <c r="M110" s="192"/>
-      <c r="N110" s="192"/>
-      <c r="O110" s="192"/>
+      <c r="B110" s="100"/>
+      <c r="C110" s="101"/>
+      <c r="D110" s="101"/>
+      <c r="E110" s="101"/>
+      <c r="F110" s="101"/>
+      <c r="G110" s="101"/>
+      <c r="H110" s="101"/>
+      <c r="I110" s="101"/>
+      <c r="J110" s="101"/>
+      <c r="K110" s="101"/>
+      <c r="L110" s="101"/>
+      <c r="M110" s="101"/>
+      <c r="N110" s="101"/>
+      <c r="O110" s="101"/>
       <c r="P110"/>
       <c r="Q110"/>
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B111" s="191"/>
-      <c r="C111" s="192"/>
-      <c r="D111" s="192"/>
-      <c r="E111" s="192"/>
-      <c r="F111" s="192"/>
-      <c r="G111" s="192"/>
-      <c r="H111" s="192"/>
-      <c r="I111" s="192"/>
-      <c r="J111" s="192"/>
-      <c r="K111" s="192"/>
-      <c r="L111" s="192"/>
-      <c r="M111" s="192"/>
-      <c r="N111" s="192"/>
-      <c r="O111" s="192"/>
+      <c r="B111" s="100"/>
+      <c r="C111" s="101"/>
+      <c r="D111" s="101"/>
+      <c r="E111" s="101"/>
+      <c r="F111" s="101"/>
+      <c r="G111" s="101"/>
+      <c r="H111" s="101"/>
+      <c r="I111" s="101"/>
+      <c r="J111" s="101"/>
+      <c r="K111" s="101"/>
+      <c r="L111" s="101"/>
+      <c r="M111" s="101"/>
+      <c r="N111" s="101"/>
+      <c r="O111" s="101"/>
       <c r="P111"/>
       <c r="Q111"/>
     </row>
     <row r="112" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B112" s="191"/>
-      <c r="C112" s="192"/>
-      <c r="D112" s="192"/>
-      <c r="E112" s="192"/>
-      <c r="F112" s="192"/>
-      <c r="G112" s="192"/>
-      <c r="H112" s="192"/>
-      <c r="I112" s="192"/>
-      <c r="J112" s="192"/>
-      <c r="K112" s="192"/>
-      <c r="L112" s="192"/>
-      <c r="M112" s="192"/>
-      <c r="N112" s="192"/>
-      <c r="O112" s="192"/>
+      <c r="B112" s="100"/>
+      <c r="C112" s="101"/>
+      <c r="D112" s="101"/>
+      <c r="E112" s="101"/>
+      <c r="F112" s="101"/>
+      <c r="G112" s="101"/>
+      <c r="H112" s="101"/>
+      <c r="I112" s="101"/>
+      <c r="J112" s="101"/>
+      <c r="K112" s="101"/>
+      <c r="L112" s="101"/>
+      <c r="M112" s="101"/>
+      <c r="N112" s="101"/>
+      <c r="O112" s="101"/>
       <c r="P112"/>
       <c r="Q112"/>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B113" s="191"/>
-      <c r="C113" s="192"/>
-      <c r="D113" s="192"/>
-      <c r="E113" s="192"/>
-      <c r="F113" s="192"/>
-      <c r="G113" s="192"/>
-      <c r="H113" s="192"/>
-      <c r="I113" s="192"/>
-      <c r="J113" s="192"/>
-      <c r="K113" s="192"/>
-      <c r="L113" s="192"/>
-      <c r="M113" s="192"/>
-      <c r="N113" s="192"/>
-      <c r="O113" s="192"/>
+      <c r="B113" s="100"/>
+      <c r="C113" s="101"/>
+      <c r="D113" s="101"/>
+      <c r="E113" s="101"/>
+      <c r="F113" s="101"/>
+      <c r="G113" s="101"/>
+      <c r="H113" s="101"/>
+      <c r="I113" s="101"/>
+      <c r="J113" s="101"/>
+      <c r="K113" s="101"/>
+      <c r="L113" s="101"/>
+      <c r="M113" s="101"/>
+      <c r="N113" s="101"/>
+      <c r="O113" s="101"/>
       <c r="P113"/>
       <c r="Q113"/>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B114" s="191"/>
-      <c r="C114" s="192"/>
-      <c r="D114" s="192"/>
-      <c r="E114" s="192"/>
-      <c r="F114" s="192"/>
-      <c r="G114" s="192"/>
-      <c r="H114" s="192"/>
-      <c r="I114" s="192"/>
-      <c r="J114" s="192"/>
-      <c r="K114" s="192"/>
-      <c r="L114" s="192"/>
-      <c r="M114" s="192"/>
-      <c r="N114" s="192"/>
-      <c r="O114" s="192"/>
+      <c r="B114" s="100"/>
+      <c r="C114" s="101"/>
+      <c r="D114" s="101"/>
+      <c r="E114" s="101"/>
+      <c r="F114" s="101"/>
+      <c r="G114" s="101"/>
+      <c r="H114" s="101"/>
+      <c r="I114" s="101"/>
+      <c r="J114" s="101"/>
+      <c r="K114" s="101"/>
+      <c r="L114" s="101"/>
+      <c r="M114" s="101"/>
+      <c r="N114" s="101"/>
+      <c r="O114" s="101"/>
       <c r="P114"/>
       <c r="Q114"/>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B115" s="191"/>
-      <c r="C115" s="192"/>
-      <c r="D115" s="192"/>
-      <c r="E115" s="192"/>
-      <c r="F115" s="192"/>
-      <c r="G115" s="192"/>
-      <c r="H115" s="192"/>
-      <c r="I115" s="192"/>
-      <c r="J115" s="192"/>
-      <c r="K115" s="192"/>
-      <c r="L115" s="192"/>
-      <c r="M115" s="192"/>
-      <c r="N115" s="192"/>
-      <c r="O115" s="192"/>
+      <c r="B115" s="100"/>
+      <c r="C115" s="101"/>
+      <c r="D115" s="101"/>
+      <c r="E115" s="101"/>
+      <c r="F115" s="101"/>
+      <c r="G115" s="101"/>
+      <c r="H115" s="101"/>
+      <c r="I115" s="101"/>
+      <c r="J115" s="101"/>
+      <c r="K115" s="101"/>
+      <c r="L115" s="101"/>
+      <c r="M115" s="101"/>
+      <c r="N115" s="101"/>
+      <c r="O115" s="101"/>
       <c r="P115"/>
       <c r="Q115"/>
     </row>
     <row r="116" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B116" s="191"/>
-      <c r="C116" s="192"/>
-      <c r="D116" s="192"/>
-      <c r="E116" s="192"/>
-      <c r="F116" s="192"/>
-      <c r="G116" s="192"/>
-      <c r="H116" s="192"/>
-      <c r="I116" s="192"/>
-      <c r="J116" s="192"/>
-      <c r="K116" s="192"/>
-      <c r="L116" s="192"/>
-      <c r="M116" s="192"/>
-      <c r="N116" s="192"/>
-      <c r="O116" s="192"/>
+      <c r="B116" s="100"/>
+      <c r="C116" s="101"/>
+      <c r="D116" s="101"/>
+      <c r="E116" s="101"/>
+      <c r="F116" s="101"/>
+      <c r="G116" s="101"/>
+      <c r="H116" s="101"/>
+      <c r="I116" s="101"/>
+      <c r="J116" s="101"/>
+      <c r="K116" s="101"/>
+      <c r="L116" s="101"/>
+      <c r="M116" s="101"/>
+      <c r="N116" s="101"/>
+      <c r="O116" s="101"/>
       <c r="P116"/>
       <c r="Q116"/>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B117" s="191"/>
-      <c r="C117" s="192"/>
-      <c r="D117" s="192"/>
-      <c r="E117" s="192"/>
-      <c r="F117" s="192"/>
-      <c r="G117" s="192"/>
-      <c r="H117" s="192"/>
-      <c r="I117" s="192"/>
-      <c r="J117" s="192"/>
-      <c r="K117" s="192"/>
-      <c r="L117" s="192"/>
-      <c r="M117" s="192"/>
-      <c r="N117" s="192"/>
-      <c r="O117" s="192"/>
+      <c r="B117" s="100"/>
+      <c r="C117" s="101"/>
+      <c r="D117" s="101"/>
+      <c r="E117" s="101"/>
+      <c r="F117" s="101"/>
+      <c r="G117" s="101"/>
+      <c r="H117" s="101"/>
+      <c r="I117" s="101"/>
+      <c r="J117" s="101"/>
+      <c r="K117" s="101"/>
+      <c r="L117" s="101"/>
+      <c r="M117" s="101"/>
+      <c r="N117" s="101"/>
+      <c r="O117" s="101"/>
       <c r="P117"/>
       <c r="Q117"/>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B118" s="191"/>
-      <c r="C118" s="192"/>
-      <c r="D118" s="192"/>
-      <c r="E118" s="192"/>
-      <c r="F118" s="192"/>
-      <c r="G118" s="192"/>
-      <c r="H118" s="192"/>
-      <c r="I118" s="192"/>
-      <c r="J118" s="192"/>
-      <c r="K118" s="192"/>
-      <c r="L118" s="192"/>
-      <c r="M118" s="192"/>
-      <c r="N118" s="192"/>
-      <c r="O118" s="192"/>
+      <c r="B118" s="100"/>
+      <c r="C118" s="101"/>
+      <c r="D118" s="101"/>
+      <c r="E118" s="101"/>
+      <c r="F118" s="101"/>
+      <c r="G118" s="101"/>
+      <c r="H118" s="101"/>
+      <c r="I118" s="101"/>
+      <c r="J118" s="101"/>
+      <c r="K118" s="101"/>
+      <c r="L118" s="101"/>
+      <c r="M118" s="101"/>
+      <c r="N118" s="101"/>
+      <c r="O118" s="101"/>
       <c r="P118"/>
       <c r="Q118"/>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B119" s="191"/>
-      <c r="C119" s="192"/>
-      <c r="D119" s="192"/>
-      <c r="E119" s="192"/>
-      <c r="F119" s="192"/>
-      <c r="G119" s="192"/>
-      <c r="H119" s="192"/>
-      <c r="I119" s="192"/>
-      <c r="J119" s="192"/>
-      <c r="K119" s="192"/>
-      <c r="L119" s="192"/>
-      <c r="M119" s="192"/>
-      <c r="N119" s="192"/>
-      <c r="O119" s="192"/>
+      <c r="B119" s="100"/>
+      <c r="C119" s="101"/>
+      <c r="D119" s="101"/>
+      <c r="E119" s="101"/>
+      <c r="F119" s="101"/>
+      <c r="G119" s="101"/>
+      <c r="H119" s="101"/>
+      <c r="I119" s="101"/>
+      <c r="J119" s="101"/>
+      <c r="K119" s="101"/>
+      <c r="L119" s="101"/>
+      <c r="M119" s="101"/>
+      <c r="N119" s="101"/>
+      <c r="O119" s="101"/>
       <c r="P119"/>
       <c r="Q119"/>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B120" s="191"/>
-      <c r="C120" s="192"/>
-      <c r="D120" s="192"/>
-      <c r="E120" s="192"/>
-      <c r="F120" s="192"/>
-      <c r="G120" s="192"/>
-      <c r="H120" s="192"/>
-      <c r="I120" s="192"/>
-      <c r="J120" s="192"/>
-      <c r="K120" s="192"/>
-      <c r="L120" s="192"/>
-      <c r="M120" s="192"/>
-      <c r="N120" s="192"/>
-      <c r="O120" s="192"/>
+      <c r="B120" s="100"/>
+      <c r="C120" s="101"/>
+      <c r="D120" s="101"/>
+      <c r="E120" s="101"/>
+      <c r="F120" s="101"/>
+      <c r="G120" s="101"/>
+      <c r="H120" s="101"/>
+      <c r="I120" s="101"/>
+      <c r="J120" s="101"/>
+      <c r="K120" s="101"/>
+      <c r="L120" s="101"/>
+      <c r="M120" s="101"/>
+      <c r="N120" s="101"/>
+      <c r="O120" s="101"/>
       <c r="P120"/>
       <c r="Q120"/>
     </row>
     <row r="121" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B121" s="191"/>
-      <c r="C121" s="192"/>
-      <c r="D121" s="192"/>
-      <c r="E121" s="192"/>
-      <c r="F121" s="192"/>
-      <c r="G121" s="192"/>
-      <c r="H121" s="192"/>
-      <c r="I121" s="192"/>
-      <c r="J121" s="192"/>
-      <c r="K121" s="192"/>
-      <c r="L121" s="192"/>
-      <c r="M121" s="192"/>
-      <c r="N121" s="192"/>
-      <c r="O121" s="192"/>
+      <c r="B121" s="100"/>
+      <c r="C121" s="101"/>
+      <c r="D121" s="101"/>
+      <c r="E121" s="101"/>
+      <c r="F121" s="101"/>
+      <c r="G121" s="101"/>
+      <c r="H121" s="101"/>
+      <c r="I121" s="101"/>
+      <c r="J121" s="101"/>
+      <c r="K121" s="101"/>
+      <c r="L121" s="101"/>
+      <c r="M121" s="101"/>
+      <c r="N121" s="101"/>
+      <c r="O121" s="101"/>
       <c r="P121"/>
       <c r="Q121"/>
     </row>
     <row r="122" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B122" s="191"/>
-      <c r="C122" s="192"/>
-      <c r="D122" s="192"/>
-      <c r="E122" s="192"/>
-      <c r="F122" s="192"/>
-      <c r="G122" s="192"/>
-      <c r="H122" s="192"/>
-      <c r="I122" s="192"/>
-      <c r="J122" s="192"/>
-      <c r="K122" s="192"/>
-      <c r="L122" s="192"/>
-      <c r="M122" s="192"/>
-      <c r="N122" s="192"/>
-      <c r="O122" s="192"/>
+      <c r="B122" s="100"/>
+      <c r="C122" s="101"/>
+      <c r="D122" s="101"/>
+      <c r="E122" s="101"/>
+      <c r="F122" s="101"/>
+      <c r="G122" s="101"/>
+      <c r="H122" s="101"/>
+      <c r="I122" s="101"/>
+      <c r="J122" s="101"/>
+      <c r="K122" s="101"/>
+      <c r="L122" s="101"/>
+      <c r="M122" s="101"/>
+      <c r="N122" s="101"/>
+      <c r="O122" s="101"/>
       <c r="P122"/>
       <c r="Q122"/>
     </row>
     <row r="123" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B123" s="191"/>
-      <c r="C123" s="192"/>
-      <c r="D123" s="192"/>
-      <c r="E123" s="192"/>
-      <c r="F123" s="192"/>
-      <c r="G123" s="192"/>
-      <c r="H123" s="192"/>
-      <c r="I123" s="192"/>
-      <c r="J123" s="192"/>
-      <c r="K123" s="192"/>
-      <c r="L123" s="192"/>
-      <c r="M123" s="192"/>
-      <c r="N123" s="192"/>
-      <c r="O123" s="192"/>
+      <c r="B123" s="100"/>
+      <c r="C123" s="101"/>
+      <c r="D123" s="101"/>
+      <c r="E123" s="101"/>
+      <c r="F123" s="101"/>
+      <c r="G123" s="101"/>
+      <c r="H123" s="101"/>
+      <c r="I123" s="101"/>
+      <c r="J123" s="101"/>
+      <c r="K123" s="101"/>
+      <c r="L123" s="101"/>
+      <c r="M123" s="101"/>
+      <c r="N123" s="101"/>
+      <c r="O123" s="101"/>
       <c r="P123"/>
       <c r="Q123"/>
     </row>
     <row r="124" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B124" s="191"/>
-      <c r="C124" s="192"/>
-      <c r="D124" s="192"/>
-      <c r="E124" s="192"/>
-      <c r="F124" s="192"/>
-      <c r="G124" s="192"/>
-      <c r="H124" s="192"/>
-      <c r="I124" s="192"/>
-      <c r="J124" s="192"/>
-      <c r="K124" s="192"/>
-      <c r="L124" s="192"/>
-      <c r="M124" s="192"/>
-      <c r="N124" s="192"/>
-      <c r="O124" s="192"/>
+      <c r="B124" s="100"/>
+      <c r="C124" s="101"/>
+      <c r="D124" s="101"/>
+      <c r="E124" s="101"/>
+      <c r="F124" s="101"/>
+      <c r="G124" s="101"/>
+      <c r="H124" s="101"/>
+      <c r="I124" s="101"/>
+      <c r="J124" s="101"/>
+      <c r="K124" s="101"/>
+      <c r="L124" s="101"/>
+      <c r="M124" s="101"/>
+      <c r="N124" s="101"/>
+      <c r="O124" s="101"/>
       <c r="P124"/>
       <c r="Q124"/>
     </row>
     <row r="125" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B125" s="191"/>
-      <c r="C125" s="192"/>
-      <c r="D125" s="192"/>
-      <c r="E125" s="192"/>
-      <c r="F125" s="192"/>
-      <c r="G125" s="192"/>
-      <c r="H125" s="192"/>
-      <c r="I125" s="192"/>
-      <c r="J125" s="192"/>
-      <c r="K125" s="192"/>
-      <c r="L125" s="192"/>
-      <c r="M125" s="192"/>
-      <c r="N125" s="192"/>
-      <c r="O125" s="192"/>
+      <c r="B125" s="100"/>
+      <c r="C125" s="101"/>
+      <c r="D125" s="101"/>
+      <c r="E125" s="101"/>
+      <c r="F125" s="101"/>
+      <c r="G125" s="101"/>
+      <c r="H125" s="101"/>
+      <c r="I125" s="101"/>
+      <c r="J125" s="101"/>
+      <c r="K125" s="101"/>
+      <c r="L125" s="101"/>
+      <c r="M125" s="101"/>
+      <c r="N125" s="101"/>
+      <c r="O125" s="101"/>
       <c r="P125"/>
       <c r="Q125"/>
     </row>
     <row r="126" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B126" s="191"/>
-      <c r="C126" s="192"/>
-      <c r="D126" s="192"/>
-      <c r="E126" s="192"/>
-      <c r="F126" s="192"/>
-      <c r="G126" s="192"/>
-      <c r="H126" s="192"/>
-      <c r="I126" s="192"/>
-      <c r="J126" s="192"/>
-      <c r="K126" s="192"/>
-      <c r="L126" s="192"/>
-      <c r="M126" s="192"/>
-      <c r="N126" s="192"/>
-      <c r="O126" s="192"/>
+      <c r="B126" s="100"/>
+      <c r="C126" s="101"/>
+      <c r="D126" s="101"/>
+      <c r="E126" s="101"/>
+      <c r="F126" s="101"/>
+      <c r="G126" s="101"/>
+      <c r="H126" s="101"/>
+      <c r="I126" s="101"/>
+      <c r="J126" s="101"/>
+      <c r="K126" s="101"/>
+      <c r="L126" s="101"/>
+      <c r="M126" s="101"/>
+      <c r="N126" s="101"/>
+      <c r="O126" s="101"/>
       <c r="P126"/>
       <c r="Q126"/>
     </row>
@@ -7445,17 +7445,17 @@
       <c r="Q127"/>
     </row>
     <row r="128" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B128" s="193" t="s">
+      <c r="B128" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="C128" s="193"/>
-      <c r="D128" s="193"/>
-      <c r="E128" s="193"/>
-      <c r="F128" s="193"/>
-      <c r="G128" s="193"/>
-      <c r="H128" s="193"/>
-      <c r="I128" s="193"/>
-      <c r="J128" s="193"/>
+      <c r="C128" s="141"/>
+      <c r="D128" s="141"/>
+      <c r="E128" s="141"/>
+      <c r="F128" s="141"/>
+      <c r="G128" s="141"/>
+      <c r="H128" s="141"/>
+      <c r="I128" s="141"/>
+      <c r="J128" s="141"/>
       <c r="K128"/>
       <c r="L128"/>
       <c r="M128"/>
@@ -7465,428 +7465,428 @@
       <c r="Q128"/>
     </row>
     <row r="129" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B129" s="191"/>
-      <c r="C129" s="192"/>
-      <c r="D129" s="192"/>
-      <c r="E129" s="192"/>
-      <c r="F129" s="192"/>
-      <c r="G129" s="192"/>
-      <c r="H129" s="192"/>
-      <c r="I129" s="192"/>
-      <c r="J129" s="192"/>
-      <c r="K129" s="192"/>
-      <c r="L129" s="192"/>
-      <c r="M129" s="192"/>
-      <c r="N129" s="192"/>
-      <c r="O129" s="192"/>
+      <c r="B129" s="100"/>
+      <c r="C129" s="101"/>
+      <c r="D129" s="101"/>
+      <c r="E129" s="101"/>
+      <c r="F129" s="101"/>
+      <c r="G129" s="101"/>
+      <c r="H129" s="101"/>
+      <c r="I129" s="101"/>
+      <c r="J129" s="101"/>
+      <c r="K129" s="101"/>
+      <c r="L129" s="101"/>
+      <c r="M129" s="101"/>
+      <c r="N129" s="101"/>
+      <c r="O129" s="101"/>
       <c r="P129"/>
       <c r="Q129"/>
     </row>
     <row r="130" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B130" s="191"/>
-      <c r="C130" s="192"/>
-      <c r="D130" s="192"/>
-      <c r="E130" s="192"/>
-      <c r="F130" s="192"/>
-      <c r="G130" s="192"/>
-      <c r="H130" s="192"/>
-      <c r="I130" s="192"/>
-      <c r="J130" s="192"/>
-      <c r="K130" s="192"/>
-      <c r="L130" s="192"/>
-      <c r="M130" s="192"/>
-      <c r="N130" s="192"/>
-      <c r="O130" s="192"/>
+      <c r="B130" s="100"/>
+      <c r="C130" s="101"/>
+      <c r="D130" s="101"/>
+      <c r="E130" s="101"/>
+      <c r="F130" s="101"/>
+      <c r="G130" s="101"/>
+      <c r="H130" s="101"/>
+      <c r="I130" s="101"/>
+      <c r="J130" s="101"/>
+      <c r="K130" s="101"/>
+      <c r="L130" s="101"/>
+      <c r="M130" s="101"/>
+      <c r="N130" s="101"/>
+      <c r="O130" s="101"/>
       <c r="P130"/>
       <c r="Q130"/>
     </row>
     <row r="131" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B131" s="191"/>
-      <c r="C131" s="192"/>
-      <c r="D131" s="192"/>
-      <c r="E131" s="192"/>
-      <c r="F131" s="192"/>
-      <c r="G131" s="192"/>
-      <c r="H131" s="192"/>
-      <c r="I131" s="192"/>
-      <c r="J131" s="192"/>
-      <c r="K131" s="192"/>
-      <c r="L131" s="192"/>
-      <c r="M131" s="192"/>
-      <c r="N131" s="192"/>
-      <c r="O131" s="192"/>
+      <c r="B131" s="100"/>
+      <c r="C131" s="101"/>
+      <c r="D131" s="101"/>
+      <c r="E131" s="101"/>
+      <c r="F131" s="101"/>
+      <c r="G131" s="101"/>
+      <c r="H131" s="101"/>
+      <c r="I131" s="101"/>
+      <c r="J131" s="101"/>
+      <c r="K131" s="101"/>
+      <c r="L131" s="101"/>
+      <c r="M131" s="101"/>
+      <c r="N131" s="101"/>
+      <c r="O131" s="101"/>
       <c r="P131"/>
       <c r="Q131"/>
     </row>
     <row r="132" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B132" s="191"/>
-      <c r="C132" s="192"/>
-      <c r="D132" s="192"/>
-      <c r="E132" s="192"/>
-      <c r="F132" s="192"/>
-      <c r="G132" s="192"/>
-      <c r="H132" s="192"/>
-      <c r="I132" s="192"/>
-      <c r="J132" s="192"/>
-      <c r="K132" s="192"/>
-      <c r="L132" s="192"/>
-      <c r="M132" s="192"/>
-      <c r="N132" s="192"/>
-      <c r="O132" s="192"/>
+      <c r="B132" s="100"/>
+      <c r="C132" s="101"/>
+      <c r="D132" s="101"/>
+      <c r="E132" s="101"/>
+      <c r="F132" s="101"/>
+      <c r="G132" s="101"/>
+      <c r="H132" s="101"/>
+      <c r="I132" s="101"/>
+      <c r="J132" s="101"/>
+      <c r="K132" s="101"/>
+      <c r="L132" s="101"/>
+      <c r="M132" s="101"/>
+      <c r="N132" s="101"/>
+      <c r="O132" s="101"/>
       <c r="P132"/>
       <c r="Q132"/>
     </row>
     <row r="133" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B133" s="191"/>
-      <c r="C133" s="192"/>
-      <c r="D133" s="192"/>
-      <c r="E133" s="192"/>
-      <c r="F133" s="192"/>
-      <c r="G133" s="192"/>
-      <c r="H133" s="192"/>
-      <c r="I133" s="192"/>
-      <c r="J133" s="192"/>
-      <c r="K133" s="192"/>
-      <c r="L133" s="192"/>
-      <c r="M133" s="192"/>
-      <c r="N133" s="192"/>
-      <c r="O133" s="192"/>
+      <c r="B133" s="100"/>
+      <c r="C133" s="101"/>
+      <c r="D133" s="101"/>
+      <c r="E133" s="101"/>
+      <c r="F133" s="101"/>
+      <c r="G133" s="101"/>
+      <c r="H133" s="101"/>
+      <c r="I133" s="101"/>
+      <c r="J133" s="101"/>
+      <c r="K133" s="101"/>
+      <c r="L133" s="101"/>
+      <c r="M133" s="101"/>
+      <c r="N133" s="101"/>
+      <c r="O133" s="101"/>
       <c r="P133"/>
       <c r="Q133"/>
     </row>
     <row r="134" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B134" s="191"/>
-      <c r="C134" s="192"/>
-      <c r="D134" s="192"/>
-      <c r="E134" s="192"/>
-      <c r="F134" s="192"/>
-      <c r="G134" s="192"/>
-      <c r="H134" s="192"/>
-      <c r="I134" s="192"/>
-      <c r="J134" s="192"/>
-      <c r="K134" s="192"/>
-      <c r="L134" s="192"/>
-      <c r="M134" s="192"/>
-      <c r="N134" s="192"/>
-      <c r="O134" s="192"/>
+      <c r="B134" s="100"/>
+      <c r="C134" s="101"/>
+      <c r="D134" s="101"/>
+      <c r="E134" s="101"/>
+      <c r="F134" s="101"/>
+      <c r="G134" s="101"/>
+      <c r="H134" s="101"/>
+      <c r="I134" s="101"/>
+      <c r="J134" s="101"/>
+      <c r="K134" s="101"/>
+      <c r="L134" s="101"/>
+      <c r="M134" s="101"/>
+      <c r="N134" s="101"/>
+      <c r="O134" s="101"/>
       <c r="P134"/>
       <c r="Q134"/>
     </row>
     <row r="135" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B135" s="191"/>
-      <c r="C135" s="192"/>
-      <c r="D135" s="192"/>
-      <c r="E135" s="192"/>
-      <c r="F135" s="192"/>
-      <c r="G135" s="192"/>
-      <c r="H135" s="192"/>
-      <c r="I135" s="192"/>
-      <c r="J135" s="192"/>
-      <c r="K135" s="192"/>
-      <c r="L135" s="192"/>
-      <c r="M135" s="192"/>
-      <c r="N135" s="192"/>
-      <c r="O135" s="192"/>
+      <c r="B135" s="100"/>
+      <c r="C135" s="101"/>
+      <c r="D135" s="101"/>
+      <c r="E135" s="101"/>
+      <c r="F135" s="101"/>
+      <c r="G135" s="101"/>
+      <c r="H135" s="101"/>
+      <c r="I135" s="101"/>
+      <c r="J135" s="101"/>
+      <c r="K135" s="101"/>
+      <c r="L135" s="101"/>
+      <c r="M135" s="101"/>
+      <c r="N135" s="101"/>
+      <c r="O135" s="101"/>
       <c r="P135"/>
       <c r="Q135"/>
     </row>
     <row r="136" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B136" s="191"/>
-      <c r="C136" s="192"/>
-      <c r="D136" s="192"/>
-      <c r="E136" s="192"/>
-      <c r="F136" s="192"/>
-      <c r="G136" s="192"/>
-      <c r="H136" s="192"/>
-      <c r="I136" s="192"/>
-      <c r="J136" s="192"/>
-      <c r="K136" s="192"/>
-      <c r="L136" s="192"/>
-      <c r="M136" s="192"/>
-      <c r="N136" s="192"/>
-      <c r="O136" s="192"/>
+      <c r="B136" s="100"/>
+      <c r="C136" s="101"/>
+      <c r="D136" s="101"/>
+      <c r="E136" s="101"/>
+      <c r="F136" s="101"/>
+      <c r="G136" s="101"/>
+      <c r="H136" s="101"/>
+      <c r="I136" s="101"/>
+      <c r="J136" s="101"/>
+      <c r="K136" s="101"/>
+      <c r="L136" s="101"/>
+      <c r="M136" s="101"/>
+      <c r="N136" s="101"/>
+      <c r="O136" s="101"/>
       <c r="P136"/>
       <c r="Q136"/>
     </row>
     <row r="137" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B137" s="191"/>
-      <c r="C137" s="192"/>
-      <c r="D137" s="192"/>
-      <c r="E137" s="192"/>
-      <c r="F137" s="192"/>
-      <c r="G137" s="192"/>
-      <c r="H137" s="192"/>
-      <c r="I137" s="192"/>
-      <c r="J137" s="192"/>
-      <c r="K137" s="192"/>
-      <c r="L137" s="192"/>
-      <c r="M137" s="192"/>
-      <c r="N137" s="192"/>
-      <c r="O137" s="192"/>
+      <c r="B137" s="100"/>
+      <c r="C137" s="101"/>
+      <c r="D137" s="101"/>
+      <c r="E137" s="101"/>
+      <c r="F137" s="101"/>
+      <c r="G137" s="101"/>
+      <c r="H137" s="101"/>
+      <c r="I137" s="101"/>
+      <c r="J137" s="101"/>
+      <c r="K137" s="101"/>
+      <c r="L137" s="101"/>
+      <c r="M137" s="101"/>
+      <c r="N137" s="101"/>
+      <c r="O137" s="101"/>
       <c r="P137"/>
       <c r="Q137"/>
     </row>
     <row r="138" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B138" s="191"/>
-      <c r="C138" s="192"/>
-      <c r="D138" s="192"/>
-      <c r="E138" s="192"/>
-      <c r="F138" s="192"/>
-      <c r="G138" s="192"/>
-      <c r="H138" s="192"/>
-      <c r="I138" s="192"/>
-      <c r="J138" s="192"/>
-      <c r="K138" s="192"/>
-      <c r="L138" s="192"/>
-      <c r="M138" s="192"/>
-      <c r="N138" s="192"/>
-      <c r="O138" s="192"/>
+      <c r="B138" s="100"/>
+      <c r="C138" s="101"/>
+      <c r="D138" s="101"/>
+      <c r="E138" s="101"/>
+      <c r="F138" s="101"/>
+      <c r="G138" s="101"/>
+      <c r="H138" s="101"/>
+      <c r="I138" s="101"/>
+      <c r="J138" s="101"/>
+      <c r="K138" s="101"/>
+      <c r="L138" s="101"/>
+      <c r="M138" s="101"/>
+      <c r="N138" s="101"/>
+      <c r="O138" s="101"/>
       <c r="P138"/>
       <c r="Q138"/>
     </row>
     <row r="139" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B139" s="191"/>
-      <c r="C139" s="192"/>
-      <c r="D139" s="192"/>
-      <c r="E139" s="192"/>
-      <c r="F139" s="192"/>
-      <c r="G139" s="192"/>
-      <c r="H139" s="192"/>
-      <c r="I139" s="192"/>
-      <c r="J139" s="192"/>
-      <c r="K139" s="192"/>
-      <c r="L139" s="192"/>
-      <c r="M139" s="192"/>
-      <c r="N139" s="192"/>
-      <c r="O139" s="192"/>
+      <c r="B139" s="100"/>
+      <c r="C139" s="101"/>
+      <c r="D139" s="101"/>
+      <c r="E139" s="101"/>
+      <c r="F139" s="101"/>
+      <c r="G139" s="101"/>
+      <c r="H139" s="101"/>
+      <c r="I139" s="101"/>
+      <c r="J139" s="101"/>
+      <c r="K139" s="101"/>
+      <c r="L139" s="101"/>
+      <c r="M139" s="101"/>
+      <c r="N139" s="101"/>
+      <c r="O139" s="101"/>
       <c r="P139"/>
       <c r="Q139"/>
     </row>
     <row r="140" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B140" s="191"/>
-      <c r="C140" s="192"/>
-      <c r="D140" s="192"/>
-      <c r="E140" s="192"/>
-      <c r="F140" s="192"/>
-      <c r="G140" s="192"/>
-      <c r="H140" s="192"/>
-      <c r="I140" s="192"/>
-      <c r="J140" s="192"/>
-      <c r="K140" s="192"/>
-      <c r="L140" s="192"/>
-      <c r="M140" s="192"/>
-      <c r="N140" s="192"/>
-      <c r="O140" s="192"/>
+      <c r="B140" s="100"/>
+      <c r="C140" s="101"/>
+      <c r="D140" s="101"/>
+      <c r="E140" s="101"/>
+      <c r="F140" s="101"/>
+      <c r="G140" s="101"/>
+      <c r="H140" s="101"/>
+      <c r="I140" s="101"/>
+      <c r="J140" s="101"/>
+      <c r="K140" s="101"/>
+      <c r="L140" s="101"/>
+      <c r="M140" s="101"/>
+      <c r="N140" s="101"/>
+      <c r="O140" s="101"/>
       <c r="P140"/>
       <c r="Q140"/>
     </row>
     <row r="141" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B141" s="191"/>
-      <c r="C141" s="192"/>
-      <c r="D141" s="192"/>
-      <c r="E141" s="192"/>
-      <c r="F141" s="192"/>
-      <c r="G141" s="192"/>
-      <c r="H141" s="192"/>
-      <c r="I141" s="192"/>
-      <c r="J141" s="192"/>
-      <c r="K141" s="192"/>
-      <c r="L141" s="192"/>
-      <c r="M141" s="192"/>
-      <c r="N141" s="192"/>
-      <c r="O141" s="192"/>
+      <c r="B141" s="100"/>
+      <c r="C141" s="101"/>
+      <c r="D141" s="101"/>
+      <c r="E141" s="101"/>
+      <c r="F141" s="101"/>
+      <c r="G141" s="101"/>
+      <c r="H141" s="101"/>
+      <c r="I141" s="101"/>
+      <c r="J141" s="101"/>
+      <c r="K141" s="101"/>
+      <c r="L141" s="101"/>
+      <c r="M141" s="101"/>
+      <c r="N141" s="101"/>
+      <c r="O141" s="101"/>
       <c r="P141"/>
       <c r="Q141"/>
     </row>
     <row r="142" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B142" s="191"/>
-      <c r="C142" s="192"/>
-      <c r="D142" s="192"/>
-      <c r="E142" s="192"/>
-      <c r="F142" s="192"/>
-      <c r="G142" s="192"/>
-      <c r="H142" s="192"/>
-      <c r="I142" s="192"/>
-      <c r="J142" s="192"/>
-      <c r="K142" s="192"/>
-      <c r="L142" s="192"/>
-      <c r="M142" s="192"/>
-      <c r="N142" s="192"/>
-      <c r="O142" s="192"/>
+      <c r="B142" s="100"/>
+      <c r="C142" s="101"/>
+      <c r="D142" s="101"/>
+      <c r="E142" s="101"/>
+      <c r="F142" s="101"/>
+      <c r="G142" s="101"/>
+      <c r="H142" s="101"/>
+      <c r="I142" s="101"/>
+      <c r="J142" s="101"/>
+      <c r="K142" s="101"/>
+      <c r="L142" s="101"/>
+      <c r="M142" s="101"/>
+      <c r="N142" s="101"/>
+      <c r="O142" s="101"/>
       <c r="P142"/>
       <c r="Q142"/>
     </row>
     <row r="143" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B143" s="191"/>
-      <c r="C143" s="192"/>
-      <c r="D143" s="192"/>
-      <c r="E143" s="192"/>
-      <c r="F143" s="192"/>
-      <c r="G143" s="192"/>
-      <c r="H143" s="192"/>
-      <c r="I143" s="192"/>
-      <c r="J143" s="192"/>
-      <c r="K143" s="192"/>
-      <c r="L143" s="192"/>
-      <c r="M143" s="192"/>
-      <c r="N143" s="192"/>
-      <c r="O143" s="192"/>
+      <c r="B143" s="100"/>
+      <c r="C143" s="101"/>
+      <c r="D143" s="101"/>
+      <c r="E143" s="101"/>
+      <c r="F143" s="101"/>
+      <c r="G143" s="101"/>
+      <c r="H143" s="101"/>
+      <c r="I143" s="101"/>
+      <c r="J143" s="101"/>
+      <c r="K143" s="101"/>
+      <c r="L143" s="101"/>
+      <c r="M143" s="101"/>
+      <c r="N143" s="101"/>
+      <c r="O143" s="101"/>
       <c r="P143"/>
       <c r="Q143"/>
     </row>
     <row r="144" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B144" s="191"/>
-      <c r="C144" s="192"/>
-      <c r="D144" s="192"/>
-      <c r="E144" s="192"/>
-      <c r="F144" s="192"/>
-      <c r="G144" s="192"/>
-      <c r="H144" s="192"/>
-      <c r="I144" s="192"/>
-      <c r="J144" s="192"/>
-      <c r="K144" s="192"/>
-      <c r="L144" s="192"/>
-      <c r="M144" s="192"/>
-      <c r="N144" s="192"/>
-      <c r="O144" s="192"/>
+      <c r="B144" s="100"/>
+      <c r="C144" s="101"/>
+      <c r="D144" s="101"/>
+      <c r="E144" s="101"/>
+      <c r="F144" s="101"/>
+      <c r="G144" s="101"/>
+      <c r="H144" s="101"/>
+      <c r="I144" s="101"/>
+      <c r="J144" s="101"/>
+      <c r="K144" s="101"/>
+      <c r="L144" s="101"/>
+      <c r="M144" s="101"/>
+      <c r="N144" s="101"/>
+      <c r="O144" s="101"/>
       <c r="P144"/>
       <c r="Q144"/>
     </row>
     <row r="145" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B145" s="191"/>
-      <c r="C145" s="192"/>
-      <c r="D145" s="192"/>
-      <c r="E145" s="192"/>
-      <c r="F145" s="192"/>
-      <c r="G145" s="192"/>
-      <c r="H145" s="192"/>
-      <c r="I145" s="192"/>
-      <c r="J145" s="192"/>
-      <c r="K145" s="192"/>
-      <c r="L145" s="192"/>
-      <c r="M145" s="192"/>
-      <c r="N145" s="192"/>
-      <c r="O145" s="192"/>
+      <c r="B145" s="100"/>
+      <c r="C145" s="101"/>
+      <c r="D145" s="101"/>
+      <c r="E145" s="101"/>
+      <c r="F145" s="101"/>
+      <c r="G145" s="101"/>
+      <c r="H145" s="101"/>
+      <c r="I145" s="101"/>
+      <c r="J145" s="101"/>
+      <c r="K145" s="101"/>
+      <c r="L145" s="101"/>
+      <c r="M145" s="101"/>
+      <c r="N145" s="101"/>
+      <c r="O145" s="101"/>
       <c r="P145"/>
       <c r="Q145"/>
     </row>
     <row r="146" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B146" s="191"/>
-      <c r="C146" s="192"/>
-      <c r="D146" s="192"/>
-      <c r="E146" s="192"/>
-      <c r="F146" s="192"/>
-      <c r="G146" s="192"/>
-      <c r="H146" s="192"/>
-      <c r="I146" s="192"/>
-      <c r="J146" s="192"/>
-      <c r="K146" s="192"/>
-      <c r="L146" s="192"/>
-      <c r="M146" s="192"/>
-      <c r="N146" s="192"/>
-      <c r="O146" s="192"/>
+      <c r="B146" s="100"/>
+      <c r="C146" s="101"/>
+      <c r="D146" s="101"/>
+      <c r="E146" s="101"/>
+      <c r="F146" s="101"/>
+      <c r="G146" s="101"/>
+      <c r="H146" s="101"/>
+      <c r="I146" s="101"/>
+      <c r="J146" s="101"/>
+      <c r="K146" s="101"/>
+      <c r="L146" s="101"/>
+      <c r="M146" s="101"/>
+      <c r="N146" s="101"/>
+      <c r="O146" s="101"/>
       <c r="P146"/>
       <c r="Q146"/>
     </row>
     <row r="147" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B147" s="191"/>
-      <c r="C147" s="192"/>
-      <c r="D147" s="192"/>
-      <c r="E147" s="192"/>
-      <c r="F147" s="192"/>
-      <c r="G147" s="192"/>
-      <c r="H147" s="192"/>
-      <c r="I147" s="192"/>
-      <c r="J147" s="192"/>
-      <c r="K147" s="192"/>
-      <c r="L147" s="192"/>
-      <c r="M147" s="192"/>
-      <c r="N147" s="192"/>
-      <c r="O147" s="192"/>
+      <c r="B147" s="100"/>
+      <c r="C147" s="101"/>
+      <c r="D147" s="101"/>
+      <c r="E147" s="101"/>
+      <c r="F147" s="101"/>
+      <c r="G147" s="101"/>
+      <c r="H147" s="101"/>
+      <c r="I147" s="101"/>
+      <c r="J147" s="101"/>
+      <c r="K147" s="101"/>
+      <c r="L147" s="101"/>
+      <c r="M147" s="101"/>
+      <c r="N147" s="101"/>
+      <c r="O147" s="101"/>
       <c r="P147"/>
       <c r="Q147"/>
     </row>
     <row r="148" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B148" s="191"/>
-      <c r="C148" s="192"/>
-      <c r="D148" s="192"/>
-      <c r="E148" s="192"/>
-      <c r="F148" s="192"/>
-      <c r="G148" s="192"/>
-      <c r="H148" s="192"/>
-      <c r="I148" s="192"/>
-      <c r="J148" s="192"/>
-      <c r="K148" s="192"/>
-      <c r="L148" s="192"/>
-      <c r="M148" s="192"/>
-      <c r="N148" s="192"/>
-      <c r="O148" s="192"/>
+      <c r="B148" s="100"/>
+      <c r="C148" s="101"/>
+      <c r="D148" s="101"/>
+      <c r="E148" s="101"/>
+      <c r="F148" s="101"/>
+      <c r="G148" s="101"/>
+      <c r="H148" s="101"/>
+      <c r="I148" s="101"/>
+      <c r="J148" s="101"/>
+      <c r="K148" s="101"/>
+      <c r="L148" s="101"/>
+      <c r="M148" s="101"/>
+      <c r="N148" s="101"/>
+      <c r="O148" s="101"/>
       <c r="P148"/>
       <c r="Q148"/>
     </row>
     <row r="149" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B149" s="191"/>
-      <c r="C149" s="192"/>
-      <c r="D149" s="192"/>
-      <c r="E149" s="192"/>
-      <c r="F149" s="192"/>
-      <c r="G149" s="192"/>
-      <c r="H149" s="192"/>
-      <c r="I149" s="192"/>
-      <c r="J149" s="192"/>
-      <c r="K149" s="192"/>
-      <c r="L149" s="192"/>
-      <c r="M149" s="192"/>
-      <c r="N149" s="192"/>
-      <c r="O149" s="192"/>
+      <c r="B149" s="100"/>
+      <c r="C149" s="101"/>
+      <c r="D149" s="101"/>
+      <c r="E149" s="101"/>
+      <c r="F149" s="101"/>
+      <c r="G149" s="101"/>
+      <c r="H149" s="101"/>
+      <c r="I149" s="101"/>
+      <c r="J149" s="101"/>
+      <c r="K149" s="101"/>
+      <c r="L149" s="101"/>
+      <c r="M149" s="101"/>
+      <c r="N149" s="101"/>
+      <c r="O149" s="101"/>
       <c r="P149"/>
       <c r="Q149"/>
     </row>
     <row r="150" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B150" s="191"/>
-      <c r="C150" s="192"/>
-      <c r="D150" s="192"/>
-      <c r="E150" s="192"/>
-      <c r="F150" s="192"/>
-      <c r="G150" s="192"/>
-      <c r="H150" s="192"/>
-      <c r="I150" s="192"/>
-      <c r="J150" s="192"/>
-      <c r="K150" s="192"/>
-      <c r="L150" s="192"/>
-      <c r="M150" s="192"/>
-      <c r="N150" s="192"/>
-      <c r="O150" s="192"/>
+      <c r="B150" s="100"/>
+      <c r="C150" s="101"/>
+      <c r="D150" s="101"/>
+      <c r="E150" s="101"/>
+      <c r="F150" s="101"/>
+      <c r="G150" s="101"/>
+      <c r="H150" s="101"/>
+      <c r="I150" s="101"/>
+      <c r="J150" s="101"/>
+      <c r="K150" s="101"/>
+      <c r="L150" s="101"/>
+      <c r="M150" s="101"/>
+      <c r="N150" s="101"/>
+      <c r="O150" s="101"/>
       <c r="P150"/>
       <c r="Q150"/>
     </row>
     <row r="151" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B151" s="191"/>
-      <c r="C151" s="192"/>
-      <c r="D151" s="192"/>
-      <c r="E151" s="192"/>
-      <c r="F151" s="192"/>
-      <c r="G151" s="192"/>
-      <c r="H151" s="192"/>
-      <c r="I151" s="192"/>
-      <c r="J151" s="192"/>
-      <c r="K151" s="192"/>
-      <c r="L151" s="192"/>
-      <c r="M151" s="192"/>
-      <c r="N151" s="192"/>
-      <c r="O151" s="192"/>
+      <c r="B151" s="100"/>
+      <c r="C151" s="101"/>
+      <c r="D151" s="101"/>
+      <c r="E151" s="101"/>
+      <c r="F151" s="101"/>
+      <c r="G151" s="101"/>
+      <c r="H151" s="101"/>
+      <c r="I151" s="101"/>
+      <c r="J151" s="101"/>
+      <c r="K151" s="101"/>
+      <c r="L151" s="101"/>
+      <c r="M151" s="101"/>
+      <c r="N151" s="101"/>
+      <c r="O151" s="101"/>
       <c r="P151"/>
       <c r="Q151"/>
     </row>
     <row r="152" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B152" s="190" t="s">
+      <c r="B152" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="C152" s="190"/>
-      <c r="D152" s="190"/>
-      <c r="E152" s="190"/>
-      <c r="F152" s="190"/>
-      <c r="G152" s="190"/>
+      <c r="C152" s="140"/>
+      <c r="D152" s="140"/>
+      <c r="E152" s="140"/>
+      <c r="F152" s="140"/>
+      <c r="G152" s="140"/>
       <c r="H152"/>
       <c r="I152"/>
       <c r="J152"/>
@@ -7899,22 +7899,22 @@
       <c r="Q152"/>
     </row>
     <row r="153" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B153" s="190"/>
-      <c r="C153" s="190"/>
-      <c r="D153" s="190"/>
-      <c r="E153" s="190"/>
-      <c r="F153" s="190"/>
-      <c r="G153" s="190"/>
+      <c r="B153" s="140"/>
+      <c r="C153" s="140"/>
+      <c r="D153" s="140"/>
+      <c r="E153" s="140"/>
+      <c r="F153" s="140"/>
+      <c r="G153" s="140"/>
       <c r="H153"/>
       <c r="I153"/>
       <c r="J153"/>
       <c r="K153" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L153" s="201"/>
-      <c r="M153" s="201"/>
-      <c r="N153" s="201"/>
-      <c r="O153" s="201"/>
+      <c r="L153" s="151"/>
+      <c r="M153" s="151"/>
+      <c r="N153" s="151"/>
+      <c r="O153" s="151"/>
       <c r="P153"/>
       <c r="Q153"/>
     </row>
@@ -7930,6 +7930,113 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="131">
+    <mergeCell ref="E40:J41"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:G23"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="K24:P25"/>
+    <mergeCell ref="E20:G21"/>
+    <mergeCell ref="B20:D21"/>
+    <mergeCell ref="H20:J21"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:J29"/>
+    <mergeCell ref="K28:P29"/>
+    <mergeCell ref="B34:D35"/>
+    <mergeCell ref="K26:P27"/>
+    <mergeCell ref="K18:P19"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="B18:D19"/>
+    <mergeCell ref="E18:G19"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="Q33:U34"/>
+    <mergeCell ref="Q23:U24"/>
+    <mergeCell ref="E34:J35"/>
+    <mergeCell ref="R25:U26"/>
+    <mergeCell ref="Q29:U30"/>
+    <mergeCell ref="K68:P68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:J69"/>
+    <mergeCell ref="E30:J31"/>
+    <mergeCell ref="B46:D47"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="E36:J37"/>
+    <mergeCell ref="E32:J33"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="J56:P56"/>
+    <mergeCell ref="J59:P59"/>
+    <mergeCell ref="J57:P57"/>
+    <mergeCell ref="B50:I59"/>
+    <mergeCell ref="J58:P58"/>
+    <mergeCell ref="K36:O37"/>
+    <mergeCell ref="J51:P51"/>
+    <mergeCell ref="J52:P52"/>
+    <mergeCell ref="J54:P54"/>
+    <mergeCell ref="J53:P53"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="H18:J19"/>
+    <mergeCell ref="K20:P21"/>
+    <mergeCell ref="B152:G153"/>
+    <mergeCell ref="B79:O101"/>
+    <mergeCell ref="B103:J103"/>
+    <mergeCell ref="E38:J39"/>
+    <mergeCell ref="B40:D41"/>
+    <mergeCell ref="E46:G47"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:J68"/>
+    <mergeCell ref="B104:O126"/>
+    <mergeCell ref="L153:O153"/>
+    <mergeCell ref="J49:P49"/>
+    <mergeCell ref="J50:P50"/>
+    <mergeCell ref="B44:D45"/>
+    <mergeCell ref="E44:J45"/>
+    <mergeCell ref="B78:K78"/>
+    <mergeCell ref="J55:P55"/>
+    <mergeCell ref="B128:J128"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="B74:L77"/>
+    <mergeCell ref="B38:D39"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B42:D43"/>
+    <mergeCell ref="E42:J43"/>
     <mergeCell ref="B129:O151"/>
     <mergeCell ref="M74:P77"/>
     <mergeCell ref="B70:C70"/>
@@ -7954,113 +8061,6 @@
     <mergeCell ref="K42:O43"/>
     <mergeCell ref="K44:O45"/>
     <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B152:G153"/>
-    <mergeCell ref="B79:O101"/>
-    <mergeCell ref="B103:J103"/>
-    <mergeCell ref="E38:J39"/>
-    <mergeCell ref="B40:D41"/>
-    <mergeCell ref="E46:G47"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:J68"/>
-    <mergeCell ref="B104:O126"/>
-    <mergeCell ref="L153:O153"/>
-    <mergeCell ref="J49:P49"/>
-    <mergeCell ref="J50:P50"/>
-    <mergeCell ref="B44:D45"/>
-    <mergeCell ref="E44:J45"/>
-    <mergeCell ref="B78:K78"/>
-    <mergeCell ref="J55:P55"/>
-    <mergeCell ref="B128:J128"/>
-    <mergeCell ref="E64:I64"/>
-    <mergeCell ref="B74:L77"/>
-    <mergeCell ref="B38:D39"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B42:D43"/>
-    <mergeCell ref="E42:J43"/>
-    <mergeCell ref="J51:P51"/>
-    <mergeCell ref="J52:P52"/>
-    <mergeCell ref="J54:P54"/>
-    <mergeCell ref="J53:P53"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="H18:J19"/>
-    <mergeCell ref="K20:P21"/>
-    <mergeCell ref="Q33:U34"/>
-    <mergeCell ref="Q23:U24"/>
-    <mergeCell ref="E34:J35"/>
-    <mergeCell ref="R25:U26"/>
-    <mergeCell ref="Q29:U30"/>
-    <mergeCell ref="K68:P68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:J69"/>
-    <mergeCell ref="E30:J31"/>
-    <mergeCell ref="B46:D47"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="E36:J37"/>
-    <mergeCell ref="E32:J33"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="E66:I66"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="J56:P56"/>
-    <mergeCell ref="J59:P59"/>
-    <mergeCell ref="J57:P57"/>
-    <mergeCell ref="B50:I59"/>
-    <mergeCell ref="J58:P58"/>
-    <mergeCell ref="K36:O37"/>
-    <mergeCell ref="K18:P19"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="B18:D19"/>
-    <mergeCell ref="E18:G19"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="A16:P16"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="E40:J41"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:G23"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="K24:P25"/>
-    <mergeCell ref="E20:G21"/>
-    <mergeCell ref="B20:D21"/>
-    <mergeCell ref="H20:J21"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:J29"/>
-    <mergeCell ref="K28:P29"/>
-    <mergeCell ref="B34:D35"/>
-    <mergeCell ref="K26:P27"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K30:P31" xr:uid="{99C4485F-6818-4D5E-BAE9-AF169F6FC5D2}">
@@ -8425,7 +8425,7 @@
       <c r="A7" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="192"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="222"/>
       <c r="D7" s="222"/>
       <c r="E7" s="222"/>

--- a/Reports/SKI_C_CVT.xlsx
+++ b/Reports/SKI_C_CVT.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29109"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workProject\mpi_projects\MpiSki\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\library\git_hub\MpiSki\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD26005A-3059-4016-88E6-C90E212F3CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5936065-D4FF-4CBC-A902-CA957B2FFB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет ЦТ" sheetId="19" r:id="rId1"/>
     <sheet name="Результат теста шаговой реакции" sheetId="21" r:id="rId2"/>
     <sheet name="Отчет" sheetId="18" r:id="rId3"/>
-    <sheet name="Лист1" sheetId="20" r:id="rId4"/>
-    <sheet name="ЗИП" sheetId="16" r:id="rId5"/>
-    <sheet name="Заключение" sheetId="17" r:id="rId6"/>
+    <sheet name="ЗИП" sheetId="16" r:id="rId4"/>
+    <sheet name="Заключение" sheetId="17" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Заключение!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">ЗИП!$A$1:$K$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Заключение!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">ЗИП!$A$1:$K$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Отчет!$A$1:$P$153</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Отчет ЦТ'!$A$1:$R$61</definedName>
   </definedNames>
@@ -1612,39 +1611,138 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1663,103 +1761,10 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1771,11 +1776,278 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1783,6 +2055,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1796,67 +2122,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1864,9 +2130,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1877,270 +2140,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2453,8 +2452,8 @@
   </sheetPr>
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="D21" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33:K34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2474,116 +2473,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46" t="str">
+      <c r="M1" s="88"/>
+      <c r="N1" s="88" t="str">
         <f>IF(D6="","",D6)</f>
         <v/>
       </c>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
     </row>
     <row r="2" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
-      <c r="I3" s="56" t="s">
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="I3" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="58"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="91"/>
     </row>
     <row r="4" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="48"/>
-      <c r="I4" s="50" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="85"/>
+      <c r="I4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53" t="str">
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="81" t="str">
         <f>REPT($I$1,1)</f>
         <v/>
       </c>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="55"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="83"/>
     </row>
     <row r="5" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="48"/>
-      <c r="I5" s="50" t="s">
+      <c r="C5" s="85"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="85"/>
+      <c r="I5" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="53" t="s">
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="55"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="83"/>
     </row>
     <row r="6" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="48"/>
-      <c r="I6" s="50" t="s">
+      <c r="C6" s="85"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="85"/>
+      <c r="I6" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53" t="s">
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="55"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="83"/>
     </row>
     <row r="7" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
@@ -2592,28 +2591,28 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="55"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="83"/>
     </row>
     <row r="8" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="55"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="83"/>
     </row>
     <row r="9" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="37"/>
@@ -2622,18 +2621,18 @@
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="53" t="s">
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="55"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="83"/>
     </row>
     <row r="10" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="37"/>
@@ -2642,18 +2641,18 @@
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="53" t="s">
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="55"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="83"/>
     </row>
     <row r="11" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="37"/>
@@ -2662,16 +2661,16 @@
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
-      <c r="I11" s="50" t="s">
+      <c r="I11" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="55"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="83"/>
     </row>
     <row r="12" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
@@ -2680,18 +2679,18 @@
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
-      <c r="I12" s="50" t="s">
+      <c r="I12" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="53" t="s">
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="55"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="83"/>
     </row>
     <row r="13" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
@@ -2700,16 +2699,16 @@
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
-      <c r="I13" s="50" t="s">
+      <c r="I13" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="55"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="83"/>
     </row>
     <row r="14" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
@@ -2718,16 +2717,16 @@
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
-      <c r="I14" s="50" t="s">
+      <c r="I14" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="55"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="83"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
@@ -2738,281 +2737,281 @@
       <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
     </row>
     <row r="19" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="73" t="s">
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
     </row>
     <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="62"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
     </row>
     <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="73" t="s">
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
     </row>
     <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="62"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
     </row>
     <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
     </row>
     <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
     </row>
     <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="70" t="s">
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
     </row>
     <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="67"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
     </row>
     <row r="27" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
     </row>
     <row r="28" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="67"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
     </row>
     <row r="29" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="75"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="83"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
     </row>
     <row r="30" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="78"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
     </row>
     <row r="31" spans="1:17" ht="57.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="9"/>
@@ -3021,434 +3020,434 @@
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="84" t="s">
+      <c r="H31" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84" t="s">
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
     </row>
     <row r="32" spans="1:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29"/>
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="86" t="s">
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86" t="s">
+      <c r="I32" s="64"/>
+      <c r="J32" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="K32" s="86"/>
+      <c r="K32" s="64"/>
       <c r="L32" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="M32" s="86" t="s">
+      <c r="M32" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="N32" s="86"/>
-      <c r="O32" s="86" t="s">
+      <c r="N32" s="64"/>
+      <c r="O32" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="P32" s="86"/>
+      <c r="P32" s="64"/>
       <c r="Q32" s="30" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
-      <c r="B33" s="88" t="s">
+      <c r="B33" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="87"/>
-      <c r="Q33" s="87"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
     </row>
     <row r="34" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="87"/>
-      <c r="Q34" s="87"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
     </row>
     <row r="35" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="88" t="s">
+      <c r="B35" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="87"/>
-      <c r="Q35" s="87"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
     </row>
     <row r="36" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="87"/>
-      <c r="Q36" s="87"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
     </row>
     <row r="37" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="88" t="s">
+      <c r="B37" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="87"/>
-      <c r="N37" s="87"/>
-      <c r="O37" s="87"/>
-      <c r="P37" s="87"/>
-      <c r="Q37" s="87"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
     </row>
     <row r="38" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="88"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
     </row>
     <row r="39" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="88" t="s">
+      <c r="B39" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
     </row>
     <row r="40" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-      <c r="Q40" s="87"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
     </row>
     <row r="41" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="88" t="s">
+      <c r="B41" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="87"/>
-      <c r="Q41" s="87"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
     </row>
     <row r="42" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="87"/>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="87"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51"/>
     </row>
     <row r="43" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="88" t="s">
+      <c r="B43" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="87"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="87"/>
-      <c r="O43" s="87"/>
-      <c r="P43" s="87"/>
-      <c r="Q43" s="87"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="51"/>
     </row>
     <row r="44" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="87"/>
-      <c r="I44" s="87"/>
-      <c r="J44" s="87"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="87"/>
-      <c r="M44" s="87"/>
-      <c r="N44" s="87"/>
-      <c r="O44" s="87"/>
-      <c r="P44" s="87"/>
-      <c r="Q44" s="87"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="51"/>
+      <c r="Q44" s="51"/>
     </row>
     <row r="45" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="88" t="s">
+      <c r="B45" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="87"/>
-      <c r="O45" s="87"/>
-      <c r="P45" s="87"/>
-      <c r="Q45" s="87"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="51"/>
+      <c r="Q45" s="51"/>
     </row>
     <row r="46" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="88"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="87"/>
-      <c r="M46" s="87"/>
-      <c r="N46" s="87"/>
-      <c r="O46" s="87"/>
-      <c r="P46" s="87"/>
-      <c r="Q46" s="87"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="51"/>
+      <c r="N46" s="51"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="51"/>
+      <c r="Q46" s="51"/>
     </row>
     <row r="47" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="88" t="s">
+      <c r="B47" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="87"/>
-      <c r="M47" s="87"/>
-      <c r="N47" s="87"/>
-      <c r="O47" s="87"/>
-      <c r="P47" s="87"/>
-      <c r="Q47" s="87"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
     </row>
     <row r="48" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="88"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="87"/>
-      <c r="M48" s="87"/>
-      <c r="N48" s="87"/>
-      <c r="O48" s="87"/>
-      <c r="P48" s="87"/>
-      <c r="Q48" s="87"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
     </row>
     <row r="49" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="88" t="s">
+      <c r="B49" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="87"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="87"/>
-      <c r="M49" s="87"/>
-      <c r="N49" s="87"/>
-      <c r="O49" s="87"/>
-      <c r="P49" s="87"/>
-      <c r="Q49" s="87"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="51"/>
     </row>
     <row r="50" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="88"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="87"/>
-      <c r="L50" s="87"/>
-      <c r="M50" s="87"/>
-      <c r="N50" s="87"/>
-      <c r="O50" s="87"/>
-      <c r="P50" s="87"/>
-      <c r="Q50" s="87"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="51"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="51"/>
     </row>
     <row r="51" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="88" t="s">
+      <c r="B51" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="87"/>
-      <c r="I51" s="87"/>
-      <c r="J51" s="87"/>
-      <c r="K51" s="87"/>
-      <c r="L51" s="87"/>
-      <c r="M51" s="87"/>
-      <c r="N51" s="87"/>
-      <c r="O51" s="87"/>
-      <c r="P51" s="87"/>
-      <c r="Q51" s="87"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
     </row>
     <row r="52" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="88"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="87"/>
-      <c r="I52" s="87"/>
-      <c r="J52" s="87"/>
-      <c r="K52" s="87"/>
-      <c r="L52" s="87"/>
-      <c r="M52" s="87"/>
-      <c r="N52" s="87"/>
-      <c r="O52" s="87"/>
-      <c r="P52" s="87"/>
-      <c r="Q52" s="87"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="51"/>
     </row>
     <row r="53" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="31"/>
@@ -3504,59 +3503,59 @@
     </row>
     <row r="56" spans="1:17" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
-      <c r="B56" s="93" t="s">
+      <c r="B56" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="93"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
-      <c r="G56" s="94"/>
-      <c r="H56" s="94"/>
-      <c r="I56" s="94"/>
-      <c r="J56" s="94"/>
-      <c r="K56" s="90"/>
-      <c r="L56" s="90"/>
-      <c r="M56" s="90"/>
-      <c r="N56" s="90"/>
-      <c r="O56" s="90"/>
-      <c r="P56" s="90"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="46"/>
     </row>
     <row r="57" spans="1:17" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
-      <c r="B57" s="93"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="94"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="94"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="90"/>
-      <c r="M57" s="90"/>
-      <c r="N57" s="90"/>
-      <c r="O57" s="90"/>
-      <c r="P57" s="90"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="46"/>
+      <c r="P57" s="46"/>
     </row>
     <row r="58" spans="1:17" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
-      <c r="B58" s="89"/>
-      <c r="C58" s="89"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
-      <c r="F58" s="89"/>
-      <c r="G58" s="89"/>
-      <c r="H58" s="89"/>
-      <c r="I58" s="89"/>
-      <c r="J58" s="89"/>
-      <c r="K58" s="90"/>
-      <c r="L58" s="90"/>
-      <c r="M58" s="90"/>
-      <c r="N58" s="90"/>
-      <c r="O58" s="90"/>
-      <c r="P58" s="90"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="46"/>
+      <c r="P58" s="46"/>
     </row>
     <row r="59" spans="1:17" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
@@ -3590,22 +3589,22 @@
       <c r="K60" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="L60" s="91"/>
-      <c r="M60" s="91"/>
-      <c r="N60" s="91"/>
+      <c r="L60" s="47"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="47"/>
       <c r="O60" s="34"/>
       <c r="P60" s="7"/>
     </row>
     <row r="61" spans="1:17" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
-      <c r="B61" s="92" t="s">
+      <c r="B61" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="92"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="92"/>
-      <c r="G61" s="92"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
       <c r="H61" s="24"/>
       <c r="I61" s="24"/>
       <c r="J61" s="24"/>
@@ -3619,17 +3618,117 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="136">
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:J58"/>
-    <mergeCell ref="K58:P58"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="K56:P56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="K57:P57"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="B23:G24"/>
+    <mergeCell ref="H23:P24"/>
+    <mergeCell ref="B25:G26"/>
+    <mergeCell ref="H25:P26"/>
+    <mergeCell ref="B27:G28"/>
+    <mergeCell ref="H27:P28"/>
+    <mergeCell ref="A16:Q18"/>
+    <mergeCell ref="B19:G20"/>
+    <mergeCell ref="H19:P20"/>
+    <mergeCell ref="B21:G22"/>
+    <mergeCell ref="H21:P22"/>
+    <mergeCell ref="B29:D30"/>
+    <mergeCell ref="E29:J30"/>
+    <mergeCell ref="K29:O30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="B35:G36"/>
+    <mergeCell ref="H35:I36"/>
+    <mergeCell ref="J35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="O35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="B33:G34"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="J33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:N34"/>
+    <mergeCell ref="O33:P34"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="B39:G40"/>
+    <mergeCell ref="H39:I40"/>
+    <mergeCell ref="J39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:N40"/>
+    <mergeCell ref="O39:P40"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="B37:G38"/>
+    <mergeCell ref="H37:I38"/>
+    <mergeCell ref="J37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:N38"/>
+    <mergeCell ref="O37:P38"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="B43:G44"/>
+    <mergeCell ref="H43:I44"/>
+    <mergeCell ref="J43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:N44"/>
+    <mergeCell ref="O43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="B41:G42"/>
+    <mergeCell ref="H41:I42"/>
+    <mergeCell ref="J41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="O41:P42"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="B47:G48"/>
+    <mergeCell ref="H47:I48"/>
+    <mergeCell ref="J47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:N48"/>
+    <mergeCell ref="O47:P48"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="B45:G46"/>
+    <mergeCell ref="H45:I46"/>
+    <mergeCell ref="J45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:N46"/>
+    <mergeCell ref="O45:P46"/>
     <mergeCell ref="Q49:Q50"/>
     <mergeCell ref="B51:G52"/>
     <mergeCell ref="H51:I52"/>
@@ -3644,120 +3743,20 @@
     <mergeCell ref="L49:L50"/>
     <mergeCell ref="M49:N50"/>
     <mergeCell ref="O49:P50"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="B47:G48"/>
-    <mergeCell ref="H47:I48"/>
-    <mergeCell ref="J47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:N48"/>
-    <mergeCell ref="O47:P48"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="B45:G46"/>
-    <mergeCell ref="H45:I46"/>
-    <mergeCell ref="J45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="O45:P46"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="B43:G44"/>
-    <mergeCell ref="H43:I44"/>
-    <mergeCell ref="J43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:N44"/>
-    <mergeCell ref="O43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="B41:G42"/>
-    <mergeCell ref="H41:I42"/>
-    <mergeCell ref="J41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="O41:P42"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="B39:G40"/>
-    <mergeCell ref="H39:I40"/>
-    <mergeCell ref="J39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:N40"/>
-    <mergeCell ref="O39:P40"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="B37:G38"/>
-    <mergeCell ref="H37:I38"/>
-    <mergeCell ref="J37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="O37:P38"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="B35:G36"/>
-    <mergeCell ref="H35:I36"/>
-    <mergeCell ref="J35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:N36"/>
-    <mergeCell ref="O35:P36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="B33:G34"/>
-    <mergeCell ref="H33:I34"/>
-    <mergeCell ref="J33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="O33:P34"/>
-    <mergeCell ref="B29:D30"/>
-    <mergeCell ref="E29:J30"/>
-    <mergeCell ref="K29:O30"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="B23:G24"/>
-    <mergeCell ref="H23:P24"/>
-    <mergeCell ref="B25:G26"/>
-    <mergeCell ref="H25:P26"/>
-    <mergeCell ref="B27:G28"/>
-    <mergeCell ref="H27:P28"/>
-    <mergeCell ref="A16:Q18"/>
-    <mergeCell ref="B19:G20"/>
-    <mergeCell ref="H19:P20"/>
-    <mergeCell ref="B21:G22"/>
-    <mergeCell ref="H21:P22"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:J58"/>
+    <mergeCell ref="K58:P58"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="K56:P56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="K57:P57"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="1.4960629921259843" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="17" max="60" man="1"/>
   </colBreaks>
@@ -3768,7 +3767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42638512-D67E-4633-B448-355699D335A1}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -3780,28 +3779,28 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46" t="str">
+      <c r="M1" s="88"/>
+      <c r="N1" s="88" t="str">
         <f>IF(D6="","",D6)</f>
         <v/>
       </c>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -3825,101 +3824,101 @@
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="97"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="99"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="58"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="91"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53" t="str">
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="81" t="str">
         <f>REPT($I$1,1)</f>
         <v/>
       </c>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="55"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="83"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="80"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="53" t="s">
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="55"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="83"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53" t="s">
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="55"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="83"/>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3931,16 +3930,16 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="55"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="83"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3952,16 +3951,16 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="55"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="83"/>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3973,18 +3972,18 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="53" t="s">
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="55"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="83"/>
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3996,18 +3995,18 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="53" t="s">
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="55"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="83"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4019,16 +4018,16 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="50" t="s">
+      <c r="I11" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="55"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="83"/>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4040,18 +4039,18 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="50" t="s">
+      <c r="I12" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="53" t="s">
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="55"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="83"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4063,16 +4062,16 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="50" t="s">
+      <c r="I13" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="55"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="83"/>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4084,16 +4083,16 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="50" t="s">
+      <c r="I14" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="55"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="83"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4117,593 +4116,593 @@
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="98"/>
-      <c r="P19" s="98"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="98"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="98"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="98"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="98"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="98"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="98"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="98"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="98"/>
-      <c r="P27" s="98"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="98"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="98"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="98"/>
-      <c r="M29" s="98"/>
-      <c r="N29" s="98"/>
-      <c r="O29" s="98"/>
-      <c r="P29" s="98"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="98"/>
-      <c r="P30" s="98"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="98"/>
-      <c r="M31" s="98"/>
-      <c r="N31" s="98"/>
-      <c r="O31" s="98"/>
-      <c r="P31" s="98"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="98"/>
-      <c r="P32" s="98"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="98"/>
-      <c r="L33" s="98"/>
-      <c r="M33" s="98"/>
-      <c r="N33" s="98"/>
-      <c r="O33" s="98"/>
-      <c r="P33" s="98"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="98"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="98"/>
-      <c r="L34" s="98"/>
-      <c r="M34" s="98"/>
-      <c r="N34" s="98"/>
-      <c r="O34" s="98"/>
-      <c r="P34" s="98"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="98"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="98"/>
-      <c r="L35" s="98"/>
-      <c r="M35" s="98"/>
-      <c r="N35" s="98"/>
-      <c r="O35" s="98"/>
-      <c r="P35" s="98"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="95"/>
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="98"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="98"/>
-      <c r="K36" s="98"/>
-      <c r="L36" s="98"/>
-      <c r="M36" s="98"/>
-      <c r="N36" s="98"/>
-      <c r="O36" s="98"/>
-      <c r="P36" s="98"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="95"/>
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="98"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="98"/>
-      <c r="I37" s="98"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="98"/>
-      <c r="L37" s="98"/>
-      <c r="M37" s="98"/>
-      <c r="N37" s="98"/>
-      <c r="O37" s="98"/>
-      <c r="P37" s="98"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="95"/>
+      <c r="N37" s="95"/>
+      <c r="O37" s="95"/>
+      <c r="P37" s="95"/>
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="98"/>
-      <c r="H38" s="98"/>
-      <c r="I38" s="98"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="98"/>
-      <c r="L38" s="98"/>
-      <c r="M38" s="98"/>
-      <c r="N38" s="98"/>
-      <c r="O38" s="98"/>
-      <c r="P38" s="98"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="95"/>
+      <c r="N38" s="95"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="95"/>
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="98"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="98"/>
-      <c r="I39" s="98"/>
-      <c r="J39" s="98"/>
-      <c r="K39" s="98"/>
-      <c r="L39" s="98"/>
-      <c r="M39" s="98"/>
-      <c r="N39" s="98"/>
-      <c r="O39" s="98"/>
-      <c r="P39" s="98"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="95"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="95"/>
+      <c r="P39" s="95"/>
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="98"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="98"/>
-      <c r="K40" s="98"/>
-      <c r="L40" s="98"/>
-      <c r="M40" s="98"/>
-      <c r="N40" s="98"/>
-      <c r="O40" s="98"/>
-      <c r="P40" s="98"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="95"/>
+      <c r="M40" s="95"/>
+      <c r="N40" s="95"/>
+      <c r="O40" s="95"/>
+      <c r="P40" s="95"/>
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="98"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="98"/>
-      <c r="K41" s="98"/>
-      <c r="L41" s="98"/>
-      <c r="M41" s="98"/>
-      <c r="N41" s="98"/>
-      <c r="O41" s="98"/>
-      <c r="P41" s="98"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="95"/>
+      <c r="M41" s="95"/>
+      <c r="N41" s="95"/>
+      <c r="O41" s="95"/>
+      <c r="P41" s="95"/>
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="98"/>
-      <c r="H42" s="98"/>
-      <c r="I42" s="98"/>
-      <c r="J42" s="98"/>
-      <c r="K42" s="98"/>
-      <c r="L42" s="98"/>
-      <c r="M42" s="98"/>
-      <c r="N42" s="98"/>
-      <c r="O42" s="98"/>
-      <c r="P42" s="98"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="95"/>
+      <c r="P42" s="95"/>
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="98"/>
-      <c r="H43" s="98"/>
-      <c r="I43" s="98"/>
-      <c r="J43" s="98"/>
-      <c r="K43" s="98"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="98"/>
-      <c r="N43" s="98"/>
-      <c r="O43" s="98"/>
-      <c r="P43" s="98"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="95"/>
+      <c r="P43" s="95"/>
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="98"/>
-      <c r="I44" s="98"/>
-      <c r="J44" s="98"/>
-      <c r="K44" s="98"/>
-      <c r="L44" s="98"/>
-      <c r="M44" s="98"/>
-      <c r="N44" s="98"/>
-      <c r="O44" s="98"/>
-      <c r="P44" s="98"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="95"/>
+      <c r="N44" s="95"/>
+      <c r="O44" s="95"/>
+      <c r="P44" s="95"/>
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="98"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="98"/>
-      <c r="G45" s="98"/>
-      <c r="H45" s="98"/>
-      <c r="I45" s="98"/>
-      <c r="J45" s="98"/>
-      <c r="K45" s="98"/>
-      <c r="L45" s="98"/>
-      <c r="M45" s="98"/>
-      <c r="N45" s="98"/>
-      <c r="O45" s="98"/>
-      <c r="P45" s="98"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="95"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="95"/>
+      <c r="P45" s="95"/>
       <c r="Q45" s="1"/>
     </row>
     <row r="46" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="98"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="98"/>
-      <c r="E46" s="98"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="98"/>
-      <c r="H46" s="98"/>
-      <c r="I46" s="98"/>
-      <c r="J46" s="98"/>
-      <c r="K46" s="98"/>
-      <c r="L46" s="98"/>
-      <c r="M46" s="98"/>
-      <c r="N46" s="98"/>
-      <c r="O46" s="98"/>
-      <c r="P46" s="98"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="95"/>
+      <c r="L46" s="95"/>
+      <c r="M46" s="95"/>
+      <c r="N46" s="95"/>
+      <c r="O46" s="95"/>
+      <c r="P46" s="95"/>
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4764,63 +4763,63 @@
       <c r="Q49" s="1"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="72" t="s">
+      <c r="A50" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="72"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="72"/>
-      <c r="N50" s="72"/>
-      <c r="O50" s="72"/>
-      <c r="P50" s="72"/>
-      <c r="Q50" s="72"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="75"/>
+      <c r="K50" s="75"/>
+      <c r="L50" s="75"/>
+      <c r="M50" s="75"/>
+      <c r="N50" s="75"/>
+      <c r="O50" s="75"/>
+      <c r="P50" s="75"/>
+      <c r="Q50" s="75"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="72"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="72"/>
-      <c r="N51" s="72"/>
-      <c r="O51" s="72"/>
-      <c r="P51" s="72"/>
-      <c r="Q51" s="72"/>
+      <c r="A51" s="75"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="75"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="75"/>
+      <c r="L51" s="75"/>
+      <c r="M51" s="75"/>
+      <c r="N51" s="75"/>
+      <c r="O51" s="75"/>
+      <c r="P51" s="75"/>
+      <c r="Q51" s="75"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="72"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="72"/>
-      <c r="N52" s="72"/>
-      <c r="O52" s="72"/>
-      <c r="P52" s="72"/>
-      <c r="Q52" s="72"/>
+      <c r="A52" s="75"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="75"/>
+      <c r="L52" s="75"/>
+      <c r="M52" s="75"/>
+      <c r="N52" s="75"/>
+      <c r="O52" s="75"/>
+      <c r="P52" s="75"/>
+      <c r="Q52" s="75"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5011,14 +5010,40 @@
       <c r="K76" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="L76" s="91"/>
-      <c r="M76" s="91"/>
-      <c r="N76" s="91"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="47"/>
+      <c r="N76" s="47"/>
       <c r="O76" s="34"/>
       <c r="P76" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="M10:P10"/>
     <mergeCell ref="L76:N76"/>
     <mergeCell ref="A50:Q52"/>
     <mergeCell ref="I14:L14"/>
@@ -5031,32 +5056,6 @@
     <mergeCell ref="M13:P13"/>
     <mergeCell ref="B18:P46"/>
     <mergeCell ref="B16:P17"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
@@ -5086,28 +5085,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164" t="s">
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164" t="str">
+      <c r="M1" s="185"/>
+      <c r="N1" s="185" t="str">
         <f>IF(D6="","",D6)</f>
         <v/>
       </c>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
+      <c r="O1" s="185"/>
+      <c r="P1" s="185"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="25"/>
@@ -5127,95 +5126,95 @@
       <c r="P2" s="25"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="165" t="s">
+      <c r="B3" s="186" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="166"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="187"/>
       <c r="H3" s="25"/>
-      <c r="I3" s="165" t="s">
+      <c r="I3" s="186" t="s">
         <v>141</v>
       </c>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="166"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
+      <c r="O3" s="189"/>
+      <c r="P3" s="187"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="186" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="166"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="187"/>
       <c r="H4" s="25"/>
-      <c r="I4" s="117" t="s">
+      <c r="I4" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="169" t="str">
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="141" t="str">
         <f>REPT($I$1,1)</f>
         <v/>
       </c>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="171"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="142"/>
+      <c r="P4" s="143"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="165" t="s">
+      <c r="B5" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="166"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="166"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="189"/>
+      <c r="G5" s="187"/>
       <c r="H5" s="25"/>
-      <c r="I5" s="117" t="s">
+      <c r="I5" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="169" t="s">
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="170"/>
-      <c r="O5" s="170"/>
-      <c r="P5" s="171"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="143"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="166"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="166"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="187"/>
       <c r="H6" s="25"/>
-      <c r="I6" s="117" t="s">
+      <c r="I6" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="169" t="s">
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="170"/>
-      <c r="O6" s="170"/>
-      <c r="P6" s="171"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="143"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
@@ -5225,16 +5224,16 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="25"/>
-      <c r="I7" s="117" t="s">
+      <c r="I7" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="169"/>
-      <c r="N7" s="170"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="171"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="143"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="25"/>
@@ -5244,16 +5243,16 @@
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
-      <c r="I8" s="117" t="s">
+      <c r="I8" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="169"/>
-      <c r="N8" s="170"/>
-      <c r="O8" s="170"/>
-      <c r="P8" s="171"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="140"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="141"/>
+      <c r="N8" s="142"/>
+      <c r="O8" s="142"/>
+      <c r="P8" s="143"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
@@ -5263,18 +5262,18 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="117" t="s">
+      <c r="I9" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="169" t="s">
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="170"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="171"/>
+      <c r="N9" s="142"/>
+      <c r="O9" s="142"/>
+      <c r="P9" s="143"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
@@ -5290,12 +5289,12 @@
       <c r="J10" s="125"/>
       <c r="K10" s="125"/>
       <c r="L10" s="125"/>
-      <c r="M10" s="169" t="s">
+      <c r="M10" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="170"/>
-      <c r="O10" s="170"/>
-      <c r="P10" s="171"/>
+      <c r="N10" s="142"/>
+      <c r="O10" s="142"/>
+      <c r="P10" s="143"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
@@ -5311,10 +5310,10 @@
       <c r="J11" s="125"/>
       <c r="K11" s="125"/>
       <c r="L11" s="125"/>
-      <c r="M11" s="202"/>
-      <c r="N11" s="203"/>
-      <c r="O11" s="203"/>
-      <c r="P11" s="204"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="146"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
@@ -5330,12 +5329,12 @@
       <c r="J12" s="125"/>
       <c r="K12" s="125"/>
       <c r="L12" s="125"/>
-      <c r="M12" s="202" t="s">
+      <c r="M12" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="203"/>
-      <c r="O12" s="203"/>
-      <c r="P12" s="204"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="146"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
@@ -5351,10 +5350,10 @@
       <c r="J13" s="125"/>
       <c r="K13" s="125"/>
       <c r="L13" s="125"/>
-      <c r="M13" s="202"/>
-      <c r="N13" s="203"/>
-      <c r="O13" s="203"/>
-      <c r="P13" s="204"/>
+      <c r="M13" s="144"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="145"/>
+      <c r="P13" s="146"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
@@ -5364,16 +5363,16 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="201" t="s">
+      <c r="I14" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="201"/>
-      <c r="K14" s="201"/>
-      <c r="L14" s="201"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="109"/>
-      <c r="P14" s="110"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="139"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="124"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
@@ -5392,34 +5391,34 @@
       <c r="Q15" s="36"/>
     </row>
     <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A16" s="205" t="s">
+      <c r="A16" s="147" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="205"/>
-      <c r="C16" s="205"/>
-      <c r="D16" s="205"/>
-      <c r="E16" s="205"/>
-      <c r="F16" s="205"/>
-      <c r="G16" s="205"/>
-      <c r="H16" s="205"/>
-      <c r="I16" s="205"/>
-      <c r="J16" s="205"/>
-      <c r="K16" s="205"/>
-      <c r="L16" s="205"/>
-      <c r="M16" s="205"/>
-      <c r="N16" s="205"/>
-      <c r="O16" s="205"/>
-      <c r="P16" s="205"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="147"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="O16" s="147"/>
+      <c r="P16" s="147"/>
     </row>
     <row r="17" spans="2:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="Q17" s="35"/>
     </row>
     <row r="18" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
       <c r="E18" s="125" t="s">
         <v>118</v>
       </c>
@@ -5430,32 +5429,32 @@
       </c>
       <c r="I18" s="125"/>
       <c r="J18" s="125"/>
-      <c r="K18" s="195" t="s">
+      <c r="K18" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="196"/>
-      <c r="M18" s="196"/>
-      <c r="N18" s="196"/>
-      <c r="O18" s="196"/>
-      <c r="P18" s="197"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="135"/>
       <c r="Q18" s="35"/>
     </row>
     <row r="19" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
       <c r="E19" s="125"/>
       <c r="F19" s="125"/>
       <c r="G19" s="125"/>
       <c r="H19" s="125"/>
       <c r="I19" s="125"/>
       <c r="J19" s="125"/>
-      <c r="K19" s="198"/>
-      <c r="L19" s="199"/>
-      <c r="M19" s="199"/>
-      <c r="N19" s="199"/>
-      <c r="O19" s="199"/>
-      <c r="P19" s="200"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="138"/>
       <c r="Q19" s="35"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
@@ -5464,84 +5463,84 @@
       </c>
       <c r="C20" s="125"/>
       <c r="D20" s="125"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="221" t="s">
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="221"/>
-      <c r="J20" s="221"/>
-      <c r="K20" s="108" t="s">
+      <c r="I20" s="126"/>
+      <c r="J20" s="126"/>
+      <c r="K20" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-      <c r="N20" s="109"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="110"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="124"/>
     </row>
     <row r="21" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="125"/>
       <c r="C21" s="125"/>
       <c r="D21" s="125"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="221"/>
-      <c r="I21" s="221"/>
-      <c r="J21" s="221"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="109"/>
-      <c r="N21" s="109"/>
-      <c r="O21" s="109"/>
-      <c r="P21" s="110"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="124"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="215" t="s">
+      <c r="B22" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="216"/>
-      <c r="D22" s="217"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="111" t="s">
+      <c r="C22" s="110"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="112"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="118" t="s">
+      <c r="I22" s="116"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="L22" s="119"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="120"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="128"/>
+      <c r="P22" s="129"/>
     </row>
     <row r="23" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="218"/>
-      <c r="C23" s="219"/>
-      <c r="D23" s="220"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="121"/>
-      <c r="L23" s="122"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="122"/>
-      <c r="O23" s="122"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="172"/>
-      <c r="R23" s="173"/>
-      <c r="S23" s="173"/>
-      <c r="T23" s="173"/>
-      <c r="U23" s="173"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="130"/>
+      <c r="L23" s="131"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="131"/>
+      <c r="O23" s="131"/>
+      <c r="P23" s="132"/>
+      <c r="Q23" s="148"/>
+      <c r="R23" s="149"/>
+      <c r="S23" s="149"/>
+      <c r="T23" s="149"/>
+      <c r="U23" s="149"/>
     </row>
     <row r="24" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="125" t="s">
@@ -5549,48 +5548,48 @@
       </c>
       <c r="C24" s="125"/>
       <c r="D24" s="125"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="126" t="s">
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="126"/>
-      <c r="J24" s="126"/>
-      <c r="K24" s="108" t="s">
+      <c r="I24" s="121"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="109"/>
-      <c r="M24" s="109"/>
-      <c r="N24" s="109"/>
-      <c r="O24" s="109"/>
-      <c r="P24" s="110"/>
-      <c r="Q24" s="172"/>
-      <c r="R24" s="173"/>
-      <c r="S24" s="173"/>
-      <c r="T24" s="173"/>
-      <c r="U24" s="173"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="124"/>
+      <c r="Q24" s="148"/>
+      <c r="R24" s="149"/>
+      <c r="S24" s="149"/>
+      <c r="T24" s="149"/>
+      <c r="U24" s="149"/>
     </row>
     <row r="25" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="125"/>
       <c r="C25" s="125"/>
       <c r="D25" s="125"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="126"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="109"/>
-      <c r="O25" s="109"/>
-      <c r="P25" s="110"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="98"/>
-      <c r="U25" s="98"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="121"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="123"/>
+      <c r="P25" s="124"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
     </row>
     <row r="26" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="125" t="s">
@@ -5598,133 +5597,133 @@
       </c>
       <c r="C26" s="125"/>
       <c r="D26" s="125"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="126"/>
-      <c r="K26" s="108" t="s">
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="110"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="98"/>
-      <c r="U26" s="98"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="123"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="123"/>
+      <c r="P26" s="124"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="95"/>
     </row>
     <row r="27" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="125"/>
       <c r="C27" s="125"/>
       <c r="D27" s="125"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="126"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="109"/>
-      <c r="P27" s="110"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="121"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="124"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
       <c r="T27" s="21"/>
       <c r="U27" s="21"/>
     </row>
     <row r="28" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="215" t="s">
+      <c r="B28" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="216"/>
-      <c r="D28" s="217"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="118"/>
-      <c r="L28" s="119"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="120"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="127"/>
+      <c r="L28" s="128"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="128"/>
+      <c r="P28" s="129"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
       <c r="U28" s="21"/>
     </row>
     <row r="29" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="218"/>
-      <c r="C29" s="219"/>
-      <c r="D29" s="220"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="121"/>
-      <c r="L29" s="122"/>
-      <c r="M29" s="122"/>
-      <c r="N29" s="122"/>
-      <c r="O29" s="122"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="172"/>
-      <c r="R29" s="173"/>
-      <c r="S29" s="173"/>
-      <c r="T29" s="173"/>
-      <c r="U29" s="173"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="130"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="131"/>
+      <c r="O29" s="131"/>
+      <c r="P29" s="132"/>
+      <c r="Q29" s="148"/>
+      <c r="R29" s="149"/>
+      <c r="S29" s="149"/>
+      <c r="T29" s="149"/>
+      <c r="U29" s="149"/>
     </row>
     <row r="30" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="117" t="s">
+      <c r="B30" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="176"/>
-      <c r="G30" s="176"/>
-      <c r="H30" s="176"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="177"/>
-      <c r="K30" s="108" t="s">
+      <c r="C30" s="140"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="159"/>
+      <c r="K30" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="109"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="109"/>
-      <c r="P30" s="110"/>
-      <c r="Q30" s="172"/>
-      <c r="R30" s="173"/>
-      <c r="S30" s="173"/>
-      <c r="T30" s="173"/>
-      <c r="U30" s="173"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="123"/>
+      <c r="N30" s="123"/>
+      <c r="O30" s="123"/>
+      <c r="P30" s="124"/>
+      <c r="Q30" s="148"/>
+      <c r="R30" s="149"/>
+      <c r="S30" s="149"/>
+      <c r="T30" s="149"/>
+      <c r="U30" s="149"/>
     </row>
     <row r="31" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="117"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="177"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="109"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="109"/>
-      <c r="P31" s="110"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="158"/>
+      <c r="J31" s="159"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="123"/>
+      <c r="N31" s="123"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="124"/>
       <c r="Q31" s="23"/>
       <c r="R31" s="20"/>
       <c r="S31" s="20"/>
@@ -5732,17 +5731,17 @@
       <c r="U31" s="20"/>
     </row>
     <row r="32" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="117" t="s">
+      <c r="B32" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="117"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="126"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="121"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="121"/>
       <c r="K32" s="25"/>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
@@ -5756,61 +5755,61 @@
       <c r="U32" s="20"/>
     </row>
     <row r="33" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="117"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="126"/>
+      <c r="B33" s="140"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="121"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
       <c r="P33" s="25"/>
-      <c r="Q33" s="172"/>
-      <c r="R33" s="173"/>
-      <c r="S33" s="173"/>
-      <c r="T33" s="173"/>
-      <c r="U33" s="173"/>
+      <c r="Q33" s="148"/>
+      <c r="R33" s="149"/>
+      <c r="S33" s="149"/>
+      <c r="T33" s="149"/>
+      <c r="U33" s="149"/>
     </row>
     <row r="34" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="215" t="s">
+      <c r="B34" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="216"/>
-      <c r="D34" s="217"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="113"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="117"/>
       <c r="K34" s="25"/>
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
       <c r="P34" s="25"/>
-      <c r="Q34" s="172"/>
-      <c r="R34" s="173"/>
-      <c r="S34" s="173"/>
-      <c r="T34" s="173"/>
-      <c r="U34" s="173"/>
+      <c r="Q34" s="148"/>
+      <c r="R34" s="149"/>
+      <c r="S34" s="149"/>
+      <c r="T34" s="149"/>
+      <c r="U34" s="149"/>
     </row>
     <row r="35" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="218"/>
-      <c r="C35" s="219"/>
-      <c r="D35" s="220"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="116"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="120"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
@@ -5819,41 +5818,41 @@
       <c r="P35" s="25"/>
     </row>
     <row r="36" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="117" t="s">
+      <c r="B36" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="142" t="s">
+      <c r="C36" s="140"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="143"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="144"/>
-      <c r="K36" s="193"/>
-      <c r="L36" s="194"/>
-      <c r="M36" s="194"/>
-      <c r="N36" s="194"/>
-      <c r="O36" s="194"/>
+      <c r="F36" s="164"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="164"/>
+      <c r="I36" s="164"/>
+      <c r="J36" s="165"/>
+      <c r="K36" s="183"/>
+      <c r="L36" s="184"/>
+      <c r="M36" s="184"/>
+      <c r="N36" s="184"/>
+      <c r="O36" s="184"/>
       <c r="P36" s="25"/>
     </row>
     <row r="37" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="117"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="142"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="143"/>
-      <c r="H37" s="143"/>
-      <c r="I37" s="143"/>
-      <c r="J37" s="144"/>
-      <c r="K37" s="193"/>
-      <c r="L37" s="194"/>
-      <c r="M37" s="194"/>
-      <c r="N37" s="194"/>
-      <c r="O37" s="194"/>
+      <c r="B37" s="140"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="163"/>
+      <c r="F37" s="164"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="164"/>
+      <c r="I37" s="164"/>
+      <c r="J37" s="165"/>
+      <c r="K37" s="183"/>
+      <c r="L37" s="184"/>
+      <c r="M37" s="184"/>
+      <c r="N37" s="184"/>
+      <c r="O37" s="184"/>
       <c r="P37" s="25"/>
     </row>
     <row r="38" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5862,14 +5861,14 @@
       </c>
       <c r="C38" s="125"/>
       <c r="D38" s="125"/>
-      <c r="E38" s="142" t="s">
+      <c r="E38" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="143"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="143"/>
-      <c r="J38" s="144"/>
+      <c r="F38" s="164"/>
+      <c r="G38" s="164"/>
+      <c r="H38" s="164"/>
+      <c r="I38" s="164"/>
+      <c r="J38" s="165"/>
       <c r="K38" s="26"/>
       <c r="L38" s="26"/>
       <c r="M38" s="26"/>
@@ -5881,12 +5880,12 @@
       <c r="B39" s="125"/>
       <c r="C39" s="125"/>
       <c r="D39" s="125"/>
-      <c r="E39" s="142"/>
-      <c r="F39" s="143"/>
-      <c r="G39" s="143"/>
-      <c r="H39" s="143"/>
-      <c r="I39" s="143"/>
-      <c r="J39" s="144"/>
+      <c r="E39" s="163"/>
+      <c r="F39" s="164"/>
+      <c r="G39" s="164"/>
+      <c r="H39" s="164"/>
+      <c r="I39" s="164"/>
+      <c r="J39" s="165"/>
       <c r="K39" s="26"/>
       <c r="L39" s="26"/>
       <c r="M39" s="26"/>
@@ -5898,16 +5897,16 @@
       <c r="B40" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="117"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="206" t="s">
+      <c r="C40" s="140"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="207"/>
-      <c r="G40" s="207"/>
-      <c r="H40" s="207"/>
-      <c r="I40" s="207"/>
-      <c r="J40" s="208"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="102"/>
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
       <c r="M40" s="26"/>
@@ -5916,15 +5915,15 @@
       <c r="P40" s="27"/>
     </row>
     <row r="41" spans="2:21" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="117"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="209"/>
-      <c r="F41" s="210"/>
-      <c r="G41" s="210"/>
-      <c r="H41" s="210"/>
-      <c r="I41" s="210"/>
-      <c r="J41" s="211"/>
+      <c r="B41" s="140"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="105"/>
       <c r="K41" s="26"/>
       <c r="L41" s="26"/>
       <c r="M41" s="26"/>
@@ -5933,93 +5932,93 @@
       <c r="P41" s="27"/>
     </row>
     <row r="42" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="117" t="s">
+      <c r="B42" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="117"/>
-      <c r="D42" s="117"/>
-      <c r="E42" s="142" t="s">
+      <c r="C42" s="140"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="143"/>
-      <c r="G42" s="143"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
-      <c r="J42" s="144"/>
-      <c r="K42" s="130"/>
-      <c r="L42" s="131"/>
-      <c r="M42" s="131"/>
-      <c r="N42" s="131"/>
-      <c r="O42" s="131"/>
+      <c r="F42" s="164"/>
+      <c r="G42" s="164"/>
+      <c r="H42" s="164"/>
+      <c r="I42" s="164"/>
+      <c r="J42" s="165"/>
+      <c r="K42" s="218"/>
+      <c r="L42" s="219"/>
+      <c r="M42" s="219"/>
+      <c r="N42" s="219"/>
+      <c r="O42" s="219"/>
       <c r="P42" s="27"/>
     </row>
     <row r="43" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="117"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="117"/>
-      <c r="E43" s="142"/>
-      <c r="F43" s="143"/>
-      <c r="G43" s="143"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="143"/>
-      <c r="J43" s="144"/>
-      <c r="K43" s="130"/>
-      <c r="L43" s="131"/>
-      <c r="M43" s="131"/>
-      <c r="N43" s="131"/>
-      <c r="O43" s="131"/>
+      <c r="B43" s="140"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="163"/>
+      <c r="F43" s="164"/>
+      <c r="G43" s="164"/>
+      <c r="H43" s="164"/>
+      <c r="I43" s="164"/>
+      <c r="J43" s="165"/>
+      <c r="K43" s="218"/>
+      <c r="L43" s="219"/>
+      <c r="M43" s="219"/>
+      <c r="N43" s="219"/>
+      <c r="O43" s="219"/>
       <c r="P43" s="27"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="158" t="s">
+      <c r="B44" s="205" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="158"/>
-      <c r="D44" s="158"/>
-      <c r="E44" s="160" t="s">
+      <c r="C44" s="205"/>
+      <c r="D44" s="205"/>
+      <c r="E44" s="207" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="161"/>
-      <c r="G44" s="161"/>
-      <c r="H44" s="161"/>
-      <c r="I44" s="161"/>
-      <c r="J44" s="162"/>
-      <c r="K44" s="132"/>
-      <c r="L44" s="133"/>
-      <c r="M44" s="133"/>
-      <c r="N44" s="133"/>
-      <c r="O44" s="133"/>
+      <c r="F44" s="208"/>
+      <c r="G44" s="208"/>
+      <c r="H44" s="208"/>
+      <c r="I44" s="208"/>
+      <c r="J44" s="209"/>
+      <c r="K44" s="220"/>
+      <c r="L44" s="221"/>
+      <c r="M44" s="221"/>
+      <c r="N44" s="221"/>
+      <c r="O44" s="221"/>
       <c r="P44" s="27"/>
     </row>
     <row r="45" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="159"/>
-      <c r="C45" s="159"/>
-      <c r="D45" s="159"/>
-      <c r="E45" s="160"/>
-      <c r="F45" s="161"/>
-      <c r="G45" s="161"/>
-      <c r="H45" s="161"/>
-      <c r="I45" s="161"/>
-      <c r="J45" s="162"/>
-      <c r="K45" s="132"/>
-      <c r="L45" s="133"/>
-      <c r="M45" s="133"/>
-      <c r="N45" s="133"/>
-      <c r="O45" s="133"/>
+      <c r="B45" s="206"/>
+      <c r="C45" s="206"/>
+      <c r="D45" s="206"/>
+      <c r="E45" s="207"/>
+      <c r="F45" s="208"/>
+      <c r="G45" s="208"/>
+      <c r="H45" s="208"/>
+      <c r="I45" s="208"/>
+      <c r="J45" s="209"/>
+      <c r="K45" s="220"/>
+      <c r="L45" s="221"/>
+      <c r="M45" s="221"/>
+      <c r="N45" s="221"/>
+      <c r="O45" s="221"/>
       <c r="P45" s="27"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="179" t="s">
+      <c r="B46" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="179"/>
-      <c r="D46" s="179"/>
-      <c r="E46" s="134"/>
-      <c r="F46" s="135"/>
-      <c r="G46" s="136"/>
-      <c r="H46" s="134"/>
-      <c r="I46" s="135"/>
-      <c r="J46" s="136"/>
+      <c r="C46" s="161"/>
+      <c r="D46" s="161"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="195"/>
+      <c r="G46" s="196"/>
+      <c r="H46" s="194"/>
+      <c r="I46" s="195"/>
+      <c r="J46" s="196"/>
       <c r="K46" s="27"/>
       <c r="L46" s="27"/>
       <c r="M46" s="27"/>
@@ -6028,15 +6027,15 @@
       <c r="P46" s="27"/>
     </row>
     <row r="47" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="180"/>
-      <c r="C47" s="180"/>
-      <c r="D47" s="180"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="138"/>
-      <c r="G47" s="139"/>
-      <c r="H47" s="137"/>
-      <c r="I47" s="138"/>
-      <c r="J47" s="139"/>
+      <c r="B47" s="162"/>
+      <c r="C47" s="162"/>
+      <c r="D47" s="162"/>
+      <c r="E47" s="197"/>
+      <c r="F47" s="198"/>
+      <c r="G47" s="199"/>
+      <c r="H47" s="197"/>
+      <c r="I47" s="198"/>
+      <c r="J47" s="199"/>
       <c r="K47" s="27"/>
       <c r="L47" s="27"/>
       <c r="M47" s="27"/>
@@ -6046,217 +6045,217 @@
     </row>
     <row r="48" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:16" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="212" t="s">
+      <c r="B49" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="213"/>
-      <c r="D49" s="213"/>
-      <c r="E49" s="213"/>
-      <c r="F49" s="213"/>
-      <c r="G49" s="213"/>
-      <c r="H49" s="213"/>
-      <c r="I49" s="214"/>
-      <c r="J49" s="152" t="s">
+      <c r="C49" s="107"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="108"/>
+      <c r="J49" s="202" t="s">
         <v>44</v>
       </c>
-      <c r="K49" s="153"/>
-      <c r="L49" s="153"/>
-      <c r="M49" s="153"/>
-      <c r="N49" s="153"/>
-      <c r="O49" s="153"/>
-      <c r="P49" s="154"/>
+      <c r="K49" s="203"/>
+      <c r="L49" s="203"/>
+      <c r="M49" s="203"/>
+      <c r="N49" s="203"/>
+      <c r="O49" s="203"/>
+      <c r="P49" s="204"/>
     </row>
     <row r="50" spans="1:16" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="184" t="s">
+      <c r="B50" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="185"/>
-      <c r="D50" s="185"/>
-      <c r="E50" s="185"/>
-      <c r="F50" s="185"/>
-      <c r="G50" s="185"/>
-      <c r="H50" s="185"/>
-      <c r="I50" s="186"/>
-      <c r="J50" s="155"/>
-      <c r="K50" s="156"/>
-      <c r="L50" s="156"/>
-      <c r="M50" s="156"/>
-      <c r="N50" s="156"/>
-      <c r="O50" s="156"/>
-      <c r="P50" s="157"/>
+      <c r="C50" s="175"/>
+      <c r="D50" s="175"/>
+      <c r="E50" s="175"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="175"/>
+      <c r="H50" s="175"/>
+      <c r="I50" s="176"/>
+      <c r="J50" s="168"/>
+      <c r="K50" s="169"/>
+      <c r="L50" s="169"/>
+      <c r="M50" s="169"/>
+      <c r="N50" s="169"/>
+      <c r="O50" s="169"/>
+      <c r="P50" s="170"/>
     </row>
     <row r="51" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="187"/>
-      <c r="C51" s="188"/>
-      <c r="D51" s="188"/>
-      <c r="E51" s="188"/>
-      <c r="F51" s="188"/>
-      <c r="G51" s="188"/>
-      <c r="H51" s="188"/>
-      <c r="I51" s="189"/>
-      <c r="J51" s="155"/>
-      <c r="K51" s="156"/>
-      <c r="L51" s="156"/>
-      <c r="M51" s="156"/>
-      <c r="N51" s="156"/>
-      <c r="O51" s="156"/>
-      <c r="P51" s="157"/>
+      <c r="B51" s="177"/>
+      <c r="C51" s="178"/>
+      <c r="D51" s="178"/>
+      <c r="E51" s="178"/>
+      <c r="F51" s="178"/>
+      <c r="G51" s="178"/>
+      <c r="H51" s="178"/>
+      <c r="I51" s="179"/>
+      <c r="J51" s="168"/>
+      <c r="K51" s="169"/>
+      <c r="L51" s="169"/>
+      <c r="M51" s="169"/>
+      <c r="N51" s="169"/>
+      <c r="O51" s="169"/>
+      <c r="P51" s="170"/>
     </row>
     <row r="52" spans="1:16" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="187"/>
-      <c r="C52" s="188"/>
-      <c r="D52" s="188"/>
-      <c r="E52" s="188"/>
-      <c r="F52" s="188"/>
-      <c r="G52" s="188"/>
-      <c r="H52" s="188"/>
-      <c r="I52" s="189"/>
-      <c r="J52" s="155"/>
-      <c r="K52" s="156"/>
-      <c r="L52" s="156"/>
-      <c r="M52" s="156"/>
-      <c r="N52" s="156"/>
-      <c r="O52" s="156"/>
-      <c r="P52" s="157"/>
+      <c r="B52" s="177"/>
+      <c r="C52" s="178"/>
+      <c r="D52" s="178"/>
+      <c r="E52" s="178"/>
+      <c r="F52" s="178"/>
+      <c r="G52" s="178"/>
+      <c r="H52" s="178"/>
+      <c r="I52" s="179"/>
+      <c r="J52" s="168"/>
+      <c r="K52" s="169"/>
+      <c r="L52" s="169"/>
+      <c r="M52" s="169"/>
+      <c r="N52" s="169"/>
+      <c r="O52" s="169"/>
+      <c r="P52" s="170"/>
     </row>
     <row r="53" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="187"/>
-      <c r="C53" s="188"/>
-      <c r="D53" s="188"/>
-      <c r="E53" s="188"/>
-      <c r="F53" s="188"/>
-      <c r="G53" s="188"/>
-      <c r="H53" s="188"/>
-      <c r="I53" s="189"/>
-      <c r="J53" s="155"/>
-      <c r="K53" s="156"/>
-      <c r="L53" s="156"/>
-      <c r="M53" s="156"/>
-      <c r="N53" s="156"/>
-      <c r="O53" s="156"/>
-      <c r="P53" s="157"/>
+      <c r="B53" s="177"/>
+      <c r="C53" s="178"/>
+      <c r="D53" s="178"/>
+      <c r="E53" s="178"/>
+      <c r="F53" s="178"/>
+      <c r="G53" s="178"/>
+      <c r="H53" s="178"/>
+      <c r="I53" s="179"/>
+      <c r="J53" s="168"/>
+      <c r="K53" s="169"/>
+      <c r="L53" s="169"/>
+      <c r="M53" s="169"/>
+      <c r="N53" s="169"/>
+      <c r="O53" s="169"/>
+      <c r="P53" s="170"/>
     </row>
     <row r="54" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="187"/>
-      <c r="C54" s="188"/>
-      <c r="D54" s="188"/>
-      <c r="E54" s="188"/>
-      <c r="F54" s="188"/>
-      <c r="G54" s="188"/>
-      <c r="H54" s="188"/>
-      <c r="I54" s="189"/>
-      <c r="J54" s="155"/>
-      <c r="K54" s="156"/>
-      <c r="L54" s="156"/>
-      <c r="M54" s="156"/>
-      <c r="N54" s="156"/>
-      <c r="O54" s="156"/>
-      <c r="P54" s="157"/>
+      <c r="B54" s="177"/>
+      <c r="C54" s="178"/>
+      <c r="D54" s="178"/>
+      <c r="E54" s="178"/>
+      <c r="F54" s="178"/>
+      <c r="G54" s="178"/>
+      <c r="H54" s="178"/>
+      <c r="I54" s="179"/>
+      <c r="J54" s="168"/>
+      <c r="K54" s="169"/>
+      <c r="L54" s="169"/>
+      <c r="M54" s="169"/>
+      <c r="N54" s="169"/>
+      <c r="O54" s="169"/>
+      <c r="P54" s="170"/>
     </row>
     <row r="55" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="187"/>
-      <c r="C55" s="188"/>
-      <c r="D55" s="188"/>
-      <c r="E55" s="188"/>
-      <c r="F55" s="188"/>
-      <c r="G55" s="188"/>
-      <c r="H55" s="188"/>
-      <c r="I55" s="189"/>
-      <c r="J55" s="155"/>
-      <c r="K55" s="156"/>
-      <c r="L55" s="156"/>
-      <c r="M55" s="156"/>
-      <c r="N55" s="156"/>
-      <c r="O55" s="156"/>
-      <c r="P55" s="157"/>
+      <c r="B55" s="177"/>
+      <c r="C55" s="178"/>
+      <c r="D55" s="178"/>
+      <c r="E55" s="178"/>
+      <c r="F55" s="178"/>
+      <c r="G55" s="178"/>
+      <c r="H55" s="178"/>
+      <c r="I55" s="179"/>
+      <c r="J55" s="168"/>
+      <c r="K55" s="169"/>
+      <c r="L55" s="169"/>
+      <c r="M55" s="169"/>
+      <c r="N55" s="169"/>
+      <c r="O55" s="169"/>
+      <c r="P55" s="170"/>
     </row>
     <row r="56" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="187"/>
-      <c r="C56" s="188"/>
-      <c r="D56" s="188"/>
-      <c r="E56" s="188"/>
-      <c r="F56" s="188"/>
-      <c r="G56" s="188"/>
-      <c r="H56" s="188"/>
-      <c r="I56" s="189"/>
-      <c r="J56" s="155"/>
-      <c r="K56" s="156"/>
-      <c r="L56" s="156"/>
-      <c r="M56" s="156"/>
-      <c r="N56" s="156"/>
-      <c r="O56" s="156"/>
-      <c r="P56" s="157"/>
+      <c r="B56" s="177"/>
+      <c r="C56" s="178"/>
+      <c r="D56" s="178"/>
+      <c r="E56" s="178"/>
+      <c r="F56" s="178"/>
+      <c r="G56" s="178"/>
+      <c r="H56" s="178"/>
+      <c r="I56" s="179"/>
+      <c r="J56" s="168"/>
+      <c r="K56" s="169"/>
+      <c r="L56" s="169"/>
+      <c r="M56" s="169"/>
+      <c r="N56" s="169"/>
+      <c r="O56" s="169"/>
+      <c r="P56" s="170"/>
     </row>
     <row r="57" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="187"/>
-      <c r="C57" s="188"/>
-      <c r="D57" s="188"/>
-      <c r="E57" s="188"/>
-      <c r="F57" s="188"/>
-      <c r="G57" s="188"/>
-      <c r="H57" s="188"/>
-      <c r="I57" s="189"/>
-      <c r="J57" s="155"/>
-      <c r="K57" s="156"/>
-      <c r="L57" s="156"/>
-      <c r="M57" s="156"/>
-      <c r="N57" s="156"/>
-      <c r="O57" s="156"/>
-      <c r="P57" s="157"/>
+      <c r="B57" s="177"/>
+      <c r="C57" s="178"/>
+      <c r="D57" s="178"/>
+      <c r="E57" s="178"/>
+      <c r="F57" s="178"/>
+      <c r="G57" s="178"/>
+      <c r="H57" s="178"/>
+      <c r="I57" s="179"/>
+      <c r="J57" s="168"/>
+      <c r="K57" s="169"/>
+      <c r="L57" s="169"/>
+      <c r="M57" s="169"/>
+      <c r="N57" s="169"/>
+      <c r="O57" s="169"/>
+      <c r="P57" s="170"/>
     </row>
     <row r="58" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="187"/>
-      <c r="C58" s="188"/>
-      <c r="D58" s="188"/>
-      <c r="E58" s="188"/>
-      <c r="F58" s="188"/>
-      <c r="G58" s="188"/>
-      <c r="H58" s="188"/>
-      <c r="I58" s="189"/>
-      <c r="J58" s="155"/>
-      <c r="K58" s="156"/>
-      <c r="L58" s="156"/>
-      <c r="M58" s="156"/>
-      <c r="N58" s="156"/>
-      <c r="O58" s="156"/>
-      <c r="P58" s="157"/>
+      <c r="B58" s="177"/>
+      <c r="C58" s="178"/>
+      <c r="D58" s="178"/>
+      <c r="E58" s="178"/>
+      <c r="F58" s="178"/>
+      <c r="G58" s="178"/>
+      <c r="H58" s="178"/>
+      <c r="I58" s="179"/>
+      <c r="J58" s="168"/>
+      <c r="K58" s="169"/>
+      <c r="L58" s="169"/>
+      <c r="M58" s="169"/>
+      <c r="N58" s="169"/>
+      <c r="O58" s="169"/>
+      <c r="P58" s="170"/>
     </row>
     <row r="59" spans="1:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="190"/>
-      <c r="C59" s="191"/>
-      <c r="D59" s="191"/>
-      <c r="E59" s="191"/>
-      <c r="F59" s="191"/>
-      <c r="G59" s="191"/>
-      <c r="H59" s="191"/>
-      <c r="I59" s="192"/>
-      <c r="J59" s="181"/>
-      <c r="K59" s="182"/>
-      <c r="L59" s="182"/>
-      <c r="M59" s="182"/>
-      <c r="N59" s="182"/>
-      <c r="O59" s="182"/>
-      <c r="P59" s="183"/>
+      <c r="B59" s="180"/>
+      <c r="C59" s="181"/>
+      <c r="D59" s="181"/>
+      <c r="E59" s="181"/>
+      <c r="F59" s="181"/>
+      <c r="G59" s="181"/>
+      <c r="H59" s="181"/>
+      <c r="I59" s="182"/>
+      <c r="J59" s="171"/>
+      <c r="K59" s="172"/>
+      <c r="L59" s="172"/>
+      <c r="M59" s="172"/>
+      <c r="N59" s="172"/>
+      <c r="O59" s="172"/>
+      <c r="P59" s="173"/>
     </row>
     <row r="60" spans="1:16" ht="14.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K60" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L60" s="145"/>
-      <c r="M60" s="145"/>
-      <c r="N60" s="145"/>
-      <c r="O60" s="145"/>
+      <c r="L60" s="200"/>
+      <c r="M60" s="200"/>
+      <c r="N60" s="200"/>
+      <c r="O60" s="200"/>
       <c r="P60" s="3"/>
     </row>
     <row r="61" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="124"/>
-      <c r="C61" s="124"/>
-      <c r="D61" s="124"/>
-      <c r="E61" s="107"/>
-      <c r="F61" s="107"/>
-      <c r="G61" s="107"/>
-      <c r="H61" s="107"/>
-      <c r="I61" s="107"/>
+      <c r="B61" s="215"/>
+      <c r="C61" s="215"/>
+      <c r="D61" s="215"/>
+      <c r="E61" s="167"/>
+      <c r="F61" s="167"/>
+      <c r="G61" s="167"/>
+      <c r="H61" s="167"/>
+      <c r="I61" s="167"/>
       <c r="K61" s="4"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
@@ -6265,14 +6264,14 @@
       <c r="P61" s="3"/>
     </row>
     <row r="62" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="124"/>
-      <c r="C62" s="124"/>
-      <c r="D62" s="124"/>
-      <c r="E62" s="107"/>
-      <c r="F62" s="107"/>
-      <c r="G62" s="107"/>
-      <c r="H62" s="107"/>
-      <c r="I62" s="107"/>
+      <c r="B62" s="215"/>
+      <c r="C62" s="215"/>
+      <c r="D62" s="215"/>
+      <c r="E62" s="167"/>
+      <c r="F62" s="167"/>
+      <c r="G62" s="167"/>
+      <c r="H62" s="167"/>
+      <c r="I62" s="167"/>
       <c r="K62" s="4"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
@@ -6281,14 +6280,14 @@
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="106"/>
-      <c r="C63" s="106"/>
-      <c r="D63" s="106"/>
-      <c r="E63" s="107"/>
-      <c r="F63" s="107"/>
-      <c r="G63" s="107"/>
-      <c r="H63" s="107"/>
-      <c r="I63" s="107"/>
+      <c r="B63" s="166"/>
+      <c r="C63" s="166"/>
+      <c r="D63" s="166"/>
+      <c r="E63" s="167"/>
+      <c r="F63" s="167"/>
+      <c r="G63" s="167"/>
+      <c r="H63" s="167"/>
+      <c r="I63" s="167"/>
       <c r="K63" s="4"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
@@ -6298,14 +6297,14 @@
     </row>
     <row r="64" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
-      <c r="B64" s="106"/>
-      <c r="C64" s="106"/>
-      <c r="D64" s="106"/>
-      <c r="E64" s="107"/>
-      <c r="F64" s="107"/>
-      <c r="G64" s="107"/>
-      <c r="H64" s="107"/>
-      <c r="I64" s="107"/>
+      <c r="B64" s="166"/>
+      <c r="C64" s="166"/>
+      <c r="D64" s="166"/>
+      <c r="E64" s="167"/>
+      <c r="F64" s="167"/>
+      <c r="G64" s="167"/>
+      <c r="H64" s="167"/>
+      <c r="I64" s="167"/>
       <c r="J64" s="24"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
@@ -6316,14 +6315,14 @@
     </row>
     <row r="65" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
-      <c r="B65" s="106"/>
-      <c r="C65" s="106"/>
-      <c r="D65" s="106"/>
-      <c r="E65" s="107"/>
-      <c r="F65" s="107"/>
-      <c r="G65" s="107"/>
-      <c r="H65" s="107"/>
-      <c r="I65" s="107"/>
+      <c r="B65" s="166"/>
+      <c r="C65" s="166"/>
+      <c r="D65" s="166"/>
+      <c r="E65" s="167"/>
+      <c r="F65" s="167"/>
+      <c r="G65" s="167"/>
+      <c r="H65" s="167"/>
+      <c r="I65" s="167"/>
       <c r="J65" s="24"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
@@ -6334,14 +6333,14 @@
     </row>
     <row r="66" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
-      <c r="B66" s="106"/>
-      <c r="C66" s="106"/>
-      <c r="D66" s="106"/>
-      <c r="E66" s="107"/>
-      <c r="F66" s="107"/>
-      <c r="G66" s="107"/>
-      <c r="H66" s="107"/>
-      <c r="I66" s="107"/>
+      <c r="B66" s="166"/>
+      <c r="C66" s="166"/>
+      <c r="D66" s="166"/>
+      <c r="E66" s="167"/>
+      <c r="F66" s="167"/>
+      <c r="G66" s="167"/>
+      <c r="H66" s="167"/>
+      <c r="I66" s="167"/>
       <c r="J66" s="24"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
@@ -6370,61 +6369,61 @@
     </row>
     <row r="68" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
-      <c r="B68" s="146" t="s">
+      <c r="B68" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="C68" s="147"/>
-      <c r="D68" s="148"/>
-      <c r="E68" s="149"/>
-      <c r="F68" s="149"/>
-      <c r="G68" s="149"/>
-      <c r="H68" s="149"/>
-      <c r="I68" s="149"/>
-      <c r="J68" s="150"/>
-      <c r="K68" s="129"/>
-      <c r="L68" s="174"/>
-      <c r="M68" s="174"/>
-      <c r="N68" s="174"/>
-      <c r="O68" s="174"/>
-      <c r="P68" s="174"/>
+      <c r="C68" s="153"/>
+      <c r="D68" s="154"/>
+      <c r="E68" s="155"/>
+      <c r="F68" s="155"/>
+      <c r="G68" s="155"/>
+      <c r="H68" s="155"/>
+      <c r="I68" s="155"/>
+      <c r="J68" s="156"/>
+      <c r="K68" s="150"/>
+      <c r="L68" s="151"/>
+      <c r="M68" s="151"/>
+      <c r="N68" s="151"/>
+      <c r="O68" s="151"/>
+      <c r="P68" s="151"/>
     </row>
     <row r="69" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
-      <c r="B69" s="146" t="s">
+      <c r="B69" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="C69" s="147"/>
-      <c r="D69" s="148"/>
-      <c r="E69" s="149"/>
-      <c r="F69" s="149"/>
-      <c r="G69" s="149"/>
-      <c r="H69" s="149"/>
-      <c r="I69" s="149"/>
-      <c r="J69" s="150"/>
-      <c r="K69" s="127"/>
-      <c r="L69" s="128"/>
-      <c r="M69" s="128"/>
-      <c r="N69" s="128"/>
-      <c r="O69" s="128"/>
-      <c r="P69" s="129"/>
+      <c r="C69" s="153"/>
+      <c r="D69" s="154"/>
+      <c r="E69" s="155"/>
+      <c r="F69" s="155"/>
+      <c r="G69" s="155"/>
+      <c r="H69" s="155"/>
+      <c r="I69" s="155"/>
+      <c r="J69" s="156"/>
+      <c r="K69" s="216"/>
+      <c r="L69" s="217"/>
+      <c r="M69" s="217"/>
+      <c r="N69" s="217"/>
+      <c r="O69" s="217"/>
+      <c r="P69" s="150"/>
     </row>
     <row r="70" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
-      <c r="B70" s="103"/>
-      <c r="C70" s="104"/>
-      <c r="D70" s="103"/>
-      <c r="E70" s="104"/>
-      <c r="F70" s="104"/>
-      <c r="G70" s="104"/>
-      <c r="H70" s="104"/>
-      <c r="I70" s="104"/>
-      <c r="J70" s="105"/>
-      <c r="K70" s="127"/>
-      <c r="L70" s="128"/>
-      <c r="M70" s="128"/>
-      <c r="N70" s="128"/>
-      <c r="O70" s="128"/>
-      <c r="P70" s="129"/>
+      <c r="B70" s="212"/>
+      <c r="C70" s="213"/>
+      <c r="D70" s="212"/>
+      <c r="E70" s="213"/>
+      <c r="F70" s="213"/>
+      <c r="G70" s="213"/>
+      <c r="H70" s="213"/>
+      <c r="I70" s="213"/>
+      <c r="J70" s="214"/>
+      <c r="K70" s="216"/>
+      <c r="L70" s="217"/>
+      <c r="M70" s="217"/>
+      <c r="N70" s="217"/>
+      <c r="O70" s="217"/>
+      <c r="P70" s="150"/>
     </row>
     <row r="71" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
@@ -6446,14 +6445,14 @@
     </row>
     <row r="72" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
-      <c r="B72" s="92" t="s">
+      <c r="B72" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="92"/>
-      <c r="D72" s="92"/>
-      <c r="E72" s="92"/>
-      <c r="F72" s="92"/>
-      <c r="G72" s="92"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
       <c r="H72" s="24"/>
       <c r="I72" s="24"/>
       <c r="J72" s="24"/>
@@ -6484,493 +6483,493 @@
     </row>
     <row r="74" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="163" t="s">
+      <c r="B74" s="210" t="s">
         <v>41</v>
       </c>
-      <c r="C74" s="163"/>
-      <c r="D74" s="163"/>
-      <c r="E74" s="163"/>
-      <c r="F74" s="163"/>
-      <c r="G74" s="163"/>
-      <c r="H74" s="163"/>
-      <c r="I74" s="163"/>
-      <c r="J74" s="163"/>
-      <c r="K74" s="163"/>
-      <c r="L74" s="163"/>
-      <c r="M74" s="102" t="str">
+      <c r="C74" s="210"/>
+      <c r="D74" s="210"/>
+      <c r="E74" s="210"/>
+      <c r="F74" s="210"/>
+      <c r="G74" s="210"/>
+      <c r="H74" s="210"/>
+      <c r="I74" s="210"/>
+      <c r="J74" s="210"/>
+      <c r="K74" s="210"/>
+      <c r="L74" s="210"/>
+      <c r="M74" s="211" t="str">
         <f>IF(L4="","",L4)</f>
         <v/>
       </c>
-      <c r="N74" s="102"/>
-      <c r="O74" s="102"/>
-      <c r="P74" s="102"/>
+      <c r="N74" s="211"/>
+      <c r="O74" s="211"/>
+      <c r="P74" s="211"/>
     </row>
     <row r="75" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="163"/>
-      <c r="C75" s="163"/>
-      <c r="D75" s="163"/>
-      <c r="E75" s="163"/>
-      <c r="F75" s="163"/>
-      <c r="G75" s="163"/>
-      <c r="H75" s="163"/>
-      <c r="I75" s="163"/>
-      <c r="J75" s="163"/>
-      <c r="K75" s="163"/>
-      <c r="L75" s="163"/>
-      <c r="M75" s="102"/>
-      <c r="N75" s="102"/>
-      <c r="O75" s="102"/>
-      <c r="P75" s="102"/>
+      <c r="B75" s="210"/>
+      <c r="C75" s="210"/>
+      <c r="D75" s="210"/>
+      <c r="E75" s="210"/>
+      <c r="F75" s="210"/>
+      <c r="G75" s="210"/>
+      <c r="H75" s="210"/>
+      <c r="I75" s="210"/>
+      <c r="J75" s="210"/>
+      <c r="K75" s="210"/>
+      <c r="L75" s="210"/>
+      <c r="M75" s="211"/>
+      <c r="N75" s="211"/>
+      <c r="O75" s="211"/>
+      <c r="P75" s="211"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B76" s="163"/>
-      <c r="C76" s="163"/>
-      <c r="D76" s="163"/>
-      <c r="E76" s="163"/>
-      <c r="F76" s="163"/>
-      <c r="G76" s="163"/>
-      <c r="H76" s="163"/>
-      <c r="I76" s="163"/>
-      <c r="J76" s="163"/>
-      <c r="K76" s="163"/>
-      <c r="L76" s="163"/>
-      <c r="M76" s="102"/>
-      <c r="N76" s="102"/>
-      <c r="O76" s="102"/>
-      <c r="P76" s="102"/>
+      <c r="B76" s="210"/>
+      <c r="C76" s="210"/>
+      <c r="D76" s="210"/>
+      <c r="E76" s="210"/>
+      <c r="F76" s="210"/>
+      <c r="G76" s="210"/>
+      <c r="H76" s="210"/>
+      <c r="I76" s="210"/>
+      <c r="J76" s="210"/>
+      <c r="K76" s="210"/>
+      <c r="L76" s="210"/>
+      <c r="M76" s="211"/>
+      <c r="N76" s="211"/>
+      <c r="O76" s="211"/>
+      <c r="P76" s="211"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B77" s="163"/>
-      <c r="C77" s="163"/>
-      <c r="D77" s="163"/>
-      <c r="E77" s="163"/>
-      <c r="F77" s="163"/>
-      <c r="G77" s="163"/>
-      <c r="H77" s="163"/>
-      <c r="I77" s="163"/>
-      <c r="J77" s="163"/>
-      <c r="K77" s="163"/>
-      <c r="L77" s="163"/>
-      <c r="M77" s="102"/>
-      <c r="N77" s="102"/>
-      <c r="O77" s="102"/>
-      <c r="P77" s="102"/>
+      <c r="B77" s="210"/>
+      <c r="C77" s="210"/>
+      <c r="D77" s="210"/>
+      <c r="E77" s="210"/>
+      <c r="F77" s="210"/>
+      <c r="G77" s="210"/>
+      <c r="H77" s="210"/>
+      <c r="I77" s="210"/>
+      <c r="J77" s="210"/>
+      <c r="K77" s="210"/>
+      <c r="L77" s="210"/>
+      <c r="M77" s="211"/>
+      <c r="N77" s="211"/>
+      <c r="O77" s="211"/>
+      <c r="P77" s="211"/>
     </row>
     <row r="78" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="45" t="s">
+      <c r="B78" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="C78" s="45"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="45"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="45"/>
-      <c r="K78" s="45"/>
+      <c r="C78" s="87"/>
+      <c r="D78" s="87"/>
+      <c r="E78" s="87"/>
+      <c r="F78" s="87"/>
+      <c r="G78" s="87"/>
+      <c r="H78" s="87"/>
+      <c r="I78" s="87"/>
+      <c r="J78" s="87"/>
+      <c r="K78" s="87"/>
     </row>
     <row r="79" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="100"/>
-      <c r="C79" s="101"/>
-      <c r="D79" s="101"/>
-      <c r="E79" s="101"/>
-      <c r="F79" s="101"/>
-      <c r="G79" s="101"/>
-      <c r="H79" s="101"/>
-      <c r="I79" s="101"/>
-      <c r="J79" s="101"/>
-      <c r="K79" s="101"/>
-      <c r="L79" s="101"/>
-      <c r="M79" s="101"/>
-      <c r="N79" s="101"/>
-      <c r="O79" s="101"/>
+      <c r="B79" s="191"/>
+      <c r="C79" s="192"/>
+      <c r="D79" s="192"/>
+      <c r="E79" s="192"/>
+      <c r="F79" s="192"/>
+      <c r="G79" s="192"/>
+      <c r="H79" s="192"/>
+      <c r="I79" s="192"/>
+      <c r="J79" s="192"/>
+      <c r="K79" s="192"/>
+      <c r="L79" s="192"/>
+      <c r="M79" s="192"/>
+      <c r="N79" s="192"/>
+      <c r="O79" s="192"/>
     </row>
     <row r="80" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="100"/>
-      <c r="C80" s="101"/>
-      <c r="D80" s="101"/>
-      <c r="E80" s="101"/>
-      <c r="F80" s="101"/>
-      <c r="G80" s="101"/>
-      <c r="H80" s="101"/>
-      <c r="I80" s="101"/>
-      <c r="J80" s="101"/>
-      <c r="K80" s="101"/>
-      <c r="L80" s="101"/>
-      <c r="M80" s="101"/>
-      <c r="N80" s="101"/>
-      <c r="O80" s="101"/>
+      <c r="B80" s="191"/>
+      <c r="C80" s="192"/>
+      <c r="D80" s="192"/>
+      <c r="E80" s="192"/>
+      <c r="F80" s="192"/>
+      <c r="G80" s="192"/>
+      <c r="H80" s="192"/>
+      <c r="I80" s="192"/>
+      <c r="J80" s="192"/>
+      <c r="K80" s="192"/>
+      <c r="L80" s="192"/>
+      <c r="M80" s="192"/>
+      <c r="N80" s="192"/>
+      <c r="O80" s="192"/>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B81" s="100"/>
-      <c r="C81" s="101"/>
-      <c r="D81" s="101"/>
-      <c r="E81" s="101"/>
-      <c r="F81" s="101"/>
-      <c r="G81" s="101"/>
-      <c r="H81" s="101"/>
-      <c r="I81" s="101"/>
-      <c r="J81" s="101"/>
-      <c r="K81" s="101"/>
-      <c r="L81" s="101"/>
-      <c r="M81" s="101"/>
-      <c r="N81" s="101"/>
-      <c r="O81" s="101"/>
+      <c r="B81" s="191"/>
+      <c r="C81" s="192"/>
+      <c r="D81" s="192"/>
+      <c r="E81" s="192"/>
+      <c r="F81" s="192"/>
+      <c r="G81" s="192"/>
+      <c r="H81" s="192"/>
+      <c r="I81" s="192"/>
+      <c r="J81" s="192"/>
+      <c r="K81" s="192"/>
+      <c r="L81" s="192"/>
+      <c r="M81" s="192"/>
+      <c r="N81" s="192"/>
+      <c r="O81" s="192"/>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B82" s="100"/>
-      <c r="C82" s="101"/>
-      <c r="D82" s="101"/>
-      <c r="E82" s="101"/>
-      <c r="F82" s="101"/>
-      <c r="G82" s="101"/>
-      <c r="H82" s="101"/>
-      <c r="I82" s="101"/>
-      <c r="J82" s="101"/>
-      <c r="K82" s="101"/>
-      <c r="L82" s="101"/>
-      <c r="M82" s="101"/>
-      <c r="N82" s="101"/>
-      <c r="O82" s="101"/>
+      <c r="B82" s="191"/>
+      <c r="C82" s="192"/>
+      <c r="D82" s="192"/>
+      <c r="E82" s="192"/>
+      <c r="F82" s="192"/>
+      <c r="G82" s="192"/>
+      <c r="H82" s="192"/>
+      <c r="I82" s="192"/>
+      <c r="J82" s="192"/>
+      <c r="K82" s="192"/>
+      <c r="L82" s="192"/>
+      <c r="M82" s="192"/>
+      <c r="N82" s="192"/>
+      <c r="O82" s="192"/>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B83" s="100"/>
-      <c r="C83" s="101"/>
-      <c r="D83" s="101"/>
-      <c r="E83" s="101"/>
-      <c r="F83" s="101"/>
-      <c r="G83" s="101"/>
-      <c r="H83" s="101"/>
-      <c r="I83" s="101"/>
-      <c r="J83" s="101"/>
-      <c r="K83" s="101"/>
-      <c r="L83" s="101"/>
-      <c r="M83" s="101"/>
-      <c r="N83" s="101"/>
-      <c r="O83" s="101"/>
+      <c r="B83" s="191"/>
+      <c r="C83" s="192"/>
+      <c r="D83" s="192"/>
+      <c r="E83" s="192"/>
+      <c r="F83" s="192"/>
+      <c r="G83" s="192"/>
+      <c r="H83" s="192"/>
+      <c r="I83" s="192"/>
+      <c r="J83" s="192"/>
+      <c r="K83" s="192"/>
+      <c r="L83" s="192"/>
+      <c r="M83" s="192"/>
+      <c r="N83" s="192"/>
+      <c r="O83" s="192"/>
       <c r="P83"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B84" s="100"/>
-      <c r="C84" s="101"/>
-      <c r="D84" s="101"/>
-      <c r="E84" s="101"/>
-      <c r="F84" s="101"/>
-      <c r="G84" s="101"/>
-      <c r="H84" s="101"/>
-      <c r="I84" s="101"/>
-      <c r="J84" s="101"/>
-      <c r="K84" s="101"/>
-      <c r="L84" s="101"/>
-      <c r="M84" s="101"/>
-      <c r="N84" s="101"/>
-      <c r="O84" s="101"/>
+      <c r="B84" s="191"/>
+      <c r="C84" s="192"/>
+      <c r="D84" s="192"/>
+      <c r="E84" s="192"/>
+      <c r="F84" s="192"/>
+      <c r="G84" s="192"/>
+      <c r="H84" s="192"/>
+      <c r="I84" s="192"/>
+      <c r="J84" s="192"/>
+      <c r="K84" s="192"/>
+      <c r="L84" s="192"/>
+      <c r="M84" s="192"/>
+      <c r="N84" s="192"/>
+      <c r="O84" s="192"/>
       <c r="P84"/>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B85" s="100"/>
-      <c r="C85" s="101"/>
-      <c r="D85" s="101"/>
-      <c r="E85" s="101"/>
-      <c r="F85" s="101"/>
-      <c r="G85" s="101"/>
-      <c r="H85" s="101"/>
-      <c r="I85" s="101"/>
-      <c r="J85" s="101"/>
-      <c r="K85" s="101"/>
-      <c r="L85" s="101"/>
-      <c r="M85" s="101"/>
-      <c r="N85" s="101"/>
-      <c r="O85" s="101"/>
+      <c r="B85" s="191"/>
+      <c r="C85" s="192"/>
+      <c r="D85" s="192"/>
+      <c r="E85" s="192"/>
+      <c r="F85" s="192"/>
+      <c r="G85" s="192"/>
+      <c r="H85" s="192"/>
+      <c r="I85" s="192"/>
+      <c r="J85" s="192"/>
+      <c r="K85" s="192"/>
+      <c r="L85" s="192"/>
+      <c r="M85" s="192"/>
+      <c r="N85" s="192"/>
+      <c r="O85" s="192"/>
       <c r="P85"/>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B86" s="100"/>
-      <c r="C86" s="101"/>
-      <c r="D86" s="101"/>
-      <c r="E86" s="101"/>
-      <c r="F86" s="101"/>
-      <c r="G86" s="101"/>
-      <c r="H86" s="101"/>
-      <c r="I86" s="101"/>
-      <c r="J86" s="101"/>
-      <c r="K86" s="101"/>
-      <c r="L86" s="101"/>
-      <c r="M86" s="101"/>
-      <c r="N86" s="101"/>
-      <c r="O86" s="101"/>
+      <c r="B86" s="191"/>
+      <c r="C86" s="192"/>
+      <c r="D86" s="192"/>
+      <c r="E86" s="192"/>
+      <c r="F86" s="192"/>
+      <c r="G86" s="192"/>
+      <c r="H86" s="192"/>
+      <c r="I86" s="192"/>
+      <c r="J86" s="192"/>
+      <c r="K86" s="192"/>
+      <c r="L86" s="192"/>
+      <c r="M86" s="192"/>
+      <c r="N86" s="192"/>
+      <c r="O86" s="192"/>
       <c r="P86"/>
       <c r="Q86"/>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B87" s="100"/>
-      <c r="C87" s="101"/>
-      <c r="D87" s="101"/>
-      <c r="E87" s="101"/>
-      <c r="F87" s="101"/>
-      <c r="G87" s="101"/>
-      <c r="H87" s="101"/>
-      <c r="I87" s="101"/>
-      <c r="J87" s="101"/>
-      <c r="K87" s="101"/>
-      <c r="L87" s="101"/>
-      <c r="M87" s="101"/>
-      <c r="N87" s="101"/>
-      <c r="O87" s="101"/>
+      <c r="B87" s="191"/>
+      <c r="C87" s="192"/>
+      <c r="D87" s="192"/>
+      <c r="E87" s="192"/>
+      <c r="F87" s="192"/>
+      <c r="G87" s="192"/>
+      <c r="H87" s="192"/>
+      <c r="I87" s="192"/>
+      <c r="J87" s="192"/>
+      <c r="K87" s="192"/>
+      <c r="L87" s="192"/>
+      <c r="M87" s="192"/>
+      <c r="N87" s="192"/>
+      <c r="O87" s="192"/>
       <c r="P87"/>
       <c r="Q87"/>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B88" s="100"/>
-      <c r="C88" s="101"/>
-      <c r="D88" s="101"/>
-      <c r="E88" s="101"/>
-      <c r="F88" s="101"/>
-      <c r="G88" s="101"/>
-      <c r="H88" s="101"/>
-      <c r="I88" s="101"/>
-      <c r="J88" s="101"/>
-      <c r="K88" s="101"/>
-      <c r="L88" s="101"/>
-      <c r="M88" s="101"/>
-      <c r="N88" s="101"/>
-      <c r="O88" s="101"/>
+      <c r="B88" s="191"/>
+      <c r="C88" s="192"/>
+      <c r="D88" s="192"/>
+      <c r="E88" s="192"/>
+      <c r="F88" s="192"/>
+      <c r="G88" s="192"/>
+      <c r="H88" s="192"/>
+      <c r="I88" s="192"/>
+      <c r="J88" s="192"/>
+      <c r="K88" s="192"/>
+      <c r="L88" s="192"/>
+      <c r="M88" s="192"/>
+      <c r="N88" s="192"/>
+      <c r="O88" s="192"/>
       <c r="P88"/>
       <c r="Q88"/>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B89" s="100"/>
-      <c r="C89" s="101"/>
-      <c r="D89" s="101"/>
-      <c r="E89" s="101"/>
-      <c r="F89" s="101"/>
-      <c r="G89" s="101"/>
-      <c r="H89" s="101"/>
-      <c r="I89" s="101"/>
-      <c r="J89" s="101"/>
-      <c r="K89" s="101"/>
-      <c r="L89" s="101"/>
-      <c r="M89" s="101"/>
-      <c r="N89" s="101"/>
-      <c r="O89" s="101"/>
+      <c r="B89" s="191"/>
+      <c r="C89" s="192"/>
+      <c r="D89" s="192"/>
+      <c r="E89" s="192"/>
+      <c r="F89" s="192"/>
+      <c r="G89" s="192"/>
+      <c r="H89" s="192"/>
+      <c r="I89" s="192"/>
+      <c r="J89" s="192"/>
+      <c r="K89" s="192"/>
+      <c r="L89" s="192"/>
+      <c r="M89" s="192"/>
+      <c r="N89" s="192"/>
+      <c r="O89" s="192"/>
       <c r="P89"/>
       <c r="Q89"/>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B90" s="100"/>
-      <c r="C90" s="101"/>
-      <c r="D90" s="101"/>
-      <c r="E90" s="101"/>
-      <c r="F90" s="101"/>
-      <c r="G90" s="101"/>
-      <c r="H90" s="101"/>
-      <c r="I90" s="101"/>
-      <c r="J90" s="101"/>
-      <c r="K90" s="101"/>
-      <c r="L90" s="101"/>
-      <c r="M90" s="101"/>
-      <c r="N90" s="101"/>
-      <c r="O90" s="101"/>
+      <c r="B90" s="191"/>
+      <c r="C90" s="192"/>
+      <c r="D90" s="192"/>
+      <c r="E90" s="192"/>
+      <c r="F90" s="192"/>
+      <c r="G90" s="192"/>
+      <c r="H90" s="192"/>
+      <c r="I90" s="192"/>
+      <c r="J90" s="192"/>
+      <c r="K90" s="192"/>
+      <c r="L90" s="192"/>
+      <c r="M90" s="192"/>
+      <c r="N90" s="192"/>
+      <c r="O90" s="192"/>
       <c r="P90"/>
       <c r="Q90"/>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B91" s="100"/>
-      <c r="C91" s="101"/>
-      <c r="D91" s="101"/>
-      <c r="E91" s="101"/>
-      <c r="F91" s="101"/>
-      <c r="G91" s="101"/>
-      <c r="H91" s="101"/>
-      <c r="I91" s="101"/>
-      <c r="J91" s="101"/>
-      <c r="K91" s="101"/>
-      <c r="L91" s="101"/>
-      <c r="M91" s="101"/>
-      <c r="N91" s="101"/>
-      <c r="O91" s="101"/>
+      <c r="B91" s="191"/>
+      <c r="C91" s="192"/>
+      <c r="D91" s="192"/>
+      <c r="E91" s="192"/>
+      <c r="F91" s="192"/>
+      <c r="G91" s="192"/>
+      <c r="H91" s="192"/>
+      <c r="I91" s="192"/>
+      <c r="J91" s="192"/>
+      <c r="K91" s="192"/>
+      <c r="L91" s="192"/>
+      <c r="M91" s="192"/>
+      <c r="N91" s="192"/>
+      <c r="O91" s="192"/>
       <c r="P91"/>
       <c r="Q91"/>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B92" s="100"/>
-      <c r="C92" s="101"/>
-      <c r="D92" s="101"/>
-      <c r="E92" s="101"/>
-      <c r="F92" s="101"/>
-      <c r="G92" s="101"/>
-      <c r="H92" s="101"/>
-      <c r="I92" s="101"/>
-      <c r="J92" s="101"/>
-      <c r="K92" s="101"/>
-      <c r="L92" s="101"/>
-      <c r="M92" s="101"/>
-      <c r="N92" s="101"/>
-      <c r="O92" s="101"/>
+      <c r="B92" s="191"/>
+      <c r="C92" s="192"/>
+      <c r="D92" s="192"/>
+      <c r="E92" s="192"/>
+      <c r="F92" s="192"/>
+      <c r="G92" s="192"/>
+      <c r="H92" s="192"/>
+      <c r="I92" s="192"/>
+      <c r="J92" s="192"/>
+      <c r="K92" s="192"/>
+      <c r="L92" s="192"/>
+      <c r="M92" s="192"/>
+      <c r="N92" s="192"/>
+      <c r="O92" s="192"/>
       <c r="P92"/>
       <c r="Q92"/>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B93" s="100"/>
-      <c r="C93" s="101"/>
-      <c r="D93" s="101"/>
-      <c r="E93" s="101"/>
-      <c r="F93" s="101"/>
-      <c r="G93" s="101"/>
-      <c r="H93" s="101"/>
-      <c r="I93" s="101"/>
-      <c r="J93" s="101"/>
-      <c r="K93" s="101"/>
-      <c r="L93" s="101"/>
-      <c r="M93" s="101"/>
-      <c r="N93" s="101"/>
-      <c r="O93" s="101"/>
+      <c r="B93" s="191"/>
+      <c r="C93" s="192"/>
+      <c r="D93" s="192"/>
+      <c r="E93" s="192"/>
+      <c r="F93" s="192"/>
+      <c r="G93" s="192"/>
+      <c r="H93" s="192"/>
+      <c r="I93" s="192"/>
+      <c r="J93" s="192"/>
+      <c r="K93" s="192"/>
+      <c r="L93" s="192"/>
+      <c r="M93" s="192"/>
+      <c r="N93" s="192"/>
+      <c r="O93" s="192"/>
       <c r="P93"/>
       <c r="Q93"/>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B94" s="100"/>
-      <c r="C94" s="101"/>
-      <c r="D94" s="101"/>
-      <c r="E94" s="101"/>
-      <c r="F94" s="101"/>
-      <c r="G94" s="101"/>
-      <c r="H94" s="101"/>
-      <c r="I94" s="101"/>
-      <c r="J94" s="101"/>
-      <c r="K94" s="101"/>
-      <c r="L94" s="101"/>
-      <c r="M94" s="101"/>
-      <c r="N94" s="101"/>
-      <c r="O94" s="101"/>
+      <c r="B94" s="191"/>
+      <c r="C94" s="192"/>
+      <c r="D94" s="192"/>
+      <c r="E94" s="192"/>
+      <c r="F94" s="192"/>
+      <c r="G94" s="192"/>
+      <c r="H94" s="192"/>
+      <c r="I94" s="192"/>
+      <c r="J94" s="192"/>
+      <c r="K94" s="192"/>
+      <c r="L94" s="192"/>
+      <c r="M94" s="192"/>
+      <c r="N94" s="192"/>
+      <c r="O94" s="192"/>
       <c r="P94"/>
       <c r="Q94"/>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B95" s="100"/>
-      <c r="C95" s="101"/>
-      <c r="D95" s="101"/>
-      <c r="E95" s="101"/>
-      <c r="F95" s="101"/>
-      <c r="G95" s="101"/>
-      <c r="H95" s="101"/>
-      <c r="I95" s="101"/>
-      <c r="J95" s="101"/>
-      <c r="K95" s="101"/>
-      <c r="L95" s="101"/>
-      <c r="M95" s="101"/>
-      <c r="N95" s="101"/>
-      <c r="O95" s="101"/>
+      <c r="B95" s="191"/>
+      <c r="C95" s="192"/>
+      <c r="D95" s="192"/>
+      <c r="E95" s="192"/>
+      <c r="F95" s="192"/>
+      <c r="G95" s="192"/>
+      <c r="H95" s="192"/>
+      <c r="I95" s="192"/>
+      <c r="J95" s="192"/>
+      <c r="K95" s="192"/>
+      <c r="L95" s="192"/>
+      <c r="M95" s="192"/>
+      <c r="N95" s="192"/>
+      <c r="O95" s="192"/>
       <c r="P95"/>
       <c r="Q95"/>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B96" s="100"/>
-      <c r="C96" s="101"/>
-      <c r="D96" s="101"/>
-      <c r="E96" s="101"/>
-      <c r="F96" s="101"/>
-      <c r="G96" s="101"/>
-      <c r="H96" s="101"/>
-      <c r="I96" s="101"/>
-      <c r="J96" s="101"/>
-      <c r="K96" s="101"/>
-      <c r="L96" s="101"/>
-      <c r="M96" s="101"/>
-      <c r="N96" s="101"/>
-      <c r="O96" s="101"/>
+      <c r="B96" s="191"/>
+      <c r="C96" s="192"/>
+      <c r="D96" s="192"/>
+      <c r="E96" s="192"/>
+      <c r="F96" s="192"/>
+      <c r="G96" s="192"/>
+      <c r="H96" s="192"/>
+      <c r="I96" s="192"/>
+      <c r="J96" s="192"/>
+      <c r="K96" s="192"/>
+      <c r="L96" s="192"/>
+      <c r="M96" s="192"/>
+      <c r="N96" s="192"/>
+      <c r="O96" s="192"/>
       <c r="P96"/>
       <c r="Q96"/>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B97" s="100"/>
-      <c r="C97" s="101"/>
-      <c r="D97" s="101"/>
-      <c r="E97" s="101"/>
-      <c r="F97" s="101"/>
-      <c r="G97" s="101"/>
-      <c r="H97" s="101"/>
-      <c r="I97" s="101"/>
-      <c r="J97" s="101"/>
-      <c r="K97" s="101"/>
-      <c r="L97" s="101"/>
-      <c r="M97" s="101"/>
-      <c r="N97" s="101"/>
-      <c r="O97" s="101"/>
+      <c r="B97" s="191"/>
+      <c r="C97" s="192"/>
+      <c r="D97" s="192"/>
+      <c r="E97" s="192"/>
+      <c r="F97" s="192"/>
+      <c r="G97" s="192"/>
+      <c r="H97" s="192"/>
+      <c r="I97" s="192"/>
+      <c r="J97" s="192"/>
+      <c r="K97" s="192"/>
+      <c r="L97" s="192"/>
+      <c r="M97" s="192"/>
+      <c r="N97" s="192"/>
+      <c r="O97" s="192"/>
       <c r="P97"/>
       <c r="Q97"/>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B98" s="100"/>
-      <c r="C98" s="101"/>
-      <c r="D98" s="101"/>
-      <c r="E98" s="101"/>
-      <c r="F98" s="101"/>
-      <c r="G98" s="101"/>
-      <c r="H98" s="101"/>
-      <c r="I98" s="101"/>
-      <c r="J98" s="101"/>
-      <c r="K98" s="101"/>
-      <c r="L98" s="101"/>
-      <c r="M98" s="101"/>
-      <c r="N98" s="101"/>
-      <c r="O98" s="101"/>
+      <c r="B98" s="191"/>
+      <c r="C98" s="192"/>
+      <c r="D98" s="192"/>
+      <c r="E98" s="192"/>
+      <c r="F98" s="192"/>
+      <c r="G98" s="192"/>
+      <c r="H98" s="192"/>
+      <c r="I98" s="192"/>
+      <c r="J98" s="192"/>
+      <c r="K98" s="192"/>
+      <c r="L98" s="192"/>
+      <c r="M98" s="192"/>
+      <c r="N98" s="192"/>
+      <c r="O98" s="192"/>
       <c r="P98"/>
       <c r="Q98"/>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B99" s="100"/>
-      <c r="C99" s="101"/>
-      <c r="D99" s="101"/>
-      <c r="E99" s="101"/>
-      <c r="F99" s="101"/>
-      <c r="G99" s="101"/>
-      <c r="H99" s="101"/>
-      <c r="I99" s="101"/>
-      <c r="J99" s="101"/>
-      <c r="K99" s="101"/>
-      <c r="L99" s="101"/>
-      <c r="M99" s="101"/>
-      <c r="N99" s="101"/>
-      <c r="O99" s="101"/>
+      <c r="B99" s="191"/>
+      <c r="C99" s="192"/>
+      <c r="D99" s="192"/>
+      <c r="E99" s="192"/>
+      <c r="F99" s="192"/>
+      <c r="G99" s="192"/>
+      <c r="H99" s="192"/>
+      <c r="I99" s="192"/>
+      <c r="J99" s="192"/>
+      <c r="K99" s="192"/>
+      <c r="L99" s="192"/>
+      <c r="M99" s="192"/>
+      <c r="N99" s="192"/>
+      <c r="O99" s="192"/>
       <c r="P99"/>
       <c r="Q99"/>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B100" s="100"/>
-      <c r="C100" s="101"/>
-      <c r="D100" s="101"/>
-      <c r="E100" s="101"/>
-      <c r="F100" s="101"/>
-      <c r="G100" s="101"/>
-      <c r="H100" s="101"/>
-      <c r="I100" s="101"/>
-      <c r="J100" s="101"/>
-      <c r="K100" s="101"/>
-      <c r="L100" s="101"/>
-      <c r="M100" s="101"/>
-      <c r="N100" s="101"/>
-      <c r="O100" s="101"/>
+      <c r="B100" s="191"/>
+      <c r="C100" s="192"/>
+      <c r="D100" s="192"/>
+      <c r="E100" s="192"/>
+      <c r="F100" s="192"/>
+      <c r="G100" s="192"/>
+      <c r="H100" s="192"/>
+      <c r="I100" s="192"/>
+      <c r="J100" s="192"/>
+      <c r="K100" s="192"/>
+      <c r="L100" s="192"/>
+      <c r="M100" s="192"/>
+      <c r="N100" s="192"/>
+      <c r="O100" s="192"/>
       <c r="P100"/>
       <c r="Q100"/>
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B101" s="100"/>
-      <c r="C101" s="101"/>
-      <c r="D101" s="101"/>
-      <c r="E101" s="101"/>
-      <c r="F101" s="101"/>
-      <c r="G101" s="101"/>
-      <c r="H101" s="101"/>
-      <c r="I101" s="101"/>
-      <c r="J101" s="101"/>
-      <c r="K101" s="101"/>
-      <c r="L101" s="101"/>
-      <c r="M101" s="101"/>
-      <c r="N101" s="101"/>
-      <c r="O101" s="101"/>
+      <c r="B101" s="191"/>
+      <c r="C101" s="192"/>
+      <c r="D101" s="192"/>
+      <c r="E101" s="192"/>
+      <c r="F101" s="192"/>
+      <c r="G101" s="192"/>
+      <c r="H101" s="192"/>
+      <c r="I101" s="192"/>
+      <c r="J101" s="192"/>
+      <c r="K101" s="192"/>
+      <c r="L101" s="192"/>
+      <c r="M101" s="192"/>
+      <c r="N101" s="192"/>
+      <c r="O101" s="192"/>
       <c r="P101"/>
       <c r="Q101"/>
     </row>
@@ -6993,17 +6992,17 @@
       <c r="Q102"/>
     </row>
     <row r="103" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="141" t="s">
+      <c r="B103" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="141"/>
-      <c r="D103" s="141"/>
-      <c r="E103" s="141"/>
-      <c r="F103" s="141"/>
-      <c r="G103" s="141"/>
-      <c r="H103" s="141"/>
-      <c r="I103" s="141"/>
-      <c r="J103" s="141"/>
+      <c r="C103" s="193"/>
+      <c r="D103" s="193"/>
+      <c r="E103" s="193"/>
+      <c r="F103" s="193"/>
+      <c r="G103" s="193"/>
+      <c r="H103" s="193"/>
+      <c r="I103" s="193"/>
+      <c r="J103" s="193"/>
       <c r="K103"/>
       <c r="L103"/>
       <c r="M103"/>
@@ -7013,416 +7012,416 @@
       <c r="Q103"/>
     </row>
     <row r="104" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B104" s="100"/>
-      <c r="C104" s="101"/>
-      <c r="D104" s="101"/>
-      <c r="E104" s="101"/>
-      <c r="F104" s="101"/>
-      <c r="G104" s="101"/>
-      <c r="H104" s="101"/>
-      <c r="I104" s="101"/>
-      <c r="J104" s="101"/>
-      <c r="K104" s="101"/>
-      <c r="L104" s="101"/>
-      <c r="M104" s="101"/>
-      <c r="N104" s="101"/>
-      <c r="O104" s="101"/>
+      <c r="B104" s="191"/>
+      <c r="C104" s="192"/>
+      <c r="D104" s="192"/>
+      <c r="E104" s="192"/>
+      <c r="F104" s="192"/>
+      <c r="G104" s="192"/>
+      <c r="H104" s="192"/>
+      <c r="I104" s="192"/>
+      <c r="J104" s="192"/>
+      <c r="K104" s="192"/>
+      <c r="L104" s="192"/>
+      <c r="M104" s="192"/>
+      <c r="N104" s="192"/>
+      <c r="O104" s="192"/>
       <c r="P104"/>
       <c r="Q104"/>
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B105" s="100"/>
-      <c r="C105" s="101"/>
-      <c r="D105" s="101"/>
-      <c r="E105" s="101"/>
-      <c r="F105" s="101"/>
-      <c r="G105" s="101"/>
-      <c r="H105" s="101"/>
-      <c r="I105" s="101"/>
-      <c r="J105" s="101"/>
-      <c r="K105" s="101"/>
-      <c r="L105" s="101"/>
-      <c r="M105" s="101"/>
-      <c r="N105" s="101"/>
-      <c r="O105" s="101"/>
+      <c r="B105" s="191"/>
+      <c r="C105" s="192"/>
+      <c r="D105" s="192"/>
+      <c r="E105" s="192"/>
+      <c r="F105" s="192"/>
+      <c r="G105" s="192"/>
+      <c r="H105" s="192"/>
+      <c r="I105" s="192"/>
+      <c r="J105" s="192"/>
+      <c r="K105" s="192"/>
+      <c r="L105" s="192"/>
+      <c r="M105" s="192"/>
+      <c r="N105" s="192"/>
+      <c r="O105" s="192"/>
       <c r="P105"/>
       <c r="Q105"/>
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B106" s="100"/>
-      <c r="C106" s="101"/>
-      <c r="D106" s="101"/>
-      <c r="E106" s="101"/>
-      <c r="F106" s="101"/>
-      <c r="G106" s="101"/>
-      <c r="H106" s="101"/>
-      <c r="I106" s="101"/>
-      <c r="J106" s="101"/>
-      <c r="K106" s="101"/>
-      <c r="L106" s="101"/>
-      <c r="M106" s="101"/>
-      <c r="N106" s="101"/>
-      <c r="O106" s="101"/>
+      <c r="B106" s="191"/>
+      <c r="C106" s="192"/>
+      <c r="D106" s="192"/>
+      <c r="E106" s="192"/>
+      <c r="F106" s="192"/>
+      <c r="G106" s="192"/>
+      <c r="H106" s="192"/>
+      <c r="I106" s="192"/>
+      <c r="J106" s="192"/>
+      <c r="K106" s="192"/>
+      <c r="L106" s="192"/>
+      <c r="M106" s="192"/>
+      <c r="N106" s="192"/>
+      <c r="O106" s="192"/>
       <c r="P106"/>
       <c r="Q106"/>
     </row>
     <row r="107" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B107" s="100"/>
-      <c r="C107" s="101"/>
-      <c r="D107" s="101"/>
-      <c r="E107" s="101"/>
-      <c r="F107" s="101"/>
-      <c r="G107" s="101"/>
-      <c r="H107" s="101"/>
-      <c r="I107" s="101"/>
-      <c r="J107" s="101"/>
-      <c r="K107" s="101"/>
-      <c r="L107" s="101"/>
-      <c r="M107" s="101"/>
-      <c r="N107" s="101"/>
-      <c r="O107" s="101"/>
+      <c r="B107" s="191"/>
+      <c r="C107" s="192"/>
+      <c r="D107" s="192"/>
+      <c r="E107" s="192"/>
+      <c r="F107" s="192"/>
+      <c r="G107" s="192"/>
+      <c r="H107" s="192"/>
+      <c r="I107" s="192"/>
+      <c r="J107" s="192"/>
+      <c r="K107" s="192"/>
+      <c r="L107" s="192"/>
+      <c r="M107" s="192"/>
+      <c r="N107" s="192"/>
+      <c r="O107" s="192"/>
       <c r="P107"/>
       <c r="Q107"/>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B108" s="100"/>
-      <c r="C108" s="101"/>
-      <c r="D108" s="101"/>
-      <c r="E108" s="101"/>
-      <c r="F108" s="101"/>
-      <c r="G108" s="101"/>
-      <c r="H108" s="101"/>
-      <c r="I108" s="101"/>
-      <c r="J108" s="101"/>
-      <c r="K108" s="101"/>
-      <c r="L108" s="101"/>
-      <c r="M108" s="101"/>
-      <c r="N108" s="101"/>
-      <c r="O108" s="101"/>
+      <c r="B108" s="191"/>
+      <c r="C108" s="192"/>
+      <c r="D108" s="192"/>
+      <c r="E108" s="192"/>
+      <c r="F108" s="192"/>
+      <c r="G108" s="192"/>
+      <c r="H108" s="192"/>
+      <c r="I108" s="192"/>
+      <c r="J108" s="192"/>
+      <c r="K108" s="192"/>
+      <c r="L108" s="192"/>
+      <c r="M108" s="192"/>
+      <c r="N108" s="192"/>
+      <c r="O108" s="192"/>
       <c r="P108"/>
       <c r="Q108"/>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B109" s="100"/>
-      <c r="C109" s="101"/>
-      <c r="D109" s="101"/>
-      <c r="E109" s="101"/>
-      <c r="F109" s="101"/>
-      <c r="G109" s="101"/>
-      <c r="H109" s="101"/>
-      <c r="I109" s="101"/>
-      <c r="J109" s="101"/>
-      <c r="K109" s="101"/>
-      <c r="L109" s="101"/>
-      <c r="M109" s="101"/>
-      <c r="N109" s="101"/>
-      <c r="O109" s="101"/>
+      <c r="B109" s="191"/>
+      <c r="C109" s="192"/>
+      <c r="D109" s="192"/>
+      <c r="E109" s="192"/>
+      <c r="F109" s="192"/>
+      <c r="G109" s="192"/>
+      <c r="H109" s="192"/>
+      <c r="I109" s="192"/>
+      <c r="J109" s="192"/>
+      <c r="K109" s="192"/>
+      <c r="L109" s="192"/>
+      <c r="M109" s="192"/>
+      <c r="N109" s="192"/>
+      <c r="O109" s="192"/>
       <c r="P109"/>
       <c r="Q109"/>
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B110" s="100"/>
-      <c r="C110" s="101"/>
-      <c r="D110" s="101"/>
-      <c r="E110" s="101"/>
-      <c r="F110" s="101"/>
-      <c r="G110" s="101"/>
-      <c r="H110" s="101"/>
-      <c r="I110" s="101"/>
-      <c r="J110" s="101"/>
-      <c r="K110" s="101"/>
-      <c r="L110" s="101"/>
-      <c r="M110" s="101"/>
-      <c r="N110" s="101"/>
-      <c r="O110" s="101"/>
+      <c r="B110" s="191"/>
+      <c r="C110" s="192"/>
+      <c r="D110" s="192"/>
+      <c r="E110" s="192"/>
+      <c r="F110" s="192"/>
+      <c r="G110" s="192"/>
+      <c r="H110" s="192"/>
+      <c r="I110" s="192"/>
+      <c r="J110" s="192"/>
+      <c r="K110" s="192"/>
+      <c r="L110" s="192"/>
+      <c r="M110" s="192"/>
+      <c r="N110" s="192"/>
+      <c r="O110" s="192"/>
       <c r="P110"/>
       <c r="Q110"/>
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B111" s="100"/>
-      <c r="C111" s="101"/>
-      <c r="D111" s="101"/>
-      <c r="E111" s="101"/>
-      <c r="F111" s="101"/>
-      <c r="G111" s="101"/>
-      <c r="H111" s="101"/>
-      <c r="I111" s="101"/>
-      <c r="J111" s="101"/>
-      <c r="K111" s="101"/>
-      <c r="L111" s="101"/>
-      <c r="M111" s="101"/>
-      <c r="N111" s="101"/>
-      <c r="O111" s="101"/>
+      <c r="B111" s="191"/>
+      <c r="C111" s="192"/>
+      <c r="D111" s="192"/>
+      <c r="E111" s="192"/>
+      <c r="F111" s="192"/>
+      <c r="G111" s="192"/>
+      <c r="H111" s="192"/>
+      <c r="I111" s="192"/>
+      <c r="J111" s="192"/>
+      <c r="K111" s="192"/>
+      <c r="L111" s="192"/>
+      <c r="M111" s="192"/>
+      <c r="N111" s="192"/>
+      <c r="O111" s="192"/>
       <c r="P111"/>
       <c r="Q111"/>
     </row>
     <row r="112" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B112" s="100"/>
-      <c r="C112" s="101"/>
-      <c r="D112" s="101"/>
-      <c r="E112" s="101"/>
-      <c r="F112" s="101"/>
-      <c r="G112" s="101"/>
-      <c r="H112" s="101"/>
-      <c r="I112" s="101"/>
-      <c r="J112" s="101"/>
-      <c r="K112" s="101"/>
-      <c r="L112" s="101"/>
-      <c r="M112" s="101"/>
-      <c r="N112" s="101"/>
-      <c r="O112" s="101"/>
+      <c r="B112" s="191"/>
+      <c r="C112" s="192"/>
+      <c r="D112" s="192"/>
+      <c r="E112" s="192"/>
+      <c r="F112" s="192"/>
+      <c r="G112" s="192"/>
+      <c r="H112" s="192"/>
+      <c r="I112" s="192"/>
+      <c r="J112" s="192"/>
+      <c r="K112" s="192"/>
+      <c r="L112" s="192"/>
+      <c r="M112" s="192"/>
+      <c r="N112" s="192"/>
+      <c r="O112" s="192"/>
       <c r="P112"/>
       <c r="Q112"/>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B113" s="100"/>
-      <c r="C113" s="101"/>
-      <c r="D113" s="101"/>
-      <c r="E113" s="101"/>
-      <c r="F113" s="101"/>
-      <c r="G113" s="101"/>
-      <c r="H113" s="101"/>
-      <c r="I113" s="101"/>
-      <c r="J113" s="101"/>
-      <c r="K113" s="101"/>
-      <c r="L113" s="101"/>
-      <c r="M113" s="101"/>
-      <c r="N113" s="101"/>
-      <c r="O113" s="101"/>
+      <c r="B113" s="191"/>
+      <c r="C113" s="192"/>
+      <c r="D113" s="192"/>
+      <c r="E113" s="192"/>
+      <c r="F113" s="192"/>
+      <c r="G113" s="192"/>
+      <c r="H113" s="192"/>
+      <c r="I113" s="192"/>
+      <c r="J113" s="192"/>
+      <c r="K113" s="192"/>
+      <c r="L113" s="192"/>
+      <c r="M113" s="192"/>
+      <c r="N113" s="192"/>
+      <c r="O113" s="192"/>
       <c r="P113"/>
       <c r="Q113"/>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B114" s="100"/>
-      <c r="C114" s="101"/>
-      <c r="D114" s="101"/>
-      <c r="E114" s="101"/>
-      <c r="F114" s="101"/>
-      <c r="G114" s="101"/>
-      <c r="H114" s="101"/>
-      <c r="I114" s="101"/>
-      <c r="J114" s="101"/>
-      <c r="K114" s="101"/>
-      <c r="L114" s="101"/>
-      <c r="M114" s="101"/>
-      <c r="N114" s="101"/>
-      <c r="O114" s="101"/>
+      <c r="B114" s="191"/>
+      <c r="C114" s="192"/>
+      <c r="D114" s="192"/>
+      <c r="E114" s="192"/>
+      <c r="F114" s="192"/>
+      <c r="G114" s="192"/>
+      <c r="H114" s="192"/>
+      <c r="I114" s="192"/>
+      <c r="J114" s="192"/>
+      <c r="K114" s="192"/>
+      <c r="L114" s="192"/>
+      <c r="M114" s="192"/>
+      <c r="N114" s="192"/>
+      <c r="O114" s="192"/>
       <c r="P114"/>
       <c r="Q114"/>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B115" s="100"/>
-      <c r="C115" s="101"/>
-      <c r="D115" s="101"/>
-      <c r="E115" s="101"/>
-      <c r="F115" s="101"/>
-      <c r="G115" s="101"/>
-      <c r="H115" s="101"/>
-      <c r="I115" s="101"/>
-      <c r="J115" s="101"/>
-      <c r="K115" s="101"/>
-      <c r="L115" s="101"/>
-      <c r="M115" s="101"/>
-      <c r="N115" s="101"/>
-      <c r="O115" s="101"/>
+      <c r="B115" s="191"/>
+      <c r="C115" s="192"/>
+      <c r="D115" s="192"/>
+      <c r="E115" s="192"/>
+      <c r="F115" s="192"/>
+      <c r="G115" s="192"/>
+      <c r="H115" s="192"/>
+      <c r="I115" s="192"/>
+      <c r="J115" s="192"/>
+      <c r="K115" s="192"/>
+      <c r="L115" s="192"/>
+      <c r="M115" s="192"/>
+      <c r="N115" s="192"/>
+      <c r="O115" s="192"/>
       <c r="P115"/>
       <c r="Q115"/>
     </row>
     <row r="116" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B116" s="100"/>
-      <c r="C116" s="101"/>
-      <c r="D116" s="101"/>
-      <c r="E116" s="101"/>
-      <c r="F116" s="101"/>
-      <c r="G116" s="101"/>
-      <c r="H116" s="101"/>
-      <c r="I116" s="101"/>
-      <c r="J116" s="101"/>
-      <c r="K116" s="101"/>
-      <c r="L116" s="101"/>
-      <c r="M116" s="101"/>
-      <c r="N116" s="101"/>
-      <c r="O116" s="101"/>
+      <c r="B116" s="191"/>
+      <c r="C116" s="192"/>
+      <c r="D116" s="192"/>
+      <c r="E116" s="192"/>
+      <c r="F116" s="192"/>
+      <c r="G116" s="192"/>
+      <c r="H116" s="192"/>
+      <c r="I116" s="192"/>
+      <c r="J116" s="192"/>
+      <c r="K116" s="192"/>
+      <c r="L116" s="192"/>
+      <c r="M116" s="192"/>
+      <c r="N116" s="192"/>
+      <c r="O116" s="192"/>
       <c r="P116"/>
       <c r="Q116"/>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B117" s="100"/>
-      <c r="C117" s="101"/>
-      <c r="D117" s="101"/>
-      <c r="E117" s="101"/>
-      <c r="F117" s="101"/>
-      <c r="G117" s="101"/>
-      <c r="H117" s="101"/>
-      <c r="I117" s="101"/>
-      <c r="J117" s="101"/>
-      <c r="K117" s="101"/>
-      <c r="L117" s="101"/>
-      <c r="M117" s="101"/>
-      <c r="N117" s="101"/>
-      <c r="O117" s="101"/>
+      <c r="B117" s="191"/>
+      <c r="C117" s="192"/>
+      <c r="D117" s="192"/>
+      <c r="E117" s="192"/>
+      <c r="F117" s="192"/>
+      <c r="G117" s="192"/>
+      <c r="H117" s="192"/>
+      <c r="I117" s="192"/>
+      <c r="J117" s="192"/>
+      <c r="K117" s="192"/>
+      <c r="L117" s="192"/>
+      <c r="M117" s="192"/>
+      <c r="N117" s="192"/>
+      <c r="O117" s="192"/>
       <c r="P117"/>
       <c r="Q117"/>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B118" s="100"/>
-      <c r="C118" s="101"/>
-      <c r="D118" s="101"/>
-      <c r="E118" s="101"/>
-      <c r="F118" s="101"/>
-      <c r="G118" s="101"/>
-      <c r="H118" s="101"/>
-      <c r="I118" s="101"/>
-      <c r="J118" s="101"/>
-      <c r="K118" s="101"/>
-      <c r="L118" s="101"/>
-      <c r="M118" s="101"/>
-      <c r="N118" s="101"/>
-      <c r="O118" s="101"/>
+      <c r="B118" s="191"/>
+      <c r="C118" s="192"/>
+      <c r="D118" s="192"/>
+      <c r="E118" s="192"/>
+      <c r="F118" s="192"/>
+      <c r="G118" s="192"/>
+      <c r="H118" s="192"/>
+      <c r="I118" s="192"/>
+      <c r="J118" s="192"/>
+      <c r="K118" s="192"/>
+      <c r="L118" s="192"/>
+      <c r="M118" s="192"/>
+      <c r="N118" s="192"/>
+      <c r="O118" s="192"/>
       <c r="P118"/>
       <c r="Q118"/>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B119" s="100"/>
-      <c r="C119" s="101"/>
-      <c r="D119" s="101"/>
-      <c r="E119" s="101"/>
-      <c r="F119" s="101"/>
-      <c r="G119" s="101"/>
-      <c r="H119" s="101"/>
-      <c r="I119" s="101"/>
-      <c r="J119" s="101"/>
-      <c r="K119" s="101"/>
-      <c r="L119" s="101"/>
-      <c r="M119" s="101"/>
-      <c r="N119" s="101"/>
-      <c r="O119" s="101"/>
+      <c r="B119" s="191"/>
+      <c r="C119" s="192"/>
+      <c r="D119" s="192"/>
+      <c r="E119" s="192"/>
+      <c r="F119" s="192"/>
+      <c r="G119" s="192"/>
+      <c r="H119" s="192"/>
+      <c r="I119" s="192"/>
+      <c r="J119" s="192"/>
+      <c r="K119" s="192"/>
+      <c r="L119" s="192"/>
+      <c r="M119" s="192"/>
+      <c r="N119" s="192"/>
+      <c r="O119" s="192"/>
       <c r="P119"/>
       <c r="Q119"/>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B120" s="100"/>
-      <c r="C120" s="101"/>
-      <c r="D120" s="101"/>
-      <c r="E120" s="101"/>
-      <c r="F120" s="101"/>
-      <c r="G120" s="101"/>
-      <c r="H120" s="101"/>
-      <c r="I120" s="101"/>
-      <c r="J120" s="101"/>
-      <c r="K120" s="101"/>
-      <c r="L120" s="101"/>
-      <c r="M120" s="101"/>
-      <c r="N120" s="101"/>
-      <c r="O120" s="101"/>
+      <c r="B120" s="191"/>
+      <c r="C120" s="192"/>
+      <c r="D120" s="192"/>
+      <c r="E120" s="192"/>
+      <c r="F120" s="192"/>
+      <c r="G120" s="192"/>
+      <c r="H120" s="192"/>
+      <c r="I120" s="192"/>
+      <c r="J120" s="192"/>
+      <c r="K120" s="192"/>
+      <c r="L120" s="192"/>
+      <c r="M120" s="192"/>
+      <c r="N120" s="192"/>
+      <c r="O120" s="192"/>
       <c r="P120"/>
       <c r="Q120"/>
     </row>
     <row r="121" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B121" s="100"/>
-      <c r="C121" s="101"/>
-      <c r="D121" s="101"/>
-      <c r="E121" s="101"/>
-      <c r="F121" s="101"/>
-      <c r="G121" s="101"/>
-      <c r="H121" s="101"/>
-      <c r="I121" s="101"/>
-      <c r="J121" s="101"/>
-      <c r="K121" s="101"/>
-      <c r="L121" s="101"/>
-      <c r="M121" s="101"/>
-      <c r="N121" s="101"/>
-      <c r="O121" s="101"/>
+      <c r="B121" s="191"/>
+      <c r="C121" s="192"/>
+      <c r="D121" s="192"/>
+      <c r="E121" s="192"/>
+      <c r="F121" s="192"/>
+      <c r="G121" s="192"/>
+      <c r="H121" s="192"/>
+      <c r="I121" s="192"/>
+      <c r="J121" s="192"/>
+      <c r="K121" s="192"/>
+      <c r="L121" s="192"/>
+      <c r="M121" s="192"/>
+      <c r="N121" s="192"/>
+      <c r="O121" s="192"/>
       <c r="P121"/>
       <c r="Q121"/>
     </row>
     <row r="122" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B122" s="100"/>
-      <c r="C122" s="101"/>
-      <c r="D122" s="101"/>
-      <c r="E122" s="101"/>
-      <c r="F122" s="101"/>
-      <c r="G122" s="101"/>
-      <c r="H122" s="101"/>
-      <c r="I122" s="101"/>
-      <c r="J122" s="101"/>
-      <c r="K122" s="101"/>
-      <c r="L122" s="101"/>
-      <c r="M122" s="101"/>
-      <c r="N122" s="101"/>
-      <c r="O122" s="101"/>
+      <c r="B122" s="191"/>
+      <c r="C122" s="192"/>
+      <c r="D122" s="192"/>
+      <c r="E122" s="192"/>
+      <c r="F122" s="192"/>
+      <c r="G122" s="192"/>
+      <c r="H122" s="192"/>
+      <c r="I122" s="192"/>
+      <c r="J122" s="192"/>
+      <c r="K122" s="192"/>
+      <c r="L122" s="192"/>
+      <c r="M122" s="192"/>
+      <c r="N122" s="192"/>
+      <c r="O122" s="192"/>
       <c r="P122"/>
       <c r="Q122"/>
     </row>
     <row r="123" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B123" s="100"/>
-      <c r="C123" s="101"/>
-      <c r="D123" s="101"/>
-      <c r="E123" s="101"/>
-      <c r="F123" s="101"/>
-      <c r="G123" s="101"/>
-      <c r="H123" s="101"/>
-      <c r="I123" s="101"/>
-      <c r="J123" s="101"/>
-      <c r="K123" s="101"/>
-      <c r="L123" s="101"/>
-      <c r="M123" s="101"/>
-      <c r="N123" s="101"/>
-      <c r="O123" s="101"/>
+      <c r="B123" s="191"/>
+      <c r="C123" s="192"/>
+      <c r="D123" s="192"/>
+      <c r="E123" s="192"/>
+      <c r="F123" s="192"/>
+      <c r="G123" s="192"/>
+      <c r="H123" s="192"/>
+      <c r="I123" s="192"/>
+      <c r="J123" s="192"/>
+      <c r="K123" s="192"/>
+      <c r="L123" s="192"/>
+      <c r="M123" s="192"/>
+      <c r="N123" s="192"/>
+      <c r="O123" s="192"/>
       <c r="P123"/>
       <c r="Q123"/>
     </row>
     <row r="124" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B124" s="100"/>
-      <c r="C124" s="101"/>
-      <c r="D124" s="101"/>
-      <c r="E124" s="101"/>
-      <c r="F124" s="101"/>
-      <c r="G124" s="101"/>
-      <c r="H124" s="101"/>
-      <c r="I124" s="101"/>
-      <c r="J124" s="101"/>
-      <c r="K124" s="101"/>
-      <c r="L124" s="101"/>
-      <c r="M124" s="101"/>
-      <c r="N124" s="101"/>
-      <c r="O124" s="101"/>
+      <c r="B124" s="191"/>
+      <c r="C124" s="192"/>
+      <c r="D124" s="192"/>
+      <c r="E124" s="192"/>
+      <c r="F124" s="192"/>
+      <c r="G124" s="192"/>
+      <c r="H124" s="192"/>
+      <c r="I124" s="192"/>
+      <c r="J124" s="192"/>
+      <c r="K124" s="192"/>
+      <c r="L124" s="192"/>
+      <c r="M124" s="192"/>
+      <c r="N124" s="192"/>
+      <c r="O124" s="192"/>
       <c r="P124"/>
       <c r="Q124"/>
     </row>
     <row r="125" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B125" s="100"/>
-      <c r="C125" s="101"/>
-      <c r="D125" s="101"/>
-      <c r="E125" s="101"/>
-      <c r="F125" s="101"/>
-      <c r="G125" s="101"/>
-      <c r="H125" s="101"/>
-      <c r="I125" s="101"/>
-      <c r="J125" s="101"/>
-      <c r="K125" s="101"/>
-      <c r="L125" s="101"/>
-      <c r="M125" s="101"/>
-      <c r="N125" s="101"/>
-      <c r="O125" s="101"/>
+      <c r="B125" s="191"/>
+      <c r="C125" s="192"/>
+      <c r="D125" s="192"/>
+      <c r="E125" s="192"/>
+      <c r="F125" s="192"/>
+      <c r="G125" s="192"/>
+      <c r="H125" s="192"/>
+      <c r="I125" s="192"/>
+      <c r="J125" s="192"/>
+      <c r="K125" s="192"/>
+      <c r="L125" s="192"/>
+      <c r="M125" s="192"/>
+      <c r="N125" s="192"/>
+      <c r="O125" s="192"/>
       <c r="P125"/>
       <c r="Q125"/>
     </row>
     <row r="126" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B126" s="100"/>
-      <c r="C126" s="101"/>
-      <c r="D126" s="101"/>
-      <c r="E126" s="101"/>
-      <c r="F126" s="101"/>
-      <c r="G126" s="101"/>
-      <c r="H126" s="101"/>
-      <c r="I126" s="101"/>
-      <c r="J126" s="101"/>
-      <c r="K126" s="101"/>
-      <c r="L126" s="101"/>
-      <c r="M126" s="101"/>
-      <c r="N126" s="101"/>
-      <c r="O126" s="101"/>
+      <c r="B126" s="191"/>
+      <c r="C126" s="192"/>
+      <c r="D126" s="192"/>
+      <c r="E126" s="192"/>
+      <c r="F126" s="192"/>
+      <c r="G126" s="192"/>
+      <c r="H126" s="192"/>
+      <c r="I126" s="192"/>
+      <c r="J126" s="192"/>
+      <c r="K126" s="192"/>
+      <c r="L126" s="192"/>
+      <c r="M126" s="192"/>
+      <c r="N126" s="192"/>
+      <c r="O126" s="192"/>
       <c r="P126"/>
       <c r="Q126"/>
     </row>
@@ -7445,17 +7444,17 @@
       <c r="Q127"/>
     </row>
     <row r="128" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B128" s="141" t="s">
+      <c r="B128" s="193" t="s">
         <v>14</v>
       </c>
-      <c r="C128" s="141"/>
-      <c r="D128" s="141"/>
-      <c r="E128" s="141"/>
-      <c r="F128" s="141"/>
-      <c r="G128" s="141"/>
-      <c r="H128" s="141"/>
-      <c r="I128" s="141"/>
-      <c r="J128" s="141"/>
+      <c r="C128" s="193"/>
+      <c r="D128" s="193"/>
+      <c r="E128" s="193"/>
+      <c r="F128" s="193"/>
+      <c r="G128" s="193"/>
+      <c r="H128" s="193"/>
+      <c r="I128" s="193"/>
+      <c r="J128" s="193"/>
       <c r="K128"/>
       <c r="L128"/>
       <c r="M128"/>
@@ -7465,428 +7464,428 @@
       <c r="Q128"/>
     </row>
     <row r="129" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B129" s="100"/>
-      <c r="C129" s="101"/>
-      <c r="D129" s="101"/>
-      <c r="E129" s="101"/>
-      <c r="F129" s="101"/>
-      <c r="G129" s="101"/>
-      <c r="H129" s="101"/>
-      <c r="I129" s="101"/>
-      <c r="J129" s="101"/>
-      <c r="K129" s="101"/>
-      <c r="L129" s="101"/>
-      <c r="M129" s="101"/>
-      <c r="N129" s="101"/>
-      <c r="O129" s="101"/>
+      <c r="B129" s="191"/>
+      <c r="C129" s="192"/>
+      <c r="D129" s="192"/>
+      <c r="E129" s="192"/>
+      <c r="F129" s="192"/>
+      <c r="G129" s="192"/>
+      <c r="H129" s="192"/>
+      <c r="I129" s="192"/>
+      <c r="J129" s="192"/>
+      <c r="K129" s="192"/>
+      <c r="L129" s="192"/>
+      <c r="M129" s="192"/>
+      <c r="N129" s="192"/>
+      <c r="O129" s="192"/>
       <c r="P129"/>
       <c r="Q129"/>
     </row>
     <row r="130" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B130" s="100"/>
-      <c r="C130" s="101"/>
-      <c r="D130" s="101"/>
-      <c r="E130" s="101"/>
-      <c r="F130" s="101"/>
-      <c r="G130" s="101"/>
-      <c r="H130" s="101"/>
-      <c r="I130" s="101"/>
-      <c r="J130" s="101"/>
-      <c r="K130" s="101"/>
-      <c r="L130" s="101"/>
-      <c r="M130" s="101"/>
-      <c r="N130" s="101"/>
-      <c r="O130" s="101"/>
+      <c r="B130" s="191"/>
+      <c r="C130" s="192"/>
+      <c r="D130" s="192"/>
+      <c r="E130" s="192"/>
+      <c r="F130" s="192"/>
+      <c r="G130" s="192"/>
+      <c r="H130" s="192"/>
+      <c r="I130" s="192"/>
+      <c r="J130" s="192"/>
+      <c r="K130" s="192"/>
+      <c r="L130" s="192"/>
+      <c r="M130" s="192"/>
+      <c r="N130" s="192"/>
+      <c r="O130" s="192"/>
       <c r="P130"/>
       <c r="Q130"/>
     </row>
     <row r="131" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B131" s="100"/>
-      <c r="C131" s="101"/>
-      <c r="D131" s="101"/>
-      <c r="E131" s="101"/>
-      <c r="F131" s="101"/>
-      <c r="G131" s="101"/>
-      <c r="H131" s="101"/>
-      <c r="I131" s="101"/>
-      <c r="J131" s="101"/>
-      <c r="K131" s="101"/>
-      <c r="L131" s="101"/>
-      <c r="M131" s="101"/>
-      <c r="N131" s="101"/>
-      <c r="O131" s="101"/>
+      <c r="B131" s="191"/>
+      <c r="C131" s="192"/>
+      <c r="D131" s="192"/>
+      <c r="E131" s="192"/>
+      <c r="F131" s="192"/>
+      <c r="G131" s="192"/>
+      <c r="H131" s="192"/>
+      <c r="I131" s="192"/>
+      <c r="J131" s="192"/>
+      <c r="K131" s="192"/>
+      <c r="L131" s="192"/>
+      <c r="M131" s="192"/>
+      <c r="N131" s="192"/>
+      <c r="O131" s="192"/>
       <c r="P131"/>
       <c r="Q131"/>
     </row>
     <row r="132" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B132" s="100"/>
-      <c r="C132" s="101"/>
-      <c r="D132" s="101"/>
-      <c r="E132" s="101"/>
-      <c r="F132" s="101"/>
-      <c r="G132" s="101"/>
-      <c r="H132" s="101"/>
-      <c r="I132" s="101"/>
-      <c r="J132" s="101"/>
-      <c r="K132" s="101"/>
-      <c r="L132" s="101"/>
-      <c r="M132" s="101"/>
-      <c r="N132" s="101"/>
-      <c r="O132" s="101"/>
+      <c r="B132" s="191"/>
+      <c r="C132" s="192"/>
+      <c r="D132" s="192"/>
+      <c r="E132" s="192"/>
+      <c r="F132" s="192"/>
+      <c r="G132" s="192"/>
+      <c r="H132" s="192"/>
+      <c r="I132" s="192"/>
+      <c r="J132" s="192"/>
+      <c r="K132" s="192"/>
+      <c r="L132" s="192"/>
+      <c r="M132" s="192"/>
+      <c r="N132" s="192"/>
+      <c r="O132" s="192"/>
       <c r="P132"/>
       <c r="Q132"/>
     </row>
     <row r="133" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B133" s="100"/>
-      <c r="C133" s="101"/>
-      <c r="D133" s="101"/>
-      <c r="E133" s="101"/>
-      <c r="F133" s="101"/>
-      <c r="G133" s="101"/>
-      <c r="H133" s="101"/>
-      <c r="I133" s="101"/>
-      <c r="J133" s="101"/>
-      <c r="K133" s="101"/>
-      <c r="L133" s="101"/>
-      <c r="M133" s="101"/>
-      <c r="N133" s="101"/>
-      <c r="O133" s="101"/>
+      <c r="B133" s="191"/>
+      <c r="C133" s="192"/>
+      <c r="D133" s="192"/>
+      <c r="E133" s="192"/>
+      <c r="F133" s="192"/>
+      <c r="G133" s="192"/>
+      <c r="H133" s="192"/>
+      <c r="I133" s="192"/>
+      <c r="J133" s="192"/>
+      <c r="K133" s="192"/>
+      <c r="L133" s="192"/>
+      <c r="M133" s="192"/>
+      <c r="N133" s="192"/>
+      <c r="O133" s="192"/>
       <c r="P133"/>
       <c r="Q133"/>
     </row>
     <row r="134" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B134" s="100"/>
-      <c r="C134" s="101"/>
-      <c r="D134" s="101"/>
-      <c r="E134" s="101"/>
-      <c r="F134" s="101"/>
-      <c r="G134" s="101"/>
-      <c r="H134" s="101"/>
-      <c r="I134" s="101"/>
-      <c r="J134" s="101"/>
-      <c r="K134" s="101"/>
-      <c r="L134" s="101"/>
-      <c r="M134" s="101"/>
-      <c r="N134" s="101"/>
-      <c r="O134" s="101"/>
+      <c r="B134" s="191"/>
+      <c r="C134" s="192"/>
+      <c r="D134" s="192"/>
+      <c r="E134" s="192"/>
+      <c r="F134" s="192"/>
+      <c r="G134" s="192"/>
+      <c r="H134" s="192"/>
+      <c r="I134" s="192"/>
+      <c r="J134" s="192"/>
+      <c r="K134" s="192"/>
+      <c r="L134" s="192"/>
+      <c r="M134" s="192"/>
+      <c r="N134" s="192"/>
+      <c r="O134" s="192"/>
       <c r="P134"/>
       <c r="Q134"/>
     </row>
     <row r="135" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B135" s="100"/>
-      <c r="C135" s="101"/>
-      <c r="D135" s="101"/>
-      <c r="E135" s="101"/>
-      <c r="F135" s="101"/>
-      <c r="G135" s="101"/>
-      <c r="H135" s="101"/>
-      <c r="I135" s="101"/>
-      <c r="J135" s="101"/>
-      <c r="K135" s="101"/>
-      <c r="L135" s="101"/>
-      <c r="M135" s="101"/>
-      <c r="N135" s="101"/>
-      <c r="O135" s="101"/>
+      <c r="B135" s="191"/>
+      <c r="C135" s="192"/>
+      <c r="D135" s="192"/>
+      <c r="E135" s="192"/>
+      <c r="F135" s="192"/>
+      <c r="G135" s="192"/>
+      <c r="H135" s="192"/>
+      <c r="I135" s="192"/>
+      <c r="J135" s="192"/>
+      <c r="K135" s="192"/>
+      <c r="L135" s="192"/>
+      <c r="M135" s="192"/>
+      <c r="N135" s="192"/>
+      <c r="O135" s="192"/>
       <c r="P135"/>
       <c r="Q135"/>
     </row>
     <row r="136" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B136" s="100"/>
-      <c r="C136" s="101"/>
-      <c r="D136" s="101"/>
-      <c r="E136" s="101"/>
-      <c r="F136" s="101"/>
-      <c r="G136" s="101"/>
-      <c r="H136" s="101"/>
-      <c r="I136" s="101"/>
-      <c r="J136" s="101"/>
-      <c r="K136" s="101"/>
-      <c r="L136" s="101"/>
-      <c r="M136" s="101"/>
-      <c r="N136" s="101"/>
-      <c r="O136" s="101"/>
+      <c r="B136" s="191"/>
+      <c r="C136" s="192"/>
+      <c r="D136" s="192"/>
+      <c r="E136" s="192"/>
+      <c r="F136" s="192"/>
+      <c r="G136" s="192"/>
+      <c r="H136" s="192"/>
+      <c r="I136" s="192"/>
+      <c r="J136" s="192"/>
+      <c r="K136" s="192"/>
+      <c r="L136" s="192"/>
+      <c r="M136" s="192"/>
+      <c r="N136" s="192"/>
+      <c r="O136" s="192"/>
       <c r="P136"/>
       <c r="Q136"/>
     </row>
     <row r="137" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B137" s="100"/>
-      <c r="C137" s="101"/>
-      <c r="D137" s="101"/>
-      <c r="E137" s="101"/>
-      <c r="F137" s="101"/>
-      <c r="G137" s="101"/>
-      <c r="H137" s="101"/>
-      <c r="I137" s="101"/>
-      <c r="J137" s="101"/>
-      <c r="K137" s="101"/>
-      <c r="L137" s="101"/>
-      <c r="M137" s="101"/>
-      <c r="N137" s="101"/>
-      <c r="O137" s="101"/>
+      <c r="B137" s="191"/>
+      <c r="C137" s="192"/>
+      <c r="D137" s="192"/>
+      <c r="E137" s="192"/>
+      <c r="F137" s="192"/>
+      <c r="G137" s="192"/>
+      <c r="H137" s="192"/>
+      <c r="I137" s="192"/>
+      <c r="J137" s="192"/>
+      <c r="K137" s="192"/>
+      <c r="L137" s="192"/>
+      <c r="M137" s="192"/>
+      <c r="N137" s="192"/>
+      <c r="O137" s="192"/>
       <c r="P137"/>
       <c r="Q137"/>
     </row>
     <row r="138" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B138" s="100"/>
-      <c r="C138" s="101"/>
-      <c r="D138" s="101"/>
-      <c r="E138" s="101"/>
-      <c r="F138" s="101"/>
-      <c r="G138" s="101"/>
-      <c r="H138" s="101"/>
-      <c r="I138" s="101"/>
-      <c r="J138" s="101"/>
-      <c r="K138" s="101"/>
-      <c r="L138" s="101"/>
-      <c r="M138" s="101"/>
-      <c r="N138" s="101"/>
-      <c r="O138" s="101"/>
+      <c r="B138" s="191"/>
+      <c r="C138" s="192"/>
+      <c r="D138" s="192"/>
+      <c r="E138" s="192"/>
+      <c r="F138" s="192"/>
+      <c r="G138" s="192"/>
+      <c r="H138" s="192"/>
+      <c r="I138" s="192"/>
+      <c r="J138" s="192"/>
+      <c r="K138" s="192"/>
+      <c r="L138" s="192"/>
+      <c r="M138" s="192"/>
+      <c r="N138" s="192"/>
+      <c r="O138" s="192"/>
       <c r="P138"/>
       <c r="Q138"/>
     </row>
     <row r="139" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B139" s="100"/>
-      <c r="C139" s="101"/>
-      <c r="D139" s="101"/>
-      <c r="E139" s="101"/>
-      <c r="F139" s="101"/>
-      <c r="G139" s="101"/>
-      <c r="H139" s="101"/>
-      <c r="I139" s="101"/>
-      <c r="J139" s="101"/>
-      <c r="K139" s="101"/>
-      <c r="L139" s="101"/>
-      <c r="M139" s="101"/>
-      <c r="N139" s="101"/>
-      <c r="O139" s="101"/>
+      <c r="B139" s="191"/>
+      <c r="C139" s="192"/>
+      <c r="D139" s="192"/>
+      <c r="E139" s="192"/>
+      <c r="F139" s="192"/>
+      <c r="G139" s="192"/>
+      <c r="H139" s="192"/>
+      <c r="I139" s="192"/>
+      <c r="J139" s="192"/>
+      <c r="K139" s="192"/>
+      <c r="L139" s="192"/>
+      <c r="M139" s="192"/>
+      <c r="N139" s="192"/>
+      <c r="O139" s="192"/>
       <c r="P139"/>
       <c r="Q139"/>
     </row>
     <row r="140" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B140" s="100"/>
-      <c r="C140" s="101"/>
-      <c r="D140" s="101"/>
-      <c r="E140" s="101"/>
-      <c r="F140" s="101"/>
-      <c r="G140" s="101"/>
-      <c r="H140" s="101"/>
-      <c r="I140" s="101"/>
-      <c r="J140" s="101"/>
-      <c r="K140" s="101"/>
-      <c r="L140" s="101"/>
-      <c r="M140" s="101"/>
-      <c r="N140" s="101"/>
-      <c r="O140" s="101"/>
+      <c r="B140" s="191"/>
+      <c r="C140" s="192"/>
+      <c r="D140" s="192"/>
+      <c r="E140" s="192"/>
+      <c r="F140" s="192"/>
+      <c r="G140" s="192"/>
+      <c r="H140" s="192"/>
+      <c r="I140" s="192"/>
+      <c r="J140" s="192"/>
+      <c r="K140" s="192"/>
+      <c r="L140" s="192"/>
+      <c r="M140" s="192"/>
+      <c r="N140" s="192"/>
+      <c r="O140" s="192"/>
       <c r="P140"/>
       <c r="Q140"/>
     </row>
     <row r="141" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B141" s="100"/>
-      <c r="C141" s="101"/>
-      <c r="D141" s="101"/>
-      <c r="E141" s="101"/>
-      <c r="F141" s="101"/>
-      <c r="G141" s="101"/>
-      <c r="H141" s="101"/>
-      <c r="I141" s="101"/>
-      <c r="J141" s="101"/>
-      <c r="K141" s="101"/>
-      <c r="L141" s="101"/>
-      <c r="M141" s="101"/>
-      <c r="N141" s="101"/>
-      <c r="O141" s="101"/>
+      <c r="B141" s="191"/>
+      <c r="C141" s="192"/>
+      <c r="D141" s="192"/>
+      <c r="E141" s="192"/>
+      <c r="F141" s="192"/>
+      <c r="G141" s="192"/>
+      <c r="H141" s="192"/>
+      <c r="I141" s="192"/>
+      <c r="J141" s="192"/>
+      <c r="K141" s="192"/>
+      <c r="L141" s="192"/>
+      <c r="M141" s="192"/>
+      <c r="N141" s="192"/>
+      <c r="O141" s="192"/>
       <c r="P141"/>
       <c r="Q141"/>
     </row>
     <row r="142" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B142" s="100"/>
-      <c r="C142" s="101"/>
-      <c r="D142" s="101"/>
-      <c r="E142" s="101"/>
-      <c r="F142" s="101"/>
-      <c r="G142" s="101"/>
-      <c r="H142" s="101"/>
-      <c r="I142" s="101"/>
-      <c r="J142" s="101"/>
-      <c r="K142" s="101"/>
-      <c r="L142" s="101"/>
-      <c r="M142" s="101"/>
-      <c r="N142" s="101"/>
-      <c r="O142" s="101"/>
+      <c r="B142" s="191"/>
+      <c r="C142" s="192"/>
+      <c r="D142" s="192"/>
+      <c r="E142" s="192"/>
+      <c r="F142" s="192"/>
+      <c r="G142" s="192"/>
+      <c r="H142" s="192"/>
+      <c r="I142" s="192"/>
+      <c r="J142" s="192"/>
+      <c r="K142" s="192"/>
+      <c r="L142" s="192"/>
+      <c r="M142" s="192"/>
+      <c r="N142" s="192"/>
+      <c r="O142" s="192"/>
       <c r="P142"/>
       <c r="Q142"/>
     </row>
     <row r="143" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B143" s="100"/>
-      <c r="C143" s="101"/>
-      <c r="D143" s="101"/>
-      <c r="E143" s="101"/>
-      <c r="F143" s="101"/>
-      <c r="G143" s="101"/>
-      <c r="H143" s="101"/>
-      <c r="I143" s="101"/>
-      <c r="J143" s="101"/>
-      <c r="K143" s="101"/>
-      <c r="L143" s="101"/>
-      <c r="M143" s="101"/>
-      <c r="N143" s="101"/>
-      <c r="O143" s="101"/>
+      <c r="B143" s="191"/>
+      <c r="C143" s="192"/>
+      <c r="D143" s="192"/>
+      <c r="E143" s="192"/>
+      <c r="F143" s="192"/>
+      <c r="G143" s="192"/>
+      <c r="H143" s="192"/>
+      <c r="I143" s="192"/>
+      <c r="J143" s="192"/>
+      <c r="K143" s="192"/>
+      <c r="L143" s="192"/>
+      <c r="M143" s="192"/>
+      <c r="N143" s="192"/>
+      <c r="O143" s="192"/>
       <c r="P143"/>
       <c r="Q143"/>
     </row>
     <row r="144" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B144" s="100"/>
-      <c r="C144" s="101"/>
-      <c r="D144" s="101"/>
-      <c r="E144" s="101"/>
-      <c r="F144" s="101"/>
-      <c r="G144" s="101"/>
-      <c r="H144" s="101"/>
-      <c r="I144" s="101"/>
-      <c r="J144" s="101"/>
-      <c r="K144" s="101"/>
-      <c r="L144" s="101"/>
-      <c r="M144" s="101"/>
-      <c r="N144" s="101"/>
-      <c r="O144" s="101"/>
+      <c r="B144" s="191"/>
+      <c r="C144" s="192"/>
+      <c r="D144" s="192"/>
+      <c r="E144" s="192"/>
+      <c r="F144" s="192"/>
+      <c r="G144" s="192"/>
+      <c r="H144" s="192"/>
+      <c r="I144" s="192"/>
+      <c r="J144" s="192"/>
+      <c r="K144" s="192"/>
+      <c r="L144" s="192"/>
+      <c r="M144" s="192"/>
+      <c r="N144" s="192"/>
+      <c r="O144" s="192"/>
       <c r="P144"/>
       <c r="Q144"/>
     </row>
     <row r="145" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B145" s="100"/>
-      <c r="C145" s="101"/>
-      <c r="D145" s="101"/>
-      <c r="E145" s="101"/>
-      <c r="F145" s="101"/>
-      <c r="G145" s="101"/>
-      <c r="H145" s="101"/>
-      <c r="I145" s="101"/>
-      <c r="J145" s="101"/>
-      <c r="K145" s="101"/>
-      <c r="L145" s="101"/>
-      <c r="M145" s="101"/>
-      <c r="N145" s="101"/>
-      <c r="O145" s="101"/>
+      <c r="B145" s="191"/>
+      <c r="C145" s="192"/>
+      <c r="D145" s="192"/>
+      <c r="E145" s="192"/>
+      <c r="F145" s="192"/>
+      <c r="G145" s="192"/>
+      <c r="H145" s="192"/>
+      <c r="I145" s="192"/>
+      <c r="J145" s="192"/>
+      <c r="K145" s="192"/>
+      <c r="L145" s="192"/>
+      <c r="M145" s="192"/>
+      <c r="N145" s="192"/>
+      <c r="O145" s="192"/>
       <c r="P145"/>
       <c r="Q145"/>
     </row>
     <row r="146" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B146" s="100"/>
-      <c r="C146" s="101"/>
-      <c r="D146" s="101"/>
-      <c r="E146" s="101"/>
-      <c r="F146" s="101"/>
-      <c r="G146" s="101"/>
-      <c r="H146" s="101"/>
-      <c r="I146" s="101"/>
-      <c r="J146" s="101"/>
-      <c r="K146" s="101"/>
-      <c r="L146" s="101"/>
-      <c r="M146" s="101"/>
-      <c r="N146" s="101"/>
-      <c r="O146" s="101"/>
+      <c r="B146" s="191"/>
+      <c r="C146" s="192"/>
+      <c r="D146" s="192"/>
+      <c r="E146" s="192"/>
+      <c r="F146" s="192"/>
+      <c r="G146" s="192"/>
+      <c r="H146" s="192"/>
+      <c r="I146" s="192"/>
+      <c r="J146" s="192"/>
+      <c r="K146" s="192"/>
+      <c r="L146" s="192"/>
+      <c r="M146" s="192"/>
+      <c r="N146" s="192"/>
+      <c r="O146" s="192"/>
       <c r="P146"/>
       <c r="Q146"/>
     </row>
     <row r="147" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B147" s="100"/>
-      <c r="C147" s="101"/>
-      <c r="D147" s="101"/>
-      <c r="E147" s="101"/>
-      <c r="F147" s="101"/>
-      <c r="G147" s="101"/>
-      <c r="H147" s="101"/>
-      <c r="I147" s="101"/>
-      <c r="J147" s="101"/>
-      <c r="K147" s="101"/>
-      <c r="L147" s="101"/>
-      <c r="M147" s="101"/>
-      <c r="N147" s="101"/>
-      <c r="O147" s="101"/>
+      <c r="B147" s="191"/>
+      <c r="C147" s="192"/>
+      <c r="D147" s="192"/>
+      <c r="E147" s="192"/>
+      <c r="F147" s="192"/>
+      <c r="G147" s="192"/>
+      <c r="H147" s="192"/>
+      <c r="I147" s="192"/>
+      <c r="J147" s="192"/>
+      <c r="K147" s="192"/>
+      <c r="L147" s="192"/>
+      <c r="M147" s="192"/>
+      <c r="N147" s="192"/>
+      <c r="O147" s="192"/>
       <c r="P147"/>
       <c r="Q147"/>
     </row>
     <row r="148" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B148" s="100"/>
-      <c r="C148" s="101"/>
-      <c r="D148" s="101"/>
-      <c r="E148" s="101"/>
-      <c r="F148" s="101"/>
-      <c r="G148" s="101"/>
-      <c r="H148" s="101"/>
-      <c r="I148" s="101"/>
-      <c r="J148" s="101"/>
-      <c r="K148" s="101"/>
-      <c r="L148" s="101"/>
-      <c r="M148" s="101"/>
-      <c r="N148" s="101"/>
-      <c r="O148" s="101"/>
+      <c r="B148" s="191"/>
+      <c r="C148" s="192"/>
+      <c r="D148" s="192"/>
+      <c r="E148" s="192"/>
+      <c r="F148" s="192"/>
+      <c r="G148" s="192"/>
+      <c r="H148" s="192"/>
+      <c r="I148" s="192"/>
+      <c r="J148" s="192"/>
+      <c r="K148" s="192"/>
+      <c r="L148" s="192"/>
+      <c r="M148" s="192"/>
+      <c r="N148" s="192"/>
+      <c r="O148" s="192"/>
       <c r="P148"/>
       <c r="Q148"/>
     </row>
     <row r="149" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B149" s="100"/>
-      <c r="C149" s="101"/>
-      <c r="D149" s="101"/>
-      <c r="E149" s="101"/>
-      <c r="F149" s="101"/>
-      <c r="G149" s="101"/>
-      <c r="H149" s="101"/>
-      <c r="I149" s="101"/>
-      <c r="J149" s="101"/>
-      <c r="K149" s="101"/>
-      <c r="L149" s="101"/>
-      <c r="M149" s="101"/>
-      <c r="N149" s="101"/>
-      <c r="O149" s="101"/>
+      <c r="B149" s="191"/>
+      <c r="C149" s="192"/>
+      <c r="D149" s="192"/>
+      <c r="E149" s="192"/>
+      <c r="F149" s="192"/>
+      <c r="G149" s="192"/>
+      <c r="H149" s="192"/>
+      <c r="I149" s="192"/>
+      <c r="J149" s="192"/>
+      <c r="K149" s="192"/>
+      <c r="L149" s="192"/>
+      <c r="M149" s="192"/>
+      <c r="N149" s="192"/>
+      <c r="O149" s="192"/>
       <c r="P149"/>
       <c r="Q149"/>
     </row>
     <row r="150" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B150" s="100"/>
-      <c r="C150" s="101"/>
-      <c r="D150" s="101"/>
-      <c r="E150" s="101"/>
-      <c r="F150" s="101"/>
-      <c r="G150" s="101"/>
-      <c r="H150" s="101"/>
-      <c r="I150" s="101"/>
-      <c r="J150" s="101"/>
-      <c r="K150" s="101"/>
-      <c r="L150" s="101"/>
-      <c r="M150" s="101"/>
-      <c r="N150" s="101"/>
-      <c r="O150" s="101"/>
+      <c r="B150" s="191"/>
+      <c r="C150" s="192"/>
+      <c r="D150" s="192"/>
+      <c r="E150" s="192"/>
+      <c r="F150" s="192"/>
+      <c r="G150" s="192"/>
+      <c r="H150" s="192"/>
+      <c r="I150" s="192"/>
+      <c r="J150" s="192"/>
+      <c r="K150" s="192"/>
+      <c r="L150" s="192"/>
+      <c r="M150" s="192"/>
+      <c r="N150" s="192"/>
+      <c r="O150" s="192"/>
       <c r="P150"/>
       <c r="Q150"/>
     </row>
     <row r="151" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B151" s="100"/>
-      <c r="C151" s="101"/>
-      <c r="D151" s="101"/>
-      <c r="E151" s="101"/>
-      <c r="F151" s="101"/>
-      <c r="G151" s="101"/>
-      <c r="H151" s="101"/>
-      <c r="I151" s="101"/>
-      <c r="J151" s="101"/>
-      <c r="K151" s="101"/>
-      <c r="L151" s="101"/>
-      <c r="M151" s="101"/>
-      <c r="N151" s="101"/>
-      <c r="O151" s="101"/>
+      <c r="B151" s="191"/>
+      <c r="C151" s="192"/>
+      <c r="D151" s="192"/>
+      <c r="E151" s="192"/>
+      <c r="F151" s="192"/>
+      <c r="G151" s="192"/>
+      <c r="H151" s="192"/>
+      <c r="I151" s="192"/>
+      <c r="J151" s="192"/>
+      <c r="K151" s="192"/>
+      <c r="L151" s="192"/>
+      <c r="M151" s="192"/>
+      <c r="N151" s="192"/>
+      <c r="O151" s="192"/>
       <c r="P151"/>
       <c r="Q151"/>
     </row>
     <row r="152" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B152" s="140" t="s">
+      <c r="B152" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="C152" s="140"/>
-      <c r="D152" s="140"/>
-      <c r="E152" s="140"/>
-      <c r="F152" s="140"/>
-      <c r="G152" s="140"/>
+      <c r="C152" s="190"/>
+      <c r="D152" s="190"/>
+      <c r="E152" s="190"/>
+      <c r="F152" s="190"/>
+      <c r="G152" s="190"/>
       <c r="H152"/>
       <c r="I152"/>
       <c r="J152"/>
@@ -7899,22 +7898,22 @@
       <c r="Q152"/>
     </row>
     <row r="153" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B153" s="140"/>
-      <c r="C153" s="140"/>
-      <c r="D153" s="140"/>
-      <c r="E153" s="140"/>
-      <c r="F153" s="140"/>
-      <c r="G153" s="140"/>
+      <c r="B153" s="190"/>
+      <c r="C153" s="190"/>
+      <c r="D153" s="190"/>
+      <c r="E153" s="190"/>
+      <c r="F153" s="190"/>
+      <c r="G153" s="190"/>
       <c r="H153"/>
       <c r="I153"/>
       <c r="J153"/>
       <c r="K153" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L153" s="151"/>
-      <c r="M153" s="151"/>
-      <c r="N153" s="151"/>
-      <c r="O153" s="151"/>
+      <c r="L153" s="201"/>
+      <c r="M153" s="201"/>
+      <c r="N153" s="201"/>
+      <c r="O153" s="201"/>
       <c r="P153"/>
       <c r="Q153"/>
     </row>
@@ -7930,41 +7929,78 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="131">
-    <mergeCell ref="E40:J41"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:G23"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="K24:P25"/>
-    <mergeCell ref="E20:G21"/>
-    <mergeCell ref="B20:D21"/>
-    <mergeCell ref="H20:J21"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:J29"/>
-    <mergeCell ref="K28:P29"/>
-    <mergeCell ref="B34:D35"/>
-    <mergeCell ref="K26:P27"/>
-    <mergeCell ref="K18:P19"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="B18:D19"/>
-    <mergeCell ref="E18:G19"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="A16:P16"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="B129:O151"/>
+    <mergeCell ref="M74:P77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:J70"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="K30:P31"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="K22:P23"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:I62"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="K69:P69"/>
+    <mergeCell ref="K70:P70"/>
+    <mergeCell ref="K42:O43"/>
+    <mergeCell ref="K44:O45"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B152:G153"/>
+    <mergeCell ref="B79:O101"/>
+    <mergeCell ref="B103:J103"/>
+    <mergeCell ref="E38:J39"/>
+    <mergeCell ref="B40:D41"/>
+    <mergeCell ref="E46:G47"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:J68"/>
+    <mergeCell ref="B104:O126"/>
+    <mergeCell ref="L153:O153"/>
+    <mergeCell ref="J49:P49"/>
+    <mergeCell ref="J50:P50"/>
+    <mergeCell ref="B44:D45"/>
+    <mergeCell ref="E44:J45"/>
+    <mergeCell ref="B78:K78"/>
+    <mergeCell ref="J55:P55"/>
+    <mergeCell ref="B128:J128"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="B74:L77"/>
+    <mergeCell ref="B38:D39"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B42:D43"/>
+    <mergeCell ref="E42:J43"/>
+    <mergeCell ref="J51:P51"/>
+    <mergeCell ref="J52:P52"/>
+    <mergeCell ref="J54:P54"/>
+    <mergeCell ref="J53:P53"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="H18:J19"/>
+    <mergeCell ref="K20:P21"/>
     <mergeCell ref="Q33:U34"/>
     <mergeCell ref="Q23:U24"/>
     <mergeCell ref="E34:J35"/>
@@ -7989,78 +8025,41 @@
     <mergeCell ref="B50:I59"/>
     <mergeCell ref="J58:P58"/>
     <mergeCell ref="K36:O37"/>
-    <mergeCell ref="J51:P51"/>
-    <mergeCell ref="J52:P52"/>
-    <mergeCell ref="J54:P54"/>
-    <mergeCell ref="J53:P53"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="H18:J19"/>
-    <mergeCell ref="K20:P21"/>
-    <mergeCell ref="B152:G153"/>
-    <mergeCell ref="B79:O101"/>
-    <mergeCell ref="B103:J103"/>
-    <mergeCell ref="E38:J39"/>
-    <mergeCell ref="B40:D41"/>
-    <mergeCell ref="E46:G47"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:J68"/>
-    <mergeCell ref="B104:O126"/>
-    <mergeCell ref="L153:O153"/>
-    <mergeCell ref="J49:P49"/>
-    <mergeCell ref="J50:P50"/>
-    <mergeCell ref="B44:D45"/>
-    <mergeCell ref="E44:J45"/>
-    <mergeCell ref="B78:K78"/>
-    <mergeCell ref="J55:P55"/>
-    <mergeCell ref="B128:J128"/>
-    <mergeCell ref="E64:I64"/>
-    <mergeCell ref="B74:L77"/>
-    <mergeCell ref="B38:D39"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B42:D43"/>
-    <mergeCell ref="E42:J43"/>
-    <mergeCell ref="B129:O151"/>
-    <mergeCell ref="M74:P77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:J70"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="K30:P31"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="K22:P23"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="E61:I61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="E62:I62"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="K69:P69"/>
-    <mergeCell ref="K70:P70"/>
-    <mergeCell ref="K42:O43"/>
-    <mergeCell ref="K44:O45"/>
-    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="K18:P19"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="B18:D19"/>
+    <mergeCell ref="E18:G19"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="E40:J41"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:G23"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="K24:P25"/>
+    <mergeCell ref="E20:G21"/>
+    <mergeCell ref="B20:D21"/>
+    <mergeCell ref="H20:J21"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:J29"/>
+    <mergeCell ref="K28:P29"/>
+    <mergeCell ref="B34:D35"/>
+    <mergeCell ref="K26:P27"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K30:P31" xr:uid="{99C4485F-6818-4D5E-BAE9-AF169F6FC5D2}">
@@ -8091,20 +8090,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74EA07F-BABF-4AE2-AC4D-C5A11865B328}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4B0687-7559-4E00-8A35-280344DCE62A}">
   <dimension ref="A1:A37"/>
   <sheetViews>
@@ -8309,7 +8294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594E38C3-1A47-4E52-902B-865A1A3BC0A6}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -8425,7 +8410,7 @@
       <c r="A7" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="101"/>
+      <c r="B7" s="192"/>
       <c r="C7" s="222"/>
       <c r="D7" s="222"/>
       <c r="E7" s="222"/>

--- a/Reports/SKI_C_CVT.xlsx
+++ b/Reports/SKI_C_CVT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29115"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\library\git_hub\MpiSki\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5936065-D4FF-4CBC-A902-CA957B2FFB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7189C61B-3759-483B-A7DE-84EBA50CBCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="157">
   <si>
     <t xml:space="preserve">Акт (расширенный отчет) о проведении диагностики клапана  </t>
   </si>
@@ -949,7 +949,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1485,11 +1485,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -1611,6 +1637,138 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1629,136 +1787,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="27" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1767,14 +1802,323 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1821,328 +2165,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2452,8 +2490,8 @@
   </sheetPr>
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2461,10 +2499,13 @@
     <col min="1" max="1" width="14.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="11" width="9" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="1" customWidth="1"/>
-    <col min="13" max="16" width="9" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" style="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="1" customWidth="1"/>
+    <col min="14" max="16" width="9" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" style="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="19" max="20" width="9" style="1" customWidth="1"/>
     <col min="21" max="21" width="36.7109375" style="1" customWidth="1"/>
@@ -2473,116 +2514,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88" t="str">
+      <c r="M1" s="46"/>
+      <c r="N1" s="46" t="str">
         <f>IF(D6="","",D6)</f>
         <v/>
       </c>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
     </row>
     <row r="2" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="I3" s="89" t="s">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+      <c r="I3" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="91"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="58"/>
     </row>
     <row r="4" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="85"/>
-      <c r="I4" s="78" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="48"/>
+      <c r="I4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="81" t="str">
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53" t="str">
         <f>REPT($I$1,1)</f>
         <v/>
       </c>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="83"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="55"/>
     </row>
     <row r="5" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="85"/>
-      <c r="I5" s="78" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="48"/>
+      <c r="I5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81" t="s">
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="83"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="55"/>
     </row>
     <row r="6" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="85"/>
-      <c r="I6" s="78" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="48"/>
+      <c r="I6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="81" t="s">
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="83"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="55"/>
     </row>
     <row r="7" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
@@ -2591,28 +2632,28 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="I7" s="78" t="s">
+      <c r="I7" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="83"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="55"/>
     </row>
     <row r="8" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="83"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="55"/>
     </row>
     <row r="9" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="37"/>
@@ -2621,18 +2662,18 @@
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
-      <c r="I9" s="78" t="s">
+      <c r="I9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="81" t="s">
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="83"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="55"/>
     </row>
     <row r="10" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="37"/>
@@ -2641,18 +2682,18 @@
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
-      <c r="I10" s="78" t="s">
+      <c r="I10" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="81" t="s">
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="83"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="55"/>
     </row>
     <row r="11" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="37"/>
@@ -2661,16 +2702,16 @@
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
-      <c r="I11" s="78" t="s">
+      <c r="I11" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="83"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="55"/>
     </row>
     <row r="12" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
@@ -2679,18 +2720,18 @@
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
-      <c r="I12" s="78" t="s">
+      <c r="I12" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81" t="s">
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="83"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="55"/>
     </row>
     <row r="13" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
@@ -2699,16 +2740,16 @@
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
-      <c r="I13" s="78" t="s">
+      <c r="I13" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="83"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="55"/>
     </row>
     <row r="14" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
@@ -2717,16 +2758,16 @@
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
-      <c r="I14" s="78" t="s">
+      <c r="I14" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="83"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="55"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
@@ -2737,281 +2778,281 @@
       <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="75"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
     </row>
     <row r="19" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="76" t="s">
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
     </row>
     <row r="20" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
     </row>
     <row r="21" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="76" t="s">
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
     </row>
     <row r="22" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
     </row>
     <row r="23" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
     </row>
     <row r="24" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="65"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
     </row>
     <row r="25" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="73" t="s">
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="74"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
     </row>
     <row r="26" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="70"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="74"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
     </row>
     <row r="27" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
     </row>
     <row r="28" spans="1:17" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="70"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
     </row>
     <row r="29" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="53"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
     </row>
     <row r="30" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="56"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
     </row>
     <row r="31" spans="1:17" ht="57.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="9"/>
@@ -3020,434 +3061,438 @@
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="62" t="s">
+      <c r="H31" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62" t="s">
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-    </row>
-    <row r="32" spans="1:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
+    </row>
+    <row r="32" spans="1:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29"/>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="64" t="s">
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64" t="s">
+      <c r="I32" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="J32" s="86" t="s">
         <v>155</v>
       </c>
-      <c r="K32" s="64"/>
+      <c r="K32" s="86"/>
       <c r="L32" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="M32" s="64" t="s">
+      <c r="M32" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64" t="s">
+      <c r="N32" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="O32" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="P32" s="64"/>
+      <c r="P32" s="86"/>
       <c r="Q32" s="30" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="51"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="223"/>
+      <c r="I33" s="223"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="223"/>
+      <c r="N33" s="223"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="87"/>
     </row>
     <row r="34" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="224"/>
+      <c r="I34" s="224"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="224"/>
+      <c r="N34" s="224"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
     </row>
     <row r="35" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="88" t="s">
         <v>131</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="223"/>
+      <c r="I35" s="223"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="223"/>
+      <c r="N35" s="223"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="87"/>
     </row>
     <row r="36" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="224"/>
+      <c r="I36" s="224"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="224"/>
+      <c r="N36" s="224"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
     </row>
     <row r="37" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="51"/>
-      <c r="Q37" s="51"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="223"/>
+      <c r="I37" s="223"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="223"/>
+      <c r="N37" s="223"/>
+      <c r="O37" s="87"/>
+      <c r="P37" s="87"/>
+      <c r="Q37" s="87"/>
     </row>
     <row r="38" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="51"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="224"/>
+      <c r="I38" s="224"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="224"/>
+      <c r="N38" s="224"/>
+      <c r="O38" s="87"/>
+      <c r="P38" s="87"/>
+      <c r="Q38" s="87"/>
     </row>
     <row r="39" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="223"/>
+      <c r="I39" s="223"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="225"/>
+      <c r="N39" s="223"/>
+      <c r="O39" s="87"/>
+      <c r="P39" s="87"/>
+      <c r="Q39" s="87"/>
     </row>
     <row r="40" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="224"/>
+      <c r="I40" s="224"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="226"/>
+      <c r="N40" s="224"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
+      <c r="Q40" s="87"/>
     </row>
     <row r="41" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="51"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="223"/>
+      <c r="I41" s="223"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="223"/>
+      <c r="N41" s="223"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="87"/>
+      <c r="Q41" s="87"/>
     </row>
     <row r="42" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="51"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="224"/>
+      <c r="I42" s="224"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="224"/>
+      <c r="N42" s="224"/>
+      <c r="O42" s="87"/>
+      <c r="P42" s="87"/>
+      <c r="Q42" s="87"/>
     </row>
     <row r="43" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="51"/>
-      <c r="Q43" s="51"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="223"/>
+      <c r="I43" s="223"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="87"/>
+      <c r="L43" s="87"/>
+      <c r="M43" s="223"/>
+      <c r="N43" s="223"/>
+      <c r="O43" s="87"/>
+      <c r="P43" s="87"/>
+      <c r="Q43" s="87"/>
     </row>
     <row r="44" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="51"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="224"/>
+      <c r="I44" s="224"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="224"/>
+      <c r="N44" s="224"/>
+      <c r="O44" s="87"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="87"/>
     </row>
     <row r="45" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
-      <c r="P45" s="51"/>
-      <c r="Q45" s="51"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="223"/>
+      <c r="I45" s="223"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="87"/>
+      <c r="M45" s="223"/>
+      <c r="N45" s="223"/>
+      <c r="O45" s="87"/>
+      <c r="P45" s="87"/>
+      <c r="Q45" s="87"/>
     </row>
     <row r="46" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="51"/>
-      <c r="O46" s="51"/>
-      <c r="P46" s="51"/>
-      <c r="Q46" s="51"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="224"/>
+      <c r="I46" s="224"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="224"/>
+      <c r="N46" s="224"/>
+      <c r="O46" s="87"/>
+      <c r="P46" s="87"/>
+      <c r="Q46" s="87"/>
     </row>
     <row r="47" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
-      <c r="N47" s="51"/>
-      <c r="O47" s="51"/>
-      <c r="P47" s="51"/>
-      <c r="Q47" s="51"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="223"/>
+      <c r="I47" s="223"/>
+      <c r="J47" s="87"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="223"/>
+      <c r="N47" s="223"/>
+      <c r="O47" s="87"/>
+      <c r="P47" s="87"/>
+      <c r="Q47" s="87"/>
     </row>
     <row r="48" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="51"/>
-      <c r="P48" s="51"/>
-      <c r="Q48" s="51"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="224"/>
+      <c r="I48" s="224"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="224"/>
+      <c r="N48" s="224"/>
+      <c r="O48" s="87"/>
+      <c r="P48" s="87"/>
+      <c r="Q48" s="87"/>
     </row>
     <row r="49" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="51"/>
-      <c r="N49" s="51"/>
-      <c r="O49" s="51"/>
-      <c r="P49" s="51"/>
-      <c r="Q49" s="51"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="223"/>
+      <c r="I49" s="223"/>
+      <c r="J49" s="87"/>
+      <c r="K49" s="87"/>
+      <c r="L49" s="87"/>
+      <c r="M49" s="223"/>
+      <c r="N49" s="223"/>
+      <c r="O49" s="87"/>
+      <c r="P49" s="87"/>
+      <c r="Q49" s="87"/>
     </row>
     <row r="50" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="52"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="51"/>
-      <c r="N50" s="51"/>
-      <c r="O50" s="51"/>
-      <c r="P50" s="51"/>
-      <c r="Q50" s="51"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="224"/>
+      <c r="I50" s="224"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="224"/>
+      <c r="N50" s="224"/>
+      <c r="O50" s="87"/>
+      <c r="P50" s="87"/>
+      <c r="Q50" s="87"/>
     </row>
     <row r="51" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="51"/>
-      <c r="M51" s="51"/>
-      <c r="N51" s="51"/>
-      <c r="O51" s="51"/>
-      <c r="P51" s="51"/>
-      <c r="Q51" s="51"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="223"/>
+      <c r="I51" s="223"/>
+      <c r="J51" s="87"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="87"/>
+      <c r="M51" s="223"/>
+      <c r="N51" s="223"/>
+      <c r="O51" s="87"/>
+      <c r="P51" s="87"/>
+      <c r="Q51" s="87"/>
     </row>
     <row r="52" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="51"/>
-      <c r="M52" s="51"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="51"/>
-      <c r="Q52" s="51"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="88"/>
+      <c r="H52" s="224"/>
+      <c r="I52" s="224"/>
+      <c r="J52" s="87"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="87"/>
+      <c r="M52" s="224"/>
+      <c r="N52" s="224"/>
+      <c r="O52" s="87"/>
+      <c r="P52" s="87"/>
+      <c r="Q52" s="87"/>
     </row>
     <row r="53" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="31"/>
@@ -3503,59 +3548,59 @@
     </row>
     <row r="56" spans="1:17" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="49"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="46"/>
-      <c r="O56" s="46"/>
-      <c r="P56" s="46"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="94"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="94"/>
+      <c r="I56" s="94"/>
+      <c r="J56" s="94"/>
+      <c r="K56" s="90"/>
+      <c r="L56" s="90"/>
+      <c r="M56" s="90"/>
+      <c r="N56" s="90"/>
+      <c r="O56" s="90"/>
+      <c r="P56" s="90"/>
     </row>
     <row r="57" spans="1:17" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="46"/>
-      <c r="N57" s="46"/>
-      <c r="O57" s="46"/>
-      <c r="P57" s="46"/>
+      <c r="B57" s="93"/>
+      <c r="C57" s="93"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="94"/>
+      <c r="F57" s="94"/>
+      <c r="G57" s="94"/>
+      <c r="H57" s="94"/>
+      <c r="I57" s="94"/>
+      <c r="J57" s="94"/>
+      <c r="K57" s="90"/>
+      <c r="L57" s="90"/>
+      <c r="M57" s="90"/>
+      <c r="N57" s="90"/>
+      <c r="O57" s="90"/>
+      <c r="P57" s="90"/>
     </row>
     <row r="58" spans="1:17" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="46"/>
-      <c r="O58" s="46"/>
-      <c r="P58" s="46"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89"/>
+      <c r="G58" s="89"/>
+      <c r="H58" s="89"/>
+      <c r="I58" s="89"/>
+      <c r="J58" s="89"/>
+      <c r="K58" s="90"/>
+      <c r="L58" s="90"/>
+      <c r="M58" s="90"/>
+      <c r="N58" s="90"/>
+      <c r="O58" s="90"/>
+      <c r="P58" s="90"/>
     </row>
     <row r="59" spans="1:17" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
@@ -3589,22 +3634,22 @@
       <c r="K60" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="47"/>
+      <c r="L60" s="91"/>
+      <c r="M60" s="91"/>
+      <c r="N60" s="91"/>
       <c r="O60" s="34"/>
       <c r="P60" s="7"/>
     </row>
     <row r="61" spans="1:17" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="92"/>
+      <c r="G61" s="92"/>
       <c r="H61" s="24"/>
       <c r="I61" s="24"/>
       <c r="J61" s="24"/>
@@ -3617,27 +3662,126 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="136">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:P5"/>
+  <mergeCells count="153">
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:J58"/>
+    <mergeCell ref="K58:P58"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="K56:P56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="K57:P57"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="B51:G52"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="O51:P52"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="B49:G50"/>
+    <mergeCell ref="J49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="O49:P50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="B47:G48"/>
+    <mergeCell ref="J47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="O47:P48"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="B45:G46"/>
+    <mergeCell ref="J45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="O45:P46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="B43:G44"/>
+    <mergeCell ref="J43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="O43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="B41:G42"/>
+    <mergeCell ref="J41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="O41:P42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="B39:G40"/>
+    <mergeCell ref="J39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="O39:P40"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="B37:G38"/>
+    <mergeCell ref="J37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="O37:P38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="B35:G36"/>
+    <mergeCell ref="J35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="O35:P36"/>
+    <mergeCell ref="Q35:Q36"/>
+    <mergeCell ref="B33:G34"/>
+    <mergeCell ref="J33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="O33:P34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="B29:D30"/>
+    <mergeCell ref="E29:J30"/>
+    <mergeCell ref="K29:O30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="M31:Q31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="B23:G24"/>
+    <mergeCell ref="H23:P24"/>
+    <mergeCell ref="B25:G26"/>
+    <mergeCell ref="H25:P26"/>
+    <mergeCell ref="B27:G28"/>
+    <mergeCell ref="H27:P28"/>
+    <mergeCell ref="A16:Q18"/>
+    <mergeCell ref="B19:G20"/>
+    <mergeCell ref="H19:P20"/>
+    <mergeCell ref="B21:G22"/>
+    <mergeCell ref="H21:P22"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="M8:P8"/>
     <mergeCell ref="I9:L9"/>
@@ -3652,111 +3796,29 @@
     <mergeCell ref="M11:P11"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="M12:P12"/>
-    <mergeCell ref="B23:G24"/>
-    <mergeCell ref="H23:P24"/>
-    <mergeCell ref="B25:G26"/>
-    <mergeCell ref="H25:P26"/>
-    <mergeCell ref="B27:G28"/>
-    <mergeCell ref="H27:P28"/>
-    <mergeCell ref="A16:Q18"/>
-    <mergeCell ref="B19:G20"/>
-    <mergeCell ref="H19:P20"/>
-    <mergeCell ref="B21:G22"/>
-    <mergeCell ref="H21:P22"/>
-    <mergeCell ref="B29:D30"/>
-    <mergeCell ref="E29:J30"/>
-    <mergeCell ref="K29:O30"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="M31:Q31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="B35:G36"/>
-    <mergeCell ref="H35:I36"/>
-    <mergeCell ref="J35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:N36"/>
-    <mergeCell ref="O35:P36"/>
-    <mergeCell ref="Q35:Q36"/>
-    <mergeCell ref="B33:G34"/>
-    <mergeCell ref="H33:I34"/>
-    <mergeCell ref="J33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:N34"/>
-    <mergeCell ref="O33:P34"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="B39:G40"/>
-    <mergeCell ref="H39:I40"/>
-    <mergeCell ref="J39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:N40"/>
-    <mergeCell ref="O39:P40"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="B37:G38"/>
-    <mergeCell ref="H37:I38"/>
-    <mergeCell ref="J37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="O37:P38"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="B43:G44"/>
-    <mergeCell ref="H43:I44"/>
-    <mergeCell ref="J43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:N44"/>
-    <mergeCell ref="O43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="B41:G42"/>
-    <mergeCell ref="H41:I42"/>
-    <mergeCell ref="J41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="O41:P42"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="B47:G48"/>
-    <mergeCell ref="H47:I48"/>
-    <mergeCell ref="J47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:N48"/>
-    <mergeCell ref="O47:P48"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="B45:G46"/>
-    <mergeCell ref="H45:I46"/>
-    <mergeCell ref="J45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:N46"/>
-    <mergeCell ref="O45:P46"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="B51:G52"/>
-    <mergeCell ref="H51:I52"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:N52"/>
-    <mergeCell ref="O51:P52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="B49:G50"/>
-    <mergeCell ref="H49:I50"/>
-    <mergeCell ref="J49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:N50"/>
-    <mergeCell ref="O49:P50"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:J58"/>
-    <mergeCell ref="K58:P58"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="K56:P56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="K57:P57"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="B3:G3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="1.4960629921259843" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="17" max="60" man="1"/>
   </colBreaks>
@@ -3779,28 +3841,28 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88" t="str">
+      <c r="M1" s="46"/>
+      <c r="N1" s="46" t="str">
         <f>IF(D6="","",D6)</f>
         <v/>
       </c>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -3824,101 +3886,101 @@
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="99"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="97"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="89" t="s">
+      <c r="I3" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="91"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="58"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="78" t="s">
+      <c r="I4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="81" t="str">
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53" t="str">
         <f>REPT($I$1,1)</f>
         <v/>
       </c>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="83"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="55"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="80"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="78" t="s">
+      <c r="I5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81" t="s">
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="83"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="55"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="80"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="81" t="s">
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="83"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="55"/>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3930,16 +3992,16 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="78" t="s">
+      <c r="I7" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="83"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="55"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3951,16 +4013,16 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="83"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="55"/>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3972,18 +4034,18 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="78" t="s">
+      <c r="I9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="81" t="s">
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="83"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="55"/>
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3995,18 +4057,18 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="78" t="s">
+      <c r="I10" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="81" t="s">
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="83"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="55"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4018,16 +4080,16 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="78" t="s">
+      <c r="I11" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="83"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="55"/>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4039,18 +4101,18 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="78" t="s">
+      <c r="I12" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="81" t="s">
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="83"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="55"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4062,16 +4124,16 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="78" t="s">
+      <c r="I13" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="83"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="55"/>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4083,16 +4145,16 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="78" t="s">
+      <c r="I14" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="83"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="55"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4116,593 +4178,593 @@
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="95"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="98"/>
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="95"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="98"/>
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="98"/>
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="95"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="98"/>
+      <c r="M31" s="98"/>
+      <c r="N31" s="98"/>
+      <c r="O31" s="98"/>
+      <c r="P31" s="98"/>
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="98"/>
+      <c r="M32" s="98"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="98"/>
+      <c r="P32" s="98"/>
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="98"/>
+      <c r="P33" s="98"/>
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="98"/>
+      <c r="M34" s="98"/>
+      <c r="N34" s="98"/>
+      <c r="O34" s="98"/>
+      <c r="P34" s="98"/>
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="95"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="98"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="98"/>
+      <c r="P35" s="98"/>
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="95"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="95"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="98"/>
+      <c r="M36" s="98"/>
+      <c r="N36" s="98"/>
+      <c r="O36" s="98"/>
+      <c r="P36" s="98"/>
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="95"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="95"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="98"/>
+      <c r="M37" s="98"/>
+      <c r="N37" s="98"/>
+      <c r="O37" s="98"/>
+      <c r="P37" s="98"/>
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="95"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="95"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="95"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="98"/>
+      <c r="N38" s="98"/>
+      <c r="O38" s="98"/>
+      <c r="P38" s="98"/>
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="95"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="95"/>
-      <c r="O39" s="95"/>
-      <c r="P39" s="95"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="98"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="98"/>
+      <c r="L39" s="98"/>
+      <c r="M39" s="98"/>
+      <c r="N39" s="98"/>
+      <c r="O39" s="98"/>
+      <c r="P39" s="98"/>
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="95"/>
-      <c r="H40" s="95"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="95"/>
-      <c r="N40" s="95"/>
-      <c r="O40" s="95"/>
-      <c r="P40" s="95"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="98"/>
+      <c r="J40" s="98"/>
+      <c r="K40" s="98"/>
+      <c r="L40" s="98"/>
+      <c r="M40" s="98"/>
+      <c r="N40" s="98"/>
+      <c r="O40" s="98"/>
+      <c r="P40" s="98"/>
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="95"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="95"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="95"/>
-      <c r="L41" s="95"/>
-      <c r="M41" s="95"/>
-      <c r="N41" s="95"/>
-      <c r="O41" s="95"/>
-      <c r="P41" s="95"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="98"/>
+      <c r="I41" s="98"/>
+      <c r="J41" s="98"/>
+      <c r="K41" s="98"/>
+      <c r="L41" s="98"/>
+      <c r="M41" s="98"/>
+      <c r="N41" s="98"/>
+      <c r="O41" s="98"/>
+      <c r="P41" s="98"/>
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="95"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="95"/>
-      <c r="O42" s="95"/>
-      <c r="P42" s="95"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="98"/>
+      <c r="K42" s="98"/>
+      <c r="L42" s="98"/>
+      <c r="M42" s="98"/>
+      <c r="N42" s="98"/>
+      <c r="O42" s="98"/>
+      <c r="P42" s="98"/>
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="95"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="95"/>
-      <c r="N43" s="95"/>
-      <c r="O43" s="95"/>
-      <c r="P43" s="95"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="98"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="98"/>
+      <c r="K43" s="98"/>
+      <c r="L43" s="98"/>
+      <c r="M43" s="98"/>
+      <c r="N43" s="98"/>
+      <c r="O43" s="98"/>
+      <c r="P43" s="98"/>
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="95"/>
-      <c r="N44" s="95"/>
-      <c r="O44" s="95"/>
-      <c r="P44" s="95"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="98"/>
+      <c r="N44" s="98"/>
+      <c r="O44" s="98"/>
+      <c r="P44" s="98"/>
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="95"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="95"/>
-      <c r="K45" s="95"/>
-      <c r="L45" s="95"/>
-      <c r="M45" s="95"/>
-      <c r="N45" s="95"/>
-      <c r="O45" s="95"/>
-      <c r="P45" s="95"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="98"/>
+      <c r="I45" s="98"/>
+      <c r="J45" s="98"/>
+      <c r="K45" s="98"/>
+      <c r="L45" s="98"/>
+      <c r="M45" s="98"/>
+      <c r="N45" s="98"/>
+      <c r="O45" s="98"/>
+      <c r="P45" s="98"/>
       <c r="Q45" s="1"/>
     </row>
     <row r="46" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="95"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="95"/>
-      <c r="K46" s="95"/>
-      <c r="L46" s="95"/>
-      <c r="M46" s="95"/>
-      <c r="N46" s="95"/>
-      <c r="O46" s="95"/>
-      <c r="P46" s="95"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="98"/>
+      <c r="I46" s="98"/>
+      <c r="J46" s="98"/>
+      <c r="K46" s="98"/>
+      <c r="L46" s="98"/>
+      <c r="M46" s="98"/>
+      <c r="N46" s="98"/>
+      <c r="O46" s="98"/>
+      <c r="P46" s="98"/>
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4763,63 +4825,63 @@
       <c r="Q49" s="1"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="75" t="s">
+      <c r="A50" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="B50" s="75"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="75"/>
-      <c r="K50" s="75"/>
-      <c r="L50" s="75"/>
-      <c r="M50" s="75"/>
-      <c r="N50" s="75"/>
-      <c r="O50" s="75"/>
-      <c r="P50" s="75"/>
-      <c r="Q50" s="75"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="72"/>
+      <c r="N50" s="72"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="72"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="75"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="75"/>
-      <c r="N51" s="75"/>
-      <c r="O51" s="75"/>
-      <c r="P51" s="75"/>
-      <c r="Q51" s="75"/>
+      <c r="A51" s="72"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="72"/>
+      <c r="O51" s="72"/>
+      <c r="P51" s="72"/>
+      <c r="Q51" s="72"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="75"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="75"/>
-      <c r="L52" s="75"/>
-      <c r="M52" s="75"/>
-      <c r="N52" s="75"/>
-      <c r="O52" s="75"/>
-      <c r="P52" s="75"/>
-      <c r="Q52" s="75"/>
+      <c r="A52" s="72"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="72"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:17" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5010,40 +5072,14 @@
       <c r="K76" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="L76" s="47"/>
-      <c r="M76" s="47"/>
-      <c r="N76" s="47"/>
+      <c r="L76" s="91"/>
+      <c r="M76" s="91"/>
+      <c r="N76" s="91"/>
       <c r="O76" s="34"/>
       <c r="P76" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="M10:P10"/>
     <mergeCell ref="L76:N76"/>
     <mergeCell ref="A50:Q52"/>
     <mergeCell ref="I14:L14"/>
@@ -5056,6 +5092,32 @@
     <mergeCell ref="M13:P13"/>
     <mergeCell ref="B18:P46"/>
     <mergeCell ref="B16:P17"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
@@ -5085,28 +5147,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="188" t="s">
+      <c r="B1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185" t="s">
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185" t="str">
+      <c r="M1" s="164"/>
+      <c r="N1" s="164" t="str">
         <f>IF(D6="","",D6)</f>
         <v/>
       </c>
-      <c r="O1" s="185"/>
-      <c r="P1" s="185"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="25"/>
@@ -5126,95 +5188,95 @@
       <c r="P2" s="25"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="186" t="s">
+      <c r="B3" s="165" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="187"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="166"/>
       <c r="H3" s="25"/>
-      <c r="I3" s="186" t="s">
+      <c r="I3" s="165" t="s">
         <v>141</v>
       </c>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="187"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="166"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="186" t="s">
+      <c r="B4" s="165" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="187"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="189"/>
-      <c r="G4" s="187"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="166"/>
       <c r="H4" s="25"/>
-      <c r="I4" s="140" t="s">
+      <c r="I4" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="141" t="str">
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="169" t="str">
         <f>REPT($I$1,1)</f>
         <v/>
       </c>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
-      <c r="P4" s="143"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
+      <c r="P4" s="171"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="186" t="s">
+      <c r="B5" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="187"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189"/>
-      <c r="G5" s="187"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="166"/>
       <c r="H5" s="25"/>
-      <c r="I5" s="140" t="s">
+      <c r="I5" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="141" t="s">
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="142"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="143"/>
+      <c r="N5" s="170"/>
+      <c r="O5" s="170"/>
+      <c r="P5" s="171"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="165" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="187"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="187"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="166"/>
       <c r="H6" s="25"/>
-      <c r="I6" s="140" t="s">
+      <c r="I6" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="141" t="s">
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="142"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="143"/>
+      <c r="N6" s="170"/>
+      <c r="O6" s="170"/>
+      <c r="P6" s="171"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
@@ -5224,16 +5286,16 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="25"/>
-      <c r="I7" s="140" t="s">
+      <c r="I7" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="142"/>
-      <c r="P7" s="143"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="170"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="171"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="25"/>
@@ -5243,16 +5305,16 @@
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
-      <c r="I8" s="140" t="s">
+      <c r="I8" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="140"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="142"/>
-      <c r="O8" s="142"/>
-      <c r="P8" s="143"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="169"/>
+      <c r="N8" s="170"/>
+      <c r="O8" s="170"/>
+      <c r="P8" s="171"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
@@ -5262,18 +5324,18 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="140" t="s">
+      <c r="I9" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="140"/>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="141" t="s">
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="142"/>
-      <c r="O9" s="142"/>
-      <c r="P9" s="143"/>
+      <c r="N9" s="170"/>
+      <c r="O9" s="170"/>
+      <c r="P9" s="171"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
@@ -5289,12 +5351,12 @@
       <c r="J10" s="125"/>
       <c r="K10" s="125"/>
       <c r="L10" s="125"/>
-      <c r="M10" s="141" t="s">
+      <c r="M10" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="142"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="143"/>
+      <c r="N10" s="170"/>
+      <c r="O10" s="170"/>
+      <c r="P10" s="171"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
@@ -5310,10 +5372,10 @@
       <c r="J11" s="125"/>
       <c r="K11" s="125"/>
       <c r="L11" s="125"/>
-      <c r="M11" s="144"/>
-      <c r="N11" s="145"/>
-      <c r="O11" s="145"/>
-      <c r="P11" s="146"/>
+      <c r="M11" s="202"/>
+      <c r="N11" s="203"/>
+      <c r="O11" s="203"/>
+      <c r="P11" s="204"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
@@ -5329,12 +5391,12 @@
       <c r="J12" s="125"/>
       <c r="K12" s="125"/>
       <c r="L12" s="125"/>
-      <c r="M12" s="144" t="s">
+      <c r="M12" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="145"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="146"/>
+      <c r="N12" s="203"/>
+      <c r="O12" s="203"/>
+      <c r="P12" s="204"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
@@ -5350,10 +5412,10 @@
       <c r="J13" s="125"/>
       <c r="K13" s="125"/>
       <c r="L13" s="125"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="145"/>
-      <c r="O13" s="145"/>
-      <c r="P13" s="146"/>
+      <c r="M13" s="202"/>
+      <c r="N13" s="203"/>
+      <c r="O13" s="203"/>
+      <c r="P13" s="204"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
@@ -5363,16 +5425,16 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="139" t="s">
+      <c r="I14" s="201" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="139"/>
-      <c r="K14" s="139"/>
-      <c r="L14" s="139"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
-      <c r="P14" s="124"/>
+      <c r="J14" s="201"/>
+      <c r="K14" s="201"/>
+      <c r="L14" s="201"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="110"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
@@ -5391,34 +5453,34 @@
       <c r="Q15" s="36"/>
     </row>
     <row r="16" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A16" s="147" t="s">
+      <c r="A16" s="205" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="147"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="147"/>
-      <c r="M16" s="147"/>
-      <c r="N16" s="147"/>
-      <c r="O16" s="147"/>
-      <c r="P16" s="147"/>
+      <c r="B16" s="205"/>
+      <c r="C16" s="205"/>
+      <c r="D16" s="205"/>
+      <c r="E16" s="205"/>
+      <c r="F16" s="205"/>
+      <c r="G16" s="205"/>
+      <c r="H16" s="205"/>
+      <c r="I16" s="205"/>
+      <c r="J16" s="205"/>
+      <c r="K16" s="205"/>
+      <c r="L16" s="205"/>
+      <c r="M16" s="205"/>
+      <c r="N16" s="205"/>
+      <c r="O16" s="205"/>
+      <c r="P16" s="205"/>
     </row>
     <row r="17" spans="2:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="Q17" s="35"/>
     </row>
     <row r="18" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
       <c r="E18" s="125" t="s">
         <v>118</v>
       </c>
@@ -5429,32 +5491,32 @@
       </c>
       <c r="I18" s="125"/>
       <c r="J18" s="125"/>
-      <c r="K18" s="133" t="s">
+      <c r="K18" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="135"/>
+      <c r="L18" s="196"/>
+      <c r="M18" s="196"/>
+      <c r="N18" s="196"/>
+      <c r="O18" s="196"/>
+      <c r="P18" s="197"/>
       <c r="Q18" s="35"/>
     </row>
     <row r="19" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="140"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
       <c r="E19" s="125"/>
       <c r="F19" s="125"/>
       <c r="G19" s="125"/>
       <c r="H19" s="125"/>
       <c r="I19" s="125"/>
       <c r="J19" s="125"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="137"/>
-      <c r="M19" s="137"/>
-      <c r="N19" s="137"/>
-      <c r="O19" s="137"/>
-      <c r="P19" s="138"/>
+      <c r="K19" s="198"/>
+      <c r="L19" s="199"/>
+      <c r="M19" s="199"/>
+      <c r="N19" s="199"/>
+      <c r="O19" s="199"/>
+      <c r="P19" s="200"/>
       <c r="Q19" s="35"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
@@ -5463,84 +5525,84 @@
       </c>
       <c r="C20" s="125"/>
       <c r="D20" s="125"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="126" t="s">
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="221" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="126"/>
-      <c r="J20" s="126"/>
-      <c r="K20" s="122" t="s">
+      <c r="I20" s="221"/>
+      <c r="J20" s="221"/>
+      <c r="K20" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="123"/>
-      <c r="M20" s="123"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="124"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="109"/>
+      <c r="O20" s="109"/>
+      <c r="P20" s="110"/>
     </row>
     <row r="21" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="125"/>
       <c r="C21" s="125"/>
       <c r="D21" s="125"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="124"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="221"/>
+      <c r="I21" s="221"/>
+      <c r="J21" s="221"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="109"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="109"/>
+      <c r="P21" s="110"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="109" t="s">
+      <c r="B22" s="215" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="115" t="s">
+      <c r="C22" s="216"/>
+      <c r="D22" s="217"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="116"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="127" t="s">
+      <c r="I22" s="112"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="L22" s="128"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="128"/>
-      <c r="O22" s="128"/>
-      <c r="P22" s="129"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="120"/>
     </row>
     <row r="23" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="112"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="131"/>
-      <c r="P23" s="132"/>
-      <c r="Q23" s="148"/>
-      <c r="R23" s="149"/>
-      <c r="S23" s="149"/>
-      <c r="T23" s="149"/>
-      <c r="U23" s="149"/>
+      <c r="B23" s="218"/>
+      <c r="C23" s="219"/>
+      <c r="D23" s="220"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="122"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="172"/>
+      <c r="R23" s="173"/>
+      <c r="S23" s="173"/>
+      <c r="T23" s="173"/>
+      <c r="U23" s="173"/>
     </row>
     <row r="24" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="125" t="s">
@@ -5548,48 +5610,48 @@
       </c>
       <c r="C24" s="125"/>
       <c r="D24" s="125"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121" t="s">
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="121"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="122" t="s">
+      <c r="I24" s="126"/>
+      <c r="J24" s="126"/>
+      <c r="K24" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="123"/>
-      <c r="M24" s="123"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="124"/>
-      <c r="Q24" s="148"/>
-      <c r="R24" s="149"/>
-      <c r="S24" s="149"/>
-      <c r="T24" s="149"/>
-      <c r="U24" s="149"/>
+      <c r="L24" s="109"/>
+      <c r="M24" s="109"/>
+      <c r="N24" s="109"/>
+      <c r="O24" s="109"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="172"/>
+      <c r="R24" s="173"/>
+      <c r="S24" s="173"/>
+      <c r="T24" s="173"/>
+      <c r="U24" s="173"/>
     </row>
     <row r="25" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="125"/>
       <c r="C25" s="125"/>
       <c r="D25" s="125"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="121"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="123"/>
-      <c r="M25" s="123"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="124"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="109"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="109"/>
+      <c r="P25" s="110"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
     </row>
     <row r="26" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="125" t="s">
@@ -5597,133 +5659,133 @@
       </c>
       <c r="C26" s="125"/>
       <c r="D26" s="125"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="122" t="s">
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="L26" s="123"/>
-      <c r="M26" s="123"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="123"/>
-      <c r="P26" s="124"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="95"/>
-      <c r="U26" s="95"/>
+      <c r="L26" s="109"/>
+      <c r="M26" s="109"/>
+      <c r="N26" s="109"/>
+      <c r="O26" s="109"/>
+      <c r="P26" s="110"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
     </row>
     <row r="27" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="125"/>
       <c r="C27" s="125"/>
       <c r="D27" s="125"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="122"/>
-      <c r="L27" s="123"/>
-      <c r="M27" s="123"/>
-      <c r="N27" s="123"/>
-      <c r="O27" s="123"/>
-      <c r="P27" s="124"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="126"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="109"/>
+      <c r="O27" s="109"/>
+      <c r="P27" s="110"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
       <c r="T27" s="21"/>
       <c r="U27" s="21"/>
     </row>
     <row r="28" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="109" t="s">
+      <c r="B28" s="215" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="110"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="127"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="129"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="217"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="119"/>
+      <c r="O28" s="119"/>
+      <c r="P28" s="120"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
       <c r="U28" s="21"/>
     </row>
     <row r="29" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="112"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="120"/>
-      <c r="K29" s="130"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="131"/>
-      <c r="N29" s="131"/>
-      <c r="O29" s="131"/>
-      <c r="P29" s="132"/>
-      <c r="Q29" s="148"/>
-      <c r="R29" s="149"/>
-      <c r="S29" s="149"/>
-      <c r="T29" s="149"/>
-      <c r="U29" s="149"/>
+      <c r="B29" s="218"/>
+      <c r="C29" s="219"/>
+      <c r="D29" s="220"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="122"/>
+      <c r="M29" s="122"/>
+      <c r="N29" s="122"/>
+      <c r="O29" s="122"/>
+      <c r="P29" s="123"/>
+      <c r="Q29" s="172"/>
+      <c r="R29" s="173"/>
+      <c r="S29" s="173"/>
+      <c r="T29" s="173"/>
+      <c r="U29" s="173"/>
     </row>
     <row r="30" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="140" t="s">
+      <c r="B30" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="140"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="159"/>
-      <c r="K30" s="122" t="s">
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="176"/>
+      <c r="G30" s="176"/>
+      <c r="H30" s="176"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="123"/>
-      <c r="M30" s="123"/>
-      <c r="N30" s="123"/>
-      <c r="O30" s="123"/>
-      <c r="P30" s="124"/>
-      <c r="Q30" s="148"/>
-      <c r="R30" s="149"/>
-      <c r="S30" s="149"/>
-      <c r="T30" s="149"/>
-      <c r="U30" s="149"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="109"/>
+      <c r="P30" s="110"/>
+      <c r="Q30" s="172"/>
+      <c r="R30" s="173"/>
+      <c r="S30" s="173"/>
+      <c r="T30" s="173"/>
+      <c r="U30" s="173"/>
     </row>
     <row r="31" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="140"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="159"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="123"/>
-      <c r="M31" s="123"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="124"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="176"/>
+      <c r="H31" s="176"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="177"/>
+      <c r="K31" s="108"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="109"/>
+      <c r="P31" s="110"/>
       <c r="Q31" s="23"/>
       <c r="R31" s="20"/>
       <c r="S31" s="20"/>
@@ -5731,17 +5793,17 @@
       <c r="U31" s="20"/>
     </row>
     <row r="32" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="140" t="s">
+      <c r="B32" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="140"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="121"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
       <c r="K32" s="25"/>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
@@ -5755,61 +5817,61 @@
       <c r="U32" s="20"/>
     </row>
     <row r="33" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="140"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="121"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
       <c r="P33" s="25"/>
-      <c r="Q33" s="148"/>
-      <c r="R33" s="149"/>
-      <c r="S33" s="149"/>
-      <c r="T33" s="149"/>
-      <c r="U33" s="149"/>
+      <c r="Q33" s="172"/>
+      <c r="R33" s="173"/>
+      <c r="S33" s="173"/>
+      <c r="T33" s="173"/>
+      <c r="U33" s="173"/>
     </row>
     <row r="34" spans="2:21" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="109" t="s">
+      <c r="B34" s="215" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="110"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="117"/>
+      <c r="C34" s="216"/>
+      <c r="D34" s="217"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="113"/>
       <c r="K34" s="25"/>
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
       <c r="N34" s="25"/>
       <c r="O34" s="25"/>
       <c r="P34" s="25"/>
-      <c r="Q34" s="148"/>
-      <c r="R34" s="149"/>
-      <c r="S34" s="149"/>
-      <c r="T34" s="149"/>
-      <c r="U34" s="149"/>
+      <c r="Q34" s="172"/>
+      <c r="R34" s="173"/>
+      <c r="S34" s="173"/>
+      <c r="T34" s="173"/>
+      <c r="U34" s="173"/>
     </row>
     <row r="35" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="112"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="120"/>
+      <c r="B35" s="218"/>
+      <c r="C35" s="219"/>
+      <c r="D35" s="220"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="116"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
@@ -5818,41 +5880,41 @@
       <c r="P35" s="25"/>
     </row>
     <row r="36" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="140" t="s">
+      <c r="B36" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="140"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="163" t="s">
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="164"/>
-      <c r="G36" s="164"/>
-      <c r="H36" s="164"/>
-      <c r="I36" s="164"/>
-      <c r="J36" s="165"/>
-      <c r="K36" s="183"/>
-      <c r="L36" s="184"/>
-      <c r="M36" s="184"/>
-      <c r="N36" s="184"/>
-      <c r="O36" s="184"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="144"/>
+      <c r="K36" s="193"/>
+      <c r="L36" s="194"/>
+      <c r="M36" s="194"/>
+      <c r="N36" s="194"/>
+      <c r="O36" s="194"/>
       <c r="P36" s="25"/>
     </row>
     <row r="37" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="140"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="163"/>
-      <c r="F37" s="164"/>
-      <c r="G37" s="164"/>
-      <c r="H37" s="164"/>
-      <c r="I37" s="164"/>
-      <c r="J37" s="165"/>
-      <c r="K37" s="183"/>
-      <c r="L37" s="184"/>
-      <c r="M37" s="184"/>
-      <c r="N37" s="184"/>
-      <c r="O37" s="184"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="142"/>
+      <c r="F37" s="143"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="143"/>
+      <c r="J37" s="144"/>
+      <c r="K37" s="193"/>
+      <c r="L37" s="194"/>
+      <c r="M37" s="194"/>
+      <c r="N37" s="194"/>
+      <c r="O37" s="194"/>
       <c r="P37" s="25"/>
     </row>
     <row r="38" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5861,14 +5923,14 @@
       </c>
       <c r="C38" s="125"/>
       <c r="D38" s="125"/>
-      <c r="E38" s="163" t="s">
+      <c r="E38" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="164"/>
-      <c r="G38" s="164"/>
-      <c r="H38" s="164"/>
-      <c r="I38" s="164"/>
-      <c r="J38" s="165"/>
+      <c r="F38" s="143"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="143"/>
+      <c r="I38" s="143"/>
+      <c r="J38" s="144"/>
       <c r="K38" s="26"/>
       <c r="L38" s="26"/>
       <c r="M38" s="26"/>
@@ -5880,12 +5942,12 @@
       <c r="B39" s="125"/>
       <c r="C39" s="125"/>
       <c r="D39" s="125"/>
-      <c r="E39" s="163"/>
-      <c r="F39" s="164"/>
-      <c r="G39" s="164"/>
-      <c r="H39" s="164"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="165"/>
+      <c r="E39" s="142"/>
+      <c r="F39" s="143"/>
+      <c r="G39" s="143"/>
+      <c r="H39" s="143"/>
+      <c r="I39" s="143"/>
+      <c r="J39" s="144"/>
       <c r="K39" s="26"/>
       <c r="L39" s="26"/>
       <c r="M39" s="26"/>
@@ -5897,16 +5959,16 @@
       <c r="B40" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="100" t="s">
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="206" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="102"/>
+      <c r="F40" s="207"/>
+      <c r="G40" s="207"/>
+      <c r="H40" s="207"/>
+      <c r="I40" s="207"/>
+      <c r="J40" s="208"/>
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
       <c r="M40" s="26"/>
@@ -5915,15 +5977,15 @@
       <c r="P40" s="27"/>
     </row>
     <row r="41" spans="2:21" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="140"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="104"/>
-      <c r="J41" s="105"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="209"/>
+      <c r="F41" s="210"/>
+      <c r="G41" s="210"/>
+      <c r="H41" s="210"/>
+      <c r="I41" s="210"/>
+      <c r="J41" s="211"/>
       <c r="K41" s="26"/>
       <c r="L41" s="26"/>
       <c r="M41" s="26"/>
@@ -5932,93 +5994,93 @@
       <c r="P41" s="27"/>
     </row>
     <row r="42" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="140" t="s">
+      <c r="B42" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="140"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="163" t="s">
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="164"/>
-      <c r="G42" s="164"/>
-      <c r="H42" s="164"/>
-      <c r="I42" s="164"/>
-      <c r="J42" s="165"/>
-      <c r="K42" s="218"/>
-      <c r="L42" s="219"/>
-      <c r="M42" s="219"/>
-      <c r="N42" s="219"/>
-      <c r="O42" s="219"/>
+      <c r="F42" s="143"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="143"/>
+      <c r="J42" s="144"/>
+      <c r="K42" s="130"/>
+      <c r="L42" s="131"/>
+      <c r="M42" s="131"/>
+      <c r="N42" s="131"/>
+      <c r="O42" s="131"/>
       <c r="P42" s="27"/>
     </row>
     <row r="43" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="140"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="140"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="164"/>
-      <c r="G43" s="164"/>
-      <c r="H43" s="164"/>
-      <c r="I43" s="164"/>
-      <c r="J43" s="165"/>
-      <c r="K43" s="218"/>
-      <c r="L43" s="219"/>
-      <c r="M43" s="219"/>
-      <c r="N43" s="219"/>
-      <c r="O43" s="219"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="142"/>
+      <c r="F43" s="143"/>
+      <c r="G43" s="143"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="143"/>
+      <c r="J43" s="144"/>
+      <c r="K43" s="130"/>
+      <c r="L43" s="131"/>
+      <c r="M43" s="131"/>
+      <c r="N43" s="131"/>
+      <c r="O43" s="131"/>
       <c r="P43" s="27"/>
     </row>
     <row r="44" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="205" t="s">
+      <c r="B44" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="205"/>
-      <c r="D44" s="205"/>
-      <c r="E44" s="207" t="s">
+      <c r="C44" s="158"/>
+      <c r="D44" s="158"/>
+      <c r="E44" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="208"/>
-      <c r="G44" s="208"/>
-      <c r="H44" s="208"/>
-      <c r="I44" s="208"/>
-      <c r="J44" s="209"/>
-      <c r="K44" s="220"/>
-      <c r="L44" s="221"/>
-      <c r="M44" s="221"/>
-      <c r="N44" s="221"/>
-      <c r="O44" s="221"/>
+      <c r="F44" s="161"/>
+      <c r="G44" s="161"/>
+      <c r="H44" s="161"/>
+      <c r="I44" s="161"/>
+      <c r="J44" s="162"/>
+      <c r="K44" s="132"/>
+      <c r="L44" s="133"/>
+      <c r="M44" s="133"/>
+      <c r="N44" s="133"/>
+      <c r="O44" s="133"/>
       <c r="P44" s="27"/>
     </row>
     <row r="45" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="206"/>
-      <c r="C45" s="206"/>
-      <c r="D45" s="206"/>
-      <c r="E45" s="207"/>
-      <c r="F45" s="208"/>
-      <c r="G45" s="208"/>
-      <c r="H45" s="208"/>
-      <c r="I45" s="208"/>
-      <c r="J45" s="209"/>
-      <c r="K45" s="220"/>
-      <c r="L45" s="221"/>
-      <c r="M45" s="221"/>
-      <c r="N45" s="221"/>
-      <c r="O45" s="221"/>
+      <c r="B45" s="159"/>
+      <c r="C45" s="159"/>
+      <c r="D45" s="159"/>
+      <c r="E45" s="160"/>
+      <c r="F45" s="161"/>
+      <c r="G45" s="161"/>
+      <c r="H45" s="161"/>
+      <c r="I45" s="161"/>
+      <c r="J45" s="162"/>
+      <c r="K45" s="132"/>
+      <c r="L45" s="133"/>
+      <c r="M45" s="133"/>
+      <c r="N45" s="133"/>
+      <c r="O45" s="133"/>
       <c r="P45" s="27"/>
     </row>
     <row r="46" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="161" t="s">
+      <c r="B46" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="161"/>
-      <c r="D46" s="161"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="195"/>
-      <c r="G46" s="196"/>
-      <c r="H46" s="194"/>
-      <c r="I46" s="195"/>
-      <c r="J46" s="196"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="179"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="135"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="134"/>
+      <c r="I46" s="135"/>
+      <c r="J46" s="136"/>
       <c r="K46" s="27"/>
       <c r="L46" s="27"/>
       <c r="M46" s="27"/>
@@ -6027,15 +6089,15 @@
       <c r="P46" s="27"/>
     </row>
     <row r="47" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="162"/>
-      <c r="C47" s="162"/>
-      <c r="D47" s="162"/>
-      <c r="E47" s="197"/>
-      <c r="F47" s="198"/>
-      <c r="G47" s="199"/>
-      <c r="H47" s="197"/>
-      <c r="I47" s="198"/>
-      <c r="J47" s="199"/>
+      <c r="B47" s="180"/>
+      <c r="C47" s="180"/>
+      <c r="D47" s="180"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="138"/>
+      <c r="G47" s="139"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="138"/>
+      <c r="J47" s="139"/>
       <c r="K47" s="27"/>
       <c r="L47" s="27"/>
       <c r="M47" s="27"/>
@@ -6045,217 +6107,217 @@
     </row>
     <row r="48" spans="2:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="1:16" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="106" t="s">
+      <c r="B49" s="212" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="107"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="108"/>
-      <c r="J49" s="202" t="s">
+      <c r="C49" s="213"/>
+      <c r="D49" s="213"/>
+      <c r="E49" s="213"/>
+      <c r="F49" s="213"/>
+      <c r="G49" s="213"/>
+      <c r="H49" s="213"/>
+      <c r="I49" s="214"/>
+      <c r="J49" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="K49" s="203"/>
-      <c r="L49" s="203"/>
-      <c r="M49" s="203"/>
-      <c r="N49" s="203"/>
-      <c r="O49" s="203"/>
-      <c r="P49" s="204"/>
+      <c r="K49" s="153"/>
+      <c r="L49" s="153"/>
+      <c r="M49" s="153"/>
+      <c r="N49" s="153"/>
+      <c r="O49" s="153"/>
+      <c r="P49" s="154"/>
     </row>
     <row r="50" spans="1:16" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="174" t="s">
+      <c r="B50" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="175"/>
-      <c r="D50" s="175"/>
-      <c r="E50" s="175"/>
-      <c r="F50" s="175"/>
-      <c r="G50" s="175"/>
-      <c r="H50" s="175"/>
-      <c r="I50" s="176"/>
-      <c r="J50" s="168"/>
-      <c r="K50" s="169"/>
-      <c r="L50" s="169"/>
-      <c r="M50" s="169"/>
-      <c r="N50" s="169"/>
-      <c r="O50" s="169"/>
-      <c r="P50" s="170"/>
+      <c r="C50" s="185"/>
+      <c r="D50" s="185"/>
+      <c r="E50" s="185"/>
+      <c r="F50" s="185"/>
+      <c r="G50" s="185"/>
+      <c r="H50" s="185"/>
+      <c r="I50" s="186"/>
+      <c r="J50" s="155"/>
+      <c r="K50" s="156"/>
+      <c r="L50" s="156"/>
+      <c r="M50" s="156"/>
+      <c r="N50" s="156"/>
+      <c r="O50" s="156"/>
+      <c r="P50" s="157"/>
     </row>
     <row r="51" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="177"/>
-      <c r="C51" s="178"/>
-      <c r="D51" s="178"/>
-      <c r="E51" s="178"/>
-      <c r="F51" s="178"/>
-      <c r="G51" s="178"/>
-      <c r="H51" s="178"/>
-      <c r="I51" s="179"/>
-      <c r="J51" s="168"/>
-      <c r="K51" s="169"/>
-      <c r="L51" s="169"/>
-      <c r="M51" s="169"/>
-      <c r="N51" s="169"/>
-      <c r="O51" s="169"/>
-      <c r="P51" s="170"/>
+      <c r="B51" s="187"/>
+      <c r="C51" s="188"/>
+      <c r="D51" s="188"/>
+      <c r="E51" s="188"/>
+      <c r="F51" s="188"/>
+      <c r="G51" s="188"/>
+      <c r="H51" s="188"/>
+      <c r="I51" s="189"/>
+      <c r="J51" s="155"/>
+      <c r="K51" s="156"/>
+      <c r="L51" s="156"/>
+      <c r="M51" s="156"/>
+      <c r="N51" s="156"/>
+      <c r="O51" s="156"/>
+      <c r="P51" s="157"/>
     </row>
     <row r="52" spans="1:16" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="177"/>
-      <c r="C52" s="178"/>
-      <c r="D52" s="178"/>
-      <c r="E52" s="178"/>
-      <c r="F52" s="178"/>
-      <c r="G52" s="178"/>
-      <c r="H52" s="178"/>
-      <c r="I52" s="179"/>
-      <c r="J52" s="168"/>
-      <c r="K52" s="169"/>
-      <c r="L52" s="169"/>
-      <c r="M52" s="169"/>
-      <c r="N52" s="169"/>
-      <c r="O52" s="169"/>
-      <c r="P52" s="170"/>
+      <c r="B52" s="187"/>
+      <c r="C52" s="188"/>
+      <c r="D52" s="188"/>
+      <c r="E52" s="188"/>
+      <c r="F52" s="188"/>
+      <c r="G52" s="188"/>
+      <c r="H52" s="188"/>
+      <c r="I52" s="189"/>
+      <c r="J52" s="155"/>
+      <c r="K52" s="156"/>
+      <c r="L52" s="156"/>
+      <c r="M52" s="156"/>
+      <c r="N52" s="156"/>
+      <c r="O52" s="156"/>
+      <c r="P52" s="157"/>
     </row>
     <row r="53" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="177"/>
-      <c r="C53" s="178"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="178"/>
-      <c r="F53" s="178"/>
-      <c r="G53" s="178"/>
-      <c r="H53" s="178"/>
-      <c r="I53" s="179"/>
-      <c r="J53" s="168"/>
-      <c r="K53" s="169"/>
-      <c r="L53" s="169"/>
-      <c r="M53" s="169"/>
-      <c r="N53" s="169"/>
-      <c r="O53" s="169"/>
-      <c r="P53" s="170"/>
+      <c r="B53" s="187"/>
+      <c r="C53" s="188"/>
+      <c r="D53" s="188"/>
+      <c r="E53" s="188"/>
+      <c r="F53" s="188"/>
+      <c r="G53" s="188"/>
+      <c r="H53" s="188"/>
+      <c r="I53" s="189"/>
+      <c r="J53" s="155"/>
+      <c r="K53" s="156"/>
+      <c r="L53" s="156"/>
+      <c r="M53" s="156"/>
+      <c r="N53" s="156"/>
+      <c r="O53" s="156"/>
+      <c r="P53" s="157"/>
     </row>
     <row r="54" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="177"/>
-      <c r="C54" s="178"/>
-      <c r="D54" s="178"/>
-      <c r="E54" s="178"/>
-      <c r="F54" s="178"/>
-      <c r="G54" s="178"/>
-      <c r="H54" s="178"/>
-      <c r="I54" s="179"/>
-      <c r="J54" s="168"/>
-      <c r="K54" s="169"/>
-      <c r="L54" s="169"/>
-      <c r="M54" s="169"/>
-      <c r="N54" s="169"/>
-      <c r="O54" s="169"/>
-      <c r="P54" s="170"/>
+      <c r="B54" s="187"/>
+      <c r="C54" s="188"/>
+      <c r="D54" s="188"/>
+      <c r="E54" s="188"/>
+      <c r="F54" s="188"/>
+      <c r="G54" s="188"/>
+      <c r="H54" s="188"/>
+      <c r="I54" s="189"/>
+      <c r="J54" s="155"/>
+      <c r="K54" s="156"/>
+      <c r="L54" s="156"/>
+      <c r="M54" s="156"/>
+      <c r="N54" s="156"/>
+      <c r="O54" s="156"/>
+      <c r="P54" s="157"/>
     </row>
     <row r="55" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="177"/>
-      <c r="C55" s="178"/>
-      <c r="D55" s="178"/>
-      <c r="E55" s="178"/>
-      <c r="F55" s="178"/>
-      <c r="G55" s="178"/>
-      <c r="H55" s="178"/>
-      <c r="I55" s="179"/>
-      <c r="J55" s="168"/>
-      <c r="K55" s="169"/>
-      <c r="L55" s="169"/>
-      <c r="M55" s="169"/>
-      <c r="N55" s="169"/>
-      <c r="O55" s="169"/>
-      <c r="P55" s="170"/>
+      <c r="B55" s="187"/>
+      <c r="C55" s="188"/>
+      <c r="D55" s="188"/>
+      <c r="E55" s="188"/>
+      <c r="F55" s="188"/>
+      <c r="G55" s="188"/>
+      <c r="H55" s="188"/>
+      <c r="I55" s="189"/>
+      <c r="J55" s="155"/>
+      <c r="K55" s="156"/>
+      <c r="L55" s="156"/>
+      <c r="M55" s="156"/>
+      <c r="N55" s="156"/>
+      <c r="O55" s="156"/>
+      <c r="P55" s="157"/>
     </row>
     <row r="56" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="177"/>
-      <c r="C56" s="178"/>
-      <c r="D56" s="178"/>
-      <c r="E56" s="178"/>
-      <c r="F56" s="178"/>
-      <c r="G56" s="178"/>
-      <c r="H56" s="178"/>
-      <c r="I56" s="179"/>
-      <c r="J56" s="168"/>
-      <c r="K56" s="169"/>
-      <c r="L56" s="169"/>
-      <c r="M56" s="169"/>
-      <c r="N56" s="169"/>
-      <c r="O56" s="169"/>
-      <c r="P56" s="170"/>
+      <c r="B56" s="187"/>
+      <c r="C56" s="188"/>
+      <c r="D56" s="188"/>
+      <c r="E56" s="188"/>
+      <c r="F56" s="188"/>
+      <c r="G56" s="188"/>
+      <c r="H56" s="188"/>
+      <c r="I56" s="189"/>
+      <c r="J56" s="155"/>
+      <c r="K56" s="156"/>
+      <c r="L56" s="156"/>
+      <c r="M56" s="156"/>
+      <c r="N56" s="156"/>
+      <c r="O56" s="156"/>
+      <c r="P56" s="157"/>
     </row>
     <row r="57" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="177"/>
-      <c r="C57" s="178"/>
-      <c r="D57" s="178"/>
-      <c r="E57" s="178"/>
-      <c r="F57" s="178"/>
-      <c r="G57" s="178"/>
-      <c r="H57" s="178"/>
-      <c r="I57" s="179"/>
-      <c r="J57" s="168"/>
-      <c r="K57" s="169"/>
-      <c r="L57" s="169"/>
-      <c r="M57" s="169"/>
-      <c r="N57" s="169"/>
-      <c r="O57" s="169"/>
-      <c r="P57" s="170"/>
+      <c r="B57" s="187"/>
+      <c r="C57" s="188"/>
+      <c r="D57" s="188"/>
+      <c r="E57" s="188"/>
+      <c r="F57" s="188"/>
+      <c r="G57" s="188"/>
+      <c r="H57" s="188"/>
+      <c r="I57" s="189"/>
+      <c r="J57" s="155"/>
+      <c r="K57" s="156"/>
+      <c r="L57" s="156"/>
+      <c r="M57" s="156"/>
+      <c r="N57" s="156"/>
+      <c r="O57" s="156"/>
+      <c r="P57" s="157"/>
     </row>
     <row r="58" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="177"/>
-      <c r="C58" s="178"/>
-      <c r="D58" s="178"/>
-      <c r="E58" s="178"/>
-      <c r="F58" s="178"/>
-      <c r="G58" s="178"/>
-      <c r="H58" s="178"/>
-      <c r="I58" s="179"/>
-      <c r="J58" s="168"/>
-      <c r="K58" s="169"/>
-      <c r="L58" s="169"/>
-      <c r="M58" s="169"/>
-      <c r="N58" s="169"/>
-      <c r="O58" s="169"/>
-      <c r="P58" s="170"/>
+      <c r="B58" s="187"/>
+      <c r="C58" s="188"/>
+      <c r="D58" s="188"/>
+      <c r="E58" s="188"/>
+      <c r="F58" s="188"/>
+      <c r="G58" s="188"/>
+      <c r="H58" s="188"/>
+      <c r="I58" s="189"/>
+      <c r="J58" s="155"/>
+      <c r="K58" s="156"/>
+      <c r="L58" s="156"/>
+      <c r="M58" s="156"/>
+      <c r="N58" s="156"/>
+      <c r="O58" s="156"/>
+      <c r="P58" s="157"/>
     </row>
     <row r="59" spans="1:16" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="180"/>
-      <c r="C59" s="181"/>
-      <c r="D59" s="181"/>
-      <c r="E59" s="181"/>
-      <c r="F59" s="181"/>
-      <c r="G59" s="181"/>
-      <c r="H59" s="181"/>
-      <c r="I59" s="182"/>
-      <c r="J59" s="171"/>
-      <c r="K59" s="172"/>
-      <c r="L59" s="172"/>
-      <c r="M59" s="172"/>
-      <c r="N59" s="172"/>
-      <c r="O59" s="172"/>
-      <c r="P59" s="173"/>
+      <c r="B59" s="190"/>
+      <c r="C59" s="191"/>
+      <c r="D59" s="191"/>
+      <c r="E59" s="191"/>
+      <c r="F59" s="191"/>
+      <c r="G59" s="191"/>
+      <c r="H59" s="191"/>
+      <c r="I59" s="192"/>
+      <c r="J59" s="181"/>
+      <c r="K59" s="182"/>
+      <c r="L59" s="182"/>
+      <c r="M59" s="182"/>
+      <c r="N59" s="182"/>
+      <c r="O59" s="182"/>
+      <c r="P59" s="183"/>
     </row>
     <row r="60" spans="1:16" ht="14.65" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K60" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L60" s="200"/>
-      <c r="M60" s="200"/>
-      <c r="N60" s="200"/>
-      <c r="O60" s="200"/>
+      <c r="L60" s="145"/>
+      <c r="M60" s="145"/>
+      <c r="N60" s="145"/>
+      <c r="O60" s="145"/>
       <c r="P60" s="3"/>
     </row>
     <row r="61" spans="1:16" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="215"/>
-      <c r="C61" s="215"/>
-      <c r="D61" s="215"/>
-      <c r="E61" s="167"/>
-      <c r="F61" s="167"/>
-      <c r="G61" s="167"/>
-      <c r="H61" s="167"/>
-      <c r="I61" s="167"/>
+      <c r="B61" s="124"/>
+      <c r="C61" s="124"/>
+      <c r="D61" s="124"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="107"/>
       <c r="K61" s="4"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
@@ -6264,14 +6326,14 @@
       <c r="P61" s="3"/>
     </row>
     <row r="62" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="215"/>
-      <c r="C62" s="215"/>
-      <c r="D62" s="215"/>
-      <c r="E62" s="167"/>
-      <c r="F62" s="167"/>
-      <c r="G62" s="167"/>
-      <c r="H62" s="167"/>
-      <c r="I62" s="167"/>
+      <c r="B62" s="124"/>
+      <c r="C62" s="124"/>
+      <c r="D62" s="124"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="107"/>
+      <c r="G62" s="107"/>
+      <c r="H62" s="107"/>
+      <c r="I62" s="107"/>
       <c r="K62" s="4"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
@@ -6280,14 +6342,14 @@
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="166"/>
-      <c r="C63" s="166"/>
-      <c r="D63" s="166"/>
-      <c r="E63" s="167"/>
-      <c r="F63" s="167"/>
-      <c r="G63" s="167"/>
-      <c r="H63" s="167"/>
-      <c r="I63" s="167"/>
+      <c r="B63" s="106"/>
+      <c r="C63" s="106"/>
+      <c r="D63" s="106"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="107"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="107"/>
       <c r="K63" s="4"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
@@ -6297,14 +6359,14 @@
     </row>
     <row r="64" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
-      <c r="B64" s="166"/>
-      <c r="C64" s="166"/>
-      <c r="D64" s="166"/>
-      <c r="E64" s="167"/>
-      <c r="F64" s="167"/>
-      <c r="G64" s="167"/>
-      <c r="H64" s="167"/>
-      <c r="I64" s="167"/>
+      <c r="B64" s="106"/>
+      <c r="C64" s="106"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="107"/>
+      <c r="F64" s="107"/>
+      <c r="G64" s="107"/>
+      <c r="H64" s="107"/>
+      <c r="I64" s="107"/>
       <c r="J64" s="24"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
@@ -6315,14 +6377,14 @@
     </row>
     <row r="65" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
-      <c r="B65" s="166"/>
-      <c r="C65" s="166"/>
-      <c r="D65" s="166"/>
-      <c r="E65" s="167"/>
-      <c r="F65" s="167"/>
-      <c r="G65" s="167"/>
-      <c r="H65" s="167"/>
-      <c r="I65" s="167"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="106"/>
+      <c r="D65" s="106"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="107"/>
+      <c r="G65" s="107"/>
+      <c r="H65" s="107"/>
+      <c r="I65" s="107"/>
       <c r="J65" s="24"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
@@ -6333,14 +6395,14 @@
     </row>
     <row r="66" spans="1:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
-      <c r="B66" s="166"/>
-      <c r="C66" s="166"/>
-      <c r="D66" s="166"/>
-      <c r="E66" s="167"/>
-      <c r="F66" s="167"/>
-      <c r="G66" s="167"/>
-      <c r="H66" s="167"/>
-      <c r="I66" s="167"/>
+      <c r="B66" s="106"/>
+      <c r="C66" s="106"/>
+      <c r="D66" s="106"/>
+      <c r="E66" s="107"/>
+      <c r="F66" s="107"/>
+      <c r="G66" s="107"/>
+      <c r="H66" s="107"/>
+      <c r="I66" s="107"/>
       <c r="J66" s="24"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
@@ -6369,61 +6431,61 @@
     </row>
     <row r="68" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
-      <c r="B68" s="152" t="s">
+      <c r="B68" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="C68" s="153"/>
-      <c r="D68" s="154"/>
-      <c r="E68" s="155"/>
-      <c r="F68" s="155"/>
-      <c r="G68" s="155"/>
-      <c r="H68" s="155"/>
-      <c r="I68" s="155"/>
-      <c r="J68" s="156"/>
-      <c r="K68" s="150"/>
-      <c r="L68" s="151"/>
-      <c r="M68" s="151"/>
-      <c r="N68" s="151"/>
-      <c r="O68" s="151"/>
-      <c r="P68" s="151"/>
+      <c r="C68" s="147"/>
+      <c r="D68" s="148"/>
+      <c r="E68" s="149"/>
+      <c r="F68" s="149"/>
+      <c r="G68" s="149"/>
+      <c r="H68" s="149"/>
+      <c r="I68" s="149"/>
+      <c r="J68" s="150"/>
+      <c r="K68" s="129"/>
+      <c r="L68" s="174"/>
+      <c r="M68" s="174"/>
+      <c r="N68" s="174"/>
+      <c r="O68" s="174"/>
+      <c r="P68" s="174"/>
     </row>
     <row r="69" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
-      <c r="B69" s="152" t="s">
+      <c r="B69" s="146" t="s">
         <v>42</v>
       </c>
-      <c r="C69" s="153"/>
-      <c r="D69" s="154"/>
-      <c r="E69" s="155"/>
-      <c r="F69" s="155"/>
-      <c r="G69" s="155"/>
-      <c r="H69" s="155"/>
-      <c r="I69" s="155"/>
-      <c r="J69" s="156"/>
-      <c r="K69" s="216"/>
-      <c r="L69" s="217"/>
-      <c r="M69" s="217"/>
-      <c r="N69" s="217"/>
-      <c r="O69" s="217"/>
-      <c r="P69" s="150"/>
+      <c r="C69" s="147"/>
+      <c r="D69" s="148"/>
+      <c r="E69" s="149"/>
+      <c r="F69" s="149"/>
+      <c r="G69" s="149"/>
+      <c r="H69" s="149"/>
+      <c r="I69" s="149"/>
+      <c r="J69" s="150"/>
+      <c r="K69" s="127"/>
+      <c r="L69" s="128"/>
+      <c r="M69" s="128"/>
+      <c r="N69" s="128"/>
+      <c r="O69" s="128"/>
+      <c r="P69" s="129"/>
     </row>
     <row r="70" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
-      <c r="B70" s="212"/>
-      <c r="C70" s="213"/>
-      <c r="D70" s="212"/>
-      <c r="E70" s="213"/>
-      <c r="F70" s="213"/>
-      <c r="G70" s="213"/>
-      <c r="H70" s="213"/>
-      <c r="I70" s="213"/>
-      <c r="J70" s="214"/>
-      <c r="K70" s="216"/>
-      <c r="L70" s="217"/>
-      <c r="M70" s="217"/>
-      <c r="N70" s="217"/>
-      <c r="O70" s="217"/>
-      <c r="P70" s="150"/>
+      <c r="B70" s="103"/>
+      <c r="C70" s="104"/>
+      <c r="D70" s="103"/>
+      <c r="E70" s="104"/>
+      <c r="F70" s="104"/>
+      <c r="G70" s="104"/>
+      <c r="H70" s="104"/>
+      <c r="I70" s="104"/>
+      <c r="J70" s="105"/>
+      <c r="K70" s="127"/>
+      <c r="L70" s="128"/>
+      <c r="M70" s="128"/>
+      <c r="N70" s="128"/>
+      <c r="O70" s="128"/>
+      <c r="P70" s="129"/>
     </row>
     <row r="71" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
@@ -6445,14 +6507,14 @@
     </row>
     <row r="72" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
-      <c r="B72" s="48" t="s">
+      <c r="B72" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="48"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="92"/>
+      <c r="G72" s="92"/>
       <c r="H72" s="24"/>
       <c r="I72" s="24"/>
       <c r="J72" s="24"/>
@@ -6483,493 +6545,493 @@
     </row>
     <row r="74" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="210" t="s">
+      <c r="B74" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="C74" s="210"/>
-      <c r="D74" s="210"/>
-      <c r="E74" s="210"/>
-      <c r="F74" s="210"/>
-      <c r="G74" s="210"/>
-      <c r="H74" s="210"/>
-      <c r="I74" s="210"/>
-      <c r="J74" s="210"/>
-      <c r="K74" s="210"/>
-      <c r="L74" s="210"/>
-      <c r="M74" s="211" t="str">
+      <c r="C74" s="163"/>
+      <c r="D74" s="163"/>
+      <c r="E74" s="163"/>
+      <c r="F74" s="163"/>
+      <c r="G74" s="163"/>
+      <c r="H74" s="163"/>
+      <c r="I74" s="163"/>
+      <c r="J74" s="163"/>
+      <c r="K74" s="163"/>
+      <c r="L74" s="163"/>
+      <c r="M74" s="102" t="str">
         <f>IF(L4="","",L4)</f>
         <v/>
       </c>
-      <c r="N74" s="211"/>
-      <c r="O74" s="211"/>
-      <c r="P74" s="211"/>
+      <c r="N74" s="102"/>
+      <c r="O74" s="102"/>
+      <c r="P74" s="102"/>
     </row>
     <row r="75" spans="1:16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="210"/>
-      <c r="C75" s="210"/>
-      <c r="D75" s="210"/>
-      <c r="E75" s="210"/>
-      <c r="F75" s="210"/>
-      <c r="G75" s="210"/>
-      <c r="H75" s="210"/>
-      <c r="I75" s="210"/>
-      <c r="J75" s="210"/>
-      <c r="K75" s="210"/>
-      <c r="L75" s="210"/>
-      <c r="M75" s="211"/>
-      <c r="N75" s="211"/>
-      <c r="O75" s="211"/>
-      <c r="P75" s="211"/>
+      <c r="B75" s="163"/>
+      <c r="C75" s="163"/>
+      <c r="D75" s="163"/>
+      <c r="E75" s="163"/>
+      <c r="F75" s="163"/>
+      <c r="G75" s="163"/>
+      <c r="H75" s="163"/>
+      <c r="I75" s="163"/>
+      <c r="J75" s="163"/>
+      <c r="K75" s="163"/>
+      <c r="L75" s="163"/>
+      <c r="M75" s="102"/>
+      <c r="N75" s="102"/>
+      <c r="O75" s="102"/>
+      <c r="P75" s="102"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B76" s="210"/>
-      <c r="C76" s="210"/>
-      <c r="D76" s="210"/>
-      <c r="E76" s="210"/>
-      <c r="F76" s="210"/>
-      <c r="G76" s="210"/>
-      <c r="H76" s="210"/>
-      <c r="I76" s="210"/>
-      <c r="J76" s="210"/>
-      <c r="K76" s="210"/>
-      <c r="L76" s="210"/>
-      <c r="M76" s="211"/>
-      <c r="N76" s="211"/>
-      <c r="O76" s="211"/>
-      <c r="P76" s="211"/>
+      <c r="B76" s="163"/>
+      <c r="C76" s="163"/>
+      <c r="D76" s="163"/>
+      <c r="E76" s="163"/>
+      <c r="F76" s="163"/>
+      <c r="G76" s="163"/>
+      <c r="H76" s="163"/>
+      <c r="I76" s="163"/>
+      <c r="J76" s="163"/>
+      <c r="K76" s="163"/>
+      <c r="L76" s="163"/>
+      <c r="M76" s="102"/>
+      <c r="N76" s="102"/>
+      <c r="O76" s="102"/>
+      <c r="P76" s="102"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B77" s="210"/>
-      <c r="C77" s="210"/>
-      <c r="D77" s="210"/>
-      <c r="E77" s="210"/>
-      <c r="F77" s="210"/>
-      <c r="G77" s="210"/>
-      <c r="H77" s="210"/>
-      <c r="I77" s="210"/>
-      <c r="J77" s="210"/>
-      <c r="K77" s="210"/>
-      <c r="L77" s="210"/>
-      <c r="M77" s="211"/>
-      <c r="N77" s="211"/>
-      <c r="O77" s="211"/>
-      <c r="P77" s="211"/>
+      <c r="B77" s="163"/>
+      <c r="C77" s="163"/>
+      <c r="D77" s="163"/>
+      <c r="E77" s="163"/>
+      <c r="F77" s="163"/>
+      <c r="G77" s="163"/>
+      <c r="H77" s="163"/>
+      <c r="I77" s="163"/>
+      <c r="J77" s="163"/>
+      <c r="K77" s="163"/>
+      <c r="L77" s="163"/>
+      <c r="M77" s="102"/>
+      <c r="N77" s="102"/>
+      <c r="O77" s="102"/>
+      <c r="P77" s="102"/>
     </row>
     <row r="78" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="87" t="s">
+      <c r="B78" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C78" s="87"/>
-      <c r="D78" s="87"/>
-      <c r="E78" s="87"/>
-      <c r="F78" s="87"/>
-      <c r="G78" s="87"/>
-      <c r="H78" s="87"/>
-      <c r="I78" s="87"/>
-      <c r="J78" s="87"/>
-      <c r="K78" s="87"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="45"/>
     </row>
     <row r="79" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="191"/>
-      <c r="C79" s="192"/>
-      <c r="D79" s="192"/>
-      <c r="E79" s="192"/>
-      <c r="F79" s="192"/>
-      <c r="G79" s="192"/>
-      <c r="H79" s="192"/>
-      <c r="I79" s="192"/>
-      <c r="J79" s="192"/>
-      <c r="K79" s="192"/>
-      <c r="L79" s="192"/>
-      <c r="M79" s="192"/>
-      <c r="N79" s="192"/>
-      <c r="O79" s="192"/>
+      <c r="B79" s="100"/>
+      <c r="C79" s="101"/>
+      <c r="D79" s="101"/>
+      <c r="E79" s="101"/>
+      <c r="F79" s="101"/>
+      <c r="G79" s="101"/>
+      <c r="H79" s="101"/>
+      <c r="I79" s="101"/>
+      <c r="J79" s="101"/>
+      <c r="K79" s="101"/>
+      <c r="L79" s="101"/>
+      <c r="M79" s="101"/>
+      <c r="N79" s="101"/>
+      <c r="O79" s="101"/>
     </row>
     <row r="80" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="191"/>
-      <c r="C80" s="192"/>
-      <c r="D80" s="192"/>
-      <c r="E80" s="192"/>
-      <c r="F80" s="192"/>
-      <c r="G80" s="192"/>
-      <c r="H80" s="192"/>
-      <c r="I80" s="192"/>
-      <c r="J80" s="192"/>
-      <c r="K80" s="192"/>
-      <c r="L80" s="192"/>
-      <c r="M80" s="192"/>
-      <c r="N80" s="192"/>
-      <c r="O80" s="192"/>
+      <c r="B80" s="100"/>
+      <c r="C80" s="101"/>
+      <c r="D80" s="101"/>
+      <c r="E80" s="101"/>
+      <c r="F80" s="101"/>
+      <c r="G80" s="101"/>
+      <c r="H80" s="101"/>
+      <c r="I80" s="101"/>
+      <c r="J80" s="101"/>
+      <c r="K80" s="101"/>
+      <c r="L80" s="101"/>
+      <c r="M80" s="101"/>
+      <c r="N80" s="101"/>
+      <c r="O80" s="101"/>
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B81" s="191"/>
-      <c r="C81" s="192"/>
-      <c r="D81" s="192"/>
-      <c r="E81" s="192"/>
-      <c r="F81" s="192"/>
-      <c r="G81" s="192"/>
-      <c r="H81" s="192"/>
-      <c r="I81" s="192"/>
-      <c r="J81" s="192"/>
-      <c r="K81" s="192"/>
-      <c r="L81" s="192"/>
-      <c r="M81" s="192"/>
-      <c r="N81" s="192"/>
-      <c r="O81" s="192"/>
+      <c r="B81" s="100"/>
+      <c r="C81" s="101"/>
+      <c r="D81" s="101"/>
+      <c r="E81" s="101"/>
+      <c r="F81" s="101"/>
+      <c r="G81" s="101"/>
+      <c r="H81" s="101"/>
+      <c r="I81" s="101"/>
+      <c r="J81" s="101"/>
+      <c r="K81" s="101"/>
+      <c r="L81" s="101"/>
+      <c r="M81" s="101"/>
+      <c r="N81" s="101"/>
+      <c r="O81" s="101"/>
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B82" s="191"/>
-      <c r="C82" s="192"/>
-      <c r="D82" s="192"/>
-      <c r="E82" s="192"/>
-      <c r="F82" s="192"/>
-      <c r="G82" s="192"/>
-      <c r="H82" s="192"/>
-      <c r="I82" s="192"/>
-      <c r="J82" s="192"/>
-      <c r="K82" s="192"/>
-      <c r="L82" s="192"/>
-      <c r="M82" s="192"/>
-      <c r="N82" s="192"/>
-      <c r="O82" s="192"/>
+      <c r="B82" s="100"/>
+      <c r="C82" s="101"/>
+      <c r="D82" s="101"/>
+      <c r="E82" s="101"/>
+      <c r="F82" s="101"/>
+      <c r="G82" s="101"/>
+      <c r="H82" s="101"/>
+      <c r="I82" s="101"/>
+      <c r="J82" s="101"/>
+      <c r="K82" s="101"/>
+      <c r="L82" s="101"/>
+      <c r="M82" s="101"/>
+      <c r="N82" s="101"/>
+      <c r="O82" s="101"/>
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B83" s="191"/>
-      <c r="C83" s="192"/>
-      <c r="D83" s="192"/>
-      <c r="E83" s="192"/>
-      <c r="F83" s="192"/>
-      <c r="G83" s="192"/>
-      <c r="H83" s="192"/>
-      <c r="I83" s="192"/>
-      <c r="J83" s="192"/>
-      <c r="K83" s="192"/>
-      <c r="L83" s="192"/>
-      <c r="M83" s="192"/>
-      <c r="N83" s="192"/>
-      <c r="O83" s="192"/>
+      <c r="B83" s="100"/>
+      <c r="C83" s="101"/>
+      <c r="D83" s="101"/>
+      <c r="E83" s="101"/>
+      <c r="F83" s="101"/>
+      <c r="G83" s="101"/>
+      <c r="H83" s="101"/>
+      <c r="I83" s="101"/>
+      <c r="J83" s="101"/>
+      <c r="K83" s="101"/>
+      <c r="L83" s="101"/>
+      <c r="M83" s="101"/>
+      <c r="N83" s="101"/>
+      <c r="O83" s="101"/>
       <c r="P83"/>
     </row>
     <row r="84" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B84" s="191"/>
-      <c r="C84" s="192"/>
-      <c r="D84" s="192"/>
-      <c r="E84" s="192"/>
-      <c r="F84" s="192"/>
-      <c r="G84" s="192"/>
-      <c r="H84" s="192"/>
-      <c r="I84" s="192"/>
-      <c r="J84" s="192"/>
-      <c r="K84" s="192"/>
-      <c r="L84" s="192"/>
-      <c r="M84" s="192"/>
-      <c r="N84" s="192"/>
-      <c r="O84" s="192"/>
+      <c r="B84" s="100"/>
+      <c r="C84" s="101"/>
+      <c r="D84" s="101"/>
+      <c r="E84" s="101"/>
+      <c r="F84" s="101"/>
+      <c r="G84" s="101"/>
+      <c r="H84" s="101"/>
+      <c r="I84" s="101"/>
+      <c r="J84" s="101"/>
+      <c r="K84" s="101"/>
+      <c r="L84" s="101"/>
+      <c r="M84" s="101"/>
+      <c r="N84" s="101"/>
+      <c r="O84" s="101"/>
       <c r="P84"/>
     </row>
     <row r="85" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B85" s="191"/>
-      <c r="C85" s="192"/>
-      <c r="D85" s="192"/>
-      <c r="E85" s="192"/>
-      <c r="F85" s="192"/>
-      <c r="G85" s="192"/>
-      <c r="H85" s="192"/>
-      <c r="I85" s="192"/>
-      <c r="J85" s="192"/>
-      <c r="K85" s="192"/>
-      <c r="L85" s="192"/>
-      <c r="M85" s="192"/>
-      <c r="N85" s="192"/>
-      <c r="O85" s="192"/>
+      <c r="B85" s="100"/>
+      <c r="C85" s="101"/>
+      <c r="D85" s="101"/>
+      <c r="E85" s="101"/>
+      <c r="F85" s="101"/>
+      <c r="G85" s="101"/>
+      <c r="H85" s="101"/>
+      <c r="I85" s="101"/>
+      <c r="J85" s="101"/>
+      <c r="K85" s="101"/>
+      <c r="L85" s="101"/>
+      <c r="M85" s="101"/>
+      <c r="N85" s="101"/>
+      <c r="O85" s="101"/>
       <c r="P85"/>
     </row>
     <row r="86" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B86" s="191"/>
-      <c r="C86" s="192"/>
-      <c r="D86" s="192"/>
-      <c r="E86" s="192"/>
-      <c r="F86" s="192"/>
-      <c r="G86" s="192"/>
-      <c r="H86" s="192"/>
-      <c r="I86" s="192"/>
-      <c r="J86" s="192"/>
-      <c r="K86" s="192"/>
-      <c r="L86" s="192"/>
-      <c r="M86" s="192"/>
-      <c r="N86" s="192"/>
-      <c r="O86" s="192"/>
+      <c r="B86" s="100"/>
+      <c r="C86" s="101"/>
+      <c r="D86" s="101"/>
+      <c r="E86" s="101"/>
+      <c r="F86" s="101"/>
+      <c r="G86" s="101"/>
+      <c r="H86" s="101"/>
+      <c r="I86" s="101"/>
+      <c r="J86" s="101"/>
+      <c r="K86" s="101"/>
+      <c r="L86" s="101"/>
+      <c r="M86" s="101"/>
+      <c r="N86" s="101"/>
+      <c r="O86" s="101"/>
       <c r="P86"/>
       <c r="Q86"/>
     </row>
     <row r="87" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B87" s="191"/>
-      <c r="C87" s="192"/>
-      <c r="D87" s="192"/>
-      <c r="E87" s="192"/>
-      <c r="F87" s="192"/>
-      <c r="G87" s="192"/>
-      <c r="H87" s="192"/>
-      <c r="I87" s="192"/>
-      <c r="J87" s="192"/>
-      <c r="K87" s="192"/>
-      <c r="L87" s="192"/>
-      <c r="M87" s="192"/>
-      <c r="N87" s="192"/>
-      <c r="O87" s="192"/>
+      <c r="B87" s="100"/>
+      <c r="C87" s="101"/>
+      <c r="D87" s="101"/>
+      <c r="E87" s="101"/>
+      <c r="F87" s="101"/>
+      <c r="G87" s="101"/>
+      <c r="H87" s="101"/>
+      <c r="I87" s="101"/>
+      <c r="J87" s="101"/>
+      <c r="K87" s="101"/>
+      <c r="L87" s="101"/>
+      <c r="M87" s="101"/>
+      <c r="N87" s="101"/>
+      <c r="O87" s="101"/>
       <c r="P87"/>
       <c r="Q87"/>
     </row>
     <row r="88" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B88" s="191"/>
-      <c r="C88" s="192"/>
-      <c r="D88" s="192"/>
-      <c r="E88" s="192"/>
-      <c r="F88" s="192"/>
-      <c r="G88" s="192"/>
-      <c r="H88" s="192"/>
-      <c r="I88" s="192"/>
-      <c r="J88" s="192"/>
-      <c r="K88" s="192"/>
-      <c r="L88" s="192"/>
-      <c r="M88" s="192"/>
-      <c r="N88" s="192"/>
-      <c r="O88" s="192"/>
+      <c r="B88" s="100"/>
+      <c r="C88" s="101"/>
+      <c r="D88" s="101"/>
+      <c r="E88" s="101"/>
+      <c r="F88" s="101"/>
+      <c r="G88" s="101"/>
+      <c r="H88" s="101"/>
+      <c r="I88" s="101"/>
+      <c r="J88" s="101"/>
+      <c r="K88" s="101"/>
+      <c r="L88" s="101"/>
+      <c r="M88" s="101"/>
+      <c r="N88" s="101"/>
+      <c r="O88" s="101"/>
       <c r="P88"/>
       <c r="Q88"/>
     </row>
     <row r="89" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B89" s="191"/>
-      <c r="C89" s="192"/>
-      <c r="D89" s="192"/>
-      <c r="E89" s="192"/>
-      <c r="F89" s="192"/>
-      <c r="G89" s="192"/>
-      <c r="H89" s="192"/>
-      <c r="I89" s="192"/>
-      <c r="J89" s="192"/>
-      <c r="K89" s="192"/>
-      <c r="L89" s="192"/>
-      <c r="M89" s="192"/>
-      <c r="N89" s="192"/>
-      <c r="O89" s="192"/>
+      <c r="B89" s="100"/>
+      <c r="C89" s="101"/>
+      <c r="D89" s="101"/>
+      <c r="E89" s="101"/>
+      <c r="F89" s="101"/>
+      <c r="G89" s="101"/>
+      <c r="H89" s="101"/>
+      <c r="I89" s="101"/>
+      <c r="J89" s="101"/>
+      <c r="K89" s="101"/>
+      <c r="L89" s="101"/>
+      <c r="M89" s="101"/>
+      <c r="N89" s="101"/>
+      <c r="O89" s="101"/>
       <c r="P89"/>
       <c r="Q89"/>
     </row>
     <row r="90" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B90" s="191"/>
-      <c r="C90" s="192"/>
-      <c r="D90" s="192"/>
-      <c r="E90" s="192"/>
-      <c r="F90" s="192"/>
-      <c r="G90" s="192"/>
-      <c r="H90" s="192"/>
-      <c r="I90" s="192"/>
-      <c r="J90" s="192"/>
-      <c r="K90" s="192"/>
-      <c r="L90" s="192"/>
-      <c r="M90" s="192"/>
-      <c r="N90" s="192"/>
-      <c r="O90" s="192"/>
+      <c r="B90" s="100"/>
+      <c r="C90" s="101"/>
+      <c r="D90" s="101"/>
+      <c r="E90" s="101"/>
+      <c r="F90" s="101"/>
+      <c r="G90" s="101"/>
+      <c r="H90" s="101"/>
+      <c r="I90" s="101"/>
+      <c r="J90" s="101"/>
+      <c r="K90" s="101"/>
+      <c r="L90" s="101"/>
+      <c r="M90" s="101"/>
+      <c r="N90" s="101"/>
+      <c r="O90" s="101"/>
       <c r="P90"/>
       <c r="Q90"/>
     </row>
     <row r="91" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B91" s="191"/>
-      <c r="C91" s="192"/>
-      <c r="D91" s="192"/>
-      <c r="E91" s="192"/>
-      <c r="F91" s="192"/>
-      <c r="G91" s="192"/>
-      <c r="H91" s="192"/>
-      <c r="I91" s="192"/>
-      <c r="J91" s="192"/>
-      <c r="K91" s="192"/>
-      <c r="L91" s="192"/>
-      <c r="M91" s="192"/>
-      <c r="N91" s="192"/>
-      <c r="O91" s="192"/>
+      <c r="B91" s="100"/>
+      <c r="C91" s="101"/>
+      <c r="D91" s="101"/>
+      <c r="E91" s="101"/>
+      <c r="F91" s="101"/>
+      <c r="G91" s="101"/>
+      <c r="H91" s="101"/>
+      <c r="I91" s="101"/>
+      <c r="J91" s="101"/>
+      <c r="K91" s="101"/>
+      <c r="L91" s="101"/>
+      <c r="M91" s="101"/>
+      <c r="N91" s="101"/>
+      <c r="O91" s="101"/>
       <c r="P91"/>
       <c r="Q91"/>
     </row>
     <row r="92" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B92" s="191"/>
-      <c r="C92" s="192"/>
-      <c r="D92" s="192"/>
-      <c r="E92" s="192"/>
-      <c r="F92" s="192"/>
-      <c r="G92" s="192"/>
-      <c r="H92" s="192"/>
-      <c r="I92" s="192"/>
-      <c r="J92" s="192"/>
-      <c r="K92" s="192"/>
-      <c r="L92" s="192"/>
-      <c r="M92" s="192"/>
-      <c r="N92" s="192"/>
-      <c r="O92" s="192"/>
+      <c r="B92" s="100"/>
+      <c r="C92" s="101"/>
+      <c r="D92" s="101"/>
+      <c r="E92" s="101"/>
+      <c r="F92" s="101"/>
+      <c r="G92" s="101"/>
+      <c r="H92" s="101"/>
+      <c r="I92" s="101"/>
+      <c r="J92" s="101"/>
+      <c r="K92" s="101"/>
+      <c r="L92" s="101"/>
+      <c r="M92" s="101"/>
+      <c r="N92" s="101"/>
+      <c r="O92" s="101"/>
       <c r="P92"/>
       <c r="Q92"/>
     </row>
     <row r="93" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B93" s="191"/>
-      <c r="C93" s="192"/>
-      <c r="D93" s="192"/>
-      <c r="E93" s="192"/>
-      <c r="F93" s="192"/>
-      <c r="G93" s="192"/>
-      <c r="H93" s="192"/>
-      <c r="I93" s="192"/>
-      <c r="J93" s="192"/>
-      <c r="K93" s="192"/>
-      <c r="L93" s="192"/>
-      <c r="M93" s="192"/>
-      <c r="N93" s="192"/>
-      <c r="O93" s="192"/>
+      <c r="B93" s="100"/>
+      <c r="C93" s="101"/>
+      <c r="D93" s="101"/>
+      <c r="E93" s="101"/>
+      <c r="F93" s="101"/>
+      <c r="G93" s="101"/>
+      <c r="H93" s="101"/>
+      <c r="I93" s="101"/>
+      <c r="J93" s="101"/>
+      <c r="K93" s="101"/>
+      <c r="L93" s="101"/>
+      <c r="M93" s="101"/>
+      <c r="N93" s="101"/>
+      <c r="O93" s="101"/>
       <c r="P93"/>
       <c r="Q93"/>
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B94" s="191"/>
-      <c r="C94" s="192"/>
-      <c r="D94" s="192"/>
-      <c r="E94" s="192"/>
-      <c r="F94" s="192"/>
-      <c r="G94" s="192"/>
-      <c r="H94" s="192"/>
-      <c r="I94" s="192"/>
-      <c r="J94" s="192"/>
-      <c r="K94" s="192"/>
-      <c r="L94" s="192"/>
-      <c r="M94" s="192"/>
-      <c r="N94" s="192"/>
-      <c r="O94" s="192"/>
+      <c r="B94" s="100"/>
+      <c r="C94" s="101"/>
+      <c r="D94" s="101"/>
+      <c r="E94" s="101"/>
+      <c r="F94" s="101"/>
+      <c r="G94" s="101"/>
+      <c r="H94" s="101"/>
+      <c r="I94" s="101"/>
+      <c r="J94" s="101"/>
+      <c r="K94" s="101"/>
+      <c r="L94" s="101"/>
+      <c r="M94" s="101"/>
+      <c r="N94" s="101"/>
+      <c r="O94" s="101"/>
       <c r="P94"/>
       <c r="Q94"/>
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B95" s="191"/>
-      <c r="C95" s="192"/>
-      <c r="D95" s="192"/>
-      <c r="E95" s="192"/>
-      <c r="F95" s="192"/>
-      <c r="G95" s="192"/>
-      <c r="H95" s="192"/>
-      <c r="I95" s="192"/>
-      <c r="J95" s="192"/>
-      <c r="K95" s="192"/>
-      <c r="L95" s="192"/>
-      <c r="M95" s="192"/>
-      <c r="N95" s="192"/>
-      <c r="O95" s="192"/>
+      <c r="B95" s="100"/>
+      <c r="C95" s="101"/>
+      <c r="D95" s="101"/>
+      <c r="E95" s="101"/>
+      <c r="F95" s="101"/>
+      <c r="G95" s="101"/>
+      <c r="H95" s="101"/>
+      <c r="I95" s="101"/>
+      <c r="J95" s="101"/>
+      <c r="K95" s="101"/>
+      <c r="L95" s="101"/>
+      <c r="M95" s="101"/>
+      <c r="N95" s="101"/>
+      <c r="O95" s="101"/>
       <c r="P95"/>
       <c r="Q95"/>
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B96" s="191"/>
-      <c r="C96" s="192"/>
-      <c r="D96" s="192"/>
-      <c r="E96" s="192"/>
-      <c r="F96" s="192"/>
-      <c r="G96" s="192"/>
-      <c r="H96" s="192"/>
-      <c r="I96" s="192"/>
-      <c r="J96" s="192"/>
-      <c r="K96" s="192"/>
-      <c r="L96" s="192"/>
-      <c r="M96" s="192"/>
-      <c r="N96" s="192"/>
-      <c r="O96" s="192"/>
+      <c r="B96" s="100"/>
+      <c r="C96" s="101"/>
+      <c r="D96" s="101"/>
+      <c r="E96" s="101"/>
+      <c r="F96" s="101"/>
+      <c r="G96" s="101"/>
+      <c r="H96" s="101"/>
+      <c r="I96" s="101"/>
+      <c r="J96" s="101"/>
+      <c r="K96" s="101"/>
+      <c r="L96" s="101"/>
+      <c r="M96" s="101"/>
+      <c r="N96" s="101"/>
+      <c r="O96" s="101"/>
       <c r="P96"/>
       <c r="Q96"/>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B97" s="191"/>
-      <c r="C97" s="192"/>
-      <c r="D97" s="192"/>
-      <c r="E97" s="192"/>
-      <c r="F97" s="192"/>
-      <c r="G97" s="192"/>
-      <c r="H97" s="192"/>
-      <c r="I97" s="192"/>
-      <c r="J97" s="192"/>
-      <c r="K97" s="192"/>
-      <c r="L97" s="192"/>
-      <c r="M97" s="192"/>
-      <c r="N97" s="192"/>
-      <c r="O97" s="192"/>
+      <c r="B97" s="100"/>
+      <c r="C97" s="101"/>
+      <c r="D97" s="101"/>
+      <c r="E97" s="101"/>
+      <c r="F97" s="101"/>
+      <c r="G97" s="101"/>
+      <c r="H97" s="101"/>
+      <c r="I97" s="101"/>
+      <c r="J97" s="101"/>
+      <c r="K97" s="101"/>
+      <c r="L97" s="101"/>
+      <c r="M97" s="101"/>
+      <c r="N97" s="101"/>
+      <c r="O97" s="101"/>
       <c r="P97"/>
       <c r="Q97"/>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B98" s="191"/>
-      <c r="C98" s="192"/>
-      <c r="D98" s="192"/>
-      <c r="E98" s="192"/>
-      <c r="F98" s="192"/>
-      <c r="G98" s="192"/>
-      <c r="H98" s="192"/>
-      <c r="I98" s="192"/>
-      <c r="J98" s="192"/>
-      <c r="K98" s="192"/>
-      <c r="L98" s="192"/>
-      <c r="M98" s="192"/>
-      <c r="N98" s="192"/>
-      <c r="O98" s="192"/>
+      <c r="B98" s="100"/>
+      <c r="C98" s="101"/>
+      <c r="D98" s="101"/>
+      <c r="E98" s="101"/>
+      <c r="F98" s="101"/>
+      <c r="G98" s="101"/>
+      <c r="H98" s="101"/>
+      <c r="I98" s="101"/>
+      <c r="J98" s="101"/>
+      <c r="K98" s="101"/>
+      <c r="L98" s="101"/>
+      <c r="M98" s="101"/>
+      <c r="N98" s="101"/>
+      <c r="O98" s="101"/>
       <c r="P98"/>
       <c r="Q98"/>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B99" s="191"/>
-      <c r="C99" s="192"/>
-      <c r="D99" s="192"/>
-      <c r="E99" s="192"/>
-      <c r="F99" s="192"/>
-      <c r="G99" s="192"/>
-      <c r="H99" s="192"/>
-      <c r="I99" s="192"/>
-      <c r="J99" s="192"/>
-      <c r="K99" s="192"/>
-      <c r="L99" s="192"/>
-      <c r="M99" s="192"/>
-      <c r="N99" s="192"/>
-      <c r="O99" s="192"/>
+      <c r="B99" s="100"/>
+      <c r="C99" s="101"/>
+      <c r="D99" s="101"/>
+      <c r="E99" s="101"/>
+      <c r="F99" s="101"/>
+      <c r="G99" s="101"/>
+      <c r="H99" s="101"/>
+      <c r="I99" s="101"/>
+      <c r="J99" s="101"/>
+      <c r="K99" s="101"/>
+      <c r="L99" s="101"/>
+      <c r="M99" s="101"/>
+      <c r="N99" s="101"/>
+      <c r="O99" s="101"/>
       <c r="P99"/>
       <c r="Q99"/>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B100" s="191"/>
-      <c r="C100" s="192"/>
-      <c r="D100" s="192"/>
-      <c r="E100" s="192"/>
-      <c r="F100" s="192"/>
-      <c r="G100" s="192"/>
-      <c r="H100" s="192"/>
-      <c r="I100" s="192"/>
-      <c r="J100" s="192"/>
-      <c r="K100" s="192"/>
-      <c r="L100" s="192"/>
-      <c r="M100" s="192"/>
-      <c r="N100" s="192"/>
-      <c r="O100" s="192"/>
+      <c r="B100" s="100"/>
+      <c r="C100" s="101"/>
+      <c r="D100" s="101"/>
+      <c r="E100" s="101"/>
+      <c r="F100" s="101"/>
+      <c r="G100" s="101"/>
+      <c r="H100" s="101"/>
+      <c r="I100" s="101"/>
+      <c r="J100" s="101"/>
+      <c r="K100" s="101"/>
+      <c r="L100" s="101"/>
+      <c r="M100" s="101"/>
+      <c r="N100" s="101"/>
+      <c r="O100" s="101"/>
       <c r="P100"/>
       <c r="Q100"/>
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B101" s="191"/>
-      <c r="C101" s="192"/>
-      <c r="D101" s="192"/>
-      <c r="E101" s="192"/>
-      <c r="F101" s="192"/>
-      <c r="G101" s="192"/>
-      <c r="H101" s="192"/>
-      <c r="I101" s="192"/>
-      <c r="J101" s="192"/>
-      <c r="K101" s="192"/>
-      <c r="L101" s="192"/>
-      <c r="M101" s="192"/>
-      <c r="N101" s="192"/>
-      <c r="O101" s="192"/>
+      <c r="B101" s="100"/>
+      <c r="C101" s="101"/>
+      <c r="D101" s="101"/>
+      <c r="E101" s="101"/>
+      <c r="F101" s="101"/>
+      <c r="G101" s="101"/>
+      <c r="H101" s="101"/>
+      <c r="I101" s="101"/>
+      <c r="J101" s="101"/>
+      <c r="K101" s="101"/>
+      <c r="L101" s="101"/>
+      <c r="M101" s="101"/>
+      <c r="N101" s="101"/>
+      <c r="O101" s="101"/>
       <c r="P101"/>
       <c r="Q101"/>
     </row>
@@ -6992,17 +7054,17 @@
       <c r="Q102"/>
     </row>
     <row r="103" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="193" t="s">
+      <c r="B103" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="193"/>
-      <c r="D103" s="193"/>
-      <c r="E103" s="193"/>
-      <c r="F103" s="193"/>
-      <c r="G103" s="193"/>
-      <c r="H103" s="193"/>
-      <c r="I103" s="193"/>
-      <c r="J103" s="193"/>
+      <c r="C103" s="141"/>
+      <c r="D103" s="141"/>
+      <c r="E103" s="141"/>
+      <c r="F103" s="141"/>
+      <c r="G103" s="141"/>
+      <c r="H103" s="141"/>
+      <c r="I103" s="141"/>
+      <c r="J103" s="141"/>
       <c r="K103"/>
       <c r="L103"/>
       <c r="M103"/>
@@ -7012,416 +7074,416 @@
       <c r="Q103"/>
     </row>
     <row r="104" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B104" s="191"/>
-      <c r="C104" s="192"/>
-      <c r="D104" s="192"/>
-      <c r="E104" s="192"/>
-      <c r="F104" s="192"/>
-      <c r="G104" s="192"/>
-      <c r="H104" s="192"/>
-      <c r="I104" s="192"/>
-      <c r="J104" s="192"/>
-      <c r="K104" s="192"/>
-      <c r="L104" s="192"/>
-      <c r="M104" s="192"/>
-      <c r="N104" s="192"/>
-      <c r="O104" s="192"/>
+      <c r="B104" s="100"/>
+      <c r="C104" s="101"/>
+      <c r="D104" s="101"/>
+      <c r="E104" s="101"/>
+      <c r="F104" s="101"/>
+      <c r="G104" s="101"/>
+      <c r="H104" s="101"/>
+      <c r="I104" s="101"/>
+      <c r="J104" s="101"/>
+      <c r="K104" s="101"/>
+      <c r="L104" s="101"/>
+      <c r="M104" s="101"/>
+      <c r="N104" s="101"/>
+      <c r="O104" s="101"/>
       <c r="P104"/>
       <c r="Q104"/>
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B105" s="191"/>
-      <c r="C105" s="192"/>
-      <c r="D105" s="192"/>
-      <c r="E105" s="192"/>
-      <c r="F105" s="192"/>
-      <c r="G105" s="192"/>
-      <c r="H105" s="192"/>
-      <c r="I105" s="192"/>
-      <c r="J105" s="192"/>
-      <c r="K105" s="192"/>
-      <c r="L105" s="192"/>
-      <c r="M105" s="192"/>
-      <c r="N105" s="192"/>
-      <c r="O105" s="192"/>
+      <c r="B105" s="100"/>
+      <c r="C105" s="101"/>
+      <c r="D105" s="101"/>
+      <c r="E105" s="101"/>
+      <c r="F105" s="101"/>
+      <c r="G105" s="101"/>
+      <c r="H105" s="101"/>
+      <c r="I105" s="101"/>
+      <c r="J105" s="101"/>
+      <c r="K105" s="101"/>
+      <c r="L105" s="101"/>
+      <c r="M105" s="101"/>
+      <c r="N105" s="101"/>
+      <c r="O105" s="101"/>
       <c r="P105"/>
       <c r="Q105"/>
     </row>
     <row r="106" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B106" s="191"/>
-      <c r="C106" s="192"/>
-      <c r="D106" s="192"/>
-      <c r="E106" s="192"/>
-      <c r="F106" s="192"/>
-      <c r="G106" s="192"/>
-      <c r="H106" s="192"/>
-      <c r="I106" s="192"/>
-      <c r="J106" s="192"/>
-      <c r="K106" s="192"/>
-      <c r="L106" s="192"/>
-      <c r="M106" s="192"/>
-      <c r="N106" s="192"/>
-      <c r="O106" s="192"/>
+      <c r="B106" s="100"/>
+      <c r="C106" s="101"/>
+      <c r="D106" s="101"/>
+      <c r="E106" s="101"/>
+      <c r="F106" s="101"/>
+      <c r="G106" s="101"/>
+      <c r="H106" s="101"/>
+      <c r="I106" s="101"/>
+      <c r="J106" s="101"/>
+      <c r="K106" s="101"/>
+      <c r="L106" s="101"/>
+      <c r="M106" s="101"/>
+      <c r="N106" s="101"/>
+      <c r="O106" s="101"/>
       <c r="P106"/>
       <c r="Q106"/>
     </row>
     <row r="107" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B107" s="191"/>
-      <c r="C107" s="192"/>
-      <c r="D107" s="192"/>
-      <c r="E107" s="192"/>
-      <c r="F107" s="192"/>
-      <c r="G107" s="192"/>
-      <c r="H107" s="192"/>
-      <c r="I107" s="192"/>
-      <c r="J107" s="192"/>
-      <c r="K107" s="192"/>
-      <c r="L107" s="192"/>
-      <c r="M107" s="192"/>
-      <c r="N107" s="192"/>
-      <c r="O107" s="192"/>
+      <c r="B107" s="100"/>
+      <c r="C107" s="101"/>
+      <c r="D107" s="101"/>
+      <c r="E107" s="101"/>
+      <c r="F107" s="101"/>
+      <c r="G107" s="101"/>
+      <c r="H107" s="101"/>
+      <c r="I107" s="101"/>
+      <c r="J107" s="101"/>
+      <c r="K107" s="101"/>
+      <c r="L107" s="101"/>
+      <c r="M107" s="101"/>
+      <c r="N107" s="101"/>
+      <c r="O107" s="101"/>
       <c r="P107"/>
       <c r="Q107"/>
     </row>
     <row r="108" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B108" s="191"/>
-      <c r="C108" s="192"/>
-      <c r="D108" s="192"/>
-      <c r="E108" s="192"/>
-      <c r="F108" s="192"/>
-      <c r="G108" s="192"/>
-      <c r="H108" s="192"/>
-      <c r="I108" s="192"/>
-      <c r="J108" s="192"/>
-      <c r="K108" s="192"/>
-      <c r="L108" s="192"/>
-      <c r="M108" s="192"/>
-      <c r="N108" s="192"/>
-      <c r="O108" s="192"/>
+      <c r="B108" s="100"/>
+      <c r="C108" s="101"/>
+      <c r="D108" s="101"/>
+      <c r="E108" s="101"/>
+      <c r="F108" s="101"/>
+      <c r="G108" s="101"/>
+      <c r="H108" s="101"/>
+      <c r="I108" s="101"/>
+      <c r="J108" s="101"/>
+      <c r="K108" s="101"/>
+      <c r="L108" s="101"/>
+      <c r="M108" s="101"/>
+      <c r="N108" s="101"/>
+      <c r="O108" s="101"/>
       <c r="P108"/>
       <c r="Q108"/>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B109" s="191"/>
-      <c r="C109" s="192"/>
-      <c r="D109" s="192"/>
-      <c r="E109" s="192"/>
-      <c r="F109" s="192"/>
-      <c r="G109" s="192"/>
-      <c r="H109" s="192"/>
-      <c r="I109" s="192"/>
-      <c r="J109" s="192"/>
-      <c r="K109" s="192"/>
-      <c r="L109" s="192"/>
-      <c r="M109" s="192"/>
-      <c r="N109" s="192"/>
-      <c r="O109" s="192"/>
+      <c r="B109" s="100"/>
+      <c r="C109" s="101"/>
+      <c r="D109" s="101"/>
+      <c r="E109" s="101"/>
+      <c r="F109" s="101"/>
+      <c r="G109" s="101"/>
+      <c r="H109" s="101"/>
+      <c r="I109" s="101"/>
+      <c r="J109" s="101"/>
+      <c r="K109" s="101"/>
+      <c r="L109" s="101"/>
+      <c r="M109" s="101"/>
+      <c r="N109" s="101"/>
+      <c r="O109" s="101"/>
       <c r="P109"/>
       <c r="Q109"/>
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B110" s="191"/>
-      <c r="C110" s="192"/>
-      <c r="D110" s="192"/>
-      <c r="E110" s="192"/>
-      <c r="F110" s="192"/>
-      <c r="G110" s="192"/>
-      <c r="H110" s="192"/>
-      <c r="I110" s="192"/>
-      <c r="J110" s="192"/>
-      <c r="K110" s="192"/>
-      <c r="L110" s="192"/>
-      <c r="M110" s="192"/>
-      <c r="N110" s="192"/>
-      <c r="O110" s="192"/>
+      <c r="B110" s="100"/>
+      <c r="C110" s="101"/>
+      <c r="D110" s="101"/>
+      <c r="E110" s="101"/>
+      <c r="F110" s="101"/>
+      <c r="G110" s="101"/>
+      <c r="H110" s="101"/>
+      <c r="I110" s="101"/>
+      <c r="J110" s="101"/>
+      <c r="K110" s="101"/>
+      <c r="L110" s="101"/>
+      <c r="M110" s="101"/>
+      <c r="N110" s="101"/>
+      <c r="O110" s="101"/>
       <c r="P110"/>
       <c r="Q110"/>
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B111" s="191"/>
-      <c r="C111" s="192"/>
-      <c r="D111" s="192"/>
-      <c r="E111" s="192"/>
-      <c r="F111" s="192"/>
-      <c r="G111" s="192"/>
-      <c r="H111" s="192"/>
-      <c r="I111" s="192"/>
-      <c r="J111" s="192"/>
-      <c r="K111" s="192"/>
-      <c r="L111" s="192"/>
-      <c r="M111" s="192"/>
-      <c r="N111" s="192"/>
-      <c r="O111" s="192"/>
+      <c r="B111" s="100"/>
+      <c r="C111" s="101"/>
+      <c r="D111" s="101"/>
+      <c r="E111" s="101"/>
+      <c r="F111" s="101"/>
+      <c r="G111" s="101"/>
+      <c r="H111" s="101"/>
+      <c r="I111" s="101"/>
+      <c r="J111" s="101"/>
+      <c r="K111" s="101"/>
+      <c r="L111" s="101"/>
+      <c r="M111" s="101"/>
+      <c r="N111" s="101"/>
+      <c r="O111" s="101"/>
       <c r="P111"/>
       <c r="Q111"/>
     </row>
     <row r="112" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B112" s="191"/>
-      <c r="C112" s="192"/>
-      <c r="D112" s="192"/>
-      <c r="E112" s="192"/>
-      <c r="F112" s="192"/>
-      <c r="G112" s="192"/>
-      <c r="H112" s="192"/>
-      <c r="I112" s="192"/>
-      <c r="J112" s="192"/>
-      <c r="K112" s="192"/>
-      <c r="L112" s="192"/>
-      <c r="M112" s="192"/>
-      <c r="N112" s="192"/>
-      <c r="O112" s="192"/>
+      <c r="B112" s="100"/>
+      <c r="C112" s="101"/>
+      <c r="D112" s="101"/>
+      <c r="E112" s="101"/>
+      <c r="F112" s="101"/>
+      <c r="G112" s="101"/>
+      <c r="H112" s="101"/>
+      <c r="I112" s="101"/>
+      <c r="J112" s="101"/>
+      <c r="K112" s="101"/>
+      <c r="L112" s="101"/>
+      <c r="M112" s="101"/>
+      <c r="N112" s="101"/>
+      <c r="O112" s="101"/>
       <c r="P112"/>
       <c r="Q112"/>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B113" s="191"/>
-      <c r="C113" s="192"/>
-      <c r="D113" s="192"/>
-      <c r="E113" s="192"/>
-      <c r="F113" s="192"/>
-      <c r="G113" s="192"/>
-      <c r="H113" s="192"/>
-      <c r="I113" s="192"/>
-      <c r="J113" s="192"/>
-      <c r="K113" s="192"/>
-      <c r="L113" s="192"/>
-      <c r="M113" s="192"/>
-      <c r="N113" s="192"/>
-      <c r="O113" s="192"/>
+      <c r="B113" s="100"/>
+      <c r="C113" s="101"/>
+      <c r="D113" s="101"/>
+      <c r="E113" s="101"/>
+      <c r="F113" s="101"/>
+      <c r="G113" s="101"/>
+      <c r="H113" s="101"/>
+      <c r="I113" s="101"/>
+      <c r="J113" s="101"/>
+      <c r="K113" s="101"/>
+      <c r="L113" s="101"/>
+      <c r="M113" s="101"/>
+      <c r="N113" s="101"/>
+      <c r="O113" s="101"/>
       <c r="P113"/>
       <c r="Q113"/>
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B114" s="191"/>
-      <c r="C114" s="192"/>
-      <c r="D114" s="192"/>
-      <c r="E114" s="192"/>
-      <c r="F114" s="192"/>
-      <c r="G114" s="192"/>
-      <c r="H114" s="192"/>
-      <c r="I114" s="192"/>
-      <c r="J114" s="192"/>
-      <c r="K114" s="192"/>
-      <c r="L114" s="192"/>
-      <c r="M114" s="192"/>
-      <c r="N114" s="192"/>
-      <c r="O114" s="192"/>
+      <c r="B114" s="100"/>
+      <c r="C114" s="101"/>
+      <c r="D114" s="101"/>
+      <c r="E114" s="101"/>
+      <c r="F114" s="101"/>
+      <c r="G114" s="101"/>
+      <c r="H114" s="101"/>
+      <c r="I114" s="101"/>
+      <c r="J114" s="101"/>
+      <c r="K114" s="101"/>
+      <c r="L114" s="101"/>
+      <c r="M114" s="101"/>
+      <c r="N114" s="101"/>
+      <c r="O114" s="101"/>
       <c r="P114"/>
       <c r="Q114"/>
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B115" s="191"/>
-      <c r="C115" s="192"/>
-      <c r="D115" s="192"/>
-      <c r="E115" s="192"/>
-      <c r="F115" s="192"/>
-      <c r="G115" s="192"/>
-      <c r="H115" s="192"/>
-      <c r="I115" s="192"/>
-      <c r="J115" s="192"/>
-      <c r="K115" s="192"/>
-      <c r="L115" s="192"/>
-      <c r="M115" s="192"/>
-      <c r="N115" s="192"/>
-      <c r="O115" s="192"/>
+      <c r="B115" s="100"/>
+      <c r="C115" s="101"/>
+      <c r="D115" s="101"/>
+      <c r="E115" s="101"/>
+      <c r="F115" s="101"/>
+      <c r="G115" s="101"/>
+      <c r="H115" s="101"/>
+      <c r="I115" s="101"/>
+      <c r="J115" s="101"/>
+      <c r="K115" s="101"/>
+      <c r="L115" s="101"/>
+      <c r="M115" s="101"/>
+      <c r="N115" s="101"/>
+      <c r="O115" s="101"/>
       <c r="P115"/>
       <c r="Q115"/>
     </row>
     <row r="116" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B116" s="191"/>
-      <c r="C116" s="192"/>
-      <c r="D116" s="192"/>
-      <c r="E116" s="192"/>
-      <c r="F116" s="192"/>
-      <c r="G116" s="192"/>
-      <c r="H116" s="192"/>
-      <c r="I116" s="192"/>
-      <c r="J116" s="192"/>
-      <c r="K116" s="192"/>
-      <c r="L116" s="192"/>
-      <c r="M116" s="192"/>
-      <c r="N116" s="192"/>
-      <c r="O116" s="192"/>
+      <c r="B116" s="100"/>
+      <c r="C116" s="101"/>
+      <c r="D116" s="101"/>
+      <c r="E116" s="101"/>
+      <c r="F116" s="101"/>
+      <c r="G116" s="101"/>
+      <c r="H116" s="101"/>
+      <c r="I116" s="101"/>
+      <c r="J116" s="101"/>
+      <c r="K116" s="101"/>
+      <c r="L116" s="101"/>
+      <c r="M116" s="101"/>
+      <c r="N116" s="101"/>
+      <c r="O116" s="101"/>
       <c r="P116"/>
       <c r="Q116"/>
     </row>
     <row r="117" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B117" s="191"/>
-      <c r="C117" s="192"/>
-      <c r="D117" s="192"/>
-      <c r="E117" s="192"/>
-      <c r="F117" s="192"/>
-      <c r="G117" s="192"/>
-      <c r="H117" s="192"/>
-      <c r="I117" s="192"/>
-      <c r="J117" s="192"/>
-      <c r="K117" s="192"/>
-      <c r="L117" s="192"/>
-      <c r="M117" s="192"/>
-      <c r="N117" s="192"/>
-      <c r="O117" s="192"/>
+      <c r="B117" s="100"/>
+      <c r="C117" s="101"/>
+      <c r="D117" s="101"/>
+      <c r="E117" s="101"/>
+      <c r="F117" s="101"/>
+      <c r="G117" s="101"/>
+      <c r="H117" s="101"/>
+      <c r="I117" s="101"/>
+      <c r="J117" s="101"/>
+      <c r="K117" s="101"/>
+      <c r="L117" s="101"/>
+      <c r="M117" s="101"/>
+      <c r="N117" s="101"/>
+      <c r="O117" s="101"/>
       <c r="P117"/>
       <c r="Q117"/>
     </row>
     <row r="118" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B118" s="191"/>
-      <c r="C118" s="192"/>
-      <c r="D118" s="192"/>
-      <c r="E118" s="192"/>
-      <c r="F118" s="192"/>
-      <c r="G118" s="192"/>
-      <c r="H118" s="192"/>
-      <c r="I118" s="192"/>
-      <c r="J118" s="192"/>
-      <c r="K118" s="192"/>
-      <c r="L118" s="192"/>
-      <c r="M118" s="192"/>
-      <c r="N118" s="192"/>
-      <c r="O118" s="192"/>
+      <c r="B118" s="100"/>
+      <c r="C118" s="101"/>
+      <c r="D118" s="101"/>
+      <c r="E118" s="101"/>
+      <c r="F118" s="101"/>
+      <c r="G118" s="101"/>
+      <c r="H118" s="101"/>
+      <c r="I118" s="101"/>
+      <c r="J118" s="101"/>
+      <c r="K118" s="101"/>
+      <c r="L118" s="101"/>
+      <c r="M118" s="101"/>
+      <c r="N118" s="101"/>
+      <c r="O118" s="101"/>
       <c r="P118"/>
       <c r="Q118"/>
     </row>
     <row r="119" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B119" s="191"/>
-      <c r="C119" s="192"/>
-      <c r="D119" s="192"/>
-      <c r="E119" s="192"/>
-      <c r="F119" s="192"/>
-      <c r="G119" s="192"/>
-      <c r="H119" s="192"/>
-      <c r="I119" s="192"/>
-      <c r="J119" s="192"/>
-      <c r="K119" s="192"/>
-      <c r="L119" s="192"/>
-      <c r="M119" s="192"/>
-      <c r="N119" s="192"/>
-      <c r="O119" s="192"/>
+      <c r="B119" s="100"/>
+      <c r="C119" s="101"/>
+      <c r="D119" s="101"/>
+      <c r="E119" s="101"/>
+      <c r="F119" s="101"/>
+      <c r="G119" s="101"/>
+      <c r="H119" s="101"/>
+      <c r="I119" s="101"/>
+      <c r="J119" s="101"/>
+      <c r="K119" s="101"/>
+      <c r="L119" s="101"/>
+      <c r="M119" s="101"/>
+      <c r="N119" s="101"/>
+      <c r="O119" s="101"/>
       <c r="P119"/>
       <c r="Q119"/>
     </row>
     <row r="120" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B120" s="191"/>
-      <c r="C120" s="192"/>
-      <c r="D120" s="192"/>
-      <c r="E120" s="192"/>
-      <c r="F120" s="192"/>
-      <c r="G120" s="192"/>
-      <c r="H120" s="192"/>
-      <c r="I120" s="192"/>
-      <c r="J120" s="192"/>
-      <c r="K120" s="192"/>
-      <c r="L120" s="192"/>
-      <c r="M120" s="192"/>
-      <c r="N120" s="192"/>
-      <c r="O120" s="192"/>
+      <c r="B120" s="100"/>
+      <c r="C120" s="101"/>
+      <c r="D120" s="101"/>
+      <c r="E120" s="101"/>
+      <c r="F120" s="101"/>
+      <c r="G120" s="101"/>
+      <c r="H120" s="101"/>
+      <c r="I120" s="101"/>
+      <c r="J120" s="101"/>
+      <c r="K120" s="101"/>
+      <c r="L120" s="101"/>
+      <c r="M120" s="101"/>
+      <c r="N120" s="101"/>
+      <c r="O120" s="101"/>
       <c r="P120"/>
       <c r="Q120"/>
     </row>
     <row r="121" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B121" s="191"/>
-      <c r="C121" s="192"/>
-      <c r="D121" s="192"/>
-      <c r="E121" s="192"/>
-      <c r="F121" s="192"/>
-      <c r="G121" s="192"/>
-      <c r="H121" s="192"/>
-      <c r="I121" s="192"/>
-      <c r="J121" s="192"/>
-      <c r="K121" s="192"/>
-      <c r="L121" s="192"/>
-      <c r="M121" s="192"/>
-      <c r="N121" s="192"/>
-      <c r="O121" s="192"/>
+      <c r="B121" s="100"/>
+      <c r="C121" s="101"/>
+      <c r="D121" s="101"/>
+      <c r="E121" s="101"/>
+      <c r="F121" s="101"/>
+      <c r="G121" s="101"/>
+      <c r="H121" s="101"/>
+      <c r="I121" s="101"/>
+      <c r="J121" s="101"/>
+      <c r="K121" s="101"/>
+      <c r="L121" s="101"/>
+      <c r="M121" s="101"/>
+      <c r="N121" s="101"/>
+      <c r="O121" s="101"/>
       <c r="P121"/>
       <c r="Q121"/>
     </row>
     <row r="122" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B122" s="191"/>
-      <c r="C122" s="192"/>
-      <c r="D122" s="192"/>
-      <c r="E122" s="192"/>
-      <c r="F122" s="192"/>
-      <c r="G122" s="192"/>
-      <c r="H122" s="192"/>
-      <c r="I122" s="192"/>
-      <c r="J122" s="192"/>
-      <c r="K122" s="192"/>
-      <c r="L122" s="192"/>
-      <c r="M122" s="192"/>
-      <c r="N122" s="192"/>
-      <c r="O122" s="192"/>
+      <c r="B122" s="100"/>
+      <c r="C122" s="101"/>
+      <c r="D122" s="101"/>
+      <c r="E122" s="101"/>
+      <c r="F122" s="101"/>
+      <c r="G122" s="101"/>
+      <c r="H122" s="101"/>
+      <c r="I122" s="101"/>
+      <c r="J122" s="101"/>
+      <c r="K122" s="101"/>
+      <c r="L122" s="101"/>
+      <c r="M122" s="101"/>
+      <c r="N122" s="101"/>
+      <c r="O122" s="101"/>
       <c r="P122"/>
       <c r="Q122"/>
     </row>
     <row r="123" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B123" s="191"/>
-      <c r="C123" s="192"/>
-      <c r="D123" s="192"/>
-      <c r="E123" s="192"/>
-      <c r="F123" s="192"/>
-      <c r="G123" s="192"/>
-      <c r="H123" s="192"/>
-      <c r="I123" s="192"/>
-      <c r="J123" s="192"/>
-      <c r="K123" s="192"/>
-      <c r="L123" s="192"/>
-      <c r="M123" s="192"/>
-      <c r="N123" s="192"/>
-      <c r="O123" s="192"/>
+      <c r="B123" s="100"/>
+      <c r="C123" s="101"/>
+      <c r="D123" s="101"/>
+      <c r="E123" s="101"/>
+      <c r="F123" s="101"/>
+      <c r="G123" s="101"/>
+      <c r="H123" s="101"/>
+      <c r="I123" s="101"/>
+      <c r="J123" s="101"/>
+      <c r="K123" s="101"/>
+      <c r="L123" s="101"/>
+      <c r="M123" s="101"/>
+      <c r="N123" s="101"/>
+      <c r="O123" s="101"/>
       <c r="P123"/>
       <c r="Q123"/>
     </row>
     <row r="124" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B124" s="191"/>
-      <c r="C124" s="192"/>
-      <c r="D124" s="192"/>
-      <c r="E124" s="192"/>
-      <c r="F124" s="192"/>
-      <c r="G124" s="192"/>
-      <c r="H124" s="192"/>
-      <c r="I124" s="192"/>
-      <c r="J124" s="192"/>
-      <c r="K124" s="192"/>
-      <c r="L124" s="192"/>
-      <c r="M124" s="192"/>
-      <c r="N124" s="192"/>
-      <c r="O124" s="192"/>
+      <c r="B124" s="100"/>
+      <c r="C124" s="101"/>
+      <c r="D124" s="101"/>
+      <c r="E124" s="101"/>
+      <c r="F124" s="101"/>
+      <c r="G124" s="101"/>
+      <c r="H124" s="101"/>
+      <c r="I124" s="101"/>
+      <c r="J124" s="101"/>
+      <c r="K124" s="101"/>
+      <c r="L124" s="101"/>
+      <c r="M124" s="101"/>
+      <c r="N124" s="101"/>
+      <c r="O124" s="101"/>
       <c r="P124"/>
       <c r="Q124"/>
     </row>
     <row r="125" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B125" s="191"/>
-      <c r="C125" s="192"/>
-      <c r="D125" s="192"/>
-      <c r="E125" s="192"/>
-      <c r="F125" s="192"/>
-      <c r="G125" s="192"/>
-      <c r="H125" s="192"/>
-      <c r="I125" s="192"/>
-      <c r="J125" s="192"/>
-      <c r="K125" s="192"/>
-      <c r="L125" s="192"/>
-      <c r="M125" s="192"/>
-      <c r="N125" s="192"/>
-      <c r="O125" s="192"/>
+      <c r="B125" s="100"/>
+      <c r="C125" s="101"/>
+      <c r="D125" s="101"/>
+      <c r="E125" s="101"/>
+      <c r="F125" s="101"/>
+      <c r="G125" s="101"/>
+      <c r="H125" s="101"/>
+      <c r="I125" s="101"/>
+      <c r="J125" s="101"/>
+      <c r="K125" s="101"/>
+      <c r="L125" s="101"/>
+      <c r="M125" s="101"/>
+      <c r="N125" s="101"/>
+      <c r="O125" s="101"/>
       <c r="P125"/>
       <c r="Q125"/>
     </row>
     <row r="126" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B126" s="191"/>
-      <c r="C126" s="192"/>
-      <c r="D126" s="192"/>
-      <c r="E126" s="192"/>
-      <c r="F126" s="192"/>
-      <c r="G126" s="192"/>
-      <c r="H126" s="192"/>
-      <c r="I126" s="192"/>
-      <c r="J126" s="192"/>
-      <c r="K126" s="192"/>
-      <c r="L126" s="192"/>
-      <c r="M126" s="192"/>
-      <c r="N126" s="192"/>
-      <c r="O126" s="192"/>
+      <c r="B126" s="100"/>
+      <c r="C126" s="101"/>
+      <c r="D126" s="101"/>
+      <c r="E126" s="101"/>
+      <c r="F126" s="101"/>
+      <c r="G126" s="101"/>
+      <c r="H126" s="101"/>
+      <c r="I126" s="101"/>
+      <c r="J126" s="101"/>
+      <c r="K126" s="101"/>
+      <c r="L126" s="101"/>
+      <c r="M126" s="101"/>
+      <c r="N126" s="101"/>
+      <c r="O126" s="101"/>
       <c r="P126"/>
       <c r="Q126"/>
     </row>
@@ -7444,17 +7506,17 @@
       <c r="Q127"/>
     </row>
     <row r="128" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B128" s="193" t="s">
+      <c r="B128" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="C128" s="193"/>
-      <c r="D128" s="193"/>
-      <c r="E128" s="193"/>
-      <c r="F128" s="193"/>
-      <c r="G128" s="193"/>
-      <c r="H128" s="193"/>
-      <c r="I128" s="193"/>
-      <c r="J128" s="193"/>
+      <c r="C128" s="141"/>
+      <c r="D128" s="141"/>
+      <c r="E128" s="141"/>
+      <c r="F128" s="141"/>
+      <c r="G128" s="141"/>
+      <c r="H128" s="141"/>
+      <c r="I128" s="141"/>
+      <c r="J128" s="141"/>
       <c r="K128"/>
       <c r="L128"/>
       <c r="M128"/>
@@ -7464,428 +7526,428 @@
       <c r="Q128"/>
     </row>
     <row r="129" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B129" s="191"/>
-      <c r="C129" s="192"/>
-      <c r="D129" s="192"/>
-      <c r="E129" s="192"/>
-      <c r="F129" s="192"/>
-      <c r="G129" s="192"/>
-      <c r="H129" s="192"/>
-      <c r="I129" s="192"/>
-      <c r="J129" s="192"/>
-      <c r="K129" s="192"/>
-      <c r="L129" s="192"/>
-      <c r="M129" s="192"/>
-      <c r="N129" s="192"/>
-      <c r="O129" s="192"/>
+      <c r="B129" s="100"/>
+      <c r="C129" s="101"/>
+      <c r="D129" s="101"/>
+      <c r="E129" s="101"/>
+      <c r="F129" s="101"/>
+      <c r="G129" s="101"/>
+      <c r="H129" s="101"/>
+      <c r="I129" s="101"/>
+      <c r="J129" s="101"/>
+      <c r="K129" s="101"/>
+      <c r="L129" s="101"/>
+      <c r="M129" s="101"/>
+      <c r="N129" s="101"/>
+      <c r="O129" s="101"/>
       <c r="P129"/>
       <c r="Q129"/>
     </row>
     <row r="130" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B130" s="191"/>
-      <c r="C130" s="192"/>
-      <c r="D130" s="192"/>
-      <c r="E130" s="192"/>
-      <c r="F130" s="192"/>
-      <c r="G130" s="192"/>
-      <c r="H130" s="192"/>
-      <c r="I130" s="192"/>
-      <c r="J130" s="192"/>
-      <c r="K130" s="192"/>
-      <c r="L130" s="192"/>
-      <c r="M130" s="192"/>
-      <c r="N130" s="192"/>
-      <c r="O130" s="192"/>
+      <c r="B130" s="100"/>
+      <c r="C130" s="101"/>
+      <c r="D130" s="101"/>
+      <c r="E130" s="101"/>
+      <c r="F130" s="101"/>
+      <c r="G130" s="101"/>
+      <c r="H130" s="101"/>
+      <c r="I130" s="101"/>
+      <c r="J130" s="101"/>
+      <c r="K130" s="101"/>
+      <c r="L130" s="101"/>
+      <c r="M130" s="101"/>
+      <c r="N130" s="101"/>
+      <c r="O130" s="101"/>
       <c r="P130"/>
       <c r="Q130"/>
     </row>
     <row r="131" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B131" s="191"/>
-      <c r="C131" s="192"/>
-      <c r="D131" s="192"/>
-      <c r="E131" s="192"/>
-      <c r="F131" s="192"/>
-      <c r="G131" s="192"/>
-      <c r="H131" s="192"/>
-      <c r="I131" s="192"/>
-      <c r="J131" s="192"/>
-      <c r="K131" s="192"/>
-      <c r="L131" s="192"/>
-      <c r="M131" s="192"/>
-      <c r="N131" s="192"/>
-      <c r="O131" s="192"/>
+      <c r="B131" s="100"/>
+      <c r="C131" s="101"/>
+      <c r="D131" s="101"/>
+      <c r="E131" s="101"/>
+      <c r="F131" s="101"/>
+      <c r="G131" s="101"/>
+      <c r="H131" s="101"/>
+      <c r="I131" s="101"/>
+      <c r="J131" s="101"/>
+      <c r="K131" s="101"/>
+      <c r="L131" s="101"/>
+      <c r="M131" s="101"/>
+      <c r="N131" s="101"/>
+      <c r="O131" s="101"/>
       <c r="P131"/>
       <c r="Q131"/>
     </row>
     <row r="132" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B132" s="191"/>
-      <c r="C132" s="192"/>
-      <c r="D132" s="192"/>
-      <c r="E132" s="192"/>
-      <c r="F132" s="192"/>
-      <c r="G132" s="192"/>
-      <c r="H132" s="192"/>
-      <c r="I132" s="192"/>
-      <c r="J132" s="192"/>
-      <c r="K132" s="192"/>
-      <c r="L132" s="192"/>
-      <c r="M132" s="192"/>
-      <c r="N132" s="192"/>
-      <c r="O132" s="192"/>
+      <c r="B132" s="100"/>
+      <c r="C132" s="101"/>
+      <c r="D132" s="101"/>
+      <c r="E132" s="101"/>
+      <c r="F132" s="101"/>
+      <c r="G132" s="101"/>
+      <c r="H132" s="101"/>
+      <c r="I132" s="101"/>
+      <c r="J132" s="101"/>
+      <c r="K132" s="101"/>
+      <c r="L132" s="101"/>
+      <c r="M132" s="101"/>
+      <c r="N132" s="101"/>
+      <c r="O132" s="101"/>
       <c r="P132"/>
       <c r="Q132"/>
     </row>
     <row r="133" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B133" s="191"/>
-      <c r="C133" s="192"/>
-      <c r="D133" s="192"/>
-      <c r="E133" s="192"/>
-      <c r="F133" s="192"/>
-      <c r="G133" s="192"/>
-      <c r="H133" s="192"/>
-      <c r="I133" s="192"/>
-      <c r="J133" s="192"/>
-      <c r="K133" s="192"/>
-      <c r="L133" s="192"/>
-      <c r="M133" s="192"/>
-      <c r="N133" s="192"/>
-      <c r="O133" s="192"/>
+      <c r="B133" s="100"/>
+      <c r="C133" s="101"/>
+      <c r="D133" s="101"/>
+      <c r="E133" s="101"/>
+      <c r="F133" s="101"/>
+      <c r="G133" s="101"/>
+      <c r="H133" s="101"/>
+      <c r="I133" s="101"/>
+      <c r="J133" s="101"/>
+      <c r="K133" s="101"/>
+      <c r="L133" s="101"/>
+      <c r="M133" s="101"/>
+      <c r="N133" s="101"/>
+      <c r="O133" s="101"/>
       <c r="P133"/>
       <c r="Q133"/>
     </row>
     <row r="134" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B134" s="191"/>
-      <c r="C134" s="192"/>
-      <c r="D134" s="192"/>
-      <c r="E134" s="192"/>
-      <c r="F134" s="192"/>
-      <c r="G134" s="192"/>
-      <c r="H134" s="192"/>
-      <c r="I134" s="192"/>
-      <c r="J134" s="192"/>
-      <c r="K134" s="192"/>
-      <c r="L134" s="192"/>
-      <c r="M134" s="192"/>
-      <c r="N134" s="192"/>
-      <c r="O134" s="192"/>
+      <c r="B134" s="100"/>
+      <c r="C134" s="101"/>
+      <c r="D134" s="101"/>
+      <c r="E134" s="101"/>
+      <c r="F134" s="101"/>
+      <c r="G134" s="101"/>
+      <c r="H134" s="101"/>
+      <c r="I134" s="101"/>
+      <c r="J134" s="101"/>
+      <c r="K134" s="101"/>
+      <c r="L134" s="101"/>
+      <c r="M134" s="101"/>
+      <c r="N134" s="101"/>
+      <c r="O134" s="101"/>
       <c r="P134"/>
       <c r="Q134"/>
     </row>
     <row r="135" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B135" s="191"/>
-      <c r="C135" s="192"/>
-      <c r="D135" s="192"/>
-      <c r="E135" s="192"/>
-      <c r="F135" s="192"/>
-      <c r="G135" s="192"/>
-      <c r="H135" s="192"/>
-      <c r="I135" s="192"/>
-      <c r="J135" s="192"/>
-      <c r="K135" s="192"/>
-      <c r="L135" s="192"/>
-      <c r="M135" s="192"/>
-      <c r="N135" s="192"/>
-      <c r="O135" s="192"/>
+      <c r="B135" s="100"/>
+      <c r="C135" s="101"/>
+      <c r="D135" s="101"/>
+      <c r="E135" s="101"/>
+      <c r="F135" s="101"/>
+      <c r="G135" s="101"/>
+      <c r="H135" s="101"/>
+      <c r="I135" s="101"/>
+      <c r="J135" s="101"/>
+      <c r="K135" s="101"/>
+      <c r="L135" s="101"/>
+      <c r="M135" s="101"/>
+      <c r="N135" s="101"/>
+      <c r="O135" s="101"/>
       <c r="P135"/>
       <c r="Q135"/>
     </row>
     <row r="136" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B136" s="191"/>
-      <c r="C136" s="192"/>
-      <c r="D136" s="192"/>
-      <c r="E136" s="192"/>
-      <c r="F136" s="192"/>
-      <c r="G136" s="192"/>
-      <c r="H136" s="192"/>
-      <c r="I136" s="192"/>
-      <c r="J136" s="192"/>
-      <c r="K136" s="192"/>
-      <c r="L136" s="192"/>
-      <c r="M136" s="192"/>
-      <c r="N136" s="192"/>
-      <c r="O136" s="192"/>
+      <c r="B136" s="100"/>
+      <c r="C136" s="101"/>
+      <c r="D136" s="101"/>
+      <c r="E136" s="101"/>
+      <c r="F136" s="101"/>
+      <c r="G136" s="101"/>
+      <c r="H136" s="101"/>
+      <c r="I136" s="101"/>
+      <c r="J136" s="101"/>
+      <c r="K136" s="101"/>
+      <c r="L136" s="101"/>
+      <c r="M136" s="101"/>
+      <c r="N136" s="101"/>
+      <c r="O136" s="101"/>
       <c r="P136"/>
       <c r="Q136"/>
     </row>
     <row r="137" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B137" s="191"/>
-      <c r="C137" s="192"/>
-      <c r="D137" s="192"/>
-      <c r="E137" s="192"/>
-      <c r="F137" s="192"/>
-      <c r="G137" s="192"/>
-      <c r="H137" s="192"/>
-      <c r="I137" s="192"/>
-      <c r="J137" s="192"/>
-      <c r="K137" s="192"/>
-      <c r="L137" s="192"/>
-      <c r="M137" s="192"/>
-      <c r="N137" s="192"/>
-      <c r="O137" s="192"/>
+      <c r="B137" s="100"/>
+      <c r="C137" s="101"/>
+      <c r="D137" s="101"/>
+      <c r="E137" s="101"/>
+      <c r="F137" s="101"/>
+      <c r="G137" s="101"/>
+      <c r="H137" s="101"/>
+      <c r="I137" s="101"/>
+      <c r="J137" s="101"/>
+      <c r="K137" s="101"/>
+      <c r="L137" s="101"/>
+      <c r="M137" s="101"/>
+      <c r="N137" s="101"/>
+      <c r="O137" s="101"/>
       <c r="P137"/>
       <c r="Q137"/>
     </row>
     <row r="138" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B138" s="191"/>
-      <c r="C138" s="192"/>
-      <c r="D138" s="192"/>
-      <c r="E138" s="192"/>
-      <c r="F138" s="192"/>
-      <c r="G138" s="192"/>
-      <c r="H138" s="192"/>
-      <c r="I138" s="192"/>
-      <c r="J138" s="192"/>
-      <c r="K138" s="192"/>
-      <c r="L138" s="192"/>
-      <c r="M138" s="192"/>
-      <c r="N138" s="192"/>
-      <c r="O138" s="192"/>
+      <c r="B138" s="100"/>
+      <c r="C138" s="101"/>
+      <c r="D138" s="101"/>
+      <c r="E138" s="101"/>
+      <c r="F138" s="101"/>
+      <c r="G138" s="101"/>
+      <c r="H138" s="101"/>
+      <c r="I138" s="101"/>
+      <c r="J138" s="101"/>
+      <c r="K138" s="101"/>
+      <c r="L138" s="101"/>
+      <c r="M138" s="101"/>
+      <c r="N138" s="101"/>
+      <c r="O138" s="101"/>
       <c r="P138"/>
       <c r="Q138"/>
     </row>
     <row r="139" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B139" s="191"/>
-      <c r="C139" s="192"/>
-      <c r="D139" s="192"/>
-      <c r="E139" s="192"/>
-      <c r="F139" s="192"/>
-      <c r="G139" s="192"/>
-      <c r="H139" s="192"/>
-      <c r="I139" s="192"/>
-      <c r="J139" s="192"/>
-      <c r="K139" s="192"/>
-      <c r="L139" s="192"/>
-      <c r="M139" s="192"/>
-      <c r="N139" s="192"/>
-      <c r="O139" s="192"/>
+      <c r="B139" s="100"/>
+      <c r="C139" s="101"/>
+      <c r="D139" s="101"/>
+      <c r="E139" s="101"/>
+      <c r="F139" s="101"/>
+      <c r="G139" s="101"/>
+      <c r="H139" s="101"/>
+      <c r="I139" s="101"/>
+      <c r="J139" s="101"/>
+      <c r="K139" s="101"/>
+      <c r="L139" s="101"/>
+      <c r="M139" s="101"/>
+      <c r="N139" s="101"/>
+      <c r="O139" s="101"/>
       <c r="P139"/>
       <c r="Q139"/>
     </row>
     <row r="140" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B140" s="191"/>
-      <c r="C140" s="192"/>
-      <c r="D140" s="192"/>
-      <c r="E140" s="192"/>
-      <c r="F140" s="192"/>
-      <c r="G140" s="192"/>
-      <c r="H140" s="192"/>
-      <c r="I140" s="192"/>
-      <c r="J140" s="192"/>
-      <c r="K140" s="192"/>
-      <c r="L140" s="192"/>
-      <c r="M140" s="192"/>
-      <c r="N140" s="192"/>
-      <c r="O140" s="192"/>
+      <c r="B140" s="100"/>
+      <c r="C140" s="101"/>
+      <c r="D140" s="101"/>
+      <c r="E140" s="101"/>
+      <c r="F140" s="101"/>
+      <c r="G140" s="101"/>
+      <c r="H140" s="101"/>
+      <c r="I140" s="101"/>
+      <c r="J140" s="101"/>
+      <c r="K140" s="101"/>
+      <c r="L140" s="101"/>
+      <c r="M140" s="101"/>
+      <c r="N140" s="101"/>
+      <c r="O140" s="101"/>
       <c r="P140"/>
       <c r="Q140"/>
     </row>
     <row r="141" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B141" s="191"/>
-      <c r="C141" s="192"/>
-      <c r="D141" s="192"/>
-      <c r="E141" s="192"/>
-      <c r="F141" s="192"/>
-      <c r="G141" s="192"/>
-      <c r="H141" s="192"/>
-      <c r="I141" s="192"/>
-      <c r="J141" s="192"/>
-      <c r="K141" s="192"/>
-      <c r="L141" s="192"/>
-      <c r="M141" s="192"/>
-      <c r="N141" s="192"/>
-      <c r="O141" s="192"/>
+      <c r="B141" s="100"/>
+      <c r="C141" s="101"/>
+      <c r="D141" s="101"/>
+      <c r="E141" s="101"/>
+      <c r="F141" s="101"/>
+      <c r="G141" s="101"/>
+      <c r="H141" s="101"/>
+      <c r="I141" s="101"/>
+      <c r="J141" s="101"/>
+      <c r="K141" s="101"/>
+      <c r="L141" s="101"/>
+      <c r="M141" s="101"/>
+      <c r="N141" s="101"/>
+      <c r="O141" s="101"/>
       <c r="P141"/>
       <c r="Q141"/>
     </row>
     <row r="142" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B142" s="191"/>
-      <c r="C142" s="192"/>
-      <c r="D142" s="192"/>
-      <c r="E142" s="192"/>
-      <c r="F142" s="192"/>
-      <c r="G142" s="192"/>
-      <c r="H142" s="192"/>
-      <c r="I142" s="192"/>
-      <c r="J142" s="192"/>
-      <c r="K142" s="192"/>
-      <c r="L142" s="192"/>
-      <c r="M142" s="192"/>
-      <c r="N142" s="192"/>
-      <c r="O142" s="192"/>
+      <c r="B142" s="100"/>
+      <c r="C142" s="101"/>
+      <c r="D142" s="101"/>
+      <c r="E142" s="101"/>
+      <c r="F142" s="101"/>
+      <c r="G142" s="101"/>
+      <c r="H142" s="101"/>
+      <c r="I142" s="101"/>
+      <c r="J142" s="101"/>
+      <c r="K142" s="101"/>
+      <c r="L142" s="101"/>
+      <c r="M142" s="101"/>
+      <c r="N142" s="101"/>
+      <c r="O142" s="101"/>
       <c r="P142"/>
       <c r="Q142"/>
     </row>
     <row r="143" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B143" s="191"/>
-      <c r="C143" s="192"/>
-      <c r="D143" s="192"/>
-      <c r="E143" s="192"/>
-      <c r="F143" s="192"/>
-      <c r="G143" s="192"/>
-      <c r="H143" s="192"/>
-      <c r="I143" s="192"/>
-      <c r="J143" s="192"/>
-      <c r="K143" s="192"/>
-      <c r="L143" s="192"/>
-      <c r="M143" s="192"/>
-      <c r="N143" s="192"/>
-      <c r="O143" s="192"/>
+      <c r="B143" s="100"/>
+      <c r="C143" s="101"/>
+      <c r="D143" s="101"/>
+      <c r="E143" s="101"/>
+      <c r="F143" s="101"/>
+      <c r="G143" s="101"/>
+      <c r="H143" s="101"/>
+      <c r="I143" s="101"/>
+      <c r="J143" s="101"/>
+      <c r="K143" s="101"/>
+      <c r="L143" s="101"/>
+      <c r="M143" s="101"/>
+      <c r="N143" s="101"/>
+      <c r="O143" s="101"/>
       <c r="P143"/>
       <c r="Q143"/>
     </row>
     <row r="144" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B144" s="191"/>
-      <c r="C144" s="192"/>
-      <c r="D144" s="192"/>
-      <c r="E144" s="192"/>
-      <c r="F144" s="192"/>
-      <c r="G144" s="192"/>
-      <c r="H144" s="192"/>
-      <c r="I144" s="192"/>
-      <c r="J144" s="192"/>
-      <c r="K144" s="192"/>
-      <c r="L144" s="192"/>
-      <c r="M144" s="192"/>
-      <c r="N144" s="192"/>
-      <c r="O144" s="192"/>
+      <c r="B144" s="100"/>
+      <c r="C144" s="101"/>
+      <c r="D144" s="101"/>
+      <c r="E144" s="101"/>
+      <c r="F144" s="101"/>
+      <c r="G144" s="101"/>
+      <c r="H144" s="101"/>
+      <c r="I144" s="101"/>
+      <c r="J144" s="101"/>
+      <c r="K144" s="101"/>
+      <c r="L144" s="101"/>
+      <c r="M144" s="101"/>
+      <c r="N144" s="101"/>
+      <c r="O144" s="101"/>
       <c r="P144"/>
       <c r="Q144"/>
     </row>
     <row r="145" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B145" s="191"/>
-      <c r="C145" s="192"/>
-      <c r="D145" s="192"/>
-      <c r="E145" s="192"/>
-      <c r="F145" s="192"/>
-      <c r="G145" s="192"/>
-      <c r="H145" s="192"/>
-      <c r="I145" s="192"/>
-      <c r="J145" s="192"/>
-      <c r="K145" s="192"/>
-      <c r="L145" s="192"/>
-      <c r="M145" s="192"/>
-      <c r="N145" s="192"/>
-      <c r="O145" s="192"/>
+      <c r="B145" s="100"/>
+      <c r="C145" s="101"/>
+      <c r="D145" s="101"/>
+      <c r="E145" s="101"/>
+      <c r="F145" s="101"/>
+      <c r="G145" s="101"/>
+      <c r="H145" s="101"/>
+      <c r="I145" s="101"/>
+      <c r="J145" s="101"/>
+      <c r="K145" s="101"/>
+      <c r="L145" s="101"/>
+      <c r="M145" s="101"/>
+      <c r="N145" s="101"/>
+      <c r="O145" s="101"/>
       <c r="P145"/>
       <c r="Q145"/>
     </row>
     <row r="146" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B146" s="191"/>
-      <c r="C146" s="192"/>
-      <c r="D146" s="192"/>
-      <c r="E146" s="192"/>
-      <c r="F146" s="192"/>
-      <c r="G146" s="192"/>
-      <c r="H146" s="192"/>
-      <c r="I146" s="192"/>
-      <c r="J146" s="192"/>
-      <c r="K146" s="192"/>
-      <c r="L146" s="192"/>
-      <c r="M146" s="192"/>
-      <c r="N146" s="192"/>
-      <c r="O146" s="192"/>
+      <c r="B146" s="100"/>
+      <c r="C146" s="101"/>
+      <c r="D146" s="101"/>
+      <c r="E146" s="101"/>
+      <c r="F146" s="101"/>
+      <c r="G146" s="101"/>
+      <c r="H146" s="101"/>
+      <c r="I146" s="101"/>
+      <c r="J146" s="101"/>
+      <c r="K146" s="101"/>
+      <c r="L146" s="101"/>
+      <c r="M146" s="101"/>
+      <c r="N146" s="101"/>
+      <c r="O146" s="101"/>
       <c r="P146"/>
       <c r="Q146"/>
     </row>
     <row r="147" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B147" s="191"/>
-      <c r="C147" s="192"/>
-      <c r="D147" s="192"/>
-      <c r="E147" s="192"/>
-      <c r="F147" s="192"/>
-      <c r="G147" s="192"/>
-      <c r="H147" s="192"/>
-      <c r="I147" s="192"/>
-      <c r="J147" s="192"/>
-      <c r="K147" s="192"/>
-      <c r="L147" s="192"/>
-      <c r="M147" s="192"/>
-      <c r="N147" s="192"/>
-      <c r="O147" s="192"/>
+      <c r="B147" s="100"/>
+      <c r="C147" s="101"/>
+      <c r="D147" s="101"/>
+      <c r="E147" s="101"/>
+      <c r="F147" s="101"/>
+      <c r="G147" s="101"/>
+      <c r="H147" s="101"/>
+      <c r="I147" s="101"/>
+      <c r="J147" s="101"/>
+      <c r="K147" s="101"/>
+      <c r="L147" s="101"/>
+      <c r="M147" s="101"/>
+      <c r="N147" s="101"/>
+      <c r="O147" s="101"/>
       <c r="P147"/>
       <c r="Q147"/>
     </row>
     <row r="148" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B148" s="191"/>
-      <c r="C148" s="192"/>
-      <c r="D148" s="192"/>
-      <c r="E148" s="192"/>
-      <c r="F148" s="192"/>
-      <c r="G148" s="192"/>
-      <c r="H148" s="192"/>
-      <c r="I148" s="192"/>
-      <c r="J148" s="192"/>
-      <c r="K148" s="192"/>
-      <c r="L148" s="192"/>
-      <c r="M148" s="192"/>
-      <c r="N148" s="192"/>
-      <c r="O148" s="192"/>
+      <c r="B148" s="100"/>
+      <c r="C148" s="101"/>
+      <c r="D148" s="101"/>
+      <c r="E148" s="101"/>
+      <c r="F148" s="101"/>
+      <c r="G148" s="101"/>
+      <c r="H148" s="101"/>
+      <c r="I148" s="101"/>
+      <c r="J148" s="101"/>
+      <c r="K148" s="101"/>
+      <c r="L148" s="101"/>
+      <c r="M148" s="101"/>
+      <c r="N148" s="101"/>
+      <c r="O148" s="101"/>
       <c r="P148"/>
       <c r="Q148"/>
     </row>
     <row r="149" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B149" s="191"/>
-      <c r="C149" s="192"/>
-      <c r="D149" s="192"/>
-      <c r="E149" s="192"/>
-      <c r="F149" s="192"/>
-      <c r="G149" s="192"/>
-      <c r="H149" s="192"/>
-      <c r="I149" s="192"/>
-      <c r="J149" s="192"/>
-      <c r="K149" s="192"/>
-      <c r="L149" s="192"/>
-      <c r="M149" s="192"/>
-      <c r="N149" s="192"/>
-      <c r="O149" s="192"/>
+      <c r="B149" s="100"/>
+      <c r="C149" s="101"/>
+      <c r="D149" s="101"/>
+      <c r="E149" s="101"/>
+      <c r="F149" s="101"/>
+      <c r="G149" s="101"/>
+      <c r="H149" s="101"/>
+      <c r="I149" s="101"/>
+      <c r="J149" s="101"/>
+      <c r="K149" s="101"/>
+      <c r="L149" s="101"/>
+      <c r="M149" s="101"/>
+      <c r="N149" s="101"/>
+      <c r="O149" s="101"/>
       <c r="P149"/>
       <c r="Q149"/>
     </row>
     <row r="150" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B150" s="191"/>
-      <c r="C150" s="192"/>
-      <c r="D150" s="192"/>
-      <c r="E150" s="192"/>
-      <c r="F150" s="192"/>
-      <c r="G150" s="192"/>
-      <c r="H150" s="192"/>
-      <c r="I150" s="192"/>
-      <c r="J150" s="192"/>
-      <c r="K150" s="192"/>
-      <c r="L150" s="192"/>
-      <c r="M150" s="192"/>
-      <c r="N150" s="192"/>
-      <c r="O150" s="192"/>
+      <c r="B150" s="100"/>
+      <c r="C150" s="101"/>
+      <c r="D150" s="101"/>
+      <c r="E150" s="101"/>
+      <c r="F150" s="101"/>
+      <c r="G150" s="101"/>
+      <c r="H150" s="101"/>
+      <c r="I150" s="101"/>
+      <c r="J150" s="101"/>
+      <c r="K150" s="101"/>
+      <c r="L150" s="101"/>
+      <c r="M150" s="101"/>
+      <c r="N150" s="101"/>
+      <c r="O150" s="101"/>
       <c r="P150"/>
       <c r="Q150"/>
     </row>
     <row r="151" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B151" s="191"/>
-      <c r="C151" s="192"/>
-      <c r="D151" s="192"/>
-      <c r="E151" s="192"/>
-      <c r="F151" s="192"/>
-      <c r="G151" s="192"/>
-      <c r="H151" s="192"/>
-      <c r="I151" s="192"/>
-      <c r="J151" s="192"/>
-      <c r="K151" s="192"/>
-      <c r="L151" s="192"/>
-      <c r="M151" s="192"/>
-      <c r="N151" s="192"/>
-      <c r="O151" s="192"/>
+      <c r="B151" s="100"/>
+      <c r="C151" s="101"/>
+      <c r="D151" s="101"/>
+      <c r="E151" s="101"/>
+      <c r="F151" s="101"/>
+      <c r="G151" s="101"/>
+      <c r="H151" s="101"/>
+      <c r="I151" s="101"/>
+      <c r="J151" s="101"/>
+      <c r="K151" s="101"/>
+      <c r="L151" s="101"/>
+      <c r="M151" s="101"/>
+      <c r="N151" s="101"/>
+      <c r="O151" s="101"/>
       <c r="P151"/>
       <c r="Q151"/>
     </row>
     <row r="152" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B152" s="190" t="s">
+      <c r="B152" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="C152" s="190"/>
-      <c r="D152" s="190"/>
-      <c r="E152" s="190"/>
-      <c r="F152" s="190"/>
-      <c r="G152" s="190"/>
+      <c r="C152" s="140"/>
+      <c r="D152" s="140"/>
+      <c r="E152" s="140"/>
+      <c r="F152" s="140"/>
+      <c r="G152" s="140"/>
       <c r="H152"/>
       <c r="I152"/>
       <c r="J152"/>
@@ -7898,22 +7960,22 @@
       <c r="Q152"/>
     </row>
     <row r="153" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B153" s="190"/>
-      <c r="C153" s="190"/>
-      <c r="D153" s="190"/>
-      <c r="E153" s="190"/>
-      <c r="F153" s="190"/>
-      <c r="G153" s="190"/>
+      <c r="B153" s="140"/>
+      <c r="C153" s="140"/>
+      <c r="D153" s="140"/>
+      <c r="E153" s="140"/>
+      <c r="F153" s="140"/>
+      <c r="G153" s="140"/>
       <c r="H153"/>
       <c r="I153"/>
       <c r="J153"/>
       <c r="K153" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L153" s="201"/>
-      <c r="M153" s="201"/>
-      <c r="N153" s="201"/>
-      <c r="O153" s="201"/>
+      <c r="L153" s="151"/>
+      <c r="M153" s="151"/>
+      <c r="N153" s="151"/>
+      <c r="O153" s="151"/>
       <c r="P153"/>
       <c r="Q153"/>
     </row>
@@ -7929,6 +7991,113 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="131">
+    <mergeCell ref="E40:J41"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:G23"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="K24:P25"/>
+    <mergeCell ref="E20:G21"/>
+    <mergeCell ref="B20:D21"/>
+    <mergeCell ref="H20:J21"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:J29"/>
+    <mergeCell ref="K28:P29"/>
+    <mergeCell ref="B34:D35"/>
+    <mergeCell ref="K26:P27"/>
+    <mergeCell ref="K18:P19"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="B18:D19"/>
+    <mergeCell ref="E18:G19"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="Q33:U34"/>
+    <mergeCell ref="Q23:U24"/>
+    <mergeCell ref="E34:J35"/>
+    <mergeCell ref="R25:U26"/>
+    <mergeCell ref="Q29:U30"/>
+    <mergeCell ref="K68:P68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:J69"/>
+    <mergeCell ref="E30:J31"/>
+    <mergeCell ref="B46:D47"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="E36:J37"/>
+    <mergeCell ref="E32:J33"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="J56:P56"/>
+    <mergeCell ref="J59:P59"/>
+    <mergeCell ref="J57:P57"/>
+    <mergeCell ref="B50:I59"/>
+    <mergeCell ref="J58:P58"/>
+    <mergeCell ref="K36:O37"/>
+    <mergeCell ref="J51:P51"/>
+    <mergeCell ref="J52:P52"/>
+    <mergeCell ref="J54:P54"/>
+    <mergeCell ref="J53:P53"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="H18:J19"/>
+    <mergeCell ref="K20:P21"/>
+    <mergeCell ref="B152:G153"/>
+    <mergeCell ref="B79:O101"/>
+    <mergeCell ref="B103:J103"/>
+    <mergeCell ref="E38:J39"/>
+    <mergeCell ref="B40:D41"/>
+    <mergeCell ref="E46:G47"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:J68"/>
+    <mergeCell ref="B104:O126"/>
+    <mergeCell ref="L153:O153"/>
+    <mergeCell ref="J49:P49"/>
+    <mergeCell ref="J50:P50"/>
+    <mergeCell ref="B44:D45"/>
+    <mergeCell ref="E44:J45"/>
+    <mergeCell ref="B78:K78"/>
+    <mergeCell ref="J55:P55"/>
+    <mergeCell ref="B128:J128"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="B74:L77"/>
+    <mergeCell ref="B38:D39"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B42:D43"/>
+    <mergeCell ref="E42:J43"/>
     <mergeCell ref="B129:O151"/>
     <mergeCell ref="M74:P77"/>
     <mergeCell ref="B70:C70"/>
@@ -7953,113 +8122,6 @@
     <mergeCell ref="K42:O43"/>
     <mergeCell ref="K44:O45"/>
     <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B152:G153"/>
-    <mergeCell ref="B79:O101"/>
-    <mergeCell ref="B103:J103"/>
-    <mergeCell ref="E38:J39"/>
-    <mergeCell ref="B40:D41"/>
-    <mergeCell ref="E46:G47"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:J68"/>
-    <mergeCell ref="B104:O126"/>
-    <mergeCell ref="L153:O153"/>
-    <mergeCell ref="J49:P49"/>
-    <mergeCell ref="J50:P50"/>
-    <mergeCell ref="B44:D45"/>
-    <mergeCell ref="E44:J45"/>
-    <mergeCell ref="B78:K78"/>
-    <mergeCell ref="J55:P55"/>
-    <mergeCell ref="B128:J128"/>
-    <mergeCell ref="E64:I64"/>
-    <mergeCell ref="B74:L77"/>
-    <mergeCell ref="B38:D39"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B42:D43"/>
-    <mergeCell ref="E42:J43"/>
-    <mergeCell ref="J51:P51"/>
-    <mergeCell ref="J52:P52"/>
-    <mergeCell ref="J54:P54"/>
-    <mergeCell ref="J53:P53"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="H18:J19"/>
-    <mergeCell ref="K20:P21"/>
-    <mergeCell ref="Q33:U34"/>
-    <mergeCell ref="Q23:U24"/>
-    <mergeCell ref="E34:J35"/>
-    <mergeCell ref="R25:U26"/>
-    <mergeCell ref="Q29:U30"/>
-    <mergeCell ref="K68:P68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:J69"/>
-    <mergeCell ref="E30:J31"/>
-    <mergeCell ref="B46:D47"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="E36:J37"/>
-    <mergeCell ref="E32:J33"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="E66:I66"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="J56:P56"/>
-    <mergeCell ref="J59:P59"/>
-    <mergeCell ref="J57:P57"/>
-    <mergeCell ref="B50:I59"/>
-    <mergeCell ref="J58:P58"/>
-    <mergeCell ref="K36:O37"/>
-    <mergeCell ref="K18:P19"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="B18:D19"/>
-    <mergeCell ref="E18:G19"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="A16:P16"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="E40:J41"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:G23"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="K24:P25"/>
-    <mergeCell ref="E20:G21"/>
-    <mergeCell ref="B20:D21"/>
-    <mergeCell ref="H20:J21"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:J29"/>
-    <mergeCell ref="K28:P29"/>
-    <mergeCell ref="B34:D35"/>
-    <mergeCell ref="K26:P27"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K30:P31" xr:uid="{99C4485F-6818-4D5E-BAE9-AF169F6FC5D2}">
@@ -8410,7 +8472,7 @@
       <c r="A7" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="192"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="222"/>
       <c r="D7" s="222"/>
       <c r="E7" s="222"/>
